--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{301E70DA-AEA5-4F0D-A216-DFA556040A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62D0FF09-302C-48D1-B378-06E128FA91E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="600">
   <si>
     <t>CONTA</t>
   </si>
@@ -31,6 +31,18 @@
     <t>SALDO</t>
   </si>
   <si>
+    <t>004915243</t>
+  </si>
+  <si>
+    <t>POLO</t>
+  </si>
+  <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
     <t>005142661</t>
   </si>
   <si>
@@ -49,28 +61,769 @@
     <t>NASSIM</t>
   </si>
   <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>004641487</t>
+  </si>
+  <si>
+    <t>LAILA</t>
+  </si>
+  <si>
+    <t>004643737</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004460491</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
     <t>004893911</t>
   </si>
   <si>
     <t>FAUSTO</t>
   </si>
   <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>005135105</t>
-  </si>
-  <si>
-    <t>BRENNER</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004458604</t>
+  </si>
+  <si>
+    <t>FABIOLA</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>004870019</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004550605</t>
+  </si>
+  <si>
+    <t>REJANE</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>002592340</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
+    <t>004208869</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>002458288</t>
+  </si>
+  <si>
+    <t>BENEDITO</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004207374</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>004805273</t>
   </si>
   <si>
     <t>004352384</t>
@@ -79,1522 +832,760 @@
     <t>BRASFORT</t>
   </si>
   <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004974089</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>004641487</t>
-  </si>
-  <si>
-    <t>LAILA</t>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>004212409</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>004444605</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>004425965</t>
+  </si>
+  <si>
+    <t>CAROLLINA</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>004207278</t>
+  </si>
+  <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004334158</t>
+  </si>
+  <si>
+    <t>LEONE</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004477812</t>
   </si>
   <si>
     <t>005046790</t>
   </si>
   <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004643737</t>
-  </si>
-  <si>
-    <t>LARA</t>
+    <t>004450405</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004214604</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>004243043</t>
+  </si>
+  <si>
+    <t>SUELI</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>004369172</t>
+  </si>
+  <si>
+    <t>LUIZA</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>004340984</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>003497496</t>
+  </si>
+  <si>
+    <t>ELISANDRA</t>
+  </si>
+  <si>
+    <t>004643153</t>
+  </si>
+  <si>
+    <t>CARLA</t>
+  </si>
+  <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>004461526</t>
+  </si>
+  <si>
+    <t>ASSISTIGAS</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004691225</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004265173</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>004517506</t>
+  </si>
+  <si>
+    <t>004552021</t>
+  </si>
+  <si>
+    <t>005009947</t>
+  </si>
+  <si>
+    <t>VERANICE</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>004264780</t>
   </si>
   <si>
     <t>005133039</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>005073033</t>
-  </si>
-  <si>
-    <t>NILBORN</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004212933</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004460491</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>005141215</t>
-  </si>
-  <si>
-    <t>KARINA</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004458604</t>
-  </si>
-  <si>
-    <t>FABIOLA</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004482439</t>
-  </si>
-  <si>
-    <t>004870019</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004550605</t>
-  </si>
-  <si>
-    <t>REJANE</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>002592340</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004207374</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>004212409</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>004444605</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>000834301</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>004425965</t>
-  </si>
-  <si>
-    <t>CAROLLINA</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>004207278</t>
-  </si>
-  <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>004334158</t>
-  </si>
-  <si>
-    <t>LEONE</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>004450405</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004214604</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004243043</t>
-  </si>
-  <si>
-    <t>SUELI</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004369172</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>004340984</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>004556150</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>003497496</t>
-  </si>
-  <si>
-    <t>ELISANDRA</t>
-  </si>
-  <si>
-    <t>004643153</t>
-  </si>
-  <si>
-    <t>CARLA</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>004461526</t>
-  </si>
-  <si>
-    <t>ASSISTIGAS</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004691225</t>
-  </si>
-  <si>
-    <t>ANNA</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004265173</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>004517506</t>
-  </si>
-  <si>
-    <t>004552021</t>
-  </si>
-  <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004264780</t>
   </si>
   <si>
     <t>004214592</t>
@@ -2194,10 +2185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C371"/>
+  <dimension ref="A1:C369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2221,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>157500.65</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2232,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>155003.98000000001</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2243,7 +2234,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>146963.18</v>
+        <v>157500.65</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2254,7 +2245,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>102946.84</v>
+        <v>155003.98000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2265,7 +2256,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>97690.28</v>
+        <v>146963.18</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2276,7 +2267,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>77600</v>
+        <v>97690.28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2298,7 +2289,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>59240.55</v>
+        <v>51321.31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2309,7 +2300,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>51321.31</v>
+        <v>43278.49</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2320,7 +2311,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>43278.49</v>
+        <v>35486.199999999997</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2331,7 +2322,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>35486.199999999997</v>
+        <v>30667.24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2342,7 +2333,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>31120.02</v>
+        <v>29675.5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2353,7 +2344,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>30667.24</v>
+        <v>29592.84</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2364,7 +2355,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>29675.5</v>
+        <v>23120.83</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2375,7 +2366,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>29592.84</v>
+        <v>22063.42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2386,7 +2377,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>23120.83</v>
+        <v>17492.96</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2397,7 +2388,7 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>22063.42</v>
+        <v>13566.65</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2408,7 +2399,7 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>20090.830000000002</v>
+        <v>11241.46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2419,7 +2410,7 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>19549.71</v>
+        <v>11053.46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2427,98 +2418,98 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C21">
-        <v>17492.96</v>
+        <v>10685.03</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>17026.099999999999</v>
+        <v>8038.97</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>13566.65</v>
+        <v>7369.3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C24">
-        <v>13490</v>
+        <v>6395.86</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>11241.46</v>
+        <v>5340.96</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>11053.46</v>
+        <v>4719.51</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>10685.03</v>
+        <v>4499.03</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>8038.97</v>
+        <v>3744.76</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
       <c r="C29">
-        <v>7369.3</v>
+        <v>2699.43</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2529,7 +2520,7 @@
         <v>57</v>
       </c>
       <c r="C30">
-        <v>6395.86</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2540,7 +2531,7 @@
         <v>59</v>
       </c>
       <c r="C31">
-        <v>5340.96</v>
+        <v>2420.16</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2551,7 +2542,7 @@
         <v>61</v>
       </c>
       <c r="C32">
-        <v>4719.51</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2562,7 +2553,7 @@
         <v>63</v>
       </c>
       <c r="C33">
-        <v>4499.03</v>
+        <v>1083.18</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2570,32 +2561,32 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C34">
-        <v>3744.76</v>
+        <v>1028.06</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35">
-        <v>3248.22</v>
+        <v>988.32</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>2699.43</v>
+        <v>950.52</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2606,7 +2597,7 @@
         <v>70</v>
       </c>
       <c r="C37">
-        <v>2691.13</v>
+        <v>946.84</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2617,7 +2608,7 @@
         <v>72</v>
       </c>
       <c r="C38">
-        <v>2420.16</v>
+        <v>946.25</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2628,7 +2619,7 @@
         <v>74</v>
       </c>
       <c r="C39">
-        <v>1500</v>
+        <v>946.13</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2639,7 +2630,7 @@
         <v>76</v>
       </c>
       <c r="C40">
-        <v>1200</v>
+        <v>943.73</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2650,7 +2641,7 @@
         <v>78</v>
       </c>
       <c r="C41">
-        <v>1083.18</v>
+        <v>943.24</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2658,10 +2649,10 @@
         <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C42">
-        <v>1064.71</v>
+        <v>940.18</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2672,7 +2663,7 @@
         <v>81</v>
       </c>
       <c r="C43">
-        <v>1028.06</v>
+        <v>937.33</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2680,76 +2671,76 @@
         <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="C44">
-        <v>988.32</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C45">
-        <v>950.52</v>
+        <v>932.56</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s">
-        <v>86</v>
-      </c>
       <c r="C46">
-        <v>946.25</v>
+        <v>906.28</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
         <v>87</v>
       </c>
-      <c r="B47" t="s">
-        <v>88</v>
-      </c>
       <c r="C47">
-        <v>946.13</v>
+        <v>905.16</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
         <v>89</v>
       </c>
-      <c r="B48" t="s">
-        <v>90</v>
-      </c>
       <c r="C48">
-        <v>943.73</v>
+        <v>842.42</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
         <v>91</v>
       </c>
-      <c r="B49" t="s">
-        <v>92</v>
-      </c>
       <c r="C49">
-        <v>943.24</v>
+        <v>841.08</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
         <v>93</v>
       </c>
-      <c r="B50" t="s">
-        <v>90</v>
-      </c>
       <c r="C50">
-        <v>940.18</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2757,32 +2748,32 @@
         <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C51">
-        <v>937.33</v>
+        <v>836.83</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C52">
-        <v>933.95</v>
+        <v>831.69</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
         <v>97</v>
       </c>
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
       <c r="C53">
-        <v>932.56</v>
+        <v>812.69</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2790,43 +2781,43 @@
         <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C54">
-        <v>906.28</v>
+        <v>804.59</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C55">
-        <v>905.16</v>
+        <v>799.43</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C56">
-        <v>842.42</v>
+        <v>791.35</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C57">
-        <v>841.08</v>
+        <v>791.07</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2837,7 +2828,7 @@
         <v>106</v>
       </c>
       <c r="C58">
-        <v>839.9</v>
+        <v>748.55</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2845,10 +2836,10 @@
         <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>836.83</v>
+        <v>748.39</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2856,21 +2847,21 @@
         <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="C60">
-        <v>831.69</v>
+        <v>744.09</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C61">
-        <v>812.69</v>
+        <v>737.21</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2881,7 +2872,7 @@
         <v>112</v>
       </c>
       <c r="C62">
-        <v>804.59</v>
+        <v>734.88</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2892,7 +2883,7 @@
         <v>114</v>
       </c>
       <c r="C63">
-        <v>799.43</v>
+        <v>733.35</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2900,21 +2891,21 @@
         <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="C64">
-        <v>791.35</v>
+        <v>732.69</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
         <v>117</v>
       </c>
-      <c r="B65" t="s">
-        <v>92</v>
-      </c>
       <c r="C65">
-        <v>791.07</v>
+        <v>721.7</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2925,7 +2916,7 @@
         <v>119</v>
       </c>
       <c r="C66">
-        <v>748.55</v>
+        <v>715.56</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2933,340 +2924,340 @@
         <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="C67">
-        <v>748.39</v>
+        <v>705.17</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C68">
-        <v>744.09</v>
+        <v>704.83</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="C69">
-        <v>737.21</v>
+        <v>701.13</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C70">
-        <v>734.88</v>
+        <v>701.03</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C71">
-        <v>733.35</v>
+        <v>679.68</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C72">
-        <v>732.69</v>
+        <v>677.05</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C73">
-        <v>721.7</v>
+        <v>667.36</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C74">
-        <v>715.56</v>
+        <v>666.01</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C75">
-        <v>705.17</v>
+        <v>666</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C76">
-        <v>704.83</v>
+        <v>666</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C77">
-        <v>701.13</v>
+        <v>666</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C78">
-        <v>701.03</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="C79">
-        <v>679.68</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="C80">
-        <v>677.05</v>
+        <v>666</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C81">
-        <v>667.36</v>
+        <v>666</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C82">
-        <v>666.01</v>
+        <v>663.35</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C83">
-        <v>666</v>
+        <v>623.46</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C84">
-        <v>666</v>
+        <v>619.59</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B85" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C85">
-        <v>666</v>
+        <v>618.47</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="C86">
-        <v>666</v>
+        <v>614.59</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>158</v>
       </c>
       <c r="C87">
-        <v>666</v>
+        <v>607.04999999999995</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B88" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C88">
-        <v>666</v>
+        <v>598.08000000000004</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B89" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C89">
-        <v>666</v>
+        <v>587.61</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="C90">
-        <v>663.35</v>
+        <v>578.08000000000004</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="C91">
-        <v>623.46</v>
+        <v>574.65</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C92">
-        <v>619.59</v>
+        <v>568.94000000000005</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B93" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C93">
-        <v>618.47</v>
+        <v>558.77</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B94" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C94">
-        <v>614.59</v>
+        <v>557.85</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C95">
-        <v>607.04999999999995</v>
+        <v>553.35</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>172</v>
+        <v>97</v>
       </c>
       <c r="C96">
-        <v>598.08000000000004</v>
+        <v>549.72</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="C97">
-        <v>587.61</v>
+        <v>549.71</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3274,54 +3265,54 @@
         <v>175</v>
       </c>
       <c r="B98" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="C98">
-        <v>578.08000000000004</v>
+        <v>534.91</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="C99">
-        <v>574.65</v>
+        <v>531.14</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B100" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C100">
-        <v>568.94000000000005</v>
+        <v>525.92999999999995</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>558.77</v>
+        <v>521.65</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B102" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="C102">
-        <v>557.85</v>
+        <v>521.08000000000004</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3332,7 +3323,7 @@
         <v>184</v>
       </c>
       <c r="C103">
-        <v>553.35</v>
+        <v>507.85</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3340,21 +3331,21 @@
         <v>185</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="C104">
-        <v>549.72</v>
+        <v>500.58</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="C105">
-        <v>534.91</v>
+        <v>491.62</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3362,32 +3353,32 @@
         <v>188</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>36</v>
       </c>
       <c r="C106">
-        <v>531.14</v>
+        <v>490.15</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>189</v>
+      </c>
+      <c r="B107" t="s">
         <v>190</v>
       </c>
-      <c r="B107" t="s">
-        <v>191</v>
-      </c>
       <c r="C107">
-        <v>525.92999999999995</v>
+        <v>489.49</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>191</v>
+      </c>
+      <c r="B108" t="s">
         <v>192</v>
       </c>
-      <c r="B108" t="s">
-        <v>6</v>
-      </c>
       <c r="C108">
-        <v>521.65</v>
+        <v>465.01</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3395,450 +3386,450 @@
         <v>193</v>
       </c>
       <c r="B109" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="C109">
-        <v>521.08000000000004</v>
+        <v>459.2</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C110">
-        <v>507.85</v>
+        <v>450.33</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C111">
-        <v>500.58</v>
+        <v>449.3</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="C112">
-        <v>491.62</v>
+        <v>448.42</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B113" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="C113">
-        <v>490.15</v>
+        <v>444.28</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B114" t="s">
-        <v>201</v>
+        <v>14</v>
       </c>
       <c r="C114">
-        <v>489.49</v>
+        <v>438.09</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B115" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C115">
-        <v>465.01</v>
+        <v>420.94</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B116" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C116">
-        <v>459.2</v>
+        <v>414.23</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B117" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C117">
-        <v>450.33</v>
+        <v>412.83</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B118" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C118">
-        <v>449.3</v>
+        <v>410.43</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B119" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="C119">
-        <v>448.42</v>
+        <v>407.48</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="C120">
-        <v>444.28</v>
+        <v>405.36</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C121">
-        <v>438.09</v>
+        <v>400.75</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B122" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C122">
-        <v>420.94</v>
+        <v>393.52</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B123" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C123">
-        <v>414.23</v>
+        <v>385.94</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B124" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C124">
-        <v>412.83</v>
+        <v>374.89</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B125" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C125">
-        <v>410.43</v>
+        <v>369.59</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C126">
-        <v>407.48</v>
+        <v>365.44</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B127" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C127">
-        <v>405.36</v>
+        <v>346.83</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="C128">
-        <v>400.75</v>
+        <v>344.89</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B129" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C129">
-        <v>393.52</v>
+        <v>335.31</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B130" t="s">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="C130">
-        <v>385.94</v>
+        <v>332.65</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C131">
-        <v>374.89</v>
+        <v>328.23</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C132">
-        <v>369.59</v>
+        <v>323.79000000000002</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B133" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C133">
-        <v>365.44</v>
+        <v>321.54000000000002</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B134" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="C134">
-        <v>346.83</v>
+        <v>313.51</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B135" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C135">
-        <v>344.89</v>
+        <v>311.82</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B136" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C136">
-        <v>335.31</v>
+        <v>305.27</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B137" t="s">
-        <v>61</v>
+        <v>243</v>
       </c>
       <c r="C137">
-        <v>332.65</v>
+        <v>302.51</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B138" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C138">
-        <v>328.23</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B139" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C139">
-        <v>323.79000000000002</v>
+        <v>290.79000000000002</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B140" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="C140">
-        <v>321.54000000000002</v>
+        <v>287.74</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B141" t="s">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="C141">
-        <v>313.51</v>
+        <v>281.69</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B142" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C142">
-        <v>311.82</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B143" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="C143">
-        <v>305.27</v>
+        <v>276.66000000000003</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B144" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C144">
-        <v>302.51</v>
+        <v>276.52</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B145" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C145">
-        <v>293.3</v>
+        <v>264.8</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B146" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="C146">
-        <v>290.79000000000002</v>
+        <v>262.73</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B147" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="C147">
-        <v>287.74</v>
+        <v>260.51</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B148" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C148">
-        <v>281.69</v>
+        <v>260.14999999999998</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="C149">
-        <v>277.3</v>
+        <v>253.25</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3846,10 +3837,10 @@
         <v>263</v>
       </c>
       <c r="B150" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="C150">
-        <v>276.66000000000003</v>
+        <v>248.66</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3860,7 +3851,7 @@
         <v>265</v>
       </c>
       <c r="C151">
-        <v>276.52</v>
+        <v>248.22</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3868,32 +3859,32 @@
         <v>266</v>
       </c>
       <c r="B152" t="s">
-        <v>267</v>
+        <v>14</v>
       </c>
       <c r="C152">
-        <v>264.8</v>
+        <v>248.07</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B153" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="C153">
-        <v>262.73</v>
+        <v>242.48</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
+        <v>268</v>
+      </c>
+      <c r="B154" t="s">
         <v>269</v>
       </c>
-      <c r="B154" t="s">
-        <v>151</v>
-      </c>
       <c r="C154">
-        <v>260.51</v>
+        <v>240.55</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3901,43 +3892,43 @@
         <v>270</v>
       </c>
       <c r="B155" t="s">
-        <v>271</v>
+        <v>168</v>
       </c>
       <c r="C155">
-        <v>260.14999999999998</v>
+        <v>237.08</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B156" t="s">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="C156">
-        <v>253.25</v>
+        <v>236.99</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B157" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="C157">
-        <v>248.66</v>
+        <v>235.61</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
+        <v>273</v>
+      </c>
+      <c r="B158" t="s">
         <v>274</v>
       </c>
-      <c r="B158" t="s">
-        <v>12</v>
-      </c>
       <c r="C158">
-        <v>248.07</v>
+        <v>233.93</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3945,285 +3936,285 @@
         <v>275</v>
       </c>
       <c r="B159" t="s">
-        <v>140</v>
+        <v>276</v>
       </c>
       <c r="C159">
-        <v>242.48</v>
+        <v>233.88</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B160" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="C160">
-        <v>237.08</v>
+        <v>232.63</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B161" t="s">
-        <v>61</v>
+        <v>279</v>
       </c>
       <c r="C161">
-        <v>236.99</v>
+        <v>227.02</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B162" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="C162">
-        <v>235.61</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B163" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C163">
-        <v>233.93</v>
+        <v>212.6</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B164" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C164">
-        <v>233.88</v>
+        <v>206.79</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B165" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="C165">
-        <v>232.63</v>
+        <v>199.77</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B166" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C166">
-        <v>227.02</v>
+        <v>196.41</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B167" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C167">
-        <v>217.03</v>
+        <v>192.19</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B168" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C168">
-        <v>212.6</v>
+        <v>190.71</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B169" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="C169">
-        <v>206.79</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B170" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C170">
-        <v>199.77</v>
+        <v>188.11</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B171" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C171">
-        <v>196.41</v>
+        <v>188.07</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>16</v>
       </c>
       <c r="C172">
-        <v>192.19</v>
+        <v>180.54</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B173" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C173">
-        <v>190.71</v>
+        <v>178.03</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B174" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="C174">
-        <v>188.83</v>
+        <v>173.83</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B175" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C175">
-        <v>188.11</v>
+        <v>172.7</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B176" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C176">
-        <v>188.07</v>
+        <v>172.32</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="C177">
-        <v>180.54</v>
+        <v>171.49</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B178" t="s">
-        <v>305</v>
+        <v>55</v>
       </c>
       <c r="C178">
-        <v>178.03</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B179" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C179">
-        <v>173.83</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B180" t="s">
-        <v>309</v>
+        <v>114</v>
       </c>
       <c r="C180">
-        <v>172.7</v>
+        <v>163.77000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B181" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C181">
-        <v>172.32</v>
+        <v>163.62</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B182" t="s">
-        <v>292</v>
+        <v>194</v>
       </c>
       <c r="C182">
-        <v>171.49</v>
+        <v>160.33000000000001</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B183" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="C183">
-        <v>170.37</v>
+        <v>156.99</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B184" t="s">
-        <v>315</v>
+        <v>65</v>
       </c>
       <c r="C184">
-        <v>170.27</v>
+        <v>155.81</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4231,21 +4222,21 @@
         <v>316</v>
       </c>
       <c r="B185" t="s">
-        <v>127</v>
+        <v>317</v>
       </c>
       <c r="C185">
-        <v>163.77000000000001</v>
+        <v>155.47</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B186" t="s">
-        <v>318</v>
+        <v>243</v>
       </c>
       <c r="C186">
-        <v>163.62</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4253,43 +4244,43 @@
         <v>319</v>
       </c>
       <c r="B187" t="s">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="C187">
-        <v>160.33000000000001</v>
+        <v>151.79</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B188" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C188">
-        <v>156.99</v>
+        <v>149.66</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B189" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C189">
-        <v>155.81</v>
+        <v>148.72999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B190" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="C190">
-        <v>155.47</v>
+        <v>147.84</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4297,131 +4288,131 @@
         <v>324</v>
       </c>
       <c r="B191" t="s">
-        <v>253</v>
+        <v>325</v>
       </c>
       <c r="C191">
-        <v>154.04</v>
+        <v>142.44</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B192" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C192">
-        <v>151.79</v>
+        <v>142.22</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B193" t="s">
-        <v>44</v>
+        <v>257</v>
       </c>
       <c r="C193">
-        <v>149.66</v>
+        <v>136.12</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B194" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="C194">
-        <v>148.72999999999999</v>
+        <v>135.84</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B195" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="C195">
-        <v>147.84</v>
+        <v>135.63</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B196" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C196">
-        <v>142.44</v>
+        <v>135.37</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B197" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C197">
-        <v>142.22</v>
+        <v>135.19</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B198" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="C198">
-        <v>136.12</v>
+        <v>134.62</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B199" t="s">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="C199">
-        <v>135.84</v>
+        <v>132.79</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B200" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="C200">
-        <v>135.63</v>
+        <v>130.9</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B201" t="s">
-        <v>339</v>
+        <v>30</v>
       </c>
       <c r="C201">
-        <v>135.37</v>
+        <v>129.97</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B202" t="s">
-        <v>341</v>
+        <v>106</v>
       </c>
       <c r="C202">
-        <v>135.19</v>
+        <v>129.93</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4429,21 +4420,21 @@
         <v>342</v>
       </c>
       <c r="B203" t="s">
-        <v>203</v>
+        <v>343</v>
       </c>
       <c r="C203">
-        <v>134.62</v>
+        <v>128.85</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B204" t="s">
-        <v>344</v>
+        <v>112</v>
       </c>
       <c r="C204">
-        <v>132.79</v>
+        <v>128.63</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4451,10 +4442,10 @@
         <v>345</v>
       </c>
       <c r="B205" t="s">
-        <v>292</v>
+        <v>14</v>
       </c>
       <c r="C205">
-        <v>130.9</v>
+        <v>128.63</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4462,175 +4453,175 @@
         <v>346</v>
       </c>
       <c r="B206" t="s">
-        <v>34</v>
+        <v>347</v>
       </c>
       <c r="C206">
-        <v>129.97</v>
+        <v>128.35</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B207" t="s">
-        <v>119</v>
+        <v>349</v>
       </c>
       <c r="C207">
-        <v>129.93</v>
+        <v>128.30000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B208" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C208">
-        <v>128.85</v>
+        <v>127.76</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B209" t="s">
-        <v>125</v>
+        <v>353</v>
       </c>
       <c r="C209">
-        <v>128.63</v>
+        <v>127.59</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="C210">
-        <v>128.63</v>
+        <v>126.19</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B211" t="s">
-        <v>353</v>
+        <v>16</v>
       </c>
       <c r="C211">
-        <v>128.35</v>
+        <v>124.52</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B212" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C212">
-        <v>128.30000000000001</v>
+        <v>123.03</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B213" t="s">
-        <v>357</v>
+        <v>206</v>
       </c>
       <c r="C213">
-        <v>127.76</v>
+        <v>122.89</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B214" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C214">
-        <v>127.59</v>
+        <v>122.79</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B215" t="s">
-        <v>92</v>
+        <v>362</v>
       </c>
       <c r="C215">
-        <v>126.19</v>
+        <v>121.28</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B216" t="s">
-        <v>16</v>
+        <v>364</v>
       </c>
       <c r="C216">
-        <v>124.52</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B217" t="s">
-        <v>363</v>
+        <v>194</v>
       </c>
       <c r="C217">
-        <v>123.03</v>
+        <v>120.88</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="C218">
-        <v>122.89</v>
+        <v>120.72</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B219" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C219">
-        <v>122.79</v>
+        <v>120.7</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B220" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C220">
-        <v>121.28</v>
+        <v>119.26</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B221" t="s">
-        <v>370</v>
+        <v>234</v>
       </c>
       <c r="C221">
-        <v>121.15</v>
+        <v>118.26</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4638,32 +4629,32 @@
         <v>371</v>
       </c>
       <c r="B222" t="s">
-        <v>205</v>
+        <v>372</v>
       </c>
       <c r="C222">
-        <v>120.88</v>
+        <v>113.99</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B223" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="C223">
-        <v>120.72</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B224" t="s">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="C224">
-        <v>120.7</v>
+        <v>109.01</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4671,131 +4662,131 @@
         <v>375</v>
       </c>
       <c r="B225" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="C225">
-        <v>119.26</v>
+        <v>106.84</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B226" t="s">
-        <v>245</v>
+        <v>378</v>
       </c>
       <c r="C226">
-        <v>118.26</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B227" t="s">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="C227">
-        <v>113.99</v>
+        <v>101.09</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B228" t="s">
-        <v>178</v>
+        <v>381</v>
       </c>
       <c r="C228">
-        <v>109.4</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B229" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="C229">
-        <v>109.01</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B230" t="s">
-        <v>382</v>
+        <v>22</v>
       </c>
       <c r="C230">
-        <v>106.84</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B231" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C231">
-        <v>104.9</v>
+        <v>95.38</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B232" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="C232">
-        <v>101.09</v>
+        <v>94.95</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B233" t="s">
-        <v>387</v>
+        <v>180</v>
       </c>
       <c r="C233">
-        <v>99.24</v>
+        <v>94.27</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B234" t="s">
         <v>106</v>
       </c>
       <c r="C234">
-        <v>98.28</v>
+        <v>92.07</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B235" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C235">
-        <v>97.08</v>
+        <v>90.83</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B236" t="s">
-        <v>391</v>
+        <v>34</v>
       </c>
       <c r="C236">
-        <v>95.38</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4806,7 +4797,7 @@
         <v>393</v>
       </c>
       <c r="C237">
-        <v>94.95</v>
+        <v>89.85</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4814,98 +4805,98 @@
         <v>394</v>
       </c>
       <c r="B238" t="s">
-        <v>191</v>
+        <v>395</v>
       </c>
       <c r="C238">
-        <v>94.27</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B239" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C239">
-        <v>92.07</v>
+        <v>88.25</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B240" t="s">
-        <v>42</v>
+        <v>398</v>
       </c>
       <c r="C240">
-        <v>90.2</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B241" t="s">
-        <v>398</v>
+        <v>206</v>
       </c>
       <c r="C241">
-        <v>89.85</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B242" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C242">
-        <v>88.8</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B243" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="C243">
-        <v>88.25</v>
+        <v>83.13</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B244" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C244">
-        <v>86.45</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B245" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C245">
-        <v>86.38</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B246" t="s">
-        <v>406</v>
+        <v>132</v>
       </c>
       <c r="C246">
-        <v>84.72</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4913,230 +4904,230 @@
         <v>407</v>
       </c>
       <c r="B247" t="s">
-        <v>159</v>
+        <v>408</v>
       </c>
       <c r="C247">
-        <v>83.13</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B248" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C248">
-        <v>83.06</v>
+        <v>79.36</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B249" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="C249">
-        <v>82.79</v>
+        <v>78.73</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B250" t="s">
-        <v>145</v>
+        <v>413</v>
       </c>
       <c r="C250">
-        <v>81.87</v>
+        <v>77.53</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B251" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C251">
-        <v>80.05</v>
+        <v>77.19</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B252" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C252">
-        <v>79.36</v>
+        <v>76.260000000000005</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B253" t="s">
-        <v>267</v>
+        <v>419</v>
       </c>
       <c r="C253">
-        <v>78.73</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B254" t="s">
-        <v>418</v>
+        <v>170</v>
       </c>
       <c r="C254">
-        <v>77.53</v>
+        <v>75.56</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B255" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C255">
-        <v>77.19</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B256" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C256">
-        <v>76.260000000000005</v>
+        <v>74.27</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B257" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C257">
-        <v>75.86</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B258" t="s">
-        <v>182</v>
+        <v>428</v>
       </c>
       <c r="C258">
-        <v>75.56</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B259" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C259">
-        <v>74.39</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B260" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C260">
-        <v>74.27</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B261" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C261">
-        <v>74.23</v>
+        <v>73.53</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B262" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C262">
-        <v>73.650000000000006</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B263" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C263">
-        <v>73.599999999999994</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B264" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C264">
-        <v>73.56</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B265" t="s">
-        <v>439</v>
+        <v>362</v>
       </c>
       <c r="C265">
-        <v>73.53</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B266" t="s">
-        <v>441</v>
+        <v>30</v>
       </c>
       <c r="C266">
-        <v>73.430000000000007</v>
+        <v>70.459999999999994</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B267" t="s">
-        <v>443</v>
+        <v>112</v>
       </c>
       <c r="C267">
-        <v>73.3</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5144,21 +5135,21 @@
         <v>444</v>
       </c>
       <c r="B268" t="s">
-        <v>445</v>
+        <v>232</v>
       </c>
       <c r="C268">
-        <v>72.42</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
+        <v>445</v>
+      </c>
+      <c r="B269" t="s">
         <v>446</v>
       </c>
-      <c r="B269" t="s">
-        <v>368</v>
-      </c>
       <c r="C269">
-        <v>71.31</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5166,87 +5157,87 @@
         <v>447</v>
       </c>
       <c r="B270" t="s">
-        <v>34</v>
+        <v>448</v>
       </c>
       <c r="C270">
-        <v>70.459999999999994</v>
+        <v>67.69</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B271" t="s">
-        <v>125</v>
+        <v>450</v>
       </c>
       <c r="C271">
-        <v>69.45</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B272" t="s">
-        <v>243</v>
+        <v>38</v>
       </c>
       <c r="C272">
-        <v>68.459999999999994</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B273" t="s">
-        <v>451</v>
+        <v>16</v>
       </c>
       <c r="C273">
-        <v>68.05</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B274" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C274">
-        <v>67.69</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B275" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C275">
-        <v>66.010000000000005</v>
+        <v>64.040000000000006</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B276" t="s">
         <v>50</v>
       </c>
       <c r="C276">
-        <v>65.06</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B277" t="s">
-        <v>458</v>
+        <v>362</v>
       </c>
       <c r="C277">
-        <v>64.400000000000006</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5257,7 +5248,7 @@
         <v>460</v>
       </c>
       <c r="C278">
-        <v>64.040000000000006</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5265,10 +5256,10 @@
         <v>461</v>
       </c>
       <c r="B279" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="C279">
-        <v>63.94</v>
+        <v>60.44</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5276,10 +5267,10 @@
         <v>462</v>
       </c>
       <c r="B280" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="C280">
-        <v>62.6</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5290,7 +5281,7 @@
         <v>464</v>
       </c>
       <c r="C281">
-        <v>61.74</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5298,10 +5289,10 @@
         <v>465</v>
       </c>
       <c r="B282" t="s">
-        <v>178</v>
+        <v>460</v>
       </c>
       <c r="C282">
-        <v>60.44</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5309,10 +5300,10 @@
         <v>466</v>
       </c>
       <c r="B283" t="s">
-        <v>391</v>
+        <v>317</v>
       </c>
       <c r="C283">
-        <v>59.87</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5323,7 +5314,7 @@
         <v>468</v>
       </c>
       <c r="C284">
-        <v>59.63</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5331,10 +5322,10 @@
         <v>469</v>
       </c>
       <c r="B285" t="s">
-        <v>464</v>
+        <v>125</v>
       </c>
       <c r="C285">
-        <v>59.2</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5342,21 +5333,21 @@
         <v>470</v>
       </c>
       <c r="B286" t="s">
-        <v>323</v>
+        <v>471</v>
       </c>
       <c r="C286">
-        <v>57.82</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B287" t="s">
-        <v>472</v>
+        <v>301</v>
       </c>
       <c r="C287">
-        <v>55.66</v>
+        <v>52.09</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5364,43 +5355,43 @@
         <v>473</v>
       </c>
       <c r="B288" t="s">
-        <v>138</v>
+        <v>474</v>
       </c>
       <c r="C288">
-        <v>55.24</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B289" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C289">
-        <v>54.71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B290" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C290">
-        <v>52.09</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B291" t="s">
-        <v>478</v>
+        <v>34</v>
       </c>
       <c r="C291">
-        <v>51.65</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5408,43 +5399,43 @@
         <v>479</v>
       </c>
       <c r="B292" t="s">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="C292">
-        <v>50</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B293" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="C293">
-        <v>49.28</v>
+        <v>46.28</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B294" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="C294">
-        <v>48.65</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
+        <v>482</v>
+      </c>
+      <c r="B295" t="s">
         <v>483</v>
       </c>
-      <c r="B295" t="s">
-        <v>6</v>
-      </c>
       <c r="C295">
-        <v>48.16</v>
+        <v>44.69</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5452,10 +5443,10 @@
         <v>484</v>
       </c>
       <c r="B296" t="s">
-        <v>344</v>
+        <v>186</v>
       </c>
       <c r="C296">
-        <v>46.28</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5463,10 +5454,10 @@
         <v>485</v>
       </c>
       <c r="B297" t="s">
-        <v>315</v>
+        <v>132</v>
       </c>
       <c r="C297">
-        <v>46.23</v>
+        <v>44.47</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5474,21 +5465,21 @@
         <v>486</v>
       </c>
       <c r="B298" t="s">
-        <v>487</v>
+        <v>55</v>
       </c>
       <c r="C298">
-        <v>44.69</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
+        <v>487</v>
+      </c>
+      <c r="B299" t="s">
         <v>488</v>
       </c>
-      <c r="B299" t="s">
-        <v>197</v>
-      </c>
       <c r="C299">
-        <v>44.52</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5496,54 +5487,54 @@
         <v>489</v>
       </c>
       <c r="B300" t="s">
-        <v>145</v>
+        <v>490</v>
       </c>
       <c r="C300">
-        <v>44.47</v>
+        <v>43.96</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B301" t="s">
-        <v>68</v>
+        <v>492</v>
       </c>
       <c r="C301">
-        <v>44.44</v>
+        <v>42.45</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B302" t="s">
-        <v>492</v>
+        <v>210</v>
       </c>
       <c r="C302">
-        <v>44.44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B303" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C303">
-        <v>43.96</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B304" t="s">
-        <v>496</v>
+        <v>85</v>
       </c>
       <c r="C304">
-        <v>42.45</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5551,109 +5542,109 @@
         <v>497</v>
       </c>
       <c r="B305" t="s">
-        <v>221</v>
+        <v>498</v>
       </c>
       <c r="C305">
-        <v>40</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B306" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C306">
-        <v>39.79</v>
+        <v>36.94</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B307" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="C307">
-        <v>37.799999999999997</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B308" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C308">
-        <v>37.200000000000003</v>
+        <v>32.78</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B309" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C309">
-        <v>36.94</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B310" t="s">
-        <v>307</v>
+        <v>507</v>
       </c>
       <c r="C310">
-        <v>33.049999999999997</v>
+        <v>30.03</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B311" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C311">
-        <v>32.78</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B312" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C312">
-        <v>31.71</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B313" t="s">
-        <v>511</v>
+        <v>210</v>
       </c>
       <c r="C313">
-        <v>30.03</v>
+        <v>28.58</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B314" t="s">
-        <v>513</v>
+        <v>85</v>
       </c>
       <c r="C314">
-        <v>29.9</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5664,7 +5655,7 @@
         <v>515</v>
       </c>
       <c r="C315">
-        <v>29.32</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5672,43 +5663,43 @@
         <v>516</v>
       </c>
       <c r="B316" t="s">
-        <v>221</v>
+        <v>517</v>
       </c>
       <c r="C316">
-        <v>28.58</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B317" t="s">
-        <v>40</v>
+        <v>519</v>
       </c>
       <c r="C317">
-        <v>28.26</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B318" t="s">
-        <v>519</v>
+        <v>194</v>
       </c>
       <c r="C318">
-        <v>27.86</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B319" t="s">
-        <v>521</v>
+        <v>142</v>
       </c>
       <c r="C319">
-        <v>27.83</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5719,7 +5710,7 @@
         <v>523</v>
       </c>
       <c r="C320">
-        <v>26.89</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5727,10 +5718,10 @@
         <v>524</v>
       </c>
       <c r="B321" t="s">
-        <v>205</v>
+        <v>349</v>
       </c>
       <c r="C321">
-        <v>26.8</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5741,7 +5732,7 @@
         <v>526</v>
       </c>
       <c r="C322">
-        <v>24.5</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5749,10 +5740,10 @@
         <v>527</v>
       </c>
       <c r="B323" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C323">
-        <v>24.33</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5763,7 +5754,7 @@
         <v>529</v>
       </c>
       <c r="C324">
-        <v>23.89</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5771,10 +5762,10 @@
         <v>530</v>
       </c>
       <c r="B325" t="s">
-        <v>355</v>
+        <v>142</v>
       </c>
       <c r="C325">
-        <v>23.11</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5785,7 +5776,7 @@
         <v>532</v>
       </c>
       <c r="C326">
-        <v>21.27</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5793,10 +5784,10 @@
         <v>533</v>
       </c>
       <c r="B327" t="s">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="C327">
-        <v>20.49</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5804,21 +5795,21 @@
         <v>534</v>
       </c>
       <c r="B328" t="s">
-        <v>535</v>
+        <v>227</v>
       </c>
       <c r="C328">
-        <v>19.12</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
+        <v>535</v>
+      </c>
+      <c r="B329" t="s">
         <v>536</v>
       </c>
-      <c r="B329" t="s">
-        <v>349</v>
-      </c>
       <c r="C329">
-        <v>18.95</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5826,54 +5817,54 @@
         <v>537</v>
       </c>
       <c r="B330" t="s">
-        <v>238</v>
+        <v>538</v>
       </c>
       <c r="C330">
-        <v>16.78</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B331" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C331">
-        <v>15.76</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B332" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C332">
-        <v>14.67</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B333" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C333">
-        <v>13.69</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B334" t="s">
-        <v>545</v>
+        <v>204</v>
       </c>
       <c r="C334">
-        <v>12.38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5881,21 +5872,21 @@
         <v>546</v>
       </c>
       <c r="B335" t="s">
-        <v>547</v>
+        <v>257</v>
       </c>
       <c r="C335">
-        <v>11.39</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
+        <v>547</v>
+      </c>
+      <c r="B336" t="s">
         <v>548</v>
       </c>
-      <c r="B336" t="s">
-        <v>215</v>
-      </c>
       <c r="C336">
-        <v>10</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5903,21 +5894,21 @@
         <v>549</v>
       </c>
       <c r="B337" t="s">
-        <v>267</v>
+        <v>550</v>
       </c>
       <c r="C337">
-        <v>9.85</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B338" t="s">
-        <v>551</v>
+        <v>198</v>
       </c>
       <c r="C338">
-        <v>9.7200000000000006</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5925,21 +5916,21 @@
         <v>552</v>
       </c>
       <c r="B339" t="s">
-        <v>553</v>
+        <v>317</v>
       </c>
       <c r="C339">
-        <v>9.52</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
+        <v>553</v>
+      </c>
+      <c r="B340" t="s">
         <v>554</v>
       </c>
-      <c r="B340" t="s">
-        <v>209</v>
-      </c>
       <c r="C340">
-        <v>9.44</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5947,10 +5938,10 @@
         <v>555</v>
       </c>
       <c r="B341" t="s">
-        <v>323</v>
+        <v>123</v>
       </c>
       <c r="C341">
-        <v>8.66</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5961,7 +5952,7 @@
         <v>557</v>
       </c>
       <c r="C342">
-        <v>8.4499999999999993</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5969,43 +5960,43 @@
         <v>558</v>
       </c>
       <c r="B343" t="s">
-        <v>136</v>
+        <v>559</v>
       </c>
       <c r="C343">
-        <v>7.91</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B344" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C344">
-        <v>7.62</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B345" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C345">
-        <v>6.98</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B346" t="s">
-        <v>564</v>
+        <v>142</v>
       </c>
       <c r="C346">
-        <v>6.66</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6016,7 +6007,7 @@
         <v>566</v>
       </c>
       <c r="C347">
-        <v>6.53</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6024,10 +6015,10 @@
         <v>567</v>
       </c>
       <c r="B348" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="C348">
-        <v>6.04</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6035,21 +6026,21 @@
         <v>568</v>
       </c>
       <c r="B349" t="s">
-        <v>569</v>
+        <v>410</v>
       </c>
       <c r="C349">
-        <v>5.56</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
+        <v>569</v>
+      </c>
+      <c r="B350" t="s">
         <v>570</v>
       </c>
-      <c r="B350" t="s">
-        <v>217</v>
-      </c>
       <c r="C350">
-        <v>5.55</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6057,10 +6048,10 @@
         <v>571</v>
       </c>
       <c r="B351" t="s">
-        <v>415</v>
+        <v>305</v>
       </c>
       <c r="C351">
-        <v>4.88</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6071,7 +6062,7 @@
         <v>573</v>
       </c>
       <c r="C352">
-        <v>4.08</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6079,21 +6070,21 @@
         <v>574</v>
       </c>
       <c r="B353" t="s">
-        <v>311</v>
+        <v>575</v>
       </c>
       <c r="C353">
-        <v>3.26</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B354" t="s">
-        <v>576</v>
+        <v>50</v>
       </c>
       <c r="C354">
-        <v>2.08</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6104,7 +6095,7 @@
         <v>578</v>
       </c>
       <c r="C355">
-        <v>1.66</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6112,32 +6103,32 @@
         <v>579</v>
       </c>
       <c r="B356" t="s">
-        <v>61</v>
+        <v>580</v>
       </c>
       <c r="C356">
-        <v>1.24</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B357" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C357">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B358" t="s">
-        <v>583</v>
+        <v>317</v>
       </c>
       <c r="C358">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6148,7 +6139,7 @@
         <v>585</v>
       </c>
       <c r="C359">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6156,10 +6147,10 @@
         <v>586</v>
       </c>
       <c r="B360" t="s">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="C360">
-        <v>0.55000000000000004</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6170,7 +6161,7 @@
         <v>588</v>
       </c>
       <c r="C361">
-        <v>0.52</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6178,10 +6169,10 @@
         <v>589</v>
       </c>
       <c r="B362" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="C362">
-        <v>0.47</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6192,7 +6183,7 @@
         <v>591</v>
       </c>
       <c r="C363">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6200,10 +6191,10 @@
         <v>592</v>
       </c>
       <c r="B364" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
       <c r="C364">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6214,7 +6205,7 @@
         <v>594</v>
       </c>
       <c r="C365">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6222,7 +6213,7 @@
         <v>595</v>
       </c>
       <c r="B366" t="s">
-        <v>68</v>
+        <v>596</v>
       </c>
       <c r="C366">
         <v>0.01</v>
@@ -6230,40 +6221,18 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B367" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C367">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
-      <c r="A368" t="s">
-        <v>598</v>
-      </c>
-      <c r="B368" t="s">
+        <v>-88921.08</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
         <v>599</v>
-      </c>
-      <c r="C368">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
-      <c r="A369" t="s">
-        <v>600</v>
-      </c>
-      <c r="B369" t="s">
-        <v>601</v>
-      </c>
-      <c r="C369">
-        <v>-88921.08</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
-      <c r="A371" t="s">
-        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62D0FF09-302C-48D1-B378-06E128FA91E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{978A3B01-1A88-4603-85FA-5AA0027C449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="597">
   <si>
     <t>CONTA</t>
   </si>
@@ -31,10 +44,22 @@
     <t>SALDO</t>
   </si>
   <si>
-    <t>004915243</t>
-  </si>
-  <si>
-    <t>POLO</t>
+    <t>005142661</t>
+  </si>
+  <si>
+    <t>SABRINA</t>
+  </si>
+  <si>
+    <t>005142624</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
   </si>
   <si>
     <t>004813166</t>
@@ -43,1219 +68,1198 @@
     <t>VENIA</t>
   </si>
   <si>
-    <t>005142661</t>
-  </si>
-  <si>
-    <t>SABRINA</t>
-  </si>
-  <si>
-    <t>005142624</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004641487</t>
+  </si>
+  <si>
+    <t>LAILA</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004643737</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004460491</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>004550605</t>
+  </si>
+  <si>
+    <t>REJANE</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004458604</t>
+  </si>
+  <si>
+    <t>FABIOLA</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>004870019</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>002592340</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
+    <t>004208869</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>002458288</t>
+  </si>
+  <si>
+    <t>BENEDITO</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004207374</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>004212409</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>004444605</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>004425965</t>
+  </si>
+  <si>
+    <t>CAROLLINA</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>004207278</t>
+  </si>
+  <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004334158</t>
+  </si>
+  <si>
+    <t>LEONE</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>004450405</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004214604</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004452790</t>
   </si>
   <si>
     <t>005061124</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>004641487</t>
-  </si>
-  <si>
-    <t>LAILA</t>
-  </si>
-  <si>
-    <t>004643737</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004212933</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004460491</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004458604</t>
-  </si>
-  <si>
-    <t>FABIOLA</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004482439</t>
-  </si>
-  <si>
-    <t>004870019</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004550605</t>
-  </si>
-  <si>
-    <t>REJANE</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>002592340</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004207374</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>004212409</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>004444605</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>000834301</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>004425965</t>
-  </si>
-  <si>
-    <t>CAROLLINA</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>004207278</t>
-  </si>
-  <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>004334158</t>
-  </si>
-  <si>
-    <t>LEONE</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>004450405</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004214604</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004452790</t>
   </si>
   <si>
     <t>002064834</t>
@@ -2185,11 +2189,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C369"/>
+  <dimension ref="A1:C367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2212,7 +2214,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>500000</v>
+        <v>157500.65</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2223,7 +2225,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>360000</v>
+        <v>155003.98000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2234,7 +2236,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>157500.65</v>
+        <v>146963.18</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2245,7 +2247,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>155003.98000000001</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2256,7 +2258,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>146963.18</v>
+        <v>30667.24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2267,7 +2269,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>97690.28</v>
+        <v>29675.5</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2278,7 +2280,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>76095.88</v>
+        <v>22063.42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2289,7 +2291,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>51321.31</v>
+        <v>19328.419999999998</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2300,7 +2302,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>43278.49</v>
+        <v>17492.96</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2311,7 +2313,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>35486.199999999997</v>
+        <v>13566.65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2322,7 +2324,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>30667.24</v>
+        <v>11241.46</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2333,7 +2335,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>29675.5</v>
+        <v>11053.46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2344,7 +2346,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>29592.84</v>
+        <v>8038.97</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2355,7 +2357,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>23120.83</v>
+        <v>7369.3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2366,7 +2368,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>22063.42</v>
+        <v>6395.86</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2377,7 +2379,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>17492.96</v>
+        <v>5340.96</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2388,7 +2390,7 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>13566.65</v>
+        <v>4719.51</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2399,7 +2401,7 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>11241.46</v>
+        <v>4499.03</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2410,7 +2412,7 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>11053.46</v>
+        <v>3744.76</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2418,252 +2420,252 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C21">
-        <v>10685.03</v>
+        <v>2699.43</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C22">
-        <v>8038.97</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>7369.3</v>
+        <v>2420.16</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>6395.86</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C25">
-        <v>5340.96</v>
+        <v>1083.18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C26">
-        <v>4719.51</v>
+        <v>1040.55</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27">
-        <v>4499.03</v>
+        <v>988.32</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>3744.76</v>
+        <v>950.52</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29">
-        <v>2699.43</v>
+        <v>946.84</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30">
-        <v>2691.13</v>
+        <v>946.25</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31">
-        <v>2420.16</v>
+        <v>946.13</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>1200</v>
+        <v>943.73</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33">
-        <v>1083.18</v>
+        <v>943.24</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34">
-        <v>1028.06</v>
+        <v>937.33</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35">
-        <v>988.32</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C36">
-        <v>950.52</v>
+        <v>932.56</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37">
-        <v>946.84</v>
+        <v>906.28</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38">
-        <v>946.25</v>
+        <v>905.16</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39">
-        <v>946.13</v>
+        <v>842.42</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40">
-        <v>943.73</v>
+        <v>841.08</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C41">
-        <v>943.24</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C42">
-        <v>940.18</v>
+        <v>836.83</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="C43">
-        <v>937.33</v>
+        <v>831.69</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2671,505 +2673,505 @@
         <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C44">
-        <v>933.95</v>
+        <v>812.69</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C45">
-        <v>932.56</v>
+        <v>804.59</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C46">
-        <v>906.28</v>
+        <v>799.43</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C47">
-        <v>905.16</v>
+        <v>791.35</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C48">
-        <v>842.42</v>
+        <v>791.07</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C49">
-        <v>841.08</v>
+        <v>748.55</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C50">
-        <v>839.9</v>
+        <v>748.39</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="C51">
-        <v>836.83</v>
+        <v>744.09</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C52">
-        <v>831.69</v>
+        <v>737.21</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C53">
-        <v>812.69</v>
+        <v>734.88</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C54">
-        <v>804.59</v>
+        <v>733.35</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C55">
-        <v>799.43</v>
+        <v>732.69</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C56">
-        <v>791.35</v>
+        <v>715.56</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C57">
-        <v>791.07</v>
+        <v>705.17</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C58">
-        <v>748.55</v>
+        <v>704.83</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="C59">
-        <v>748.39</v>
+        <v>701.13</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C60">
-        <v>744.09</v>
+        <v>701.03</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C61">
-        <v>737.21</v>
+        <v>685.03</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C62">
-        <v>734.88</v>
+        <v>679.68</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C63">
-        <v>733.35</v>
+        <v>677.05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="C64">
-        <v>732.69</v>
+        <v>667.36</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C65">
-        <v>721.7</v>
+        <v>666.01</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C66">
-        <v>715.56</v>
+        <v>666</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C67">
-        <v>705.17</v>
+        <v>666</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C68">
-        <v>704.83</v>
+        <v>666</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C69">
-        <v>701.13</v>
+        <v>666</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C70">
-        <v>701.03</v>
+        <v>666</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C71">
-        <v>679.68</v>
+        <v>666</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C72">
-        <v>677.05</v>
+        <v>666</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C73">
-        <v>667.36</v>
+        <v>663.35</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C74">
-        <v>666.01</v>
+        <v>623.46</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B75" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C75">
-        <v>666</v>
+        <v>619.59</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C76">
-        <v>666</v>
+        <v>618.47</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C77">
-        <v>666</v>
+        <v>614.59</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C78">
-        <v>666</v>
+        <v>607.04999999999995</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="C79">
-        <v>666</v>
+        <v>598.08000000000004</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C80">
-        <v>666</v>
+        <v>592.84</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C81">
-        <v>666</v>
+        <v>587.61</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B82" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="C82">
-        <v>663.35</v>
+        <v>578.08000000000004</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="C83">
-        <v>623.46</v>
+        <v>574.65</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C84">
-        <v>619.59</v>
+        <v>568.94000000000005</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C85">
-        <v>618.47</v>
+        <v>558.77</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C86">
-        <v>614.59</v>
+        <v>557.85</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C87">
-        <v>607.04999999999995</v>
+        <v>553.35</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="C88">
-        <v>598.08000000000004</v>
+        <v>549.72</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="C89">
-        <v>587.61</v>
+        <v>549.71</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3177,54 +3179,54 @@
         <v>163</v>
       </c>
       <c r="B90" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="C90">
-        <v>578.08000000000004</v>
+        <v>534.91</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B91" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="C91">
-        <v>574.65</v>
+        <v>531.14</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C92">
-        <v>568.94000000000005</v>
+        <v>525.92999999999995</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B93" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C93">
-        <v>558.77</v>
+        <v>521.65</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="C94">
-        <v>557.85</v>
+        <v>521.08000000000004</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3235,7 +3237,7 @@
         <v>172</v>
       </c>
       <c r="C95">
-        <v>553.35</v>
+        <v>507.85</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3243,32 +3245,32 @@
         <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="C96">
-        <v>549.72</v>
+        <v>500.58</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C97">
-        <v>549.71</v>
+        <v>491.62</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="C98">
-        <v>534.91</v>
+        <v>490.15</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3279,7 +3281,7 @@
         <v>178</v>
       </c>
       <c r="C99">
-        <v>531.14</v>
+        <v>489.49</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3287,21 +3289,21 @@
         <v>179</v>
       </c>
       <c r="B100" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="C100">
-        <v>525.92999999999995</v>
+        <v>486.2</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>180</v>
+      </c>
+      <c r="B101" t="s">
         <v>181</v>
       </c>
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
       <c r="C101">
-        <v>521.65</v>
+        <v>465.01</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3309,483 +3311,483 @@
         <v>182</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="C102">
-        <v>521.08000000000004</v>
+        <v>459.2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B103" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C103">
-        <v>507.85</v>
+        <v>450.33</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B104" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C104">
-        <v>500.58</v>
+        <v>449.3</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="C105">
-        <v>491.62</v>
+        <v>448.42</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B106" t="s">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="C106">
-        <v>490.15</v>
+        <v>444.28</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B107" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="C107">
-        <v>489.49</v>
+        <v>438.09</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B108" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C108">
-        <v>465.01</v>
+        <v>420.94</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C109">
-        <v>459.2</v>
+        <v>414.23</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C110">
-        <v>450.33</v>
+        <v>412.83</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C111">
-        <v>449.3</v>
+        <v>410.43</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B112" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="C112">
-        <v>448.42</v>
+        <v>407.48</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C113">
-        <v>444.28</v>
+        <v>405.36</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C114">
-        <v>438.09</v>
+        <v>400.75</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B115" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C115">
-        <v>420.94</v>
+        <v>393.52</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B116" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C116">
-        <v>414.23</v>
+        <v>385.94</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B117" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C117">
-        <v>412.83</v>
+        <v>374.89</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B118" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C118">
-        <v>410.43</v>
+        <v>369.59</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B119" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C119">
-        <v>407.48</v>
+        <v>365.44</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B120" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C120">
-        <v>405.36</v>
+        <v>346.83</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B121" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="C121">
-        <v>400.75</v>
+        <v>344.89</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B122" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C122">
-        <v>393.52</v>
+        <v>335.31</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="C123">
-        <v>385.94</v>
+        <v>332.65</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B124" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C124">
-        <v>374.89</v>
+        <v>328.23</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B125" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C125">
-        <v>369.59</v>
+        <v>323.79000000000002</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B126" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C126">
-        <v>365.44</v>
+        <v>321.54000000000002</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B127" t="s">
-        <v>85</v>
+        <v>228</v>
       </c>
       <c r="C127">
-        <v>346.83</v>
+        <v>321.31</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B128" t="s">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="C128">
-        <v>344.89</v>
+        <v>313.51</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B129" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C129">
-        <v>335.31</v>
+        <v>311.82</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B130" t="s">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="C130">
-        <v>332.65</v>
+        <v>305.27</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C131">
-        <v>328.23</v>
+        <v>302.51</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B132" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C132">
-        <v>323.79000000000002</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B133" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C133">
-        <v>321.54000000000002</v>
+        <v>290.79000000000002</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C134">
-        <v>313.51</v>
+        <v>287.74</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B135" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C135">
-        <v>311.82</v>
+        <v>281.69</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B136" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C136">
-        <v>305.27</v>
+        <v>278.49</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B137" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C137">
-        <v>302.51</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B138" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="C138">
-        <v>293.3</v>
+        <v>276.66000000000003</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B139" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C139">
-        <v>290.79000000000002</v>
+        <v>276.52</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B140" t="s">
-        <v>166</v>
+        <v>251</v>
       </c>
       <c r="C140">
-        <v>287.74</v>
+        <v>264.8</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B141" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="C141">
-        <v>281.69</v>
+        <v>262.73</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B142" t="s">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c r="C142">
-        <v>277.3</v>
+        <v>260.51</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B143" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="C143">
-        <v>276.66000000000003</v>
+        <v>260.14999999999998</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B144" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="C144">
-        <v>276.52</v>
+        <v>253.25</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B145" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C145">
-        <v>264.8</v>
+        <v>248.66</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3793,32 +3795,32 @@
         <v>258</v>
       </c>
       <c r="B146" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="C146">
-        <v>262.73</v>
+        <v>248.22</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B147" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="C147">
-        <v>260.51</v>
+        <v>248.07</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B148" t="s">
-        <v>261</v>
+        <v>112</v>
       </c>
       <c r="C148">
-        <v>260.14999999999998</v>
+        <v>242.48</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3826,32 +3828,32 @@
         <v>262</v>
       </c>
       <c r="B149" t="s">
-        <v>206</v>
+        <v>263</v>
       </c>
       <c r="C149">
-        <v>253.25</v>
+        <v>240.55</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B150" t="s">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="C150">
-        <v>248.66</v>
+        <v>237.08</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B151" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="C151">
-        <v>248.22</v>
+        <v>236.99</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3859,10 +3861,10 @@
         <v>266</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C152">
-        <v>248.07</v>
+        <v>235.61</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3870,296 +3872,296 @@
         <v>267</v>
       </c>
       <c r="B153" t="s">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c r="C153">
-        <v>242.48</v>
+        <v>233.93</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B154" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C154">
-        <v>240.55</v>
+        <v>233.88</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B155" t="s">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="C155">
-        <v>237.08</v>
+        <v>232.63</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B156" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="C156">
-        <v>236.99</v>
+        <v>227.02</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B157" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="C157">
-        <v>235.61</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B158" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C158">
-        <v>233.93</v>
+        <v>212.6</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B159" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C159">
-        <v>233.88</v>
+        <v>206.79</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B160" t="s">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="C160">
-        <v>232.63</v>
+        <v>199.77</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B161" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C161">
-        <v>227.02</v>
+        <v>196.41</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C162">
-        <v>217.03</v>
+        <v>192.19</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B163" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C163">
-        <v>212.6</v>
+        <v>190.71</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B164" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="C164">
-        <v>206.79</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B165" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C165">
-        <v>199.77</v>
+        <v>188.11</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B166" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C166">
-        <v>196.41</v>
+        <v>188.07</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="C167">
-        <v>192.19</v>
+        <v>180.54</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B168" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C168">
-        <v>190.71</v>
+        <v>178.03</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B169" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="C169">
-        <v>188.83</v>
+        <v>173.83</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B170" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C170">
-        <v>188.11</v>
+        <v>172.7</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B171" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C171">
-        <v>188.07</v>
+        <v>172.32</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B172" t="s">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="C172">
-        <v>180.54</v>
+        <v>171.49</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B173" t="s">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c r="C173">
-        <v>178.03</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B174" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C174">
-        <v>173.83</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B175" t="s">
-        <v>303</v>
+        <v>101</v>
       </c>
       <c r="C175">
-        <v>172.7</v>
+        <v>163.77000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B176" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C176">
-        <v>172.32</v>
+        <v>163.62</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B177" t="s">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="C177">
-        <v>171.49</v>
+        <v>160.33000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B178" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="C178">
-        <v>170.37</v>
+        <v>156.99</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B179" t="s">
-        <v>309</v>
+        <v>203</v>
       </c>
       <c r="C179">
-        <v>170.27</v>
+        <v>155.81</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4167,21 +4169,21 @@
         <v>310</v>
       </c>
       <c r="B180" t="s">
-        <v>114</v>
+        <v>311</v>
       </c>
       <c r="C180">
-        <v>163.77000000000001</v>
+        <v>155.47</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B181" t="s">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="C181">
-        <v>163.62</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4189,43 +4191,43 @@
         <v>313</v>
       </c>
       <c r="B182" t="s">
-        <v>194</v>
+        <v>314</v>
       </c>
       <c r="C182">
-        <v>160.33000000000001</v>
+        <v>151.79</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B183" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C183">
-        <v>156.99</v>
+        <v>149.66</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B184" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="C184">
-        <v>155.81</v>
+        <v>148.72999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B185" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="C185">
-        <v>155.47</v>
+        <v>147.84</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4233,131 +4235,131 @@
         <v>318</v>
       </c>
       <c r="B186" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="C186">
-        <v>154.04</v>
+        <v>142.44</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B187" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C187">
-        <v>151.79</v>
+        <v>142.22</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B188" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="C188">
-        <v>149.66</v>
+        <v>136.12</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B189" t="s">
-        <v>65</v>
+        <v>214</v>
       </c>
       <c r="C189">
-        <v>148.72999999999999</v>
+        <v>135.84</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B190" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="C190">
-        <v>147.84</v>
+        <v>135.63</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B191" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C191">
-        <v>142.44</v>
+        <v>135.37</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B192" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C192">
-        <v>142.22</v>
+        <v>135.19</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B193" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="C193">
-        <v>136.12</v>
+        <v>134.62</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B194" t="s">
-        <v>224</v>
+        <v>332</v>
       </c>
       <c r="C194">
-        <v>135.84</v>
+        <v>132.79</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B195" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
       <c r="C195">
-        <v>135.63</v>
+        <v>130.9</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B196" t="s">
-        <v>333</v>
+        <v>40</v>
       </c>
       <c r="C196">
-        <v>135.37</v>
+        <v>129.97</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B197" t="s">
-        <v>335</v>
+        <v>92</v>
       </c>
       <c r="C197">
-        <v>135.19</v>
+        <v>129.93</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4365,21 +4367,21 @@
         <v>336</v>
       </c>
       <c r="B198" t="s">
-        <v>192</v>
+        <v>337</v>
       </c>
       <c r="C198">
-        <v>134.62</v>
+        <v>128.85</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B199" t="s">
-        <v>338</v>
+        <v>99</v>
       </c>
       <c r="C199">
-        <v>132.79</v>
+        <v>128.63</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4387,10 +4389,10 @@
         <v>339</v>
       </c>
       <c r="B200" t="s">
-        <v>286</v>
+        <v>68</v>
       </c>
       <c r="C200">
-        <v>130.9</v>
+        <v>128.63</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4398,175 +4400,175 @@
         <v>340</v>
       </c>
       <c r="B201" t="s">
-        <v>30</v>
+        <v>341</v>
       </c>
       <c r="C201">
-        <v>129.97</v>
+        <v>128.35</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B202" t="s">
-        <v>106</v>
+        <v>343</v>
       </c>
       <c r="C202">
-        <v>129.93</v>
+        <v>128.30000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B203" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C203">
-        <v>128.85</v>
+        <v>127.76</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B204" t="s">
-        <v>112</v>
+        <v>347</v>
       </c>
       <c r="C204">
-        <v>128.63</v>
+        <v>127.59</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C205">
-        <v>128.63</v>
+        <v>126.19</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B206" t="s">
-        <v>347</v>
+        <v>94</v>
       </c>
       <c r="C206">
-        <v>128.35</v>
+        <v>124.52</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B207" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C207">
-        <v>128.30000000000001</v>
+        <v>123.03</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B208" t="s">
-        <v>351</v>
+        <v>195</v>
       </c>
       <c r="C208">
-        <v>127.76</v>
+        <v>122.89</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B209" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C209">
-        <v>127.59</v>
+        <v>122.79</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B210" t="s">
-        <v>78</v>
+        <v>356</v>
       </c>
       <c r="C210">
-        <v>126.19</v>
+        <v>121.28</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B211" t="s">
-        <v>16</v>
+        <v>358</v>
       </c>
       <c r="C211">
-        <v>124.52</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B212" t="s">
-        <v>357</v>
+        <v>183</v>
       </c>
       <c r="C212">
-        <v>123.03</v>
+        <v>120.88</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B213" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="C213">
-        <v>122.89</v>
+        <v>120.83</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B214" t="s">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="C214">
-        <v>122.79</v>
+        <v>120.72</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B215" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C215">
-        <v>121.28</v>
+        <v>120.7</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B216" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="C216">
-        <v>121.15</v>
+        <v>119.26</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4574,10 +4576,10 @@
         <v>365</v>
       </c>
       <c r="B217" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="C217">
-        <v>120.88</v>
+        <v>118.26</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4585,21 +4587,21 @@
         <v>366</v>
       </c>
       <c r="B218" t="s">
-        <v>30</v>
+        <v>367</v>
       </c>
       <c r="C218">
-        <v>120.72</v>
+        <v>113.99</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B219" t="s">
-        <v>368</v>
+        <v>154</v>
       </c>
       <c r="C219">
-        <v>120.7</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4607,10 +4609,10 @@
         <v>369</v>
       </c>
       <c r="B220" t="s">
-        <v>351</v>
+        <v>244</v>
       </c>
       <c r="C220">
-        <v>119.26</v>
+        <v>109.01</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4618,65 +4620,65 @@
         <v>370</v>
       </c>
       <c r="B221" t="s">
-        <v>234</v>
+        <v>371</v>
       </c>
       <c r="C221">
-        <v>118.26</v>
+        <v>106.84</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B222" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C222">
-        <v>113.99</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B223" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="C223">
-        <v>109.4</v>
+        <v>101.09</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B224" t="s">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="C224">
-        <v>109.01</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B225" t="s">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="C225">
-        <v>106.84</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B226" t="s">
-        <v>378</v>
+        <v>28</v>
       </c>
       <c r="C226">
-        <v>104.9</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4684,10 +4686,10 @@
         <v>379</v>
       </c>
       <c r="B227" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C227">
-        <v>101.09</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4698,7 +4700,7 @@
         <v>381</v>
       </c>
       <c r="C228">
-        <v>99.24</v>
+        <v>95.38</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4706,32 +4708,32 @@
         <v>382</v>
       </c>
       <c r="B229" t="s">
-        <v>93</v>
+        <v>383</v>
       </c>
       <c r="C229">
-        <v>98.28</v>
+        <v>94.95</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B230" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="C230">
-        <v>97.08</v>
+        <v>94.27</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B231" t="s">
-        <v>385</v>
+        <v>92</v>
       </c>
       <c r="C231">
-        <v>95.38</v>
+        <v>92.07</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4739,32 +4741,32 @@
         <v>386</v>
       </c>
       <c r="B232" t="s">
-        <v>387</v>
+        <v>30</v>
       </c>
       <c r="C232">
-        <v>94.95</v>
+        <v>90.83</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B233" t="s">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="C233">
-        <v>94.27</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
+        <v>388</v>
+      </c>
+      <c r="B234" t="s">
         <v>389</v>
       </c>
-      <c r="B234" t="s">
-        <v>106</v>
-      </c>
       <c r="C234">
-        <v>92.07</v>
+        <v>89.85</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4772,43 +4774,43 @@
         <v>390</v>
       </c>
       <c r="B235" t="s">
-        <v>44</v>
+        <v>391</v>
       </c>
       <c r="C235">
-        <v>90.83</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B236" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="C236">
-        <v>90.2</v>
+        <v>88.25</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B237" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C237">
-        <v>89.85</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B238" t="s">
-        <v>395</v>
+        <v>195</v>
       </c>
       <c r="C238">
-        <v>88.8</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4816,21 +4818,21 @@
         <v>396</v>
       </c>
       <c r="B239" t="s">
-        <v>85</v>
+        <v>397</v>
       </c>
       <c r="C239">
-        <v>88.25</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B240" t="s">
-        <v>398</v>
+        <v>133</v>
       </c>
       <c r="C240">
-        <v>86.45</v>
+        <v>83.13</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4838,21 +4840,21 @@
         <v>399</v>
       </c>
       <c r="B241" t="s">
-        <v>206</v>
+        <v>400</v>
       </c>
       <c r="C241">
-        <v>86.38</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B242" t="s">
-        <v>401</v>
+        <v>199</v>
       </c>
       <c r="C242">
-        <v>84.72</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4860,10 +4862,10 @@
         <v>402</v>
       </c>
       <c r="B243" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="C243">
-        <v>83.13</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4874,7 +4876,7 @@
         <v>404</v>
       </c>
       <c r="C244">
-        <v>83.06</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4882,32 +4884,32 @@
         <v>405</v>
       </c>
       <c r="B245" t="s">
-        <v>210</v>
+        <v>406</v>
       </c>
       <c r="C245">
-        <v>82.79</v>
+        <v>79.36</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B246" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="C246">
-        <v>81.87</v>
+        <v>78.73</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B247" t="s">
-        <v>408</v>
+        <v>68</v>
       </c>
       <c r="C247">
-        <v>80.05</v>
+        <v>78.319999999999993</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4918,7 +4920,7 @@
         <v>410</v>
       </c>
       <c r="C248">
-        <v>79.36</v>
+        <v>77.53</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4926,43 +4928,43 @@
         <v>411</v>
       </c>
       <c r="B249" t="s">
-        <v>257</v>
+        <v>412</v>
       </c>
       <c r="C249">
-        <v>78.73</v>
+        <v>77.19</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B250" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C250">
-        <v>77.53</v>
+        <v>76.260000000000005</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B251" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C251">
-        <v>77.19</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B252" t="s">
-        <v>417</v>
+        <v>158</v>
       </c>
       <c r="C252">
-        <v>76.260000000000005</v>
+        <v>75.56</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4973,7 +4975,7 @@
         <v>419</v>
       </c>
       <c r="C253">
-        <v>75.86</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4981,109 +4983,109 @@
         <v>420</v>
       </c>
       <c r="B254" t="s">
-        <v>170</v>
+        <v>421</v>
       </c>
       <c r="C254">
-        <v>75.56</v>
+        <v>74.27</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B255" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C255">
-        <v>74.39</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B256" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C256">
-        <v>74.27</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B257" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C257">
-        <v>74.23</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B258" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C258">
-        <v>73.650000000000006</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B259" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C259">
-        <v>73.599999999999994</v>
+        <v>73.53</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B260" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C260">
-        <v>73.56</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B261" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C261">
-        <v>73.53</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B262" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C262">
-        <v>73.430000000000007</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B263" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="C263">
-        <v>73.3</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5091,43 +5093,43 @@
         <v>439</v>
       </c>
       <c r="B264" t="s">
-        <v>440</v>
+        <v>40</v>
       </c>
       <c r="C264">
-        <v>72.42</v>
+        <v>70.459999999999994</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B265" t="s">
-        <v>362</v>
+        <v>99</v>
       </c>
       <c r="C265">
-        <v>71.31</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B266" t="s">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="C266">
-        <v>70.459999999999994</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
+        <v>442</v>
+      </c>
+      <c r="B267" t="s">
         <v>443</v>
       </c>
-      <c r="B267" t="s">
-        <v>112</v>
-      </c>
       <c r="C267">
-        <v>69.45</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5135,32 +5137,32 @@
         <v>444</v>
       </c>
       <c r="B268" t="s">
-        <v>232</v>
+        <v>445</v>
       </c>
       <c r="C268">
-        <v>68.459999999999994</v>
+        <v>67.69</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B269" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C269">
-        <v>68.05</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B270" t="s">
-        <v>448</v>
+        <v>24</v>
       </c>
       <c r="C270">
-        <v>67.69</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5168,21 +5170,21 @@
         <v>449</v>
       </c>
       <c r="B271" t="s">
-        <v>450</v>
+        <v>94</v>
       </c>
       <c r="C271">
-        <v>66.010000000000005</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
+        <v>450</v>
+      </c>
+      <c r="B272" t="s">
         <v>451</v>
       </c>
-      <c r="B272" t="s">
-        <v>38</v>
-      </c>
       <c r="C272">
-        <v>65.06</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5190,21 +5192,21 @@
         <v>452</v>
       </c>
       <c r="B273" t="s">
-        <v>16</v>
+        <v>453</v>
       </c>
       <c r="C273">
-        <v>64.709999999999994</v>
+        <v>64.040000000000006</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B274" t="s">
-        <v>454</v>
+        <v>36</v>
       </c>
       <c r="C274">
-        <v>64.400000000000006</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5212,21 +5214,21 @@
         <v>455</v>
       </c>
       <c r="B275" t="s">
-        <v>456</v>
+        <v>356</v>
       </c>
       <c r="C275">
-        <v>64.040000000000006</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
+        <v>456</v>
+      </c>
+      <c r="B276" t="s">
         <v>457</v>
       </c>
-      <c r="B276" t="s">
-        <v>50</v>
-      </c>
       <c r="C276">
-        <v>63.94</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5234,10 +5236,10 @@
         <v>458</v>
       </c>
       <c r="B277" t="s">
-        <v>362</v>
+        <v>154</v>
       </c>
       <c r="C277">
-        <v>62.6</v>
+        <v>60.44</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5245,21 +5247,21 @@
         <v>459</v>
       </c>
       <c r="B278" t="s">
-        <v>460</v>
+        <v>381</v>
       </c>
       <c r="C278">
-        <v>61.74</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
+        <v>460</v>
+      </c>
+      <c r="B279" t="s">
         <v>461</v>
       </c>
-      <c r="B279" t="s">
-        <v>166</v>
-      </c>
       <c r="C279">
-        <v>60.44</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5267,10 +5269,10 @@
         <v>462</v>
       </c>
       <c r="B280" t="s">
-        <v>385</v>
+        <v>457</v>
       </c>
       <c r="C280">
-        <v>59.87</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5278,21 +5280,21 @@
         <v>463</v>
       </c>
       <c r="B281" t="s">
-        <v>464</v>
+        <v>311</v>
       </c>
       <c r="C281">
-        <v>59.63</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
+        <v>464</v>
+      </c>
+      <c r="B282" t="s">
         <v>465</v>
       </c>
-      <c r="B282" t="s">
-        <v>460</v>
-      </c>
       <c r="C282">
-        <v>59.2</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5300,10 +5302,10 @@
         <v>466</v>
       </c>
       <c r="B283" t="s">
-        <v>317</v>
+        <v>110</v>
       </c>
       <c r="C283">
-        <v>57.82</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5314,7 +5316,7 @@
         <v>468</v>
       </c>
       <c r="C284">
-        <v>55.66</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5322,10 +5324,10 @@
         <v>469</v>
       </c>
       <c r="B285" t="s">
-        <v>125</v>
+        <v>295</v>
       </c>
       <c r="C285">
-        <v>55.24</v>
+        <v>52.09</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5336,7 +5338,7 @@
         <v>471</v>
       </c>
       <c r="C286">
-        <v>54.71</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5344,21 +5346,21 @@
         <v>472</v>
       </c>
       <c r="B287" t="s">
-        <v>301</v>
+        <v>473</v>
       </c>
       <c r="C287">
-        <v>52.09</v>
+        <v>50</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B288" t="s">
-        <v>474</v>
+        <v>299</v>
       </c>
       <c r="C288">
-        <v>51.65</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5366,54 +5368,54 @@
         <v>475</v>
       </c>
       <c r="B289" t="s">
-        <v>476</v>
+        <v>20</v>
       </c>
       <c r="C289">
-        <v>50</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B290" t="s">
-        <v>305</v>
+        <v>6</v>
       </c>
       <c r="C290">
-        <v>49.28</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B291" t="s">
-        <v>34</v>
+        <v>332</v>
       </c>
       <c r="C291">
-        <v>48.65</v>
+        <v>46.28</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B292" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="C292">
-        <v>48.16</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
+        <v>479</v>
+      </c>
+      <c r="B293" t="s">
         <v>480</v>
       </c>
-      <c r="B293" t="s">
-        <v>338</v>
-      </c>
       <c r="C293">
-        <v>46.28</v>
+        <v>44.69</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5421,10 +5423,10 @@
         <v>481</v>
       </c>
       <c r="B294" t="s">
-        <v>309</v>
+        <v>174</v>
       </c>
       <c r="C294">
-        <v>46.23</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5432,32 +5434,32 @@
         <v>482</v>
       </c>
       <c r="B295" t="s">
-        <v>483</v>
+        <v>118</v>
       </c>
       <c r="C295">
-        <v>44.69</v>
+        <v>44.47</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B296" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="C296">
-        <v>44.52</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
+        <v>484</v>
+      </c>
+      <c r="B297" t="s">
         <v>485</v>
       </c>
-      <c r="B297" t="s">
-        <v>132</v>
-      </c>
       <c r="C297">
-        <v>44.47</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5465,32 +5467,32 @@
         <v>486</v>
       </c>
       <c r="B298" t="s">
-        <v>55</v>
+        <v>487</v>
       </c>
       <c r="C298">
-        <v>44.44</v>
+        <v>43.96</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B299" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C299">
-        <v>44.44</v>
+        <v>42.45</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B300" t="s">
-        <v>490</v>
+        <v>199</v>
       </c>
       <c r="C300">
-        <v>43.96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5501,7 +5503,7 @@
         <v>492</v>
       </c>
       <c r="C301">
-        <v>42.45</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5509,10 +5511,10 @@
         <v>493</v>
       </c>
       <c r="B302" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="C302">
-        <v>40</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5523,7 +5525,7 @@
         <v>495</v>
       </c>
       <c r="C303">
-        <v>39.79</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5531,21 +5533,21 @@
         <v>496</v>
       </c>
       <c r="B304" t="s">
-        <v>85</v>
+        <v>497</v>
       </c>
       <c r="C304">
-        <v>37.799999999999997</v>
+        <v>36.94</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B305" t="s">
-        <v>498</v>
+        <v>295</v>
       </c>
       <c r="C305">
-        <v>37.200000000000003</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5556,7 +5558,7 @@
         <v>500</v>
       </c>
       <c r="C306">
-        <v>36.94</v>
+        <v>32.78</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5564,54 +5566,54 @@
         <v>501</v>
       </c>
       <c r="B307" t="s">
-        <v>301</v>
+        <v>502</v>
       </c>
       <c r="C307">
-        <v>33.049999999999997</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B308" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C308">
-        <v>32.78</v>
+        <v>30.03</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B309" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C309">
-        <v>31.71</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B310" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C310">
-        <v>30.03</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B311" t="s">
-        <v>509</v>
+        <v>199</v>
       </c>
       <c r="C311">
-        <v>29.9</v>
+        <v>28.58</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5619,21 +5621,21 @@
         <v>510</v>
       </c>
       <c r="B312" t="s">
-        <v>511</v>
+        <v>71</v>
       </c>
       <c r="C312">
-        <v>29.32</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
+        <v>511</v>
+      </c>
+      <c r="B313" t="s">
         <v>512</v>
       </c>
-      <c r="B313" t="s">
-        <v>210</v>
-      </c>
       <c r="C313">
-        <v>28.58</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5641,32 +5643,32 @@
         <v>513</v>
       </c>
       <c r="B314" t="s">
-        <v>85</v>
+        <v>514</v>
       </c>
       <c r="C314">
-        <v>28.26</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B315" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C315">
-        <v>27.86</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B316" t="s">
-        <v>517</v>
+        <v>183</v>
       </c>
       <c r="C316">
-        <v>27.83</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5674,21 +5676,21 @@
         <v>518</v>
       </c>
       <c r="B317" t="s">
-        <v>519</v>
+        <v>128</v>
       </c>
       <c r="C317">
-        <v>26.89</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
+        <v>519</v>
+      </c>
+      <c r="B318" t="s">
         <v>520</v>
       </c>
-      <c r="B318" t="s">
-        <v>194</v>
-      </c>
       <c r="C318">
-        <v>26.8</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5696,10 +5698,10 @@
         <v>521</v>
       </c>
       <c r="B319" t="s">
-        <v>142</v>
+        <v>343</v>
       </c>
       <c r="C319">
-        <v>26.1</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5710,7 +5712,7 @@
         <v>523</v>
       </c>
       <c r="C320">
-        <v>24.5</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5718,10 +5720,10 @@
         <v>524</v>
       </c>
       <c r="B321" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C321">
-        <v>24.33</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5732,7 +5734,7 @@
         <v>526</v>
       </c>
       <c r="C322">
-        <v>23.89</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5740,10 +5742,10 @@
         <v>527</v>
       </c>
       <c r="B323" t="s">
-        <v>349</v>
+        <v>128</v>
       </c>
       <c r="C323">
-        <v>23.11</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5754,7 +5756,7 @@
         <v>529</v>
       </c>
       <c r="C324">
-        <v>21.27</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5762,10 +5764,10 @@
         <v>530</v>
       </c>
       <c r="B325" t="s">
-        <v>142</v>
+        <v>337</v>
       </c>
       <c r="C325">
-        <v>20.49</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5773,21 +5775,21 @@
         <v>531</v>
       </c>
       <c r="B326" t="s">
-        <v>532</v>
+        <v>217</v>
       </c>
       <c r="C326">
-        <v>19.12</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
+        <v>532</v>
+      </c>
+      <c r="B327" t="s">
         <v>533</v>
       </c>
-      <c r="B327" t="s">
-        <v>343</v>
-      </c>
       <c r="C327">
-        <v>18.95</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5795,54 +5797,54 @@
         <v>534</v>
       </c>
       <c r="B328" t="s">
-        <v>227</v>
+        <v>535</v>
       </c>
       <c r="C328">
-        <v>16.78</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B329" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C329">
-        <v>15.76</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B330" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C330">
-        <v>14.67</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B331" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C331">
-        <v>13.69</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B332" t="s">
-        <v>542</v>
+        <v>193</v>
       </c>
       <c r="C332">
-        <v>12.38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5850,21 +5852,21 @@
         <v>543</v>
       </c>
       <c r="B333" t="s">
-        <v>544</v>
+        <v>251</v>
       </c>
       <c r="C333">
-        <v>11.39</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
+        <v>544</v>
+      </c>
+      <c r="B334" t="s">
         <v>545</v>
       </c>
-      <c r="B334" t="s">
-        <v>204</v>
-      </c>
       <c r="C334">
-        <v>10</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5872,21 +5874,21 @@
         <v>546</v>
       </c>
       <c r="B335" t="s">
-        <v>257</v>
+        <v>547</v>
       </c>
       <c r="C335">
-        <v>9.85</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B336" t="s">
-        <v>548</v>
+        <v>187</v>
       </c>
       <c r="C336">
-        <v>9.7200000000000006</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5894,21 +5896,21 @@
         <v>549</v>
       </c>
       <c r="B337" t="s">
-        <v>550</v>
+        <v>311</v>
       </c>
       <c r="C337">
-        <v>9.52</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
+        <v>550</v>
+      </c>
+      <c r="B338" t="s">
         <v>551</v>
       </c>
-      <c r="B338" t="s">
-        <v>198</v>
-      </c>
       <c r="C338">
-        <v>9.44</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5916,10 +5918,10 @@
         <v>552</v>
       </c>
       <c r="B339" t="s">
-        <v>317</v>
+        <v>108</v>
       </c>
       <c r="C339">
-        <v>8.66</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5930,7 +5932,7 @@
         <v>554</v>
       </c>
       <c r="C340">
-        <v>8.4499999999999993</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5938,43 +5940,43 @@
         <v>555</v>
       </c>
       <c r="B341" t="s">
-        <v>123</v>
+        <v>556</v>
       </c>
       <c r="C341">
-        <v>7.91</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B342" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C342">
-        <v>7.62</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B343" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C343">
-        <v>6.98</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B344" t="s">
-        <v>561</v>
+        <v>128</v>
       </c>
       <c r="C344">
-        <v>6.66</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5985,7 +5987,7 @@
         <v>563</v>
       </c>
       <c r="C345">
-        <v>6.53</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5993,10 +5995,10 @@
         <v>564</v>
       </c>
       <c r="B346" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="C346">
-        <v>6.04</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6004,21 +6006,21 @@
         <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>566</v>
+        <v>406</v>
       </c>
       <c r="C347">
-        <v>5.56</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
+        <v>566</v>
+      </c>
+      <c r="B348" t="s">
         <v>567</v>
       </c>
-      <c r="B348" t="s">
-        <v>206</v>
-      </c>
       <c r="C348">
-        <v>5.55</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6026,10 +6028,10 @@
         <v>568</v>
       </c>
       <c r="B349" t="s">
-        <v>410</v>
+        <v>299</v>
       </c>
       <c r="C349">
-        <v>4.88</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6040,7 +6042,7 @@
         <v>570</v>
       </c>
       <c r="C350">
-        <v>4.08</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6048,21 +6050,21 @@
         <v>571</v>
       </c>
       <c r="B351" t="s">
-        <v>305</v>
+        <v>572</v>
       </c>
       <c r="C351">
-        <v>3.26</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B352" t="s">
-        <v>573</v>
+        <v>36</v>
       </c>
       <c r="C352">
-        <v>2.08</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6073,7 +6075,7 @@
         <v>575</v>
       </c>
       <c r="C353">
-        <v>1.66</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6081,32 +6083,32 @@
         <v>576</v>
       </c>
       <c r="B354" t="s">
-        <v>50</v>
+        <v>577</v>
       </c>
       <c r="C354">
-        <v>1.24</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B355" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C355">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B356" t="s">
-        <v>580</v>
+        <v>311</v>
       </c>
       <c r="C356">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6117,7 +6119,7 @@
         <v>582</v>
       </c>
       <c r="C357">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6125,10 +6127,10 @@
         <v>583</v>
       </c>
       <c r="B358" t="s">
-        <v>317</v>
+        <v>64</v>
       </c>
       <c r="C358">
-        <v>0.55000000000000004</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6139,7 +6141,7 @@
         <v>585</v>
       </c>
       <c r="C359">
-        <v>0.52</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6147,10 +6149,10 @@
         <v>586</v>
       </c>
       <c r="B360" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="C360">
-        <v>0.47</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6161,7 +6163,7 @@
         <v>588</v>
       </c>
       <c r="C361">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6169,10 +6171,10 @@
         <v>589</v>
       </c>
       <c r="B362" t="s">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="C362">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6183,7 +6185,7 @@
         <v>591</v>
       </c>
       <c r="C363">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6191,7 +6193,7 @@
         <v>592</v>
       </c>
       <c r="B364" t="s">
-        <v>55</v>
+        <v>593</v>
       </c>
       <c r="C364">
         <v>0.01</v>
@@ -6199,40 +6201,18 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B365" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C365">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="A366" t="s">
-        <v>595</v>
-      </c>
-      <c r="B366" t="s">
-        <v>596</v>
-      </c>
-      <c r="C366">
-        <v>0.01</v>
+        <v>-88921.08</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>597</v>
-      </c>
-      <c r="B367" t="s">
-        <v>598</v>
-      </c>
-      <c r="C367">
-        <v>-88921.08</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{978A3B01-1A88-4603-85FA-5AA0027C449D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FC9422F-B980-43F6-A9AA-FAD63BEAA316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="594">
   <si>
     <t>CONTA</t>
   </si>
@@ -68,324 +68,324 @@
     <t>VENIA</t>
   </si>
   <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
     <t>004630773</t>
   </si>
   <si>
     <t>NABOR</t>
   </si>
   <si>
+    <t>004641487</t>
+  </si>
+  <si>
+    <t>LAILA</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004643737</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004460491</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>004550605</t>
+  </si>
+  <si>
+    <t>REJANE</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004458604</t>
+  </si>
+  <si>
+    <t>FABIOLA</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>004870019</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
     <t>004404342</t>
   </si>
   <si>
     <t>ADSON</t>
   </si>
   <si>
-    <t>004641487</t>
-  </si>
-  <si>
-    <t>LAILA</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004643737</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004212933</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004460491</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>004999410</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>004550605</t>
-  </si>
-  <si>
-    <t>REJANE</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004458604</t>
-  </si>
-  <si>
-    <t>FABIOLA</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004482439</t>
-  </si>
-  <si>
-    <t>004870019</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
     <t>002592340</t>
   </si>
   <si>
@@ -875,9 +875,6 @@
     <t>004575621</t>
   </si>
   <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
     <t>004472076</t>
   </si>
   <si>
@@ -935,9 +932,6 @@
     <t>LEONARDO</t>
   </si>
   <si>
-    <t>000834301</t>
-  </si>
-  <si>
     <t>004224815</t>
   </si>
   <si>
@@ -1032,9 +1026,6 @@
   </si>
   <si>
     <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004752519</t>
   </si>
   <si>
     <t>004381359</t>
@@ -2189,7 +2180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C367"/>
+  <dimension ref="A1:C365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2258,7 +2249,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>30667.24</v>
+        <v>51365.37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2269,7 +2260,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>29675.5</v>
+        <v>30667.24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2346,7 +2337,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>8038.97</v>
+        <v>7369.3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2357,7 +2348,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>7369.3</v>
+        <v>6395.86</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2368,7 +2359,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>6395.86</v>
+        <v>5340.96</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2379,7 +2370,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>5340.96</v>
+        <v>4719.51</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2390,7 +2381,7 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>4719.51</v>
+        <v>4632.05</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2401,7 +2392,7 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>4499.03</v>
+        <v>3744.76</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2412,7 +2403,7 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>3744.76</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2423,7 +2414,7 @@
         <v>42</v>
       </c>
       <c r="C21">
-        <v>2699.43</v>
+        <v>2420.16</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2431,241 +2422,241 @@
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C22">
-        <v>2691.13</v>
+        <v>1521.49</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
       <c r="C23">
-        <v>2420.16</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s">
-        <v>48</v>
-      </c>
       <c r="C24">
-        <v>1200</v>
+        <v>1083.18</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
       <c r="C25">
-        <v>1083.18</v>
+        <v>1040.55</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
       <c r="C26">
-        <v>1040.55</v>
+        <v>988.32</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>988.32</v>
+        <v>950.52</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C28">
-        <v>950.52</v>
+        <v>946.84</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
       <c r="C29">
-        <v>946.84</v>
+        <v>946.25</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
       <c r="C30">
-        <v>946.25</v>
+        <v>946.13</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C31">
-        <v>946.13</v>
+        <v>943.73</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C32">
-        <v>943.73</v>
+        <v>943.24</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
       <c r="C33">
-        <v>943.24</v>
+        <v>937.33</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
-        <v>66</v>
-      </c>
       <c r="C34">
-        <v>937.33</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C35">
-        <v>933.95</v>
+        <v>932.56</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C36">
-        <v>932.56</v>
+        <v>906.28</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="B37" t="s">
-        <v>71</v>
-      </c>
       <c r="C37">
-        <v>906.28</v>
+        <v>905.16</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
       <c r="C38">
-        <v>905.16</v>
+        <v>842.42</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
       <c r="C39">
-        <v>842.42</v>
+        <v>841.08</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
         <v>76</v>
       </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
       <c r="C40">
-        <v>841.08</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C41">
-        <v>839.9</v>
+        <v>836.83</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C42">
-        <v>836.83</v>
+        <v>831.69</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
         <v>81</v>
       </c>
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
       <c r="C43">
-        <v>831.69</v>
+        <v>812.69</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2676,7 +2667,7 @@
         <v>83</v>
       </c>
       <c r="C44">
-        <v>812.69</v>
+        <v>804.59</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2687,7 +2678,7 @@
         <v>85</v>
       </c>
       <c r="C45">
-        <v>804.59</v>
+        <v>799.43</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2698,7 +2689,7 @@
         <v>87</v>
       </c>
       <c r="C46">
-        <v>799.43</v>
+        <v>791.35</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2706,21 +2697,21 @@
         <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C47">
-        <v>791.35</v>
+        <v>791.07</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
         <v>90</v>
       </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
       <c r="C48">
-        <v>791.07</v>
+        <v>748.55</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2731,7 +2722,7 @@
         <v>92</v>
       </c>
       <c r="C49">
-        <v>748.55</v>
+        <v>748.39</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2742,7 +2733,7 @@
         <v>94</v>
       </c>
       <c r="C50">
-        <v>748.39</v>
+        <v>744.09</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2750,21 +2741,21 @@
         <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C51">
-        <v>744.09</v>
+        <v>737.21</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
         <v>97</v>
       </c>
-      <c r="B52" t="s">
-        <v>71</v>
-      </c>
       <c r="C52">
-        <v>737.21</v>
+        <v>734.88</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2775,7 +2766,7 @@
         <v>99</v>
       </c>
       <c r="C53">
-        <v>734.88</v>
+        <v>733.35</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2783,21 +2774,21 @@
         <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C54">
-        <v>733.35</v>
+        <v>732.69</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" t="s">
         <v>102</v>
       </c>
-      <c r="B55" t="s">
-        <v>68</v>
-      </c>
       <c r="C55">
-        <v>732.69</v>
+        <v>715.56</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2808,7 +2799,7 @@
         <v>104</v>
       </c>
       <c r="C56">
-        <v>715.56</v>
+        <v>705.17</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2819,7 +2810,7 @@
         <v>106</v>
       </c>
       <c r="C57">
-        <v>705.17</v>
+        <v>704.83</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2830,7 +2821,7 @@
         <v>108</v>
       </c>
       <c r="C58">
-        <v>704.83</v>
+        <v>701.13</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2841,7 +2832,7 @@
         <v>110</v>
       </c>
       <c r="C59">
-        <v>701.13</v>
+        <v>701.03</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2849,21 +2840,21 @@
         <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="C60">
-        <v>701.03</v>
+        <v>685.03</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" t="s">
         <v>113</v>
       </c>
-      <c r="B61" t="s">
-        <v>22</v>
-      </c>
       <c r="C61">
-        <v>685.03</v>
+        <v>679.68</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2871,21 +2862,21 @@
         <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="C62">
-        <v>679.68</v>
+        <v>677.05</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" t="s">
         <v>116</v>
       </c>
-      <c r="B63" t="s">
-        <v>71</v>
-      </c>
       <c r="C63">
-        <v>677.05</v>
+        <v>675.5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2959,7 +2950,7 @@
         <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C70">
         <v>666</v>
@@ -3036,7 +3027,7 @@
         <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C77">
         <v>614.59</v>
@@ -3091,7 +3082,7 @@
         <v>151</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C82">
         <v>578.08000000000004</v>
@@ -3102,7 +3093,7 @@
         <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C83">
         <v>574.65</v>
@@ -3157,7 +3148,7 @@
         <v>161</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C88">
         <v>549.72</v>
@@ -3168,7 +3159,7 @@
         <v>162</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C89">
         <v>549.71</v>
@@ -3223,7 +3214,7 @@
         <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C94">
         <v>521.08000000000004</v>
@@ -3256,7 +3247,7 @@
         <v>175</v>
       </c>
       <c r="B97" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C97">
         <v>491.62</v>
@@ -3289,7 +3280,7 @@
         <v>179</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="C100">
         <v>486.2</v>
@@ -3344,7 +3335,7 @@
         <v>188</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C105">
         <v>448.42</v>
@@ -3366,7 +3357,7 @@
         <v>191</v>
       </c>
       <c r="B107" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C107">
         <v>438.09</v>
@@ -3443,7 +3434,7 @@
         <v>204</v>
       </c>
       <c r="B114" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C114">
         <v>400.75</v>
@@ -3509,7 +3500,7 @@
         <v>215</v>
       </c>
       <c r="B120" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C120">
         <v>346.83</v>
@@ -3542,7 +3533,7 @@
         <v>220</v>
       </c>
       <c r="B123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C123">
         <v>332.65</v>
@@ -3806,7 +3797,7 @@
         <v>260</v>
       </c>
       <c r="B147" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C147">
         <v>248.07</v>
@@ -3817,7 +3808,7 @@
         <v>261</v>
       </c>
       <c r="B148" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C148">
         <v>242.48</v>
@@ -3850,7 +3841,7 @@
         <v>265</v>
       </c>
       <c r="B151" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C151">
         <v>236.99</v>
@@ -3949,7 +3940,7 @@
         <v>279</v>
       </c>
       <c r="B160" t="s">
-        <v>280</v>
+        <v>36</v>
       </c>
       <c r="C160">
         <v>199.77</v>
@@ -3957,10 +3948,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
+        <v>280</v>
+      </c>
+      <c r="B161" t="s">
         <v>281</v>
-      </c>
-      <c r="B161" t="s">
-        <v>282</v>
       </c>
       <c r="C161">
         <v>196.41</v>
@@ -3968,7 +3959,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B162" t="s">
         <v>156</v>
@@ -3979,10 +3970,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
+        <v>283</v>
+      </c>
+      <c r="B163" t="s">
         <v>284</v>
-      </c>
-      <c r="B163" t="s">
-        <v>285</v>
       </c>
       <c r="C163">
         <v>190.71</v>
@@ -3990,7 +3981,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B164" t="s">
         <v>251</v>
@@ -4001,10 +3992,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
+        <v>286</v>
+      </c>
+      <c r="B165" t="s">
         <v>287</v>
-      </c>
-      <c r="B165" t="s">
-        <v>288</v>
       </c>
       <c r="C165">
         <v>188.11</v>
@@ -4012,10 +4003,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
+        <v>288</v>
+      </c>
+      <c r="B166" t="s">
         <v>289</v>
-      </c>
-      <c r="B166" t="s">
-        <v>290</v>
       </c>
       <c r="C166">
         <v>188.07</v>
@@ -4023,10 +4014,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B167" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C167">
         <v>180.54</v>
@@ -4034,10 +4025,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
+        <v>291</v>
+      </c>
+      <c r="B168" t="s">
         <v>292</v>
-      </c>
-      <c r="B168" t="s">
-        <v>293</v>
       </c>
       <c r="C168">
         <v>178.03</v>
@@ -4045,10 +4036,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
+        <v>293</v>
+      </c>
+      <c r="B169" t="s">
         <v>294</v>
-      </c>
-      <c r="B169" t="s">
-        <v>295</v>
       </c>
       <c r="C169">
         <v>173.83</v>
@@ -4056,10 +4047,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
+        <v>295</v>
+      </c>
+      <c r="B170" t="s">
         <v>296</v>
-      </c>
-      <c r="B170" t="s">
-        <v>297</v>
       </c>
       <c r="C170">
         <v>172.7</v>
@@ -4067,10 +4058,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
+        <v>297</v>
+      </c>
+      <c r="B171" t="s">
         <v>298</v>
-      </c>
-      <c r="B171" t="s">
-        <v>299</v>
       </c>
       <c r="C171">
         <v>172.32</v>
@@ -4078,24 +4069,24 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B172" t="s">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="C172">
-        <v>171.49</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
+        <v>300</v>
+      </c>
+      <c r="B173" t="s">
         <v>301</v>
       </c>
-      <c r="B173" t="s">
-        <v>42</v>
-      </c>
       <c r="C173">
-        <v>170.37</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4103,21 +4094,21 @@
         <v>302</v>
       </c>
       <c r="B174" t="s">
-        <v>303</v>
+        <v>99</v>
       </c>
       <c r="C174">
-        <v>170.27</v>
+        <v>163.77000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
+        <v>303</v>
+      </c>
+      <c r="B175" t="s">
         <v>304</v>
       </c>
-      <c r="B175" t="s">
-        <v>101</v>
-      </c>
       <c r="C175">
-        <v>163.77000000000001</v>
+        <v>163.62</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4125,43 +4116,43 @@
         <v>305</v>
       </c>
       <c r="B176" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C176">
-        <v>163.62</v>
+        <v>160.33000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B177" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="C177">
-        <v>160.33000000000001</v>
+        <v>156.99</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B178" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="C178">
-        <v>156.99</v>
+        <v>155.81</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>308</v>
+      </c>
+      <c r="B179" t="s">
         <v>309</v>
       </c>
-      <c r="B179" t="s">
-        <v>203</v>
-      </c>
       <c r="C179">
-        <v>155.81</v>
+        <v>155.47</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4169,21 +4160,21 @@
         <v>310</v>
       </c>
       <c r="B180" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
       <c r="C180">
-        <v>155.47</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
+        <v>311</v>
+      </c>
+      <c r="B181" t="s">
         <v>312</v>
       </c>
-      <c r="B181" t="s">
-        <v>235</v>
-      </c>
       <c r="C181">
-        <v>154.04</v>
+        <v>151.79</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4191,43 +4182,43 @@
         <v>313</v>
       </c>
       <c r="B182" t="s">
-        <v>314</v>
+        <v>128</v>
       </c>
       <c r="C182">
-        <v>151.79</v>
+        <v>149.66</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B183" t="s">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="C183">
-        <v>149.66</v>
+        <v>148.72999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B184" t="s">
-        <v>203</v>
+        <v>287</v>
       </c>
       <c r="C184">
-        <v>148.72999999999999</v>
+        <v>147.84</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
+        <v>316</v>
+      </c>
+      <c r="B185" t="s">
         <v>317</v>
       </c>
-      <c r="B185" t="s">
-        <v>288</v>
-      </c>
       <c r="C185">
-        <v>147.84</v>
+        <v>142.44</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4238,7 +4229,7 @@
         <v>319</v>
       </c>
       <c r="C186">
-        <v>142.44</v>
+        <v>142.22</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4246,32 +4237,32 @@
         <v>320</v>
       </c>
       <c r="B187" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="C187">
-        <v>142.22</v>
+        <v>136.12</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B188" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="C188">
-        <v>136.12</v>
+        <v>135.84</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
+        <v>322</v>
+      </c>
+      <c r="B189" t="s">
         <v>323</v>
       </c>
-      <c r="B189" t="s">
-        <v>214</v>
-      </c>
       <c r="C189">
-        <v>135.84</v>
+        <v>135.63</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4282,7 +4273,7 @@
         <v>325</v>
       </c>
       <c r="C190">
-        <v>135.63</v>
+        <v>135.37</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4293,7 +4284,7 @@
         <v>327</v>
       </c>
       <c r="C191">
-        <v>135.37</v>
+        <v>135.19</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4301,21 +4292,21 @@
         <v>328</v>
       </c>
       <c r="B192" t="s">
-        <v>329</v>
+        <v>181</v>
       </c>
       <c r="C192">
-        <v>135.19</v>
+        <v>134.62</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
+        <v>329</v>
+      </c>
+      <c r="B193" t="s">
         <v>330</v>
       </c>
-      <c r="B193" t="s">
-        <v>181</v>
-      </c>
       <c r="C193">
-        <v>134.62</v>
+        <v>132.79</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -4323,32 +4314,32 @@
         <v>331</v>
       </c>
       <c r="B194" t="s">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="C194">
-        <v>132.79</v>
+        <v>129.97</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B195" t="s">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="C195">
-        <v>130.9</v>
+        <v>129.93</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
+        <v>333</v>
+      </c>
+      <c r="B196" t="s">
         <v>334</v>
       </c>
-      <c r="B196" t="s">
-        <v>40</v>
-      </c>
       <c r="C196">
-        <v>129.97</v>
+        <v>128.85</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4356,10 +4347,10 @@
         <v>335</v>
       </c>
       <c r="B197" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C197">
-        <v>129.93</v>
+        <v>128.63</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4367,21 +4358,21 @@
         <v>336</v>
       </c>
       <c r="B198" t="s">
-        <v>337</v>
+        <v>65</v>
       </c>
       <c r="C198">
-        <v>128.85</v>
+        <v>128.63</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
+        <v>337</v>
+      </c>
+      <c r="B199" t="s">
         <v>338</v>
       </c>
-      <c r="B199" t="s">
-        <v>99</v>
-      </c>
       <c r="C199">
-        <v>128.63</v>
+        <v>128.35</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4389,43 +4380,43 @@
         <v>339</v>
       </c>
       <c r="B200" t="s">
-        <v>68</v>
+        <v>340</v>
       </c>
       <c r="C200">
-        <v>128.63</v>
+        <v>128.30000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B201" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C201">
-        <v>128.35</v>
+        <v>127.76</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B202" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C202">
-        <v>128.30000000000001</v>
+        <v>127.59</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B203" t="s">
-        <v>345</v>
+        <v>61</v>
       </c>
       <c r="C203">
-        <v>127.76</v>
+        <v>126.19</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4433,21 +4424,21 @@
         <v>346</v>
       </c>
       <c r="B204" t="s">
-        <v>347</v>
+        <v>92</v>
       </c>
       <c r="C204">
-        <v>127.59</v>
+        <v>124.52</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
+        <v>347</v>
+      </c>
+      <c r="B205" t="s">
         <v>348</v>
       </c>
-      <c r="B205" t="s">
-        <v>64</v>
-      </c>
       <c r="C205">
-        <v>126.19</v>
+        <v>123.03</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4455,10 +4446,10 @@
         <v>349</v>
       </c>
       <c r="B206" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="C206">
-        <v>124.52</v>
+        <v>122.89</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4469,7 +4460,7 @@
         <v>351</v>
       </c>
       <c r="C207">
-        <v>123.03</v>
+        <v>122.79</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4477,32 +4468,32 @@
         <v>352</v>
       </c>
       <c r="B208" t="s">
-        <v>195</v>
+        <v>353</v>
       </c>
       <c r="C208">
-        <v>122.89</v>
+        <v>121.28</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B209" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C209">
-        <v>122.79</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B210" t="s">
-        <v>356</v>
+        <v>183</v>
       </c>
       <c r="C210">
-        <v>121.28</v>
+        <v>120.88</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4510,32 +4501,32 @@
         <v>357</v>
       </c>
       <c r="B211" t="s">
-        <v>358</v>
+        <v>38</v>
       </c>
       <c r="C211">
-        <v>121.15</v>
+        <v>120.83</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B212" t="s">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="C212">
-        <v>120.88</v>
+        <v>120.72</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
+        <v>359</v>
+      </c>
+      <c r="B213" t="s">
         <v>360</v>
       </c>
-      <c r="B213" t="s">
-        <v>40</v>
-      </c>
       <c r="C213">
-        <v>120.83</v>
+        <v>120.7</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4543,10 +4534,10 @@
         <v>361</v>
       </c>
       <c r="B214" t="s">
-        <v>40</v>
+        <v>342</v>
       </c>
       <c r="C214">
-        <v>120.72</v>
+        <v>119.26</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -4554,21 +4545,21 @@
         <v>362</v>
       </c>
       <c r="B215" t="s">
-        <v>363</v>
+        <v>224</v>
       </c>
       <c r="C215">
-        <v>120.7</v>
+        <v>118.26</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
+        <v>363</v>
+      </c>
+      <c r="B216" t="s">
         <v>364</v>
       </c>
-      <c r="B216" t="s">
-        <v>345</v>
-      </c>
       <c r="C216">
-        <v>119.26</v>
+        <v>113.99</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4576,10 +4567,10 @@
         <v>365</v>
       </c>
       <c r="B217" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="C217">
-        <v>118.26</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4587,21 +4578,21 @@
         <v>366</v>
       </c>
       <c r="B218" t="s">
-        <v>367</v>
+        <v>244</v>
       </c>
       <c r="C218">
-        <v>113.99</v>
+        <v>109.01</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
+        <v>367</v>
+      </c>
+      <c r="B219" t="s">
         <v>368</v>
       </c>
-      <c r="B219" t="s">
-        <v>154</v>
-      </c>
       <c r="C219">
-        <v>109.4</v>
+        <v>106.84</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4609,21 +4600,21 @@
         <v>369</v>
       </c>
       <c r="B220" t="s">
-        <v>244</v>
+        <v>370</v>
       </c>
       <c r="C220">
-        <v>109.01</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B221" t="s">
-        <v>371</v>
+        <v>61</v>
       </c>
       <c r="C221">
-        <v>106.84</v>
+        <v>101.09</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -4634,7 +4625,7 @@
         <v>373</v>
       </c>
       <c r="C222">
-        <v>104.9</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4642,10 +4633,10 @@
         <v>374</v>
       </c>
       <c r="B223" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C223">
-        <v>101.09</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4653,32 +4644,32 @@
         <v>375</v>
       </c>
       <c r="B224" t="s">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="C224">
-        <v>99.24</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B225" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C225">
-        <v>98.28</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
+        <v>377</v>
+      </c>
+      <c r="B226" t="s">
         <v>378</v>
       </c>
-      <c r="B226" t="s">
-        <v>28</v>
-      </c>
       <c r="C226">
-        <v>97.08</v>
+        <v>95.38</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4686,21 +4677,21 @@
         <v>379</v>
       </c>
       <c r="B227" t="s">
-        <v>94</v>
+        <v>380</v>
       </c>
       <c r="C227">
-        <v>95.88</v>
+        <v>94.95</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B228" t="s">
-        <v>381</v>
+        <v>168</v>
       </c>
       <c r="C228">
-        <v>95.38</v>
+        <v>94.27</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4708,43 +4699,43 @@
         <v>382</v>
       </c>
       <c r="B229" t="s">
-        <v>383</v>
+        <v>90</v>
       </c>
       <c r="C229">
-        <v>94.95</v>
+        <v>92.07</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B230" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c r="C230">
-        <v>94.27</v>
+        <v>90.83</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B231" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="C231">
-        <v>92.07</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
+        <v>385</v>
+      </c>
+      <c r="B232" t="s">
         <v>386</v>
       </c>
-      <c r="B232" t="s">
-        <v>30</v>
-      </c>
       <c r="C232">
-        <v>90.83</v>
+        <v>89.85</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4752,21 +4743,21 @@
         <v>387</v>
       </c>
       <c r="B233" t="s">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="C233">
-        <v>90.2</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B234" t="s">
-        <v>389</v>
+        <v>68</v>
       </c>
       <c r="C234">
-        <v>89.85</v>
+        <v>88.25</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4777,7 +4768,7 @@
         <v>391</v>
       </c>
       <c r="C235">
-        <v>88.8</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4785,10 +4776,10 @@
         <v>392</v>
       </c>
       <c r="B236" t="s">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="C236">
-        <v>88.25</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4799,7 +4790,7 @@
         <v>394</v>
       </c>
       <c r="C237">
-        <v>86.45</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4807,10 +4798,10 @@
         <v>395</v>
       </c>
       <c r="B238" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="C238">
-        <v>86.38</v>
+        <v>83.13</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4821,7 +4812,7 @@
         <v>397</v>
       </c>
       <c r="C239">
-        <v>84.72</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4829,10 +4820,10 @@
         <v>398</v>
       </c>
       <c r="B240" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="C240">
-        <v>83.13</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4840,21 +4831,21 @@
         <v>399</v>
       </c>
       <c r="B241" t="s">
-        <v>400</v>
+        <v>118</v>
       </c>
       <c r="C241">
-        <v>83.06</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
+        <v>400</v>
+      </c>
+      <c r="B242" t="s">
         <v>401</v>
       </c>
-      <c r="B242" t="s">
-        <v>199</v>
-      </c>
       <c r="C242">
-        <v>82.79</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4862,21 +4853,21 @@
         <v>402</v>
       </c>
       <c r="B243" t="s">
-        <v>118</v>
+        <v>403</v>
       </c>
       <c r="C243">
-        <v>81.87</v>
+        <v>79.36</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B244" t="s">
-        <v>404</v>
+        <v>251</v>
       </c>
       <c r="C244">
-        <v>80.05</v>
+        <v>78.73</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4884,21 +4875,21 @@
         <v>405</v>
       </c>
       <c r="B245" t="s">
-        <v>406</v>
+        <v>65</v>
       </c>
       <c r="C245">
-        <v>79.36</v>
+        <v>78.319999999999993</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
+        <v>406</v>
+      </c>
+      <c r="B246" t="s">
         <v>407</v>
       </c>
-      <c r="B246" t="s">
-        <v>251</v>
-      </c>
       <c r="C246">
-        <v>78.73</v>
+        <v>77.53</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4906,43 +4897,43 @@
         <v>408</v>
       </c>
       <c r="B247" t="s">
-        <v>68</v>
+        <v>409</v>
       </c>
       <c r="C247">
-        <v>78.319999999999993</v>
+        <v>77.19</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B248" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C248">
-        <v>77.53</v>
+        <v>76.260000000000005</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B249" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C249">
-        <v>77.19</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B250" t="s">
-        <v>414</v>
+        <v>158</v>
       </c>
       <c r="C250">
-        <v>76.260000000000005</v>
+        <v>75.56</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4953,7 +4944,7 @@
         <v>416</v>
       </c>
       <c r="C251">
-        <v>75.86</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4961,109 +4952,109 @@
         <v>417</v>
       </c>
       <c r="B252" t="s">
-        <v>158</v>
+        <v>418</v>
       </c>
       <c r="C252">
-        <v>75.56</v>
+        <v>74.27</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B253" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C253">
-        <v>74.39</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B254" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C254">
-        <v>74.27</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B255" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C255">
-        <v>74.23</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B256" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C256">
-        <v>73.650000000000006</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B257" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C257">
-        <v>73.599999999999994</v>
+        <v>73.53</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B258" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C258">
-        <v>73.56</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B259" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C259">
-        <v>73.53</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B260" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C260">
-        <v>73.430000000000007</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B261" t="s">
-        <v>435</v>
+        <v>353</v>
       </c>
       <c r="C261">
-        <v>73.3</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5071,43 +5062,43 @@
         <v>436</v>
       </c>
       <c r="B262" t="s">
-        <v>437</v>
+        <v>38</v>
       </c>
       <c r="C262">
-        <v>72.42</v>
+        <v>70.459999999999994</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B263" t="s">
-        <v>356</v>
+        <v>97</v>
       </c>
       <c r="C263">
-        <v>71.31</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B264" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="C264">
-        <v>70.459999999999994</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
+        <v>439</v>
+      </c>
+      <c r="B265" t="s">
         <v>440</v>
       </c>
-      <c r="B265" t="s">
-        <v>99</v>
-      </c>
       <c r="C265">
-        <v>69.45</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5115,32 +5106,32 @@
         <v>441</v>
       </c>
       <c r="B266" t="s">
-        <v>222</v>
+        <v>442</v>
       </c>
       <c r="C266">
-        <v>68.459999999999994</v>
+        <v>67.69</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B267" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C267">
-        <v>68.05</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B268" t="s">
-        <v>445</v>
+        <v>24</v>
       </c>
       <c r="C268">
-        <v>67.69</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5148,21 +5139,21 @@
         <v>446</v>
       </c>
       <c r="B269" t="s">
-        <v>447</v>
+        <v>92</v>
       </c>
       <c r="C269">
-        <v>66.010000000000005</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
+        <v>447</v>
+      </c>
+      <c r="B270" t="s">
         <v>448</v>
       </c>
-      <c r="B270" t="s">
-        <v>24</v>
-      </c>
       <c r="C270">
-        <v>65.06</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5170,21 +5161,21 @@
         <v>449</v>
       </c>
       <c r="B271" t="s">
-        <v>94</v>
+        <v>450</v>
       </c>
       <c r="C271">
-        <v>64.709999999999994</v>
+        <v>64.040000000000006</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B272" t="s">
-        <v>451</v>
+        <v>34</v>
       </c>
       <c r="C272">
-        <v>64.400000000000006</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5192,21 +5183,21 @@
         <v>452</v>
       </c>
       <c r="B273" t="s">
-        <v>453</v>
+        <v>353</v>
       </c>
       <c r="C273">
-        <v>64.040000000000006</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
+        <v>453</v>
+      </c>
+      <c r="B274" t="s">
         <v>454</v>
       </c>
-      <c r="B274" t="s">
-        <v>36</v>
-      </c>
       <c r="C274">
-        <v>63.94</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5214,10 +5205,10 @@
         <v>455</v>
       </c>
       <c r="B275" t="s">
-        <v>356</v>
+        <v>154</v>
       </c>
       <c r="C275">
-        <v>62.6</v>
+        <v>60.44</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5225,21 +5216,21 @@
         <v>456</v>
       </c>
       <c r="B276" t="s">
-        <v>457</v>
+        <v>378</v>
       </c>
       <c r="C276">
-        <v>61.74</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
+        <v>457</v>
+      </c>
+      <c r="B277" t="s">
         <v>458</v>
       </c>
-      <c r="B277" t="s">
-        <v>154</v>
-      </c>
       <c r="C277">
-        <v>60.44</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5247,10 +5238,10 @@
         <v>459</v>
       </c>
       <c r="B278" t="s">
-        <v>381</v>
+        <v>454</v>
       </c>
       <c r="C278">
-        <v>59.87</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5258,21 +5249,21 @@
         <v>460</v>
       </c>
       <c r="B279" t="s">
-        <v>461</v>
+        <v>309</v>
       </c>
       <c r="C279">
-        <v>59.63</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
+        <v>461</v>
+      </c>
+      <c r="B280" t="s">
         <v>462</v>
       </c>
-      <c r="B280" t="s">
-        <v>457</v>
-      </c>
       <c r="C280">
-        <v>59.2</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5280,10 +5271,10 @@
         <v>463</v>
       </c>
       <c r="B281" t="s">
-        <v>311</v>
+        <v>108</v>
       </c>
       <c r="C281">
-        <v>57.82</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5294,7 +5285,7 @@
         <v>465</v>
       </c>
       <c r="C282">
-        <v>55.66</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5302,10 +5293,10 @@
         <v>466</v>
       </c>
       <c r="B283" t="s">
-        <v>110</v>
+        <v>294</v>
       </c>
       <c r="C283">
-        <v>55.24</v>
+        <v>52.09</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5316,7 +5307,7 @@
         <v>468</v>
       </c>
       <c r="C284">
-        <v>54.71</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5324,21 +5315,21 @@
         <v>469</v>
       </c>
       <c r="B285" t="s">
-        <v>295</v>
+        <v>470</v>
       </c>
       <c r="C285">
-        <v>52.09</v>
+        <v>50</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B286" t="s">
-        <v>471</v>
+        <v>298</v>
       </c>
       <c r="C286">
-        <v>51.65</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5346,54 +5337,54 @@
         <v>472</v>
       </c>
       <c r="B287" t="s">
-        <v>473</v>
+        <v>20</v>
       </c>
       <c r="C287">
-        <v>50</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B288" t="s">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="C288">
-        <v>49.28</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B289" t="s">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="C289">
-        <v>48.65</v>
+        <v>46.28</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B290" t="s">
-        <v>6</v>
+        <v>301</v>
       </c>
       <c r="C290">
-        <v>48.16</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
+        <v>476</v>
+      </c>
+      <c r="B291" t="s">
         <v>477</v>
       </c>
-      <c r="B291" t="s">
-        <v>332</v>
-      </c>
       <c r="C291">
-        <v>46.28</v>
+        <v>44.69</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5401,10 +5392,10 @@
         <v>478</v>
       </c>
       <c r="B292" t="s">
-        <v>303</v>
+        <v>174</v>
       </c>
       <c r="C292">
-        <v>46.23</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5412,32 +5403,32 @@
         <v>479</v>
       </c>
       <c r="B293" t="s">
-        <v>480</v>
+        <v>118</v>
       </c>
       <c r="C293">
-        <v>44.69</v>
+        <v>44.47</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B294" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="C294">
-        <v>44.52</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
+        <v>481</v>
+      </c>
+      <c r="B295" t="s">
         <v>482</v>
       </c>
-      <c r="B295" t="s">
-        <v>118</v>
-      </c>
       <c r="C295">
-        <v>44.47</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5445,32 +5436,32 @@
         <v>483</v>
       </c>
       <c r="B296" t="s">
-        <v>42</v>
+        <v>484</v>
       </c>
       <c r="C296">
-        <v>44.44</v>
+        <v>43.96</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B297" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C297">
-        <v>44.44</v>
+        <v>42.45</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B298" t="s">
-        <v>487</v>
+        <v>199</v>
       </c>
       <c r="C298">
-        <v>43.96</v>
+        <v>40</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5481,7 +5472,7 @@
         <v>489</v>
       </c>
       <c r="C299">
-        <v>42.45</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5489,10 +5480,10 @@
         <v>490</v>
       </c>
       <c r="B300" t="s">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="C300">
-        <v>40</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5503,7 +5494,7 @@
         <v>492</v>
       </c>
       <c r="C301">
-        <v>39.79</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5511,21 +5502,21 @@
         <v>493</v>
       </c>
       <c r="B302" t="s">
-        <v>71</v>
+        <v>494</v>
       </c>
       <c r="C302">
-        <v>37.799999999999997</v>
+        <v>36.94</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B303" t="s">
-        <v>495</v>
+        <v>294</v>
       </c>
       <c r="C303">
-        <v>37.200000000000003</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5536,7 +5527,7 @@
         <v>497</v>
       </c>
       <c r="C304">
-        <v>36.94</v>
+        <v>32.78</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5544,54 +5535,54 @@
         <v>498</v>
       </c>
       <c r="B305" t="s">
-        <v>295</v>
+        <v>499</v>
       </c>
       <c r="C305">
-        <v>33.049999999999997</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B306" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C306">
-        <v>32.78</v>
+        <v>30.03</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B307" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C307">
-        <v>31.71</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B308" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C308">
-        <v>30.03</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B309" t="s">
-        <v>506</v>
+        <v>199</v>
       </c>
       <c r="C309">
-        <v>29.9</v>
+        <v>28.58</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5599,21 +5590,21 @@
         <v>507</v>
       </c>
       <c r="B310" t="s">
-        <v>508</v>
+        <v>68</v>
       </c>
       <c r="C310">
-        <v>29.32</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
+        <v>508</v>
+      </c>
+      <c r="B311" t="s">
         <v>509</v>
       </c>
-      <c r="B311" t="s">
-        <v>199</v>
-      </c>
       <c r="C311">
-        <v>28.58</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5621,32 +5612,32 @@
         <v>510</v>
       </c>
       <c r="B312" t="s">
-        <v>71</v>
+        <v>511</v>
       </c>
       <c r="C312">
-        <v>28.26</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B313" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C313">
-        <v>27.86</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B314" t="s">
-        <v>514</v>
+        <v>183</v>
       </c>
       <c r="C314">
-        <v>27.83</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5654,21 +5645,21 @@
         <v>515</v>
       </c>
       <c r="B315" t="s">
-        <v>516</v>
+        <v>128</v>
       </c>
       <c r="C315">
-        <v>26.89</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
+        <v>516</v>
+      </c>
+      <c r="B316" t="s">
         <v>517</v>
       </c>
-      <c r="B316" t="s">
-        <v>183</v>
-      </c>
       <c r="C316">
-        <v>26.8</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -5676,10 +5667,10 @@
         <v>518</v>
       </c>
       <c r="B317" t="s">
-        <v>128</v>
+        <v>340</v>
       </c>
       <c r="C317">
-        <v>26.1</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5690,7 +5681,7 @@
         <v>520</v>
       </c>
       <c r="C318">
-        <v>24.5</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5698,10 +5689,10 @@
         <v>521</v>
       </c>
       <c r="B319" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C319">
-        <v>24.33</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5712,7 +5703,7 @@
         <v>523</v>
       </c>
       <c r="C320">
-        <v>23.89</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5720,10 +5711,10 @@
         <v>524</v>
       </c>
       <c r="B321" t="s">
-        <v>343</v>
+        <v>128</v>
       </c>
       <c r="C321">
-        <v>23.11</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5734,7 +5725,7 @@
         <v>526</v>
       </c>
       <c r="C322">
-        <v>21.27</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5742,10 +5733,10 @@
         <v>527</v>
       </c>
       <c r="B323" t="s">
-        <v>128</v>
+        <v>334</v>
       </c>
       <c r="C323">
-        <v>20.49</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5753,21 +5744,21 @@
         <v>528</v>
       </c>
       <c r="B324" t="s">
-        <v>529</v>
+        <v>217</v>
       </c>
       <c r="C324">
-        <v>19.12</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
+        <v>529</v>
+      </c>
+      <c r="B325" t="s">
         <v>530</v>
       </c>
-      <c r="B325" t="s">
-        <v>337</v>
-      </c>
       <c r="C325">
-        <v>18.95</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5775,54 +5766,54 @@
         <v>531</v>
       </c>
       <c r="B326" t="s">
-        <v>217</v>
+        <v>532</v>
       </c>
       <c r="C326">
-        <v>16.78</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B327" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C327">
-        <v>15.76</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B328" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C328">
-        <v>14.67</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B329" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C329">
-        <v>13.69</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B330" t="s">
-        <v>539</v>
+        <v>193</v>
       </c>
       <c r="C330">
-        <v>12.38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5830,21 +5821,21 @@
         <v>540</v>
       </c>
       <c r="B331" t="s">
-        <v>541</v>
+        <v>251</v>
       </c>
       <c r="C331">
-        <v>11.39</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
+        <v>541</v>
+      </c>
+      <c r="B332" t="s">
         <v>542</v>
       </c>
-      <c r="B332" t="s">
-        <v>193</v>
-      </c>
       <c r="C332">
-        <v>10</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5852,21 +5843,21 @@
         <v>543</v>
       </c>
       <c r="B333" t="s">
-        <v>251</v>
+        <v>544</v>
       </c>
       <c r="C333">
-        <v>9.85</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B334" t="s">
-        <v>545</v>
+        <v>187</v>
       </c>
       <c r="C334">
-        <v>9.7200000000000006</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5874,21 +5865,21 @@
         <v>546</v>
       </c>
       <c r="B335" t="s">
-        <v>547</v>
+        <v>309</v>
       </c>
       <c r="C335">
-        <v>9.52</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
+        <v>547</v>
+      </c>
+      <c r="B336" t="s">
         <v>548</v>
       </c>
-      <c r="B336" t="s">
-        <v>187</v>
-      </c>
       <c r="C336">
-        <v>9.44</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5896,10 +5887,10 @@
         <v>549</v>
       </c>
       <c r="B337" t="s">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="C337">
-        <v>8.66</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5910,7 +5901,7 @@
         <v>551</v>
       </c>
       <c r="C338">
-        <v>8.4499999999999993</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5918,43 +5909,43 @@
         <v>552</v>
       </c>
       <c r="B339" t="s">
-        <v>108</v>
+        <v>553</v>
       </c>
       <c r="C339">
-        <v>7.91</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B340" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C340">
-        <v>7.62</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B341" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C341">
-        <v>6.98</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B342" t="s">
-        <v>558</v>
+        <v>128</v>
       </c>
       <c r="C342">
-        <v>6.66</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -5965,7 +5956,7 @@
         <v>560</v>
       </c>
       <c r="C343">
-        <v>6.53</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5973,10 +5964,10 @@
         <v>561</v>
       </c>
       <c r="B344" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="C344">
-        <v>6.04</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5984,21 +5975,21 @@
         <v>562</v>
       </c>
       <c r="B345" t="s">
-        <v>563</v>
+        <v>403</v>
       </c>
       <c r="C345">
-        <v>5.56</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
+        <v>563</v>
+      </c>
+      <c r="B346" t="s">
         <v>564</v>
       </c>
-      <c r="B346" t="s">
-        <v>195</v>
-      </c>
       <c r="C346">
-        <v>5.55</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6006,10 +5997,10 @@
         <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>406</v>
+        <v>298</v>
       </c>
       <c r="C347">
-        <v>4.88</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6020,7 +6011,7 @@
         <v>567</v>
       </c>
       <c r="C348">
-        <v>4.08</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6028,21 +6019,21 @@
         <v>568</v>
       </c>
       <c r="B349" t="s">
-        <v>299</v>
+        <v>569</v>
       </c>
       <c r="C349">
-        <v>3.26</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B350" t="s">
-        <v>570</v>
+        <v>34</v>
       </c>
       <c r="C350">
-        <v>2.08</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6053,7 +6044,7 @@
         <v>572</v>
       </c>
       <c r="C351">
-        <v>1.66</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6061,32 +6052,32 @@
         <v>573</v>
       </c>
       <c r="B352" t="s">
-        <v>36</v>
+        <v>574</v>
       </c>
       <c r="C352">
-        <v>1.24</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B353" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C353">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B354" t="s">
-        <v>577</v>
+        <v>309</v>
       </c>
       <c r="C354">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6097,7 +6088,7 @@
         <v>579</v>
       </c>
       <c r="C355">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6105,10 +6096,10 @@
         <v>580</v>
       </c>
       <c r="B356" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="C356">
-        <v>0.55000000000000004</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6119,7 +6110,7 @@
         <v>582</v>
       </c>
       <c r="C357">
-        <v>0.52</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6127,10 +6118,10 @@
         <v>583</v>
       </c>
       <c r="B358" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="C358">
-        <v>0.47</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6141,7 +6132,7 @@
         <v>585</v>
       </c>
       <c r="C359">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6149,10 +6140,10 @@
         <v>586</v>
       </c>
       <c r="B360" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="C360">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6163,7 +6154,7 @@
         <v>588</v>
       </c>
       <c r="C361">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6171,7 +6162,7 @@
         <v>589</v>
       </c>
       <c r="B362" t="s">
-        <v>42</v>
+        <v>590</v>
       </c>
       <c r="C362">
         <v>0.01</v>
@@ -6179,40 +6170,18 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B363" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C363">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="A364" t="s">
-        <v>592</v>
-      </c>
-      <c r="B364" t="s">
-        <v>593</v>
-      </c>
-      <c r="C364">
-        <v>0.01</v>
+        <v>-88921.08</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>594</v>
-      </c>
-      <c r="B365" t="s">
-        <v>595</v>
-      </c>
-      <c r="C365">
-        <v>-88921.08</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
-      <c r="A367" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FC9422F-B980-43F6-A9AA-FAD63BEAA316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A358AF83-7377-4AC2-929F-ADDC2F4A3F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,24 +68,24 @@
     <t>VENIA</t>
   </si>
   <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>004641487</t>
+  </si>
+  <si>
+    <t>LAILA</t>
+  </si>
+  <si>
     <t>004574428</t>
   </si>
   <si>
     <t>GUILHERME</t>
   </si>
   <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>004641487</t>
-  </si>
-  <si>
-    <t>LAILA</t>
-  </si>
-  <si>
     <t>004398253</t>
   </si>
   <si>
@@ -98,6 +98,12 @@
     <t>LARA</t>
   </si>
   <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
     <t>004454365</t>
   </si>
   <si>
@@ -143,9 +149,6 @@
     <t>004752519</t>
   </si>
   <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
     <t>004460491</t>
   </si>
   <si>
@@ -162,9 +165,6 @@
   </si>
   <si>
     <t>SONIA</t>
-  </si>
-  <si>
-    <t>000834301</t>
   </si>
   <si>
     <t>005121756</t>
@@ -2182,7 +2182,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C365"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2249,7 +2251,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>51365.37</v>
+        <v>30667.24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2260,7 +2262,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>30667.24</v>
+        <v>22063.42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2271,7 +2273,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>22063.42</v>
+        <v>20365.37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2304,7 +2306,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>13566.65</v>
+        <v>15556.79</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2315,7 +2317,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>11241.46</v>
+        <v>13566.65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2326,7 +2328,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>11053.46</v>
+        <v>11241.46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2337,7 +2339,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>7369.3</v>
+        <v>11053.46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2348,7 +2350,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>6395.86</v>
+        <v>7369.3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2359,7 +2361,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>5340.96</v>
+        <v>6395.86</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2370,7 +2372,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>4719.51</v>
+        <v>5340.96</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2381,7 +2383,7 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>4632.05</v>
+        <v>4719.51</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2389,43 +2391,43 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>3744.76</v>
+        <v>4632.05</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
       <c r="C20">
-        <v>2691.13</v>
+        <v>3744.76</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
       <c r="C21">
-        <v>2420.16</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
       <c r="C22">
-        <v>1521.49</v>
+        <v>2420.16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2565,7 +2567,7 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>932.56</v>
@@ -2631,7 +2633,7 @@
         <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>836.83</v>
@@ -2840,7 +2842,7 @@
         <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C60">
         <v>685.03</v>
@@ -3082,7 +3084,7 @@
         <v>151</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C82">
         <v>578.08000000000004</v>
@@ -3093,7 +3095,7 @@
         <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C83">
         <v>574.65</v>
@@ -3214,7 +3216,7 @@
         <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C94">
         <v>521.08000000000004</v>
@@ -3258,7 +3260,7 @@
         <v>176</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C98">
         <v>490.15</v>
@@ -3533,7 +3535,7 @@
         <v>220</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C123">
         <v>332.65</v>
@@ -3841,7 +3843,7 @@
         <v>265</v>
       </c>
       <c r="B151" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C151">
         <v>236.99</v>
@@ -3852,7 +3854,7 @@
         <v>266</v>
       </c>
       <c r="B152" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C152">
         <v>235.61</v>
@@ -3940,7 +3942,7 @@
         <v>279</v>
       </c>
       <c r="B160" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C160">
         <v>199.77</v>
@@ -4072,7 +4074,7 @@
         <v>299</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C172">
         <v>170.37</v>
@@ -4314,7 +4316,7 @@
         <v>331</v>
       </c>
       <c r="B194" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C194">
         <v>129.97</v>
@@ -4501,7 +4503,7 @@
         <v>357</v>
       </c>
       <c r="B211" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C211">
         <v>120.83</v>
@@ -4512,7 +4514,7 @@
         <v>358</v>
       </c>
       <c r="B212" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C212">
         <v>120.72</v>
@@ -4710,7 +4712,7 @@
         <v>383</v>
       </c>
       <c r="B230" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C230">
         <v>90.83</v>
@@ -5062,7 +5064,7 @@
         <v>436</v>
       </c>
       <c r="B262" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C262">
         <v>70.459999999999994</v>
@@ -5128,7 +5130,7 @@
         <v>445</v>
       </c>
       <c r="B268" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C268">
         <v>65.06</v>
@@ -5172,7 +5174,7 @@
         <v>451</v>
       </c>
       <c r="B272" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C272">
         <v>63.94</v>
@@ -5414,7 +5416,7 @@
         <v>480</v>
       </c>
       <c r="B294" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C294">
         <v>44.44</v>
@@ -6030,7 +6032,7 @@
         <v>570</v>
       </c>
       <c r="B350" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C350">
         <v>1.24</v>
@@ -6140,7 +6142,7 @@
         <v>586</v>
       </c>
       <c r="B360" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C360">
         <v>0.01</v>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30415E3F-AC64-4A44-B68A-7DB6B3E9D664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09680294-0911-405F-A38E-E223ED7DB61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="592">
   <si>
     <t>CONTA</t>
   </si>
@@ -49,76 +49,661 @@
     <t>NASSIM</t>
   </si>
   <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>004641487</t>
+  </si>
+  <si>
+    <t>LAILA</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004643737</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>004214604</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>004458604</t>
+  </si>
+  <si>
+    <t>FABIOLA</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004467884</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004550605</t>
+  </si>
+  <si>
+    <t>REJANE</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>004870019</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>002592340</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
+    <t>004208869</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
     <t>004352384</t>
   </si>
   <si>
     <t>BRASFORT</t>
   </si>
   <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>004467884</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>004641487</t>
-  </si>
-  <si>
-    <t>LAILA</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004643737</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>004214604</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>002458288</t>
+  </si>
+  <si>
+    <t>BENEDITO</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004405234</t>
   </si>
   <si>
     <t>004527606</t>
@@ -127,585 +712,6 @@
     <t>MARCIA</t>
   </si>
   <si>
-    <t>004458604</t>
-  </si>
-  <si>
-    <t>FABIOLA</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004550605</t>
-  </si>
-  <si>
-    <t>REJANE</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004482439</t>
-  </si>
-  <si>
-    <t>004870019</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>002592340</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
     <t>004940560</t>
   </si>
   <si>
@@ -1780,13 +1786,13 @@
     <t>VILMA</t>
   </si>
   <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
     <t>004999410</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
   </si>
   <si>
     <t>Filtros aplicados: 
@@ -2155,7 +2161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C363"/>
+  <dimension ref="A1:C364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2213,7 +2219,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>103467.79</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2224,7 +2230,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>100000</v>
+        <v>37906.410000000003</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2235,7 +2241,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>50000</v>
+        <v>37042.699999999997</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2246,7 +2252,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>44501.06</v>
+        <v>30667.24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2257,7 +2263,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>37906.410000000003</v>
+        <v>22063.42</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2268,7 +2274,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>37042.699999999997</v>
+        <v>20365.37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2279,7 +2285,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>30667.24</v>
+        <v>17492.96</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2290,7 +2296,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>22063.42</v>
+        <v>15204.69</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2301,7 +2307,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>20365.37</v>
+        <v>13566.65</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2312,7 +2318,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>17492.96</v>
+        <v>12042.24</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2323,7 +2329,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>15204.69</v>
+        <v>11581.08</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2334,7 +2340,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>13566.65</v>
+        <v>11355</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2345,7 +2351,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>13362.05</v>
+        <v>11053.46</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2356,7 +2362,7 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>12042.24</v>
+        <v>10412.89</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2367,7 +2373,7 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>11581.08</v>
+        <v>6354.84</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2378,7 +2384,7 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>11355</v>
+        <v>4719.51</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2386,43 +2392,43 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21">
-        <v>11241.46</v>
+        <v>4050.48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
       <c r="C22">
-        <v>11053.46</v>
+        <v>3241.46</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s">
-        <v>46</v>
-      </c>
       <c r="C23">
-        <v>6354.84</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
       <c r="C24">
-        <v>4719.51</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2433,7 +2439,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>2691.13</v>
+        <v>1040.55</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2444,7 +2450,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>1396.16</v>
+        <v>988.32</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2452,43 +2458,43 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>1200</v>
+        <v>950.52</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
       <c r="C28">
-        <v>1040.55</v>
+        <v>946.84</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
       <c r="C29">
-        <v>988.32</v>
+        <v>946.25</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
       <c r="C30">
-        <v>950.52</v>
+        <v>943.73</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2499,7 +2505,7 @@
         <v>60</v>
       </c>
       <c r="C31">
-        <v>946.84</v>
+        <v>943.24</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2510,7 +2516,7 @@
         <v>62</v>
       </c>
       <c r="C32">
-        <v>946.25</v>
+        <v>937.33</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2521,7 +2527,7 @@
         <v>64</v>
       </c>
       <c r="C33">
-        <v>943.73</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2529,54 +2535,54 @@
         <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>943.24</v>
+        <v>932.56</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C35">
-        <v>937.33</v>
+        <v>906.28</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36">
-        <v>933.95</v>
+        <v>905.16</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C37">
-        <v>932.56</v>
+        <v>842.42</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
       <c r="C38">
-        <v>906.28</v>
+        <v>841.08</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2587,7 +2593,7 @@
         <v>74</v>
       </c>
       <c r="C39">
-        <v>905.16</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2598,7 +2604,7 @@
         <v>76</v>
       </c>
       <c r="C40">
-        <v>842.42</v>
+        <v>836.83</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2609,7 +2615,7 @@
         <v>78</v>
       </c>
       <c r="C41">
-        <v>841.08</v>
+        <v>831.69</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2620,7 +2626,7 @@
         <v>80</v>
       </c>
       <c r="C42">
-        <v>839.9</v>
+        <v>812.69</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2631,7 +2637,7 @@
         <v>82</v>
       </c>
       <c r="C43">
-        <v>836.83</v>
+        <v>804.59</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2642,7 +2648,7 @@
         <v>84</v>
       </c>
       <c r="C44">
-        <v>831.69</v>
+        <v>799.43</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2653,7 +2659,7 @@
         <v>86</v>
       </c>
       <c r="C45">
-        <v>812.69</v>
+        <v>791.35</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2661,43 +2667,43 @@
         <v>87</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C46">
-        <v>804.59</v>
+        <v>791.07</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
         <v>89</v>
       </c>
-      <c r="B47" t="s">
-        <v>90</v>
-      </c>
       <c r="C47">
-        <v>799.43</v>
+        <v>748.56</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
         <v>91</v>
       </c>
-      <c r="B48" t="s">
-        <v>92</v>
-      </c>
       <c r="C48">
-        <v>791.35</v>
+        <v>748.39</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
         <v>93</v>
       </c>
-      <c r="B49" t="s">
-        <v>66</v>
-      </c>
       <c r="C49">
-        <v>791.07</v>
+        <v>744.09</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2705,65 +2711,65 @@
         <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C50">
-        <v>748.56</v>
+        <v>737.21</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
         <v>96</v>
       </c>
-      <c r="B51" t="s">
-        <v>97</v>
-      </c>
       <c r="C51">
-        <v>748.39</v>
+        <v>733.35</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="C52">
-        <v>744.09</v>
+        <v>732.69</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="C53">
-        <v>737.21</v>
+        <v>715.56</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
         <v>101</v>
       </c>
-      <c r="B54" t="s">
-        <v>102</v>
-      </c>
       <c r="C54">
-        <v>733.35</v>
+        <v>705.17</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
         <v>103</v>
       </c>
-      <c r="B55" t="s">
-        <v>70</v>
-      </c>
       <c r="C55">
-        <v>732.69</v>
+        <v>704.83</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2774,7 +2780,7 @@
         <v>105</v>
       </c>
       <c r="C56">
-        <v>715.56</v>
+        <v>701.13</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2782,54 +2788,54 @@
         <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="C57">
-        <v>705.17</v>
+        <v>685.03</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="C58">
-        <v>704.83</v>
+        <v>677.05</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C59">
-        <v>701.13</v>
+        <v>675.5</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="C60">
-        <v>685.03</v>
+        <v>667.36</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" t="s">
         <v>113</v>
       </c>
-      <c r="B61" t="s">
-        <v>30</v>
-      </c>
       <c r="C61">
-        <v>677.05</v>
+        <v>666.01</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2840,7 +2846,7 @@
         <v>115</v>
       </c>
       <c r="C62">
-        <v>675.5</v>
+        <v>666</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2851,7 +2857,7 @@
         <v>117</v>
       </c>
       <c r="C63">
-        <v>667.36</v>
+        <v>666</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2862,7 +2868,7 @@
         <v>119</v>
       </c>
       <c r="C64">
-        <v>666.01</v>
+        <v>666</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2881,7 +2887,7 @@
         <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="C66">
         <v>666</v>
@@ -2889,10 +2895,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" t="s">
         <v>124</v>
-      </c>
-      <c r="B67" t="s">
-        <v>125</v>
       </c>
       <c r="C67">
         <v>666</v>
@@ -2900,10 +2906,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" t="s">
         <v>126</v>
-      </c>
-      <c r="B68" t="s">
-        <v>127</v>
       </c>
       <c r="C68">
         <v>666</v>
@@ -2911,13 +2917,13 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" t="s">
         <v>128</v>
       </c>
-      <c r="B69" t="s">
-        <v>84</v>
-      </c>
       <c r="C69">
-        <v>666</v>
+        <v>663.35</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2928,7 +2934,7 @@
         <v>130</v>
       </c>
       <c r="C70">
-        <v>666</v>
+        <v>623.46</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2939,7 +2945,7 @@
         <v>132</v>
       </c>
       <c r="C71">
-        <v>666</v>
+        <v>619.59</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2950,7 +2956,7 @@
         <v>134</v>
       </c>
       <c r="C72">
-        <v>663.35</v>
+        <v>618.47</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2958,43 +2964,43 @@
         <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C73">
-        <v>623.46</v>
+        <v>614.59</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
         <v>137</v>
       </c>
-      <c r="B74" t="s">
-        <v>138</v>
-      </c>
       <c r="C74">
-        <v>619.59</v>
+        <v>607.04999999999995</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" t="s">
         <v>139</v>
       </c>
-      <c r="B75" t="s">
-        <v>140</v>
-      </c>
       <c r="C75">
-        <v>618.47</v>
+        <v>598.08000000000004</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" t="s">
         <v>141</v>
       </c>
-      <c r="B76" t="s">
-        <v>109</v>
-      </c>
       <c r="C76">
-        <v>614.59</v>
+        <v>592.84</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3002,76 +3008,76 @@
         <v>142</v>
       </c>
       <c r="B77" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="C77">
-        <v>607.04999999999995</v>
+        <v>590.78</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" t="s">
         <v>144</v>
       </c>
-      <c r="B78" t="s">
-        <v>145</v>
-      </c>
       <c r="C78">
-        <v>598.08000000000004</v>
+        <v>587.61</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="C79">
-        <v>592.84</v>
+        <v>578.08000000000004</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C80">
-        <v>590.78</v>
+        <v>574.65</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C81">
-        <v>587.61</v>
+        <v>568.94000000000005</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="C82">
-        <v>578.08000000000004</v>
+        <v>558.77</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" t="s">
         <v>152</v>
       </c>
-      <c r="B83" t="s">
-        <v>46</v>
-      </c>
       <c r="C83">
-        <v>574.65</v>
+        <v>557.85</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3082,7 +3088,7 @@
         <v>154</v>
       </c>
       <c r="C84">
-        <v>568.94000000000005</v>
+        <v>553.35</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3090,54 +3096,54 @@
         <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="C85">
-        <v>558.77</v>
+        <v>549.72</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="C86">
-        <v>557.85</v>
+        <v>549.71</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C87">
-        <v>553.35</v>
+        <v>534.91</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="C88">
-        <v>549.72</v>
+        <v>531.14</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" t="s">
         <v>162</v>
       </c>
-      <c r="B89" t="s">
-        <v>30</v>
-      </c>
       <c r="C89">
-        <v>549.71</v>
+        <v>525.92999999999995</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3145,43 +3151,43 @@
         <v>163</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>6</v>
       </c>
       <c r="C90">
-        <v>534.91</v>
+        <v>521.65</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" t="s">
         <v>165</v>
       </c>
-      <c r="B91" t="s">
-        <v>166</v>
-      </c>
       <c r="C91">
-        <v>531.14</v>
+        <v>507.85</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" t="s">
         <v>167</v>
       </c>
-      <c r="B92" t="s">
-        <v>168</v>
-      </c>
       <c r="C92">
-        <v>525.92999999999995</v>
+        <v>501.06</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" t="s">
         <v>169</v>
       </c>
-      <c r="B93" t="s">
-        <v>6</v>
-      </c>
       <c r="C93">
-        <v>521.65</v>
+        <v>500.58</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3189,65 +3195,65 @@
         <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
       <c r="C94">
-        <v>507.85</v>
+        <v>491.62</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="C95">
-        <v>500.58</v>
+        <v>490.15</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="C96">
-        <v>491.62</v>
+        <v>489.49</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C97">
-        <v>490.15</v>
+        <v>486.2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="C98">
-        <v>489.49</v>
+        <v>467.79</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" t="s">
         <v>177</v>
       </c>
-      <c r="B99" t="s">
-        <v>84</v>
-      </c>
       <c r="C99">
-        <v>486.2</v>
+        <v>465.01</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3258,7 +3264,7 @@
         <v>179</v>
       </c>
       <c r="C100">
-        <v>465.01</v>
+        <v>459.2</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3269,7 +3275,7 @@
         <v>181</v>
       </c>
       <c r="C101">
-        <v>459.2</v>
+        <v>450.33</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3280,7 +3286,7 @@
         <v>183</v>
       </c>
       <c r="C102">
-        <v>450.33</v>
+        <v>449.3</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3288,21 +3294,21 @@
         <v>184</v>
       </c>
       <c r="B103" t="s">
-        <v>185</v>
+        <v>101</v>
       </c>
       <c r="C103">
-        <v>449.3</v>
+        <v>448.42</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" t="s">
         <v>186</v>
       </c>
-      <c r="B104" t="s">
-        <v>107</v>
-      </c>
       <c r="C104">
-        <v>448.42</v>
+        <v>444.28</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3310,21 +3316,21 @@
         <v>187</v>
       </c>
       <c r="B105" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
       <c r="C105">
-        <v>444.28</v>
+        <v>438.09</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>188</v>
+      </c>
+      <c r="B106" t="s">
         <v>189</v>
       </c>
-      <c r="B106" t="s">
-        <v>70</v>
-      </c>
       <c r="C106">
-        <v>438.09</v>
+        <v>420.94</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3335,7 +3341,7 @@
         <v>191</v>
       </c>
       <c r="C107">
-        <v>420.94</v>
+        <v>414.23</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3346,7 +3352,7 @@
         <v>193</v>
       </c>
       <c r="C108">
-        <v>414.23</v>
+        <v>412.83</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3357,7 +3363,7 @@
         <v>195</v>
       </c>
       <c r="C109">
-        <v>412.83</v>
+        <v>410.43</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3368,7 +3374,7 @@
         <v>197</v>
       </c>
       <c r="C110">
-        <v>410.43</v>
+        <v>407.48</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3379,7 +3385,7 @@
         <v>199</v>
       </c>
       <c r="C111">
-        <v>407.48</v>
+        <v>405.36</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3387,21 +3393,21 @@
         <v>200</v>
       </c>
       <c r="B112" t="s">
-        <v>201</v>
+        <v>62</v>
       </c>
       <c r="C112">
-        <v>405.36</v>
+        <v>400.75</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
+        <v>201</v>
+      </c>
+      <c r="B113" t="s">
         <v>202</v>
       </c>
-      <c r="B113" t="s">
-        <v>68</v>
-      </c>
       <c r="C113">
-        <v>400.75</v>
+        <v>396.16</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3464,7 +3470,7 @@
         <v>213</v>
       </c>
       <c r="B119" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C119">
         <v>346.83</v>
@@ -3497,7 +3503,7 @@
         <v>218</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C122">
         <v>332.65</v>
@@ -3552,7 +3558,7 @@
         <v>227</v>
       </c>
       <c r="B127" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C127">
         <v>313.51</v>
@@ -3566,7 +3572,7 @@
         <v>229</v>
       </c>
       <c r="C128">
-        <v>311.82</v>
+        <v>312.05</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -3577,7 +3583,7 @@
         <v>231</v>
       </c>
       <c r="C129">
-        <v>305.27</v>
+        <v>311.82</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3588,7 +3594,7 @@
         <v>233</v>
       </c>
       <c r="C130">
-        <v>302.51</v>
+        <v>305.27</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3599,7 +3605,7 @@
         <v>235</v>
       </c>
       <c r="C131">
-        <v>293.3</v>
+        <v>302.51</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3610,7 +3616,7 @@
         <v>237</v>
       </c>
       <c r="C132">
-        <v>290.79000000000002</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3621,7 +3627,7 @@
         <v>239</v>
       </c>
       <c r="C133">
-        <v>281.69</v>
+        <v>290.79000000000002</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3632,7 +3638,7 @@
         <v>241</v>
       </c>
       <c r="C134">
-        <v>278.49</v>
+        <v>281.69</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3643,7 +3649,7 @@
         <v>243</v>
       </c>
       <c r="C135">
-        <v>277.3</v>
+        <v>278.49</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3651,21 +3657,21 @@
         <v>244</v>
       </c>
       <c r="B136" t="s">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="C136">
-        <v>276.66000000000003</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B137" t="s">
-        <v>246</v>
+        <v>162</v>
       </c>
       <c r="C137">
-        <v>276.52</v>
+        <v>276.66000000000003</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -3676,7 +3682,7 @@
         <v>248</v>
       </c>
       <c r="C138">
-        <v>264.8</v>
+        <v>276.52</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3684,32 +3690,32 @@
         <v>249</v>
       </c>
       <c r="B139" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="C139">
-        <v>262.73</v>
+        <v>264.8</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B140" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="C140">
-        <v>260.51</v>
+        <v>262.73</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B141" t="s">
-        <v>252</v>
+        <v>117</v>
       </c>
       <c r="C141">
-        <v>260.14999999999998</v>
+        <v>260.51</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3717,32 +3723,32 @@
         <v>253</v>
       </c>
       <c r="B142" t="s">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="C142">
-        <v>253.25</v>
+        <v>260.14999999999998</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B143" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="C143">
-        <v>248.66</v>
+        <v>253.25</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B144" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C144">
-        <v>248.22</v>
+        <v>248.66</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3750,21 +3756,21 @@
         <v>257</v>
       </c>
       <c r="B145" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="C145">
-        <v>248.07</v>
+        <v>248.22</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B146" t="s">
-        <v>259</v>
+        <v>64</v>
       </c>
       <c r="C146">
-        <v>242.48</v>
+        <v>248.07</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3772,43 +3778,43 @@
         <v>260</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="C147">
-        <v>237.08</v>
+        <v>242.48</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="C148">
-        <v>236.99</v>
+        <v>237.08</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B149" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C149">
-        <v>235.61</v>
+        <v>236.99</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B150" t="s">
-        <v>264</v>
+        <v>26</v>
       </c>
       <c r="C150">
-        <v>233.93</v>
+        <v>235.61</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -3819,7 +3825,7 @@
         <v>266</v>
       </c>
       <c r="C151">
-        <v>233.88</v>
+        <v>233.93</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3827,21 +3833,21 @@
         <v>267</v>
       </c>
       <c r="B152" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="C152">
-        <v>232.63</v>
+        <v>233.88</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B153" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="C153">
-        <v>227.02</v>
+        <v>232.63</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3849,21 +3855,21 @@
         <v>270</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>271</v>
       </c>
       <c r="C154">
-        <v>217.03</v>
+        <v>227.02</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B155" t="s">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="C155">
-        <v>212.6</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3874,7 +3880,7 @@
         <v>274</v>
       </c>
       <c r="C156">
-        <v>206.79</v>
+        <v>212.6</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3885,7 +3891,7 @@
         <v>276</v>
       </c>
       <c r="C157">
-        <v>199.77</v>
+        <v>206.79</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3896,7 +3902,7 @@
         <v>278</v>
       </c>
       <c r="C158">
-        <v>196.41</v>
+        <v>199.77</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3904,21 +3910,21 @@
         <v>279</v>
       </c>
       <c r="B159" t="s">
-        <v>156</v>
+        <v>280</v>
       </c>
       <c r="C159">
-        <v>192.19</v>
+        <v>196.41</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B160" t="s">
-        <v>281</v>
+        <v>150</v>
       </c>
       <c r="C160">
-        <v>190.71</v>
+        <v>192.19</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3926,21 +3932,21 @@
         <v>282</v>
       </c>
       <c r="B161" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="C161">
-        <v>188.83</v>
+        <v>190.71</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B162" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="C162">
-        <v>188.11</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3951,7 +3957,7 @@
         <v>286</v>
       </c>
       <c r="C163">
-        <v>188.07</v>
+        <v>188.11</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3959,21 +3965,21 @@
         <v>287</v>
       </c>
       <c r="B164" t="s">
-        <v>97</v>
+        <v>288</v>
       </c>
       <c r="C164">
-        <v>180.54</v>
+        <v>188.07</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B165" t="s">
-        <v>289</v>
+        <v>91</v>
       </c>
       <c r="C165">
-        <v>178.03</v>
+        <v>180.54</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3984,7 +3990,7 @@
         <v>291</v>
       </c>
       <c r="C166">
-        <v>173.83</v>
+        <v>178.03</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3995,7 +4001,7 @@
         <v>293</v>
       </c>
       <c r="C167">
-        <v>172.7</v>
+        <v>173.83</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -4006,7 +4012,7 @@
         <v>295</v>
       </c>
       <c r="C168">
-        <v>172.32</v>
+        <v>172.7</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4014,21 +4020,21 @@
         <v>296</v>
       </c>
       <c r="B169" t="s">
-        <v>26</v>
+        <v>297</v>
       </c>
       <c r="C169">
-        <v>170.37</v>
+        <v>172.32</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B170" t="s">
-        <v>298</v>
+        <v>20</v>
       </c>
       <c r="C170">
-        <v>170.27</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4036,21 +4042,21 @@
         <v>299</v>
       </c>
       <c r="B171" t="s">
-        <v>102</v>
+        <v>300</v>
       </c>
       <c r="C171">
-        <v>163.77000000000001</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B172" t="s">
-        <v>301</v>
+        <v>96</v>
       </c>
       <c r="C172">
-        <v>163.62</v>
+        <v>163.77000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4058,43 +4064,43 @@
         <v>302</v>
       </c>
       <c r="B173" t="s">
-        <v>181</v>
+        <v>303</v>
       </c>
       <c r="C173">
-        <v>160.33000000000001</v>
+        <v>163.62</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B174" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="C174">
-        <v>156.99</v>
+        <v>160.33000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B175" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="C175">
-        <v>155.81</v>
+        <v>156.99</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B176" t="s">
-        <v>306</v>
+        <v>199</v>
       </c>
       <c r="C176">
-        <v>155.47</v>
+        <v>155.81</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4102,32 +4108,32 @@
         <v>307</v>
       </c>
       <c r="B177" t="s">
-        <v>66</v>
+        <v>308</v>
       </c>
       <c r="C177">
-        <v>155.30000000000001</v>
+        <v>155.47</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B178" t="s">
-        <v>233</v>
+        <v>60</v>
       </c>
       <c r="C178">
-        <v>154.04</v>
+        <v>155.30000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B179" t="s">
-        <v>310</v>
+        <v>235</v>
       </c>
       <c r="C179">
-        <v>151.79</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4135,43 +4141,43 @@
         <v>311</v>
       </c>
       <c r="B180" t="s">
-        <v>127</v>
+        <v>312</v>
       </c>
       <c r="C180">
-        <v>149.66</v>
+        <v>151.79</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B181" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="C181">
-        <v>148.72999999999999</v>
+        <v>149.66</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B182" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="C182">
-        <v>147.84</v>
+        <v>148.72999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B183" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="C183">
-        <v>142.44</v>
+        <v>147.84</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4179,32 +4185,32 @@
         <v>316</v>
       </c>
       <c r="B184" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="C184">
-        <v>136.12</v>
+        <v>142.44</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B185" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="C185">
-        <v>135.84</v>
+        <v>136.12</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B186" t="s">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c r="C186">
-        <v>135.63</v>
+        <v>135.84</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4215,7 +4221,7 @@
         <v>321</v>
       </c>
       <c r="C187">
-        <v>135.37</v>
+        <v>135.63</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -4226,7 +4232,7 @@
         <v>323</v>
       </c>
       <c r="C188">
-        <v>135.19</v>
+        <v>135.37</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4234,21 +4240,21 @@
         <v>324</v>
       </c>
       <c r="B189" t="s">
-        <v>179</v>
+        <v>325</v>
       </c>
       <c r="C189">
-        <v>134.62</v>
+        <v>135.19</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B190" t="s">
-        <v>326</v>
+        <v>177</v>
       </c>
       <c r="C190">
-        <v>132.79</v>
+        <v>134.62</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4256,54 +4262,54 @@
         <v>327</v>
       </c>
       <c r="B191" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="C191">
-        <v>132.05000000000001</v>
+        <v>132.79</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B192" t="s">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="C192">
-        <v>129.97</v>
+        <v>132.05000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B193" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="C193">
-        <v>129.93</v>
+        <v>129.97</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B194" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="C194">
-        <v>128.85</v>
+        <v>129.93</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B195" t="s">
-        <v>332</v>
+        <v>229</v>
       </c>
       <c r="C195">
-        <v>128.63</v>
+        <v>128.85</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4311,7 +4317,7 @@
         <v>333</v>
       </c>
       <c r="B196" t="s">
-        <v>70</v>
+        <v>334</v>
       </c>
       <c r="C196">
         <v>128.63</v>
@@ -4319,13 +4325,13 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B197" t="s">
-        <v>335</v>
+        <v>64</v>
       </c>
       <c r="C197">
-        <v>128.35</v>
+        <v>128.63</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4336,7 +4342,7 @@
         <v>337</v>
       </c>
       <c r="C198">
-        <v>128.30000000000001</v>
+        <v>128.35</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -4347,7 +4353,7 @@
         <v>339</v>
       </c>
       <c r="C199">
-        <v>127.76</v>
+        <v>128.30000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4358,7 +4364,7 @@
         <v>341</v>
       </c>
       <c r="C200">
-        <v>127.59</v>
+        <v>127.76</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4366,32 +4372,32 @@
         <v>342</v>
       </c>
       <c r="B201" t="s">
-        <v>66</v>
+        <v>343</v>
       </c>
       <c r="C201">
-        <v>126.19</v>
+        <v>127.59</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B202" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="C202">
-        <v>124.52</v>
+        <v>126.19</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B203" t="s">
-        <v>345</v>
+        <v>91</v>
       </c>
       <c r="C203">
-        <v>123.03</v>
+        <v>124.52</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4399,21 +4405,21 @@
         <v>346</v>
       </c>
       <c r="B204" t="s">
-        <v>193</v>
+        <v>347</v>
       </c>
       <c r="C204">
-        <v>122.89</v>
+        <v>123.03</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B205" t="s">
-        <v>348</v>
+        <v>191</v>
       </c>
       <c r="C205">
-        <v>121.28</v>
+        <v>122.89</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4424,7 +4430,7 @@
         <v>350</v>
       </c>
       <c r="C206">
-        <v>121.15</v>
+        <v>121.28</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4432,32 +4438,32 @@
         <v>351</v>
       </c>
       <c r="B207" t="s">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="C207">
-        <v>120.88</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B208" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="C208">
-        <v>120.72</v>
+        <v>120.88</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B209" t="s">
-        <v>354</v>
+        <v>14</v>
       </c>
       <c r="C209">
-        <v>120.7</v>
+        <v>120.72</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4465,32 +4471,32 @@
         <v>355</v>
       </c>
       <c r="B210" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="C210">
-        <v>119.26</v>
+        <v>120.7</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B211" t="s">
-        <v>222</v>
+        <v>341</v>
       </c>
       <c r="C211">
-        <v>118.26</v>
+        <v>119.26</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B212" t="s">
-        <v>358</v>
+        <v>222</v>
       </c>
       <c r="C212">
-        <v>113.99</v>
+        <v>118.26</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4498,54 +4504,54 @@
         <v>359</v>
       </c>
       <c r="B213" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="C213">
-        <v>113</v>
+        <v>113.99</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B214" t="s">
-        <v>154</v>
+        <v>334</v>
       </c>
       <c r="C214">
-        <v>109.4</v>
+        <v>113</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B215" t="s">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="C215">
-        <v>109.27</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B216" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C216">
-        <v>109.01</v>
+        <v>109.27</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B217" t="s">
-        <v>364</v>
+        <v>243</v>
       </c>
       <c r="C217">
-        <v>106.84</v>
+        <v>109.01</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4556,7 +4562,7 @@
         <v>366</v>
       </c>
       <c r="C218">
-        <v>105.23</v>
+        <v>106.84</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4567,7 +4573,7 @@
         <v>368</v>
       </c>
       <c r="C219">
-        <v>104.9</v>
+        <v>105.23</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -4578,7 +4584,7 @@
         <v>370</v>
       </c>
       <c r="C220">
-        <v>99.24</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4586,43 +4592,43 @@
         <v>371</v>
       </c>
       <c r="B221" t="s">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="C221">
-        <v>98.28</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B222" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C222">
-        <v>97.08</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B223" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C223">
-        <v>95.88</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B224" t="s">
-        <v>375</v>
+        <v>91</v>
       </c>
       <c r="C224">
-        <v>95.38</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4633,7 +4639,7 @@
         <v>377</v>
       </c>
       <c r="C225">
-        <v>94.95</v>
+        <v>95.38</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4641,54 +4647,54 @@
         <v>378</v>
       </c>
       <c r="B226" t="s">
-        <v>168</v>
+        <v>379</v>
       </c>
       <c r="C226">
-        <v>94.27</v>
+        <v>94.95</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B227" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="C227">
-        <v>92.07</v>
+        <v>94.27</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B228" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C228">
-        <v>90.83</v>
+        <v>92.07</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B229" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C229">
-        <v>90.2</v>
+        <v>90.83</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B230" t="s">
-        <v>383</v>
+        <v>22</v>
       </c>
       <c r="C230">
-        <v>89.85</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4699,7 +4705,7 @@
         <v>385</v>
       </c>
       <c r="C231">
-        <v>88.8</v>
+        <v>89.85</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4710,7 +4716,7 @@
         <v>387</v>
       </c>
       <c r="C232">
-        <v>86.45</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4718,21 +4724,21 @@
         <v>388</v>
       </c>
       <c r="B233" t="s">
-        <v>193</v>
+        <v>389</v>
       </c>
       <c r="C233">
-        <v>86.38</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B234" t="s">
-        <v>390</v>
+        <v>191</v>
       </c>
       <c r="C234">
-        <v>84.72</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4740,21 +4746,21 @@
         <v>391</v>
       </c>
       <c r="B235" t="s">
-        <v>132</v>
+        <v>392</v>
       </c>
       <c r="C235">
-        <v>83.13</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B236" t="s">
-        <v>393</v>
+        <v>126</v>
       </c>
       <c r="C236">
-        <v>83.06</v>
+        <v>83.13</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4762,32 +4768,32 @@
         <v>394</v>
       </c>
       <c r="B237" t="s">
-        <v>197</v>
+        <v>395</v>
       </c>
       <c r="C237">
-        <v>82.79</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B238" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C238">
-        <v>81.87</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B239" t="s">
-        <v>397</v>
+        <v>111</v>
       </c>
       <c r="C239">
-        <v>80.05</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4798,7 +4804,7 @@
         <v>399</v>
       </c>
       <c r="C240">
-        <v>79.36</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4806,32 +4812,32 @@
         <v>400</v>
       </c>
       <c r="B241" t="s">
-        <v>248</v>
+        <v>401</v>
       </c>
       <c r="C241">
-        <v>78.73</v>
+        <v>79.36</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B242" t="s">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="C242">
-        <v>78.319999999999993</v>
+        <v>78.73</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B243" t="s">
-        <v>403</v>
+        <v>64</v>
       </c>
       <c r="C243">
-        <v>77.53</v>
+        <v>78.319999999999993</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4842,7 +4848,7 @@
         <v>405</v>
       </c>
       <c r="C244">
-        <v>77.19</v>
+        <v>77.53</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -4853,7 +4859,7 @@
         <v>407</v>
       </c>
       <c r="C245">
-        <v>76.260000000000005</v>
+        <v>77.19</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4864,7 +4870,7 @@
         <v>409</v>
       </c>
       <c r="C246">
-        <v>75.86</v>
+        <v>76.260000000000005</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4872,21 +4878,21 @@
         <v>410</v>
       </c>
       <c r="B247" t="s">
-        <v>158</v>
+        <v>411</v>
       </c>
       <c r="C247">
-        <v>75.56</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B248" t="s">
-        <v>412</v>
+        <v>152</v>
       </c>
       <c r="C248">
-        <v>74.39</v>
+        <v>75.56</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4897,7 +4903,7 @@
         <v>414</v>
       </c>
       <c r="C249">
-        <v>74.27</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4908,7 +4914,7 @@
         <v>416</v>
       </c>
       <c r="C250">
-        <v>74.23</v>
+        <v>74.27</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4919,7 +4925,7 @@
         <v>418</v>
       </c>
       <c r="C251">
-        <v>73.650000000000006</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4930,7 +4936,7 @@
         <v>420</v>
       </c>
       <c r="C252">
-        <v>73.599999999999994</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4941,7 +4947,7 @@
         <v>422</v>
       </c>
       <c r="C253">
-        <v>73.56</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4952,7 +4958,7 @@
         <v>424</v>
       </c>
       <c r="C254">
-        <v>73.53</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4963,7 +4969,7 @@
         <v>426</v>
       </c>
       <c r="C255">
-        <v>73.430000000000007</v>
+        <v>73.53</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4974,7 +4980,7 @@
         <v>428</v>
       </c>
       <c r="C256">
-        <v>73.3</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4985,7 +4991,7 @@
         <v>430</v>
       </c>
       <c r="C257">
-        <v>72.42</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4993,54 +4999,54 @@
         <v>431</v>
       </c>
       <c r="B258" t="s">
-        <v>348</v>
+        <v>432</v>
       </c>
       <c r="C258">
-        <v>71.31</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B259" t="s">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="C259">
-        <v>70.459999999999994</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B260" t="s">
-        <v>332</v>
+        <v>14</v>
       </c>
       <c r="C260">
-        <v>69.45</v>
+        <v>70.459999999999994</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B261" t="s">
-        <v>220</v>
+        <v>334</v>
       </c>
       <c r="C261">
-        <v>68.459999999999994</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B262" t="s">
-        <v>436</v>
+        <v>220</v>
       </c>
       <c r="C262">
-        <v>68.05</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5051,7 +5057,7 @@
         <v>438</v>
       </c>
       <c r="C263">
-        <v>67.69</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5062,7 +5068,7 @@
         <v>440</v>
       </c>
       <c r="C264">
-        <v>66.010000000000005</v>
+        <v>67.69</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5070,32 +5076,32 @@
         <v>441</v>
       </c>
       <c r="B265" t="s">
-        <v>42</v>
+        <v>442</v>
       </c>
       <c r="C265">
-        <v>65.06</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B266" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="C266">
-        <v>64.709999999999994</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B267" t="s">
-        <v>444</v>
+        <v>91</v>
       </c>
       <c r="C267">
-        <v>64.400000000000006</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5106,7 +5112,7 @@
         <v>446</v>
       </c>
       <c r="C268">
-        <v>64.040000000000006</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5114,32 +5120,32 @@
         <v>447</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>448</v>
       </c>
       <c r="C269">
-        <v>63.94</v>
+        <v>64.040000000000006</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B270" t="s">
-        <v>348</v>
+        <v>40</v>
       </c>
       <c r="C270">
-        <v>62.6</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B271" t="s">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="C271">
-        <v>61.74</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5147,32 +5153,32 @@
         <v>451</v>
       </c>
       <c r="B272" t="s">
-        <v>154</v>
+        <v>452</v>
       </c>
       <c r="C272">
-        <v>60.44</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B273" t="s">
-        <v>375</v>
+        <v>148</v>
       </c>
       <c r="C273">
-        <v>59.87</v>
+        <v>60.44</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B274" t="s">
-        <v>454</v>
+        <v>377</v>
       </c>
       <c r="C274">
-        <v>59.63</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5180,43 +5186,43 @@
         <v>455</v>
       </c>
       <c r="B275" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="C275">
-        <v>59.2</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B276" t="s">
-        <v>306</v>
+        <v>452</v>
       </c>
       <c r="C276">
-        <v>57.82</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B277" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="C277">
-        <v>56.79</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B278" t="s">
-        <v>459</v>
+        <v>278</v>
       </c>
       <c r="C278">
-        <v>55.66</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5224,21 +5230,21 @@
         <v>460</v>
       </c>
       <c r="B279" t="s">
-        <v>111</v>
+        <v>461</v>
       </c>
       <c r="C279">
-        <v>55.24</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B280" t="s">
-        <v>462</v>
+        <v>105</v>
       </c>
       <c r="C280">
-        <v>54.71</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5246,21 +5252,21 @@
         <v>463</v>
       </c>
       <c r="B281" t="s">
-        <v>291</v>
+        <v>464</v>
       </c>
       <c r="C281">
-        <v>52.09</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B282" t="s">
-        <v>465</v>
+        <v>293</v>
       </c>
       <c r="C282">
-        <v>51.65</v>
+        <v>52.09</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5271,7 +5277,7 @@
         <v>467</v>
       </c>
       <c r="C283">
-        <v>50</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5279,65 +5285,65 @@
         <v>468</v>
       </c>
       <c r="B284" t="s">
-        <v>295</v>
+        <v>469</v>
       </c>
       <c r="C284">
-        <v>49.28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B285" t="s">
-        <v>28</v>
+        <v>297</v>
       </c>
       <c r="C285">
-        <v>48.65</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B286" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C286">
-        <v>48.16</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B287" t="s">
-        <v>326</v>
+        <v>6</v>
       </c>
       <c r="C287">
-        <v>46.28</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B288" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="C288">
-        <v>46.23</v>
+        <v>46.28</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B289" t="s">
-        <v>474</v>
+        <v>300</v>
       </c>
       <c r="C289">
-        <v>44.69</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5345,40 +5351,40 @@
         <v>475</v>
       </c>
       <c r="B290" t="s">
-        <v>173</v>
+        <v>476</v>
       </c>
       <c r="C290">
-        <v>44.52</v>
+        <v>44.69</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B291" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="C291">
-        <v>44.47</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B292" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="C292">
-        <v>44.44</v>
+        <v>44.47</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B293" t="s">
-        <v>479</v>
+        <v>20</v>
       </c>
       <c r="C293">
         <v>44.44</v>
@@ -5392,7 +5398,7 @@
         <v>481</v>
       </c>
       <c r="C294">
-        <v>43.96</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5403,7 +5409,7 @@
         <v>483</v>
       </c>
       <c r="C295">
-        <v>42.45</v>
+        <v>43.96</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5411,32 +5417,32 @@
         <v>484</v>
       </c>
       <c r="B296" t="s">
-        <v>154</v>
+        <v>485</v>
       </c>
       <c r="C296">
-        <v>42.2</v>
+        <v>42.45</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B297" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="C297">
-        <v>40</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B298" t="s">
-        <v>487</v>
+        <v>195</v>
       </c>
       <c r="C298">
-        <v>39.79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5444,21 +5450,21 @@
         <v>488</v>
       </c>
       <c r="B299" t="s">
-        <v>30</v>
+        <v>489</v>
       </c>
       <c r="C299">
-        <v>37.799999999999997</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B300" t="s">
-        <v>490</v>
+        <v>24</v>
       </c>
       <c r="C300">
-        <v>37.200000000000003</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5469,7 +5475,7 @@
         <v>492</v>
       </c>
       <c r="C301">
-        <v>36.94</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5477,21 +5483,21 @@
         <v>493</v>
       </c>
       <c r="B302" t="s">
-        <v>291</v>
+        <v>494</v>
       </c>
       <c r="C302">
-        <v>33.049999999999997</v>
+        <v>36.94</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B303" t="s">
-        <v>495</v>
+        <v>293</v>
       </c>
       <c r="C303">
-        <v>32.78</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5502,7 +5508,7 @@
         <v>497</v>
       </c>
       <c r="C304">
-        <v>31.71</v>
+        <v>32.78</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5513,7 +5519,7 @@
         <v>499</v>
       </c>
       <c r="C305">
-        <v>30.03</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5524,7 +5530,7 @@
         <v>501</v>
       </c>
       <c r="C306">
-        <v>29.9</v>
+        <v>30.03</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5535,7 +5541,7 @@
         <v>503</v>
       </c>
       <c r="C307">
-        <v>29.32</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5543,32 +5549,32 @@
         <v>504</v>
       </c>
       <c r="B308" t="s">
-        <v>197</v>
+        <v>505</v>
       </c>
       <c r="C308">
-        <v>28.58</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B309" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="C309">
-        <v>28.26</v>
+        <v>28.58</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B310" t="s">
-        <v>507</v>
+        <v>24</v>
       </c>
       <c r="C310">
-        <v>27.86</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5579,7 +5585,7 @@
         <v>509</v>
       </c>
       <c r="C311">
-        <v>27.83</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5590,7 +5596,7 @@
         <v>511</v>
       </c>
       <c r="C312">
-        <v>26.89</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5598,32 +5604,32 @@
         <v>512</v>
       </c>
       <c r="B313" t="s">
-        <v>181</v>
+        <v>513</v>
       </c>
       <c r="C313">
-        <v>26.8</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B314" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="C314">
-        <v>26.1</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B315" t="s">
-        <v>515</v>
+        <v>121</v>
       </c>
       <c r="C315">
-        <v>24.5</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5631,21 +5637,21 @@
         <v>516</v>
       </c>
       <c r="B316" t="s">
-        <v>337</v>
+        <v>517</v>
       </c>
       <c r="C316">
-        <v>24.33</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B317" t="s">
-        <v>518</v>
+        <v>339</v>
       </c>
       <c r="C317">
-        <v>23.89</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5653,21 +5659,21 @@
         <v>519</v>
       </c>
       <c r="B318" t="s">
-        <v>337</v>
+        <v>520</v>
       </c>
       <c r="C318">
-        <v>23.11</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B319" t="s">
-        <v>521</v>
+        <v>339</v>
       </c>
       <c r="C319">
-        <v>21.27</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5675,21 +5681,21 @@
         <v>522</v>
       </c>
       <c r="B320" t="s">
-        <v>127</v>
+        <v>523</v>
       </c>
       <c r="C320">
-        <v>20.49</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B321" t="s">
-        <v>524</v>
+        <v>121</v>
       </c>
       <c r="C321">
-        <v>19.12</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5697,21 +5703,21 @@
         <v>525</v>
       </c>
       <c r="B322" t="s">
-        <v>215</v>
+        <v>526</v>
       </c>
       <c r="C322">
-        <v>16.78</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B323" t="s">
-        <v>527</v>
+        <v>215</v>
       </c>
       <c r="C323">
-        <v>15.76</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5722,7 +5728,7 @@
         <v>529</v>
       </c>
       <c r="C324">
-        <v>14.67</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5733,7 +5739,7 @@
         <v>531</v>
       </c>
       <c r="C325">
-        <v>13.69</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5744,7 +5750,7 @@
         <v>533</v>
       </c>
       <c r="C326">
-        <v>12.38</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5755,7 +5761,7 @@
         <v>535</v>
       </c>
       <c r="C327">
-        <v>11.39</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5763,32 +5769,32 @@
         <v>536</v>
       </c>
       <c r="B328" t="s">
-        <v>191</v>
+        <v>537</v>
       </c>
       <c r="C328">
-        <v>10</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B329" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="C329">
-        <v>9.85</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B330" t="s">
-        <v>539</v>
+        <v>250</v>
       </c>
       <c r="C330">
-        <v>9.7200000000000006</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5799,7 +5805,7 @@
         <v>541</v>
       </c>
       <c r="C331">
-        <v>9.52</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5807,32 +5813,32 @@
         <v>542</v>
       </c>
       <c r="B332" t="s">
-        <v>185</v>
+        <v>543</v>
       </c>
       <c r="C332">
-        <v>9.44</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B333" t="s">
-        <v>306</v>
+        <v>183</v>
       </c>
       <c r="C333">
-        <v>8.66</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B334" t="s">
-        <v>545</v>
+        <v>308</v>
       </c>
       <c r="C334">
-        <v>8.4499999999999993</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5840,21 +5846,21 @@
         <v>546</v>
       </c>
       <c r="B335" t="s">
-        <v>109</v>
+        <v>547</v>
       </c>
       <c r="C335">
-        <v>7.91</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B336" t="s">
-        <v>548</v>
+        <v>103</v>
       </c>
       <c r="C336">
-        <v>7.62</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5865,7 +5871,7 @@
         <v>550</v>
       </c>
       <c r="C337">
-        <v>6.98</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5876,7 +5882,7 @@
         <v>552</v>
       </c>
       <c r="C338">
-        <v>6.66</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5887,7 +5893,7 @@
         <v>554</v>
       </c>
       <c r="C339">
-        <v>6.53</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5895,21 +5901,21 @@
         <v>555</v>
       </c>
       <c r="B340" t="s">
-        <v>127</v>
+        <v>556</v>
       </c>
       <c r="C340">
-        <v>6.04</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B341" t="s">
-        <v>557</v>
+        <v>121</v>
       </c>
       <c r="C341">
-        <v>5.56</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5917,32 +5923,32 @@
         <v>558</v>
       </c>
       <c r="B342" t="s">
-        <v>193</v>
+        <v>559</v>
       </c>
       <c r="C342">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B343" t="s">
-        <v>399</v>
+        <v>191</v>
       </c>
       <c r="C343">
-        <v>4.88</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B344" t="s">
-        <v>561</v>
+        <v>401</v>
       </c>
       <c r="C344">
-        <v>4.08</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5950,21 +5956,21 @@
         <v>562</v>
       </c>
       <c r="B345" t="s">
-        <v>295</v>
+        <v>563</v>
       </c>
       <c r="C345">
-        <v>3.26</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B346" t="s">
-        <v>564</v>
+        <v>297</v>
       </c>
       <c r="C346">
-        <v>2.08</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5975,7 +5981,7 @@
         <v>566</v>
       </c>
       <c r="C347">
-        <v>1.66</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5983,21 +5989,21 @@
         <v>567</v>
       </c>
       <c r="B348" t="s">
-        <v>14</v>
+        <v>568</v>
       </c>
       <c r="C348">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B349" t="s">
-        <v>569</v>
+        <v>40</v>
       </c>
       <c r="C349">
-        <v>0.78</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6008,7 +6014,7 @@
         <v>571</v>
       </c>
       <c r="C350">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6019,7 +6025,7 @@
         <v>573</v>
       </c>
       <c r="C351">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6027,32 +6033,32 @@
         <v>574</v>
       </c>
       <c r="B352" t="s">
-        <v>306</v>
+        <v>575</v>
       </c>
       <c r="C352">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B353" t="s">
-        <v>66</v>
+        <v>308</v>
       </c>
       <c r="C353">
-        <v>0.47</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B354" t="s">
-        <v>577</v>
+        <v>60</v>
       </c>
       <c r="C354">
-        <v>0.06</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6060,18 +6066,18 @@
         <v>578</v>
       </c>
       <c r="B355" t="s">
-        <v>40</v>
+        <v>579</v>
       </c>
       <c r="C355">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B356" t="s">
-        <v>580</v>
+        <v>32</v>
       </c>
       <c r="C356">
         <v>0.03</v>
@@ -6082,18 +6088,18 @@
         <v>581</v>
       </c>
       <c r="B357" t="s">
-        <v>26</v>
+        <v>582</v>
       </c>
       <c r="C357">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B358" t="s">
-        <v>583</v>
+        <v>20</v>
       </c>
       <c r="C358">
         <v>0.01</v>
@@ -6115,26 +6121,37 @@
         <v>586</v>
       </c>
       <c r="B360" t="s">
-        <v>82</v>
+        <v>587</v>
       </c>
       <c r="C360">
-        <v>-167.52</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B361" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C361">
-        <v>-41764.32</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
-      <c r="A363" t="s">
-        <v>589</v>
+        <v>-51.62</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>590</v>
+      </c>
+      <c r="B362" t="s">
+        <v>76</v>
+      </c>
+      <c r="C362">
+        <v>-167.52</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09680294-0911-405F-A38E-E223ED7DB61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BC4F6A-6B1B-47AC-BE51-EE5C9EE746C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="588">
   <si>
     <t>CONTA</t>
   </si>
@@ -61,1419 +74,1413 @@
     <t>HIROKO</t>
   </si>
   <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>004641487</t>
+  </si>
+  <si>
+    <t>LAILA</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>005169333</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004643737</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004467884</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>004870019</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>002592340</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
+    <t>004208869</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>002458288</t>
+  </si>
+  <si>
+    <t>BENEDITO</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004207374</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>004212409</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>004444605</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>004425965</t>
+  </si>
+  <si>
+    <t>CAROLLINA</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>004207278</t>
+  </si>
+  <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004334158</t>
+  </si>
+  <si>
+    <t>LEONE</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>004450405</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004243043</t>
+  </si>
+  <si>
+    <t>SUELI</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>004369172</t>
+  </si>
+  <si>
+    <t>LUIZA</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>004340984</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
     <t>004460487</t>
   </si>
   <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>004641487</t>
-  </si>
-  <si>
-    <t>LAILA</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004643737</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>004214604</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>004458604</t>
-  </si>
-  <si>
-    <t>FABIOLA</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004467884</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004550605</t>
-  </si>
-  <si>
-    <t>REJANE</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004482439</t>
-  </si>
-  <si>
-    <t>004870019</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>002592340</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004207374</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>004212409</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>004444605</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>004425965</t>
-  </si>
-  <si>
-    <t>CAROLLINA</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>004207278</t>
-  </si>
-  <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>004334158</t>
-  </si>
-  <si>
-    <t>LEONE</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>004450405</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004243043</t>
-  </si>
-  <si>
-    <t>SUELI</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004369172</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>004340984</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>000834301</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>004556150</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
     <t>004450760</t>
   </si>
   <si>
@@ -1784,12 +1791,6 @@
   </si>
   <si>
     <t>VILMA</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
   </si>
   <si>
     <t>004999410</t>
@@ -2161,9 +2162,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C364"/>
+  <dimension ref="A1:C362"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2241,7 +2244,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>37042.699999999997</v>
+        <v>30667.24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2252,7 +2255,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>30667.24</v>
+        <v>22063.42</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2263,7 +2266,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>22063.42</v>
+        <v>21517.87</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2274,7 +2277,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>20365.37</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2296,7 +2299,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>15204.69</v>
+        <v>13566.65</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2307,7 +2310,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>13566.65</v>
+        <v>11053.46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2318,7 +2321,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>12042.24</v>
+        <v>10412.89</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2329,7 +2332,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>11581.08</v>
+        <v>6354.84</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2340,7 +2343,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>11355</v>
+        <v>4719.6000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2348,54 +2351,54 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>11053.46</v>
+        <v>4050.48</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
       <c r="C18">
-        <v>10412.89</v>
+        <v>3241.46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
       <c r="C19">
-        <v>6354.84</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
       <c r="C20">
-        <v>4719.51</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
       <c r="C21">
-        <v>4050.48</v>
+        <v>988.32</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2403,142 +2406,142 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>3241.46</v>
+        <v>950.52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
       <c r="C23">
-        <v>2691.13</v>
+        <v>946.84</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
       <c r="C24">
-        <v>1200</v>
+        <v>946.25</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
       <c r="C25">
-        <v>1040.55</v>
+        <v>943.73</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C26">
-        <v>988.32</v>
+        <v>943.24</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>950.52</v>
+        <v>937.33</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
       <c r="C28">
-        <v>946.84</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s">
-        <v>56</v>
-      </c>
       <c r="C29">
-        <v>946.25</v>
+        <v>932.56</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
       <c r="C30">
-        <v>943.73</v>
+        <v>906.28</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
       <c r="C31">
-        <v>943.24</v>
+        <v>905.16</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
       <c r="C32">
-        <v>937.33</v>
+        <v>842.42</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
       <c r="C33">
-        <v>933.95</v>
+        <v>841.08</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
       <c r="C34">
-        <v>932.56</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2546,76 +2549,76 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C35">
-        <v>906.28</v>
+        <v>836.83</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C36">
-        <v>905.16</v>
+        <v>831.69</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37">
-        <v>842.42</v>
+        <v>812.69</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38">
-        <v>841.08</v>
+        <v>804.59</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C39">
-        <v>839.9</v>
+        <v>799.43</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C40">
-        <v>836.83</v>
+        <v>791.35</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>831.69</v>
+        <v>791.07</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2626,7 +2629,7 @@
         <v>80</v>
       </c>
       <c r="C42">
-        <v>812.69</v>
+        <v>748.56</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2637,7 +2640,7 @@
         <v>82</v>
       </c>
       <c r="C43">
-        <v>804.59</v>
+        <v>748.39</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2648,7 +2651,7 @@
         <v>84</v>
       </c>
       <c r="C44">
-        <v>799.43</v>
+        <v>744.09</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2656,21 +2659,21 @@
         <v>85</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C45">
-        <v>791.35</v>
+        <v>737.21</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" t="s">
         <v>87</v>
       </c>
-      <c r="B46" t="s">
-        <v>60</v>
-      </c>
       <c r="C46">
-        <v>791.07</v>
+        <v>733.35</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2678,43 +2681,43 @@
         <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="C47">
-        <v>748.56</v>
+        <v>732.69</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
         <v>90</v>
       </c>
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
       <c r="C48">
-        <v>748.39</v>
+        <v>715.56</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
         <v>92</v>
       </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
       <c r="C49">
-        <v>744.09</v>
+        <v>705.17</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
         <v>94</v>
       </c>
-      <c r="B50" t="s">
-        <v>24</v>
-      </c>
       <c r="C50">
-        <v>737.21</v>
+        <v>704.83</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2725,7 +2728,7 @@
         <v>96</v>
       </c>
       <c r="C51">
-        <v>733.35</v>
+        <v>701.13</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2733,10 +2736,10 @@
         <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C52">
-        <v>732.69</v>
+        <v>685.03</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2744,54 +2747,54 @@
         <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C53">
-        <v>715.56</v>
+        <v>677.05</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
         <v>100</v>
       </c>
-      <c r="B54" t="s">
-        <v>101</v>
-      </c>
       <c r="C54">
-        <v>705.17</v>
+        <v>675.5</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" t="s">
         <v>102</v>
       </c>
-      <c r="B55" t="s">
-        <v>103</v>
-      </c>
       <c r="C55">
-        <v>704.83</v>
+        <v>667.36</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" t="s">
         <v>104</v>
       </c>
-      <c r="B56" t="s">
-        <v>105</v>
-      </c>
       <c r="C56">
-        <v>701.13</v>
+        <v>666.01</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
         <v>106</v>
       </c>
-      <c r="B57" t="s">
-        <v>26</v>
-      </c>
       <c r="C57">
-        <v>685.03</v>
+        <v>666</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2799,43 +2802,43 @@
         <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="C58">
-        <v>677.05</v>
+        <v>666</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C59">
-        <v>675.5</v>
+        <v>666</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C60">
-        <v>667.36</v>
+        <v>666</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C61">
-        <v>666.01</v>
+        <v>666</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2868,7 +2871,7 @@
         <v>119</v>
       </c>
       <c r="C64">
-        <v>666</v>
+        <v>663.35</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2879,7 +2882,7 @@
         <v>121</v>
       </c>
       <c r="C65">
-        <v>666</v>
+        <v>623.46</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2887,32 +2890,32 @@
         <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C66">
-        <v>666</v>
+        <v>619.59</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C67">
-        <v>666</v>
+        <v>618.47</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C68">
-        <v>666</v>
+        <v>614.59</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2923,7 +2926,7 @@
         <v>128</v>
       </c>
       <c r="C69">
-        <v>663.35</v>
+        <v>607.04999999999995</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2934,7 +2937,7 @@
         <v>130</v>
       </c>
       <c r="C70">
-        <v>623.46</v>
+        <v>598.08000000000004</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2945,7 +2948,7 @@
         <v>132</v>
       </c>
       <c r="C71">
-        <v>619.59</v>
+        <v>592.84</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2956,7 +2959,7 @@
         <v>134</v>
       </c>
       <c r="C72">
-        <v>618.47</v>
+        <v>590.78</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2964,32 +2967,32 @@
         <v>135</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C73">
-        <v>614.59</v>
+        <v>587.61</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C74">
-        <v>607.04999999999995</v>
+        <v>581.08000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="C75">
-        <v>598.08000000000004</v>
+        <v>578.08000000000004</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2997,21 +3000,21 @@
         <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="C76">
-        <v>592.84</v>
+        <v>574.65</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>141</v>
+      </c>
+      <c r="B77" t="s">
         <v>142</v>
       </c>
-      <c r="B77" t="s">
-        <v>20</v>
-      </c>
       <c r="C77">
-        <v>590.78</v>
+        <v>568.94000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3022,7 +3025,7 @@
         <v>144</v>
       </c>
       <c r="C78">
-        <v>587.61</v>
+        <v>558.77</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3030,43 +3033,43 @@
         <v>145</v>
       </c>
       <c r="B79" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="C79">
-        <v>578.08000000000004</v>
+        <v>557.85</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="C80">
-        <v>574.65</v>
+        <v>553.35</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="C81">
-        <v>568.94000000000005</v>
+        <v>549.72</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="C82">
-        <v>558.77</v>
+        <v>549.71</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3077,7 +3080,7 @@
         <v>152</v>
       </c>
       <c r="C83">
-        <v>557.85</v>
+        <v>534.91</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3088,7 +3091,7 @@
         <v>154</v>
       </c>
       <c r="C84">
-        <v>553.35</v>
+        <v>531.14</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3096,76 +3099,76 @@
         <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="C85">
-        <v>549.72</v>
+        <v>525.92999999999995</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>549.71</v>
+        <v>521.65</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C87">
-        <v>534.91</v>
+        <v>507.85</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C88">
-        <v>531.14</v>
+        <v>501.06</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C89">
-        <v>525.92999999999995</v>
+        <v>500.58</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="C90">
-        <v>521.65</v>
+        <v>491.62</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="C91">
-        <v>507.85</v>
+        <v>490.15</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3176,7 +3179,7 @@
         <v>167</v>
       </c>
       <c r="C92">
-        <v>501.06</v>
+        <v>489.49</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3184,21 +3187,21 @@
         <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="C93">
-        <v>500.58</v>
+        <v>486.2</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>169</v>
+      </c>
+      <c r="B94" t="s">
         <v>170</v>
       </c>
-      <c r="B94" t="s">
-        <v>78</v>
-      </c>
       <c r="C94">
-        <v>491.62</v>
+        <v>467.79</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3206,252 +3209,252 @@
         <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="C95">
-        <v>490.15</v>
+        <v>465.01</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="C96">
-        <v>489.49</v>
+        <v>459.2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="C97">
-        <v>486.2</v>
+        <v>450.33</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C98">
-        <v>467.79</v>
+        <v>449.3</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="C99">
-        <v>465.01</v>
+        <v>448.42</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C100">
-        <v>459.2</v>
+        <v>444.28</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B101" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="C101">
-        <v>450.33</v>
+        <v>438.09</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C102">
-        <v>449.3</v>
+        <v>420.94</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="C103">
-        <v>448.42</v>
+        <v>414.23</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B104" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C104">
-        <v>444.28</v>
+        <v>412.83</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="C105">
-        <v>438.09</v>
+        <v>410.43</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B106" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C106">
-        <v>420.94</v>
+        <v>407.48</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C107">
-        <v>414.23</v>
+        <v>405.36</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="C108">
-        <v>412.83</v>
+        <v>400.75</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C109">
-        <v>410.43</v>
+        <v>396.16</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C110">
-        <v>407.48</v>
+        <v>393.52</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C111">
-        <v>405.36</v>
+        <v>385.94</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="C112">
-        <v>400.75</v>
+        <v>374.89</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C113">
-        <v>396.16</v>
+        <v>369.59</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B114" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C114">
-        <v>393.52</v>
+        <v>365.44</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="C115">
-        <v>385.94</v>
+        <v>365.37</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B116" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="C116">
-        <v>374.89</v>
+        <v>355</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="C117">
-        <v>369.59</v>
+        <v>346.83</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3462,7 +3465,7 @@
         <v>212</v>
       </c>
       <c r="C118">
-        <v>365.44</v>
+        <v>344.89</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3470,21 +3473,21 @@
         <v>213</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="C119">
-        <v>346.83</v>
+        <v>335.31</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>32</v>
       </c>
       <c r="C120">
-        <v>344.89</v>
+        <v>332.65</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3495,7 +3498,7 @@
         <v>217</v>
       </c>
       <c r="C121">
-        <v>335.31</v>
+        <v>328.23</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3503,43 +3506,43 @@
         <v>218</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="C122">
-        <v>332.65</v>
+        <v>323.79000000000002</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B123" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C123">
-        <v>328.23</v>
+        <v>321.54000000000002</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B124" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C124">
-        <v>323.79000000000002</v>
+        <v>321.31</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B125" t="s">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="C125">
-        <v>321.54000000000002</v>
+        <v>313.51</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3550,7 +3553,7 @@
         <v>226</v>
       </c>
       <c r="C126">
-        <v>321.31</v>
+        <v>312.05</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3558,98 +3561,98 @@
         <v>227</v>
       </c>
       <c r="B127" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="C127">
-        <v>313.51</v>
+        <v>311.82</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B128" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C128">
-        <v>312.05</v>
+        <v>305.27</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B129" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C129">
-        <v>311.82</v>
+        <v>302.51</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B130" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C130">
-        <v>305.27</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B131" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C131">
-        <v>302.51</v>
+        <v>290.79000000000002</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B132" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C132">
-        <v>293.3</v>
+        <v>281.69</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B133" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C133">
-        <v>290.79000000000002</v>
+        <v>278.49</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C134">
-        <v>281.69</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B135" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="C135">
-        <v>278.49</v>
+        <v>276.66000000000003</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3660,7 +3663,7 @@
         <v>245</v>
       </c>
       <c r="C136">
-        <v>277.3</v>
+        <v>276.52</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3668,21 +3671,21 @@
         <v>246</v>
       </c>
       <c r="B137" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="C137">
-        <v>276.66000000000003</v>
+        <v>264.8</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B138" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="C138">
-        <v>276.52</v>
+        <v>262.73</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3690,21 +3693,21 @@
         <v>249</v>
       </c>
       <c r="B139" t="s">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="C139">
-        <v>264.8</v>
+        <v>260.51</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" t="s">
         <v>251</v>
       </c>
-      <c r="B140" t="s">
-        <v>204</v>
-      </c>
       <c r="C140">
-        <v>262.73</v>
+        <v>260.14999999999998</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3712,10 +3715,10 @@
         <v>252</v>
       </c>
       <c r="B141" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="C141">
-        <v>260.51</v>
+        <v>253.25</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3723,21 +3726,21 @@
         <v>253</v>
       </c>
       <c r="B142" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C142">
-        <v>260.14999999999998</v>
+        <v>248.66</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
+        <v>254</v>
+      </c>
+      <c r="B143" t="s">
         <v>255</v>
       </c>
-      <c r="B143" t="s">
-        <v>191</v>
-      </c>
       <c r="C143">
-        <v>253.25</v>
+        <v>248.22</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3745,10 +3748,10 @@
         <v>256</v>
       </c>
       <c r="B144" t="s">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="C144">
-        <v>248.66</v>
+        <v>248.07</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3759,7 +3762,7 @@
         <v>258</v>
       </c>
       <c r="C145">
-        <v>248.22</v>
+        <v>242.48</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3767,10 +3770,10 @@
         <v>259</v>
       </c>
       <c r="B146" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="C146">
-        <v>248.07</v>
+        <v>237.08</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3778,32 +3781,32 @@
         <v>260</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="C147">
-        <v>242.48</v>
+        <v>236.99</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="C148">
-        <v>237.08</v>
+        <v>235.61</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" t="s">
         <v>263</v>
       </c>
-      <c r="B149" t="s">
-        <v>40</v>
-      </c>
       <c r="C149">
-        <v>236.99</v>
+        <v>233.93</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3811,21 +3814,21 @@
         <v>264</v>
       </c>
       <c r="B150" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="C150">
-        <v>235.61</v>
+        <v>233.88</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B151" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="C151">
-        <v>233.93</v>
+        <v>232.63</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3836,7 +3839,7 @@
         <v>268</v>
       </c>
       <c r="C152">
-        <v>233.88</v>
+        <v>227.02</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3844,10 +3847,10 @@
         <v>269</v>
       </c>
       <c r="B153" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="C153">
-        <v>232.63</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3858,7 +3861,7 @@
         <v>271</v>
       </c>
       <c r="C154">
-        <v>227.02</v>
+        <v>212.6</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3866,43 +3869,43 @@
         <v>272</v>
       </c>
       <c r="B155" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="C155">
-        <v>217.03</v>
+        <v>206.79</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B156" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C156">
-        <v>212.6</v>
+        <v>199.77</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B157" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C157">
-        <v>206.79</v>
+        <v>196.41</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B158" t="s">
-        <v>278</v>
+        <v>144</v>
       </c>
       <c r="C158">
-        <v>199.77</v>
+        <v>192.19</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3913,7 +3916,7 @@
         <v>280</v>
       </c>
       <c r="C159">
-        <v>196.41</v>
+        <v>190.71</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3921,10 +3924,10 @@
         <v>281</v>
       </c>
       <c r="B160" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="C160">
-        <v>192.19</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3935,7 +3938,7 @@
         <v>283</v>
       </c>
       <c r="C161">
-        <v>190.71</v>
+        <v>188.11</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3943,21 +3946,21 @@
         <v>284</v>
       </c>
       <c r="B162" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="C162">
-        <v>188.83</v>
+        <v>188.07</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B163" t="s">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="C163">
-        <v>188.11</v>
+        <v>180.54</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3968,7 +3971,7 @@
         <v>288</v>
       </c>
       <c r="C164">
-        <v>188.07</v>
+        <v>178.03</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3976,43 +3979,43 @@
         <v>289</v>
       </c>
       <c r="B165" t="s">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c r="C165">
-        <v>180.54</v>
+        <v>173.83</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B166" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C166">
-        <v>178.03</v>
+        <v>172.7</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B167" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C167">
-        <v>173.83</v>
+        <v>172.32</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B168" t="s">
-        <v>295</v>
+        <v>134</v>
       </c>
       <c r="C168">
-        <v>172.7</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4023,7 +4026,7 @@
         <v>297</v>
       </c>
       <c r="C169">
-        <v>172.32</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4031,10 +4034,10 @@
         <v>298</v>
       </c>
       <c r="B170" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="C170">
-        <v>170.37</v>
+        <v>163.77000000000001</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4045,7 +4048,7 @@
         <v>300</v>
       </c>
       <c r="C171">
-        <v>170.27</v>
+        <v>163.62</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4053,10 +4056,10 @@
         <v>301</v>
       </c>
       <c r="B172" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="C172">
-        <v>163.77000000000001</v>
+        <v>160.33000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4064,32 +4067,32 @@
         <v>302</v>
       </c>
       <c r="B173" t="s">
-        <v>303</v>
+        <v>117</v>
       </c>
       <c r="C173">
-        <v>163.62</v>
+        <v>156.99</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B174" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C174">
-        <v>160.33000000000001</v>
+        <v>155.81</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
+        <v>304</v>
+      </c>
+      <c r="B175" t="s">
         <v>305</v>
       </c>
-      <c r="B175" t="s">
-        <v>126</v>
-      </c>
       <c r="C175">
-        <v>156.99</v>
+        <v>155.47</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4097,10 +4100,10 @@
         <v>306</v>
       </c>
       <c r="B176" t="s">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="C176">
-        <v>155.81</v>
+        <v>155.30000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4108,21 +4111,21 @@
         <v>307</v>
       </c>
       <c r="B177" t="s">
-        <v>308</v>
+        <v>232</v>
       </c>
       <c r="C177">
-        <v>155.47</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
+        <v>308</v>
+      </c>
+      <c r="B178" t="s">
         <v>309</v>
       </c>
-      <c r="B178" t="s">
-        <v>60</v>
-      </c>
       <c r="C178">
-        <v>155.30000000000001</v>
+        <v>151.79</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4130,10 +4133,10 @@
         <v>310</v>
       </c>
       <c r="B179" t="s">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="C179">
-        <v>154.04</v>
+        <v>149.66</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4141,32 +4144,32 @@
         <v>311</v>
       </c>
       <c r="B180" t="s">
-        <v>312</v>
+        <v>194</v>
       </c>
       <c r="C180">
-        <v>151.79</v>
+        <v>148.72999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B181" t="s">
-        <v>121</v>
+        <v>283</v>
       </c>
       <c r="C181">
-        <v>149.66</v>
+        <v>147.84</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
+        <v>313</v>
+      </c>
+      <c r="B182" t="s">
         <v>314</v>
       </c>
-      <c r="B182" t="s">
-        <v>199</v>
-      </c>
       <c r="C182">
-        <v>148.72999999999999</v>
+        <v>142.44</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4174,10 +4177,10 @@
         <v>315</v>
       </c>
       <c r="B183" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="C183">
-        <v>147.84</v>
+        <v>136.12</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4185,21 +4188,21 @@
         <v>316</v>
       </c>
       <c r="B184" t="s">
-        <v>317</v>
+        <v>207</v>
       </c>
       <c r="C184">
-        <v>142.44</v>
+        <v>135.84</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
+        <v>317</v>
+      </c>
+      <c r="B185" t="s">
         <v>318</v>
       </c>
-      <c r="B185" t="s">
-        <v>250</v>
-      </c>
       <c r="C185">
-        <v>136.12</v>
+        <v>135.63</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4207,32 +4210,32 @@
         <v>319</v>
       </c>
       <c r="B186" t="s">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="C186">
-        <v>135.84</v>
+        <v>135.37</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B187" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C187">
-        <v>135.63</v>
+        <v>135.19</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B188" t="s">
-        <v>323</v>
+        <v>172</v>
       </c>
       <c r="C188">
-        <v>135.37</v>
+        <v>134.62</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4243,7 +4246,7 @@
         <v>325</v>
       </c>
       <c r="C189">
-        <v>135.19</v>
+        <v>132.79</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4251,10 +4254,10 @@
         <v>326</v>
       </c>
       <c r="B190" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c r="C190">
-        <v>134.62</v>
+        <v>132.05000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4262,43 +4265,43 @@
         <v>327</v>
       </c>
       <c r="B191" t="s">
-        <v>328</v>
+        <v>55</v>
       </c>
       <c r="C191">
-        <v>132.79</v>
+        <v>129.97</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B192" t="s">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="C192">
-        <v>132.05000000000001</v>
+        <v>129.93</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B193" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="C193">
-        <v>129.97</v>
+        <v>128.85</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
+        <v>330</v>
+      </c>
+      <c r="B194" t="s">
         <v>331</v>
       </c>
-      <c r="B194" t="s">
-        <v>89</v>
-      </c>
       <c r="C194">
-        <v>129.93</v>
+        <v>128.63</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4306,10 +4309,10 @@
         <v>332</v>
       </c>
       <c r="B195" t="s">
-        <v>229</v>
+        <v>53</v>
       </c>
       <c r="C195">
-        <v>128.85</v>
+        <v>128.63</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4320,7 +4323,7 @@
         <v>334</v>
       </c>
       <c r="C196">
-        <v>128.63</v>
+        <v>128.35</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4328,43 +4331,43 @@
         <v>335</v>
       </c>
       <c r="B197" t="s">
-        <v>64</v>
+        <v>336</v>
       </c>
       <c r="C197">
-        <v>128.63</v>
+        <v>128.30000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B198" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C198">
-        <v>128.35</v>
+        <v>127.76</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B199" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C199">
-        <v>128.30000000000001</v>
+        <v>127.59</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B200" t="s">
-        <v>341</v>
+        <v>20</v>
       </c>
       <c r="C200">
-        <v>127.76</v>
+        <v>126.19</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4372,21 +4375,21 @@
         <v>342</v>
       </c>
       <c r="B201" t="s">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="C201">
-        <v>127.59</v>
+        <v>124.52</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
+        <v>343</v>
+      </c>
+      <c r="B202" t="s">
         <v>344</v>
       </c>
-      <c r="B202" t="s">
-        <v>60</v>
-      </c>
       <c r="C202">
-        <v>126.19</v>
+        <v>123.03</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4394,10 +4397,10 @@
         <v>345</v>
       </c>
       <c r="B203" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="C203">
-        <v>124.52</v>
+        <v>122.89</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4408,7 +4411,7 @@
         <v>347</v>
       </c>
       <c r="C204">
-        <v>123.03</v>
+        <v>121.28</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4416,21 +4419,21 @@
         <v>348</v>
       </c>
       <c r="B205" t="s">
-        <v>191</v>
+        <v>349</v>
       </c>
       <c r="C205">
-        <v>122.89</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B206" t="s">
-        <v>350</v>
+        <v>174</v>
       </c>
       <c r="C206">
-        <v>121.28</v>
+        <v>120.88</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4438,21 +4441,21 @@
         <v>351</v>
       </c>
       <c r="B207" t="s">
-        <v>352</v>
+        <v>55</v>
       </c>
       <c r="C207">
-        <v>121.15</v>
+        <v>120.72</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
+        <v>352</v>
+      </c>
+      <c r="B208" t="s">
         <v>353</v>
       </c>
-      <c r="B208" t="s">
-        <v>179</v>
-      </c>
       <c r="C208">
-        <v>120.88</v>
+        <v>120.7</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4460,10 +4463,10 @@
         <v>354</v>
       </c>
       <c r="B209" t="s">
-        <v>14</v>
+        <v>338</v>
       </c>
       <c r="C209">
-        <v>120.72</v>
+        <v>119.26</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4471,21 +4474,21 @@
         <v>355</v>
       </c>
       <c r="B210" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="C210">
-        <v>120.7</v>
+        <v>118.26</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
+        <v>356</v>
+      </c>
+      <c r="B211" t="s">
         <v>357</v>
       </c>
-      <c r="B211" t="s">
-        <v>341</v>
-      </c>
       <c r="C211">
-        <v>119.26</v>
+        <v>113.99</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4493,10 +4496,10 @@
         <v>358</v>
       </c>
       <c r="B212" t="s">
-        <v>222</v>
+        <v>331</v>
       </c>
       <c r="C212">
-        <v>118.26</v>
+        <v>113</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4504,43 +4507,43 @@
         <v>359</v>
       </c>
       <c r="B213" t="s">
-        <v>360</v>
+        <v>142</v>
       </c>
       <c r="C213">
-        <v>113.99</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B214" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="C214">
-        <v>113</v>
+        <v>109.27</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B215" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="C215">
-        <v>109.4</v>
+        <v>109.01</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
+        <v>362</v>
+      </c>
+      <c r="B216" t="s">
         <v>363</v>
       </c>
-      <c r="B216" t="s">
-        <v>261</v>
-      </c>
       <c r="C216">
-        <v>109.27</v>
+        <v>106.84</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4548,43 +4551,43 @@
         <v>364</v>
       </c>
       <c r="B217" t="s">
-        <v>243</v>
+        <v>365</v>
       </c>
       <c r="C217">
-        <v>109.01</v>
+        <v>105.23</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B218" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C218">
-        <v>106.84</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B219" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C219">
-        <v>105.23</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B220" t="s">
-        <v>370</v>
+        <v>65</v>
       </c>
       <c r="C220">
-        <v>104.9</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4592,32 +4595,32 @@
         <v>371</v>
       </c>
       <c r="B221" t="s">
-        <v>372</v>
+        <v>69</v>
       </c>
       <c r="C221">
-        <v>99.24</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B222" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C222">
-        <v>98.28</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
+        <v>373</v>
+      </c>
+      <c r="B223" t="s">
         <v>374</v>
       </c>
-      <c r="B223" t="s">
-        <v>78</v>
-      </c>
       <c r="C223">
-        <v>97.08</v>
+        <v>95.38</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4625,21 +4628,21 @@
         <v>375</v>
       </c>
       <c r="B224" t="s">
-        <v>91</v>
+        <v>376</v>
       </c>
       <c r="C224">
-        <v>95.88</v>
+        <v>94.95</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B225" t="s">
-        <v>377</v>
+        <v>156</v>
       </c>
       <c r="C225">
-        <v>95.38</v>
+        <v>94.27</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4647,43 +4650,43 @@
         <v>378</v>
       </c>
       <c r="B226" t="s">
-        <v>379</v>
+        <v>80</v>
       </c>
       <c r="C226">
-        <v>94.95</v>
+        <v>92.07</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B227" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="C227">
-        <v>94.27</v>
+        <v>90.83</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B228" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="C228">
-        <v>92.07</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
+        <v>381</v>
+      </c>
+      <c r="B229" t="s">
         <v>382</v>
       </c>
-      <c r="B229" t="s">
-        <v>38</v>
-      </c>
       <c r="C229">
-        <v>90.83</v>
+        <v>89.85</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4691,32 +4694,32 @@
         <v>383</v>
       </c>
       <c r="B230" t="s">
-        <v>22</v>
+        <v>384</v>
       </c>
       <c r="C230">
-        <v>90.2</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B231" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C231">
-        <v>89.85</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B232" t="s">
-        <v>387</v>
+        <v>186</v>
       </c>
       <c r="C232">
-        <v>88.8</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4727,7 +4730,7 @@
         <v>389</v>
       </c>
       <c r="C233">
-        <v>86.45</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4735,10 +4738,10 @@
         <v>390</v>
       </c>
       <c r="B234" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="C234">
-        <v>86.38</v>
+        <v>83.13</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4749,7 +4752,7 @@
         <v>392</v>
       </c>
       <c r="C235">
-        <v>84.72</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4757,10 +4760,10 @@
         <v>393</v>
       </c>
       <c r="B236" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="C236">
-        <v>83.13</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4768,21 +4771,21 @@
         <v>394</v>
       </c>
       <c r="B237" t="s">
-        <v>395</v>
+        <v>102</v>
       </c>
       <c r="C237">
-        <v>83.06</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
+        <v>395</v>
+      </c>
+      <c r="B238" t="s">
         <v>396</v>
       </c>
-      <c r="B238" t="s">
-        <v>195</v>
-      </c>
       <c r="C238">
-        <v>82.79</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4790,21 +4793,21 @@
         <v>397</v>
       </c>
       <c r="B239" t="s">
-        <v>111</v>
+        <v>398</v>
       </c>
       <c r="C239">
-        <v>81.87</v>
+        <v>79.36</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B240" t="s">
-        <v>399</v>
+        <v>247</v>
       </c>
       <c r="C240">
-        <v>80.05</v>
+        <v>78.73</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4812,21 +4815,21 @@
         <v>400</v>
       </c>
       <c r="B241" t="s">
-        <v>401</v>
+        <v>53</v>
       </c>
       <c r="C241">
-        <v>79.36</v>
+        <v>78.319999999999993</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
+        <v>401</v>
+      </c>
+      <c r="B242" t="s">
         <v>402</v>
       </c>
-      <c r="B242" t="s">
-        <v>250</v>
-      </c>
       <c r="C242">
-        <v>78.73</v>
+        <v>77.19</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -4834,32 +4837,32 @@
         <v>403</v>
       </c>
       <c r="B243" t="s">
-        <v>64</v>
+        <v>404</v>
       </c>
       <c r="C243">
-        <v>78.319999999999993</v>
+        <v>76.260000000000005</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B244" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C244">
-        <v>77.53</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B245" t="s">
-        <v>407</v>
+        <v>146</v>
       </c>
       <c r="C245">
-        <v>77.19</v>
+        <v>75.56</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4870,7 +4873,7 @@
         <v>409</v>
       </c>
       <c r="C246">
-        <v>76.260000000000005</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4881,7 +4884,7 @@
         <v>411</v>
       </c>
       <c r="C247">
-        <v>75.86</v>
+        <v>74.27</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4889,98 +4892,98 @@
         <v>412</v>
       </c>
       <c r="B248" t="s">
-        <v>152</v>
+        <v>413</v>
       </c>
       <c r="C248">
-        <v>75.56</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B249" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C249">
-        <v>74.39</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B250" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C250">
-        <v>74.27</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B251" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C251">
-        <v>74.23</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B252" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C252">
-        <v>73.650000000000006</v>
+        <v>73.53</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B253" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C253">
-        <v>73.599999999999994</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B254" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C254">
-        <v>73.56</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B255" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C255">
-        <v>73.53</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B256" t="s">
-        <v>428</v>
+        <v>347</v>
       </c>
       <c r="C256">
-        <v>73.430000000000007</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4988,54 +4991,54 @@
         <v>429</v>
       </c>
       <c r="B257" t="s">
-        <v>430</v>
+        <v>55</v>
       </c>
       <c r="C257">
-        <v>73.3</v>
+        <v>70.459999999999994</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B258" t="s">
-        <v>432</v>
+        <v>331</v>
       </c>
       <c r="C258">
-        <v>72.42</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B259" t="s">
-        <v>350</v>
+        <v>217</v>
       </c>
       <c r="C259">
-        <v>71.31</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B260" t="s">
-        <v>14</v>
+        <v>433</v>
       </c>
       <c r="C260">
-        <v>70.459999999999994</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
+        <v>434</v>
+      </c>
+      <c r="B261" t="s">
         <v>435</v>
       </c>
-      <c r="B261" t="s">
-        <v>334</v>
-      </c>
       <c r="C261">
-        <v>69.45</v>
+        <v>67.69</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5043,21 +5046,21 @@
         <v>436</v>
       </c>
       <c r="B262" t="s">
-        <v>220</v>
+        <v>437</v>
       </c>
       <c r="C262">
-        <v>68.459999999999994</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B263" t="s">
-        <v>438</v>
+        <v>35</v>
       </c>
       <c r="C263">
-        <v>68.05</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5065,32 +5068,32 @@
         <v>439</v>
       </c>
       <c r="B264" t="s">
-        <v>440</v>
+        <v>82</v>
       </c>
       <c r="C264">
-        <v>67.69</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
+        <v>440</v>
+      </c>
+      <c r="B265" t="s">
         <v>441</v>
       </c>
-      <c r="B265" t="s">
-        <v>442</v>
-      </c>
       <c r="C265">
-        <v>66.010000000000005</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
+        <v>442</v>
+      </c>
+      <c r="B266" t="s">
         <v>443</v>
       </c>
-      <c r="B266" t="s">
-        <v>43</v>
-      </c>
       <c r="C266">
-        <v>65.06</v>
+        <v>64.040000000000006</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5098,10 +5101,10 @@
         <v>444</v>
       </c>
       <c r="B267" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="C267">
-        <v>64.709999999999994</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5109,120 +5112,120 @@
         <v>445</v>
       </c>
       <c r="B268" t="s">
-        <v>446</v>
+        <v>347</v>
       </c>
       <c r="C268">
-        <v>64.400000000000006</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
+        <v>446</v>
+      </c>
+      <c r="B269" t="s">
         <v>447</v>
       </c>
-      <c r="B269" t="s">
-        <v>448</v>
-      </c>
       <c r="C269">
-        <v>64.040000000000006</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B270" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="C270">
-        <v>63.94</v>
+        <v>60.44</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B271" t="s">
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="C271">
-        <v>62.6</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
+        <v>450</v>
+      </c>
+      <c r="B272" t="s">
         <v>451</v>
       </c>
-      <c r="B272" t="s">
-        <v>452</v>
-      </c>
       <c r="C272">
-        <v>61.74</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B273" t="s">
-        <v>148</v>
+        <v>447</v>
       </c>
       <c r="C273">
-        <v>60.44</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B274" t="s">
-        <v>377</v>
+        <v>305</v>
       </c>
       <c r="C274">
-        <v>59.87</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B275" t="s">
-        <v>456</v>
+        <v>275</v>
       </c>
       <c r="C275">
-        <v>59.63</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B276" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C276">
-        <v>59.2</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B277" t="s">
-        <v>308</v>
+        <v>96</v>
       </c>
       <c r="C277">
-        <v>57.82</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
+        <v>458</v>
+      </c>
+      <c r="B278" t="s">
         <v>459</v>
       </c>
-      <c r="B278" t="s">
-        <v>278</v>
-      </c>
       <c r="C278">
-        <v>56.79</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5230,21 +5233,21 @@
         <v>460</v>
       </c>
       <c r="B279" t="s">
-        <v>461</v>
+        <v>290</v>
       </c>
       <c r="C279">
-        <v>55.66</v>
+        <v>52.09</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
+        <v>461</v>
+      </c>
+      <c r="B280" t="s">
         <v>462</v>
       </c>
-      <c r="B280" t="s">
-        <v>105</v>
-      </c>
       <c r="C280">
-        <v>55.24</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5255,7 +5258,7 @@
         <v>464</v>
       </c>
       <c r="C281">
-        <v>54.71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5263,10 +5266,10 @@
         <v>465</v>
       </c>
       <c r="B282" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C282">
-        <v>52.09</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5274,65 +5277,65 @@
         <v>466</v>
       </c>
       <c r="B283" t="s">
-        <v>467</v>
+        <v>22</v>
       </c>
       <c r="C283">
-        <v>51.65</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
+        <v>467</v>
+      </c>
+      <c r="B284" t="s">
         <v>468</v>
       </c>
-      <c r="B284" t="s">
-        <v>469</v>
-      </c>
       <c r="C284">
-        <v>50</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B285" t="s">
-        <v>297</v>
+        <v>6</v>
       </c>
       <c r="C285">
-        <v>49.28</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B286" t="s">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="C286">
-        <v>48.65</v>
+        <v>46.28</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>297</v>
       </c>
       <c r="C287">
-        <v>48.16</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
+        <v>472</v>
+      </c>
+      <c r="B288" t="s">
         <v>473</v>
       </c>
-      <c r="B288" t="s">
-        <v>328</v>
-      </c>
       <c r="C288">
-        <v>46.28</v>
+        <v>44.69</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -5340,10 +5343,10 @@
         <v>474</v>
       </c>
       <c r="B289" t="s">
-        <v>300</v>
+        <v>163</v>
       </c>
       <c r="C289">
-        <v>46.23</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5351,32 +5354,32 @@
         <v>475</v>
       </c>
       <c r="B290" t="s">
-        <v>476</v>
+        <v>102</v>
       </c>
       <c r="C290">
-        <v>44.69</v>
+        <v>44.47</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B291" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C291">
-        <v>44.52</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
+        <v>477</v>
+      </c>
+      <c r="B292" t="s">
         <v>478</v>
       </c>
-      <c r="B292" t="s">
-        <v>111</v>
-      </c>
       <c r="C292">
-        <v>44.47</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5384,21 +5387,21 @@
         <v>479</v>
       </c>
       <c r="B293" t="s">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="C293">
-        <v>44.44</v>
+        <v>43.96</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B294" t="s">
-        <v>481</v>
+        <v>55</v>
       </c>
       <c r="C294">
-        <v>44.44</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5409,7 +5412,7 @@
         <v>483</v>
       </c>
       <c r="C295">
-        <v>43.96</v>
+        <v>42.45</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5417,32 +5420,32 @@
         <v>484</v>
       </c>
       <c r="B296" t="s">
-        <v>485</v>
+        <v>142</v>
       </c>
       <c r="C296">
-        <v>42.45</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B297" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="C297">
-        <v>42.2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
+        <v>486</v>
+      </c>
+      <c r="B298" t="s">
         <v>487</v>
       </c>
-      <c r="B298" t="s">
-        <v>195</v>
-      </c>
       <c r="C298">
-        <v>40</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5450,21 +5453,21 @@
         <v>488</v>
       </c>
       <c r="B299" t="s">
-        <v>489</v>
+        <v>57</v>
       </c>
       <c r="C299">
-        <v>39.79</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
+        <v>489</v>
+      </c>
+      <c r="B300" t="s">
         <v>490</v>
       </c>
-      <c r="B300" t="s">
-        <v>24</v>
-      </c>
       <c r="C300">
-        <v>37.799999999999997</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5475,7 +5478,7 @@
         <v>492</v>
       </c>
       <c r="C301">
-        <v>37.200000000000003</v>
+        <v>36.94</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5483,21 +5486,21 @@
         <v>493</v>
       </c>
       <c r="B302" t="s">
-        <v>494</v>
+        <v>290</v>
       </c>
       <c r="C302">
-        <v>36.94</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
+        <v>494</v>
+      </c>
+      <c r="B303" t="s">
         <v>495</v>
       </c>
-      <c r="B303" t="s">
-        <v>293</v>
-      </c>
       <c r="C303">
-        <v>33.049999999999997</v>
+        <v>32.78</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -5508,7 +5511,7 @@
         <v>497</v>
       </c>
       <c r="C304">
-        <v>32.78</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -5519,7 +5522,7 @@
         <v>499</v>
       </c>
       <c r="C305">
-        <v>31.71</v>
+        <v>30.03</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -5530,7 +5533,7 @@
         <v>501</v>
       </c>
       <c r="C306">
-        <v>30.03</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -5541,7 +5544,7 @@
         <v>503</v>
       </c>
       <c r="C307">
-        <v>29.9</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5549,32 +5552,32 @@
         <v>504</v>
       </c>
       <c r="B308" t="s">
-        <v>505</v>
+        <v>190</v>
       </c>
       <c r="C308">
-        <v>29.32</v>
+        <v>28.58</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B309" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="C309">
-        <v>28.58</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
+        <v>506</v>
+      </c>
+      <c r="B310" t="s">
         <v>507</v>
       </c>
-      <c r="B310" t="s">
-        <v>24</v>
-      </c>
       <c r="C310">
-        <v>28.26</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5585,7 +5588,7 @@
         <v>509</v>
       </c>
       <c r="C311">
-        <v>27.86</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5596,7 +5599,7 @@
         <v>511</v>
       </c>
       <c r="C312">
-        <v>27.83</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5604,32 +5607,32 @@
         <v>512</v>
       </c>
       <c r="B313" t="s">
-        <v>513</v>
+        <v>174</v>
       </c>
       <c r="C313">
-        <v>26.89</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B314" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="C314">
-        <v>26.8</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
+        <v>514</v>
+      </c>
+      <c r="B315" t="s">
         <v>515</v>
       </c>
-      <c r="B315" t="s">
-        <v>121</v>
-      </c>
       <c r="C315">
-        <v>26.1</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5637,21 +5640,21 @@
         <v>516</v>
       </c>
       <c r="B316" t="s">
-        <v>517</v>
+        <v>336</v>
       </c>
       <c r="C316">
-        <v>24.5</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
+        <v>517</v>
+      </c>
+      <c r="B317" t="s">
         <v>518</v>
       </c>
-      <c r="B317" t="s">
-        <v>339</v>
-      </c>
       <c r="C317">
-        <v>24.33</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5659,21 +5662,21 @@
         <v>519</v>
       </c>
       <c r="B318" t="s">
-        <v>520</v>
+        <v>336</v>
       </c>
       <c r="C318">
-        <v>23.89</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
+        <v>520</v>
+      </c>
+      <c r="B319" t="s">
         <v>521</v>
       </c>
-      <c r="B319" t="s">
-        <v>339</v>
-      </c>
       <c r="C319">
-        <v>23.11</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5681,21 +5684,21 @@
         <v>522</v>
       </c>
       <c r="B320" t="s">
-        <v>523</v>
+        <v>112</v>
       </c>
       <c r="C320">
-        <v>21.27</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
+        <v>523</v>
+      </c>
+      <c r="B321" t="s">
         <v>524</v>
       </c>
-      <c r="B321" t="s">
-        <v>121</v>
-      </c>
       <c r="C321">
-        <v>20.49</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5703,21 +5706,21 @@
         <v>525</v>
       </c>
       <c r="B322" t="s">
-        <v>526</v>
+        <v>212</v>
       </c>
       <c r="C322">
-        <v>19.12</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
+        <v>526</v>
+      </c>
+      <c r="B323" t="s">
         <v>527</v>
       </c>
-      <c r="B323" t="s">
-        <v>215</v>
-      </c>
       <c r="C323">
-        <v>16.78</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5728,7 +5731,7 @@
         <v>529</v>
       </c>
       <c r="C324">
-        <v>15.76</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5739,7 +5742,7 @@
         <v>531</v>
       </c>
       <c r="C325">
-        <v>14.67</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5750,7 +5753,7 @@
         <v>533</v>
       </c>
       <c r="C326">
-        <v>13.69</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5761,7 +5764,7 @@
         <v>535</v>
       </c>
       <c r="C327">
-        <v>12.38</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5769,32 +5772,32 @@
         <v>536</v>
       </c>
       <c r="B328" t="s">
-        <v>537</v>
+        <v>184</v>
       </c>
       <c r="C328">
-        <v>11.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B329" t="s">
-        <v>189</v>
+        <v>247</v>
       </c>
       <c r="C329">
-        <v>10</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
+        <v>538</v>
+      </c>
+      <c r="B330" t="s">
         <v>539</v>
       </c>
-      <c r="B330" t="s">
-        <v>250</v>
-      </c>
       <c r="C330">
-        <v>9.85</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5805,7 +5808,7 @@
         <v>541</v>
       </c>
       <c r="C331">
-        <v>9.7200000000000006</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5813,32 +5816,32 @@
         <v>542</v>
       </c>
       <c r="B332" t="s">
-        <v>543</v>
+        <v>178</v>
       </c>
       <c r="C332">
-        <v>9.52</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B333" t="s">
-        <v>183</v>
+        <v>305</v>
       </c>
       <c r="C333">
-        <v>9.44</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
+        <v>544</v>
+      </c>
+      <c r="B334" t="s">
         <v>545</v>
       </c>
-      <c r="B334" t="s">
-        <v>308</v>
-      </c>
       <c r="C334">
-        <v>8.66</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -5846,21 +5849,21 @@
         <v>546</v>
       </c>
       <c r="B335" t="s">
-        <v>547</v>
+        <v>94</v>
       </c>
       <c r="C335">
-        <v>8.4499999999999993</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
+        <v>547</v>
+      </c>
+      <c r="B336" t="s">
         <v>548</v>
       </c>
-      <c r="B336" t="s">
-        <v>103</v>
-      </c>
       <c r="C336">
-        <v>7.91</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -5871,7 +5874,7 @@
         <v>550</v>
       </c>
       <c r="C337">
-        <v>7.62</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5882,7 +5885,7 @@
         <v>552</v>
       </c>
       <c r="C338">
-        <v>6.98</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5893,7 +5896,7 @@
         <v>554</v>
       </c>
       <c r="C339">
-        <v>6.66</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5901,21 +5904,21 @@
         <v>555</v>
       </c>
       <c r="B340" t="s">
-        <v>556</v>
+        <v>112</v>
       </c>
       <c r="C340">
-        <v>6.53</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
+        <v>556</v>
+      </c>
+      <c r="B341" t="s">
         <v>557</v>
       </c>
-      <c r="B341" t="s">
-        <v>121</v>
-      </c>
       <c r="C341">
-        <v>6.04</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -5923,32 +5926,32 @@
         <v>558</v>
       </c>
       <c r="B342" t="s">
-        <v>559</v>
+        <v>186</v>
       </c>
       <c r="C342">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B343" t="s">
-        <v>191</v>
+        <v>398</v>
       </c>
       <c r="C343">
-        <v>5.55</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
+        <v>560</v>
+      </c>
+      <c r="B344" t="s">
         <v>561</v>
       </c>
-      <c r="B344" t="s">
-        <v>401</v>
-      </c>
       <c r="C344">
-        <v>4.88</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -5956,21 +5959,21 @@
         <v>562</v>
       </c>
       <c r="B345" t="s">
-        <v>563</v>
+        <v>294</v>
       </c>
       <c r="C345">
-        <v>4.08</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
+        <v>563</v>
+      </c>
+      <c r="B346" t="s">
         <v>564</v>
       </c>
-      <c r="B346" t="s">
-        <v>297</v>
-      </c>
       <c r="C346">
-        <v>3.26</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -5981,7 +5984,7 @@
         <v>566</v>
       </c>
       <c r="C347">
-        <v>2.08</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -5989,21 +5992,21 @@
         <v>567</v>
       </c>
       <c r="B348" t="s">
-        <v>568</v>
+        <v>32</v>
       </c>
       <c r="C348">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
+        <v>568</v>
+      </c>
+      <c r="B349" t="s">
         <v>569</v>
       </c>
-      <c r="B349" t="s">
-        <v>40</v>
-      </c>
       <c r="C349">
-        <v>1.24</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6014,7 +6017,7 @@
         <v>571</v>
       </c>
       <c r="C350">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6025,7 +6028,7 @@
         <v>573</v>
       </c>
       <c r="C351">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6033,32 +6036,32 @@
         <v>574</v>
       </c>
       <c r="B352" t="s">
-        <v>575</v>
+        <v>305</v>
       </c>
       <c r="C352">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B353" t="s">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="C353">
-        <v>0.55000000000000004</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
+        <v>576</v>
+      </c>
+      <c r="B354" t="s">
         <v>577</v>
       </c>
-      <c r="B354" t="s">
-        <v>60</v>
-      </c>
       <c r="C354">
-        <v>0.47</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6066,18 +6069,18 @@
         <v>578</v>
       </c>
       <c r="B355" t="s">
-        <v>579</v>
+        <v>167</v>
       </c>
       <c r="C355">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
+        <v>579</v>
+      </c>
+      <c r="B356" t="s">
         <v>580</v>
-      </c>
-      <c r="B356" t="s">
-        <v>32</v>
       </c>
       <c r="C356">
         <v>0.03</v>
@@ -6088,18 +6091,18 @@
         <v>581</v>
       </c>
       <c r="B357" t="s">
-        <v>582</v>
+        <v>134</v>
       </c>
       <c r="C357">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
+        <v>582</v>
+      </c>
+      <c r="B358" t="s">
         <v>583</v>
-      </c>
-      <c r="B358" t="s">
-        <v>20</v>
       </c>
       <c r="C358">
         <v>0.01</v>
@@ -6121,37 +6124,15 @@
         <v>586</v>
       </c>
       <c r="B360" t="s">
-        <v>587</v>
+        <v>67</v>
       </c>
       <c r="C360">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
-      <c r="A361" t="s">
-        <v>588</v>
-      </c>
-      <c r="B361" t="s">
-        <v>589</v>
-      </c>
-      <c r="C361">
-        <v>-51.62</v>
+        <v>-167.52</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>590</v>
-      </c>
-      <c r="B362" t="s">
-        <v>76</v>
-      </c>
-      <c r="C362">
-        <v>-167.52</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="A364" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47BC4F6A-6B1B-47AC-BE51-EE5C9EE746C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33E047B2-257B-4062-92FC-E74FED474AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="589">
   <si>
     <t>CONTA</t>
   </si>
@@ -68,6 +68,12 @@
     <t>VENIA</t>
   </si>
   <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
     <t>004996634</t>
   </si>
   <si>
@@ -86,429 +92,432 @@
     <t>LAILA</t>
   </si>
   <si>
+    <t>005169333</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004643737</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004467884</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>004870019</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>002592340</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
+    <t>004208869</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
     <t>002064834</t>
   </si>
   <si>
     <t>RAFAELA</t>
   </si>
   <si>
-    <t>005169333</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004643737</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004467884</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004482439</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>004870019</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>002592340</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
     <t>005002390</t>
   </si>
   <si>
@@ -1229,9 +1238,6 @@
     <t>004907688</t>
   </si>
   <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
     <t>004452790</t>
   </si>
   <si>
@@ -1710,9 +1716,6 @@
   </si>
   <si>
     <t>004448501</t>
-  </si>
-  <si>
-    <t>003435941</t>
   </si>
   <si>
     <t>004204500</t>
@@ -2162,11 +2165,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C362"/>
+  <dimension ref="A1:C363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2233,7 +2234,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>37906.410000000003</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2244,7 +2245,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>30667.24</v>
+        <v>37906.410000000003</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2255,7 +2256,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>22063.42</v>
+        <v>30667.24</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2266,7 +2267,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>21517.87</v>
+        <v>22063.42</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2398,7 +2399,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>988.32</v>
+        <v>1004.88</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2406,21 +2407,21 @@
         <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>950.52</v>
+        <v>988.32</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>946.84</v>
+        <v>950.52</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2431,7 +2432,7 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>946.25</v>
+        <v>946.84</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2442,7 +2443,7 @@
         <v>48</v>
       </c>
       <c r="C25">
-        <v>943.73</v>
+        <v>946.25</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2450,21 +2451,21 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>943.24</v>
+        <v>943.73</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>937.33</v>
+        <v>943.24</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2475,7 +2476,7 @@
         <v>53</v>
       </c>
       <c r="C28">
-        <v>933.95</v>
+        <v>937.33</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2486,7 +2487,7 @@
         <v>55</v>
       </c>
       <c r="C29">
-        <v>932.56</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2497,7 +2498,7 @@
         <v>57</v>
       </c>
       <c r="C30">
-        <v>906.28</v>
+        <v>932.56</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2508,7 +2509,7 @@
         <v>59</v>
       </c>
       <c r="C31">
-        <v>905.16</v>
+        <v>906.28</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2519,7 +2520,7 @@
         <v>61</v>
       </c>
       <c r="C32">
-        <v>842.42</v>
+        <v>905.16</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2530,7 +2531,7 @@
         <v>63</v>
       </c>
       <c r="C33">
-        <v>841.08</v>
+        <v>842.42</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2541,7 +2542,7 @@
         <v>65</v>
       </c>
       <c r="C34">
-        <v>839.9</v>
+        <v>841.08</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2552,7 +2553,7 @@
         <v>67</v>
       </c>
       <c r="C35">
-        <v>836.83</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2563,7 +2564,7 @@
         <v>69</v>
       </c>
       <c r="C36">
-        <v>831.69</v>
+        <v>836.83</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2574,7 +2575,7 @@
         <v>71</v>
       </c>
       <c r="C37">
-        <v>812.69</v>
+        <v>831.69</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2582,43 +2583,43 @@
         <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>804.59</v>
+        <v>812.69</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
       <c r="C39">
-        <v>799.43</v>
+        <v>804.59</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
         <v>76</v>
       </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
       <c r="C40">
-        <v>791.35</v>
+        <v>799.43</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
         <v>78</v>
       </c>
-      <c r="B41" t="s">
-        <v>20</v>
-      </c>
       <c r="C41">
-        <v>791.07</v>
+        <v>791.35</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2626,43 +2627,43 @@
         <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="C42">
-        <v>748.56</v>
+        <v>791.07</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
         <v>81</v>
       </c>
-      <c r="B43" t="s">
-        <v>82</v>
-      </c>
       <c r="C43">
-        <v>748.39</v>
+        <v>748.56</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" t="s">
         <v>83</v>
       </c>
-      <c r="B44" t="s">
-        <v>84</v>
-      </c>
       <c r="C44">
-        <v>744.09</v>
+        <v>748.39</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
         <v>85</v>
       </c>
-      <c r="B45" t="s">
-        <v>57</v>
-      </c>
       <c r="C45">
-        <v>737.21</v>
+        <v>744.09</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2670,21 +2671,21 @@
         <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C46">
-        <v>733.35</v>
+        <v>737.21</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
         <v>88</v>
       </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
       <c r="C47">
-        <v>732.69</v>
+        <v>733.35</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2692,54 +2693,54 @@
         <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="C48">
-        <v>715.56</v>
+        <v>732.69</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
         <v>91</v>
       </c>
-      <c r="B49" t="s">
-        <v>92</v>
-      </c>
       <c r="C49">
-        <v>705.17</v>
+        <v>715.56</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
         <v>93</v>
       </c>
-      <c r="B50" t="s">
-        <v>94</v>
-      </c>
       <c r="C50">
-        <v>704.83</v>
+        <v>705.17</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
         <v>95</v>
       </c>
-      <c r="B51" t="s">
-        <v>96</v>
-      </c>
       <c r="C51">
-        <v>701.13</v>
+        <v>704.83</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" t="s">
         <v>97</v>
       </c>
-      <c r="B52" t="s">
-        <v>24</v>
-      </c>
       <c r="C52">
-        <v>685.03</v>
+        <v>701.13</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2747,10 +2748,10 @@
         <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C53">
-        <v>677.05</v>
+        <v>685.03</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2758,51 +2759,51 @@
         <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>675.5</v>
+        <v>677.05</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" t="s">
         <v>101</v>
       </c>
-      <c r="B55" t="s">
-        <v>102</v>
-      </c>
       <c r="C55">
-        <v>667.36</v>
+        <v>675.5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" t="s">
         <v>103</v>
       </c>
-      <c r="B56" t="s">
-        <v>104</v>
-      </c>
       <c r="C56">
-        <v>666.01</v>
+        <v>667.36</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" t="s">
         <v>105</v>
       </c>
-      <c r="B57" t="s">
-        <v>106</v>
-      </c>
       <c r="C57">
-        <v>666</v>
+        <v>666.01</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" t="s">
         <v>107</v>
-      </c>
-      <c r="B58" t="s">
-        <v>108</v>
       </c>
       <c r="C58">
         <v>666</v>
@@ -2810,10 +2811,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" t="s">
         <v>109</v>
-      </c>
-      <c r="B59" t="s">
-        <v>110</v>
       </c>
       <c r="C59">
         <v>666</v>
@@ -2821,10 +2822,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" t="s">
         <v>111</v>
-      </c>
-      <c r="B60" t="s">
-        <v>112</v>
       </c>
       <c r="C60">
         <v>666</v>
@@ -2832,10 +2833,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" t="s">
         <v>113</v>
-      </c>
-      <c r="B61" t="s">
-        <v>69</v>
       </c>
       <c r="C61">
         <v>666</v>
@@ -2846,7 +2847,7 @@
         <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C62">
         <v>666</v>
@@ -2854,10 +2855,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" t="s">
         <v>116</v>
-      </c>
-      <c r="B63" t="s">
-        <v>117</v>
       </c>
       <c r="C63">
         <v>666</v>
@@ -2865,57 +2866,57 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" t="s">
         <v>118</v>
       </c>
-      <c r="B64" t="s">
-        <v>119</v>
-      </c>
       <c r="C64">
-        <v>663.35</v>
+        <v>666</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" t="s">
         <v>120</v>
       </c>
-      <c r="B65" t="s">
-        <v>121</v>
-      </c>
       <c r="C65">
-        <v>623.46</v>
+        <v>663.35</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
         <v>122</v>
       </c>
-      <c r="B66" t="s">
-        <v>123</v>
-      </c>
       <c r="C66">
-        <v>619.59</v>
+        <v>623.46</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" t="s">
         <v>124</v>
       </c>
-      <c r="B67" t="s">
-        <v>125</v>
-      </c>
       <c r="C67">
-        <v>618.47</v>
+        <v>619.59</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" t="s">
         <v>126</v>
       </c>
-      <c r="B68" t="s">
-        <v>94</v>
-      </c>
       <c r="C68">
-        <v>614.59</v>
+        <v>618.47</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2923,76 +2924,76 @@
         <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C69">
-        <v>607.04999999999995</v>
+        <v>614.59</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" t="s">
         <v>129</v>
       </c>
-      <c r="B70" t="s">
-        <v>130</v>
-      </c>
       <c r="C70">
-        <v>598.08000000000004</v>
+        <v>607.04999999999995</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>130</v>
+      </c>
+      <c r="B71" t="s">
         <v>131</v>
       </c>
-      <c r="B71" t="s">
-        <v>132</v>
-      </c>
       <c r="C71">
-        <v>592.84</v>
+        <v>598.08000000000004</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" t="s">
         <v>133</v>
       </c>
-      <c r="B72" t="s">
-        <v>134</v>
-      </c>
       <c r="C72">
-        <v>590.78</v>
+        <v>592.84</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" t="s">
         <v>135</v>
       </c>
-      <c r="B73" t="s">
-        <v>136</v>
-      </c>
       <c r="C73">
-        <v>587.61</v>
+        <v>590.78</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
         <v>137</v>
       </c>
-      <c r="B74" t="s">
-        <v>138</v>
-      </c>
       <c r="C74">
-        <v>581.08000000000004</v>
+        <v>587.61</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" t="s">
         <v>139</v>
       </c>
-      <c r="B75" t="s">
-        <v>30</v>
-      </c>
       <c r="C75">
-        <v>578.08000000000004</v>
+        <v>581.08000000000004</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3003,7 +3004,7 @@
         <v>30</v>
       </c>
       <c r="C76">
-        <v>574.65</v>
+        <v>578.08000000000004</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3011,54 +3012,54 @@
         <v>141</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="C77">
-        <v>568.94000000000005</v>
+        <v>574.65</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" t="s">
         <v>143</v>
       </c>
-      <c r="B78" t="s">
-        <v>144</v>
-      </c>
       <c r="C78">
-        <v>558.77</v>
+        <v>568.94000000000005</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" t="s">
         <v>145</v>
       </c>
-      <c r="B79" t="s">
-        <v>146</v>
-      </c>
       <c r="C79">
-        <v>557.85</v>
+        <v>558.77</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" t="s">
         <v>147</v>
       </c>
-      <c r="B80" t="s">
-        <v>148</v>
-      </c>
       <c r="C80">
-        <v>553.35</v>
+        <v>557.85</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" t="s">
         <v>149</v>
       </c>
-      <c r="B81" t="s">
-        <v>71</v>
-      </c>
       <c r="C81">
-        <v>549.72</v>
+        <v>553.35</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3066,10 +3067,10 @@
         <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C82">
-        <v>549.71</v>
+        <v>549.72</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3077,43 +3078,43 @@
         <v>151</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="C83">
-        <v>534.91</v>
+        <v>549.71</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" t="s">
         <v>153</v>
       </c>
-      <c r="B84" t="s">
-        <v>154</v>
-      </c>
       <c r="C84">
-        <v>531.14</v>
+        <v>534.91</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" t="s">
         <v>155</v>
       </c>
-      <c r="B85" t="s">
-        <v>156</v>
-      </c>
       <c r="C85">
-        <v>525.92999999999995</v>
+        <v>531.14</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>156</v>
+      </c>
+      <c r="B86" t="s">
         <v>157</v>
       </c>
-      <c r="B86" t="s">
-        <v>6</v>
-      </c>
       <c r="C86">
-        <v>521.65</v>
+        <v>525.92999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3121,43 +3122,43 @@
         <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="C87">
-        <v>507.85</v>
+        <v>521.65</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" t="s">
         <v>160</v>
       </c>
-      <c r="B88" t="s">
-        <v>161</v>
-      </c>
       <c r="C88">
-        <v>501.06</v>
+        <v>517.87</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" t="s">
         <v>162</v>
       </c>
-      <c r="B89" t="s">
-        <v>163</v>
-      </c>
       <c r="C89">
-        <v>500.58</v>
+        <v>507.85</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" t="s">
         <v>164</v>
       </c>
-      <c r="B90" t="s">
-        <v>69</v>
-      </c>
       <c r="C90">
-        <v>491.62</v>
+        <v>501.06</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3165,21 +3166,21 @@
         <v>165</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="C91">
-        <v>490.15</v>
+        <v>500.58</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="C92">
-        <v>489.49</v>
+        <v>491.62</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3187,10 +3188,10 @@
         <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="C93">
-        <v>486.2</v>
+        <v>490.15</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3201,7 +3202,7 @@
         <v>170</v>
       </c>
       <c r="C94">
-        <v>467.79</v>
+        <v>489.49</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3209,54 +3210,54 @@
         <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="C95">
-        <v>465.01</v>
+        <v>486.2</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" t="s">
         <v>173</v>
       </c>
-      <c r="B96" t="s">
-        <v>174</v>
-      </c>
       <c r="C96">
-        <v>459.2</v>
+        <v>467.79</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" t="s">
         <v>175</v>
       </c>
-      <c r="B97" t="s">
-        <v>176</v>
-      </c>
       <c r="C97">
-        <v>450.33</v>
+        <v>465.01</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" t="s">
         <v>177</v>
       </c>
-      <c r="B98" t="s">
-        <v>178</v>
-      </c>
       <c r="C98">
-        <v>449.3</v>
+        <v>459.2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" t="s">
         <v>179</v>
       </c>
-      <c r="B99" t="s">
-        <v>92</v>
-      </c>
       <c r="C99">
-        <v>448.42</v>
+        <v>450.33</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3267,7 +3268,7 @@
         <v>181</v>
       </c>
       <c r="C100">
-        <v>444.28</v>
+        <v>449.3</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3275,10 +3276,10 @@
         <v>182</v>
       </c>
       <c r="B101" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C101">
-        <v>438.09</v>
+        <v>448.42</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3289,7 +3290,7 @@
         <v>184</v>
       </c>
       <c r="C102">
-        <v>420.94</v>
+        <v>444.28</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3297,65 +3298,65 @@
         <v>185</v>
       </c>
       <c r="B103" t="s">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="C103">
-        <v>414.23</v>
+        <v>438.09</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>186</v>
+      </c>
+      <c r="B104" t="s">
         <v>187</v>
       </c>
-      <c r="B104" t="s">
-        <v>188</v>
-      </c>
       <c r="C104">
-        <v>412.83</v>
+        <v>420.94</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>188</v>
+      </c>
+      <c r="B105" t="s">
         <v>189</v>
       </c>
-      <c r="B105" t="s">
-        <v>190</v>
-      </c>
       <c r="C105">
-        <v>410.43</v>
+        <v>414.23</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>190</v>
+      </c>
+      <c r="B106" t="s">
         <v>191</v>
       </c>
-      <c r="B106" t="s">
-        <v>192</v>
-      </c>
       <c r="C106">
-        <v>407.48</v>
+        <v>412.83</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>192</v>
+      </c>
+      <c r="B107" t="s">
         <v>193</v>
       </c>
-      <c r="B107" t="s">
-        <v>194</v>
-      </c>
       <c r="C107">
-        <v>405.36</v>
+        <v>410.43</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>194</v>
+      </c>
+      <c r="B108" t="s">
         <v>195</v>
       </c>
-      <c r="B108" t="s">
-        <v>51</v>
-      </c>
       <c r="C108">
-        <v>400.75</v>
+        <v>407.48</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3366,7 +3367,7 @@
         <v>197</v>
       </c>
       <c r="C109">
-        <v>396.16</v>
+        <v>405.36</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3374,65 +3375,65 @@
         <v>198</v>
       </c>
       <c r="B110" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="C110">
-        <v>393.52</v>
+        <v>400.75</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" t="s">
         <v>200</v>
       </c>
-      <c r="B111" t="s">
-        <v>201</v>
-      </c>
       <c r="C111">
-        <v>385.94</v>
+        <v>396.16</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>201</v>
+      </c>
+      <c r="B112" t="s">
         <v>202</v>
       </c>
-      <c r="B112" t="s">
-        <v>203</v>
-      </c>
       <c r="C112">
-        <v>374.89</v>
+        <v>393.52</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
+        <v>203</v>
+      </c>
+      <c r="B113" t="s">
         <v>204</v>
       </c>
-      <c r="B113" t="s">
-        <v>205</v>
-      </c>
       <c r="C113">
-        <v>369.59</v>
+        <v>385.94</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
+        <v>205</v>
+      </c>
+      <c r="B114" t="s">
         <v>206</v>
       </c>
-      <c r="B114" t="s">
-        <v>207</v>
-      </c>
       <c r="C114">
-        <v>365.44</v>
+        <v>374.89</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
+        <v>207</v>
+      </c>
+      <c r="B115" t="s">
         <v>208</v>
       </c>
-      <c r="B115" t="s">
-        <v>134</v>
-      </c>
       <c r="C115">
-        <v>365.37</v>
+        <v>369.59</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3440,32 +3441,32 @@
         <v>209</v>
       </c>
       <c r="B116" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="C116">
-        <v>355</v>
+        <v>365.44</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B117" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C117">
-        <v>346.83</v>
+        <v>365.37</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="C118">
-        <v>344.89</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3473,21 +3474,21 @@
         <v>213</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="C119">
-        <v>335.31</v>
+        <v>346.83</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
+        <v>214</v>
+      </c>
+      <c r="B120" t="s">
         <v>215</v>
       </c>
-      <c r="B120" t="s">
-        <v>32</v>
-      </c>
       <c r="C120">
-        <v>332.65</v>
+        <v>344.89</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3498,7 +3499,7 @@
         <v>217</v>
       </c>
       <c r="C121">
-        <v>328.23</v>
+        <v>335.31</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3506,43 +3507,43 @@
         <v>218</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="C122">
-        <v>323.79000000000002</v>
+        <v>332.65</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
+        <v>219</v>
+      </c>
+      <c r="B123" t="s">
         <v>220</v>
       </c>
-      <c r="B123" t="s">
-        <v>221</v>
-      </c>
       <c r="C123">
-        <v>321.54000000000002</v>
+        <v>328.23</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
+        <v>221</v>
+      </c>
+      <c r="B124" t="s">
         <v>222</v>
       </c>
-      <c r="B124" t="s">
-        <v>223</v>
-      </c>
       <c r="C124">
-        <v>321.31</v>
+        <v>323.79000000000002</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
+        <v>223</v>
+      </c>
+      <c r="B125" t="s">
         <v>224</v>
       </c>
-      <c r="B125" t="s">
-        <v>108</v>
-      </c>
       <c r="C125">
-        <v>313.51</v>
+        <v>321.54000000000002</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3553,7 +3554,7 @@
         <v>226</v>
       </c>
       <c r="C126">
-        <v>312.05</v>
+        <v>321.31</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3561,98 +3562,98 @@
         <v>227</v>
       </c>
       <c r="B127" t="s">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c r="C127">
-        <v>311.82</v>
+        <v>313.51</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>228</v>
+      </c>
+      <c r="B128" t="s">
         <v>229</v>
       </c>
-      <c r="B128" t="s">
-        <v>230</v>
-      </c>
       <c r="C128">
-        <v>305.27</v>
+        <v>312.05</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>230</v>
+      </c>
+      <c r="B129" t="s">
         <v>231</v>
       </c>
-      <c r="B129" t="s">
-        <v>232</v>
-      </c>
       <c r="C129">
-        <v>302.51</v>
+        <v>311.82</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
+        <v>232</v>
+      </c>
+      <c r="B130" t="s">
         <v>233</v>
       </c>
-      <c r="B130" t="s">
-        <v>234</v>
-      </c>
       <c r="C130">
-        <v>293.3</v>
+        <v>305.27</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
+        <v>234</v>
+      </c>
+      <c r="B131" t="s">
         <v>235</v>
       </c>
-      <c r="B131" t="s">
-        <v>236</v>
-      </c>
       <c r="C131">
-        <v>290.79000000000002</v>
+        <v>302.51</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
+        <v>236</v>
+      </c>
+      <c r="B132" t="s">
         <v>237</v>
       </c>
-      <c r="B132" t="s">
-        <v>238</v>
-      </c>
       <c r="C132">
-        <v>281.69</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
+        <v>238</v>
+      </c>
+      <c r="B133" t="s">
         <v>239</v>
       </c>
-      <c r="B133" t="s">
-        <v>240</v>
-      </c>
       <c r="C133">
-        <v>278.49</v>
+        <v>290.79000000000002</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
+        <v>240</v>
+      </c>
+      <c r="B134" t="s">
         <v>241</v>
       </c>
-      <c r="B134" t="s">
-        <v>242</v>
-      </c>
       <c r="C134">
-        <v>277.3</v>
+        <v>281.69</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
+        <v>242</v>
+      </c>
+      <c r="B135" t="s">
         <v>243</v>
       </c>
-      <c r="B135" t="s">
-        <v>156</v>
-      </c>
       <c r="C135">
-        <v>276.66000000000003</v>
+        <v>278.49</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -3663,7 +3664,7 @@
         <v>245</v>
       </c>
       <c r="C136">
-        <v>276.52</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3671,21 +3672,21 @@
         <v>246</v>
       </c>
       <c r="B137" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="C137">
-        <v>264.8</v>
+        <v>276.66000000000003</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>247</v>
+      </c>
+      <c r="B138" t="s">
         <v>248</v>
       </c>
-      <c r="B138" t="s">
-        <v>199</v>
-      </c>
       <c r="C138">
-        <v>262.73</v>
+        <v>276.52</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -3693,21 +3694,21 @@
         <v>249</v>
       </c>
       <c r="B139" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="C139">
-        <v>260.51</v>
+        <v>264.8</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B140" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="C140">
-        <v>260.14999999999998</v>
+        <v>262.73</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3715,10 +3716,10 @@
         <v>252</v>
       </c>
       <c r="B141" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="C141">
-        <v>253.25</v>
+        <v>260.51</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -3726,21 +3727,21 @@
         <v>253</v>
       </c>
       <c r="B142" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C142">
-        <v>248.66</v>
+        <v>260.14999999999998</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B143" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C143">
-        <v>248.22</v>
+        <v>253.25</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3748,10 +3749,10 @@
         <v>256</v>
       </c>
       <c r="B144" t="s">
-        <v>53</v>
+        <v>241</v>
       </c>
       <c r="C144">
-        <v>248.07</v>
+        <v>248.66</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -3762,7 +3763,7 @@
         <v>258</v>
       </c>
       <c r="C145">
-        <v>242.48</v>
+        <v>248.22</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3770,10 +3771,10 @@
         <v>259</v>
       </c>
       <c r="B146" t="s">
-        <v>144</v>
+        <v>55</v>
       </c>
       <c r="C146">
-        <v>237.08</v>
+        <v>248.07</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3781,32 +3782,32 @@
         <v>260</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="C147">
-        <v>236.99</v>
+        <v>242.48</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B148" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="C148">
-        <v>235.61</v>
+        <v>237.08</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B149" t="s">
-        <v>263</v>
+        <v>32</v>
       </c>
       <c r="C149">
-        <v>233.93</v>
+        <v>236.99</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -3814,21 +3815,21 @@
         <v>264</v>
       </c>
       <c r="B150" t="s">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="C150">
-        <v>233.88</v>
+        <v>235.61</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
+        <v>265</v>
+      </c>
+      <c r="B151" t="s">
         <v>266</v>
       </c>
-      <c r="B151" t="s">
-        <v>240</v>
-      </c>
       <c r="C151">
-        <v>232.63</v>
+        <v>233.93</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -3839,7 +3840,7 @@
         <v>268</v>
       </c>
       <c r="C152">
-        <v>227.02</v>
+        <v>233.88</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -3847,10 +3848,10 @@
         <v>269</v>
       </c>
       <c r="B153" t="s">
-        <v>144</v>
+        <v>243</v>
       </c>
       <c r="C153">
-        <v>217.03</v>
+        <v>232.63</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3861,7 +3862,7 @@
         <v>271</v>
       </c>
       <c r="C154">
-        <v>212.6</v>
+        <v>227.02</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3869,43 +3870,43 @@
         <v>272</v>
       </c>
       <c r="B155" t="s">
-        <v>273</v>
+        <v>145</v>
       </c>
       <c r="C155">
-        <v>206.79</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
+        <v>273</v>
+      </c>
+      <c r="B156" t="s">
         <v>274</v>
       </c>
-      <c r="B156" t="s">
-        <v>275</v>
-      </c>
       <c r="C156">
-        <v>199.77</v>
+        <v>212.6</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
+        <v>275</v>
+      </c>
+      <c r="B157" t="s">
         <v>276</v>
       </c>
-      <c r="B157" t="s">
-        <v>277</v>
-      </c>
       <c r="C157">
-        <v>196.41</v>
+        <v>206.79</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
+        <v>277</v>
+      </c>
+      <c r="B158" t="s">
         <v>278</v>
       </c>
-      <c r="B158" t="s">
-        <v>144</v>
-      </c>
       <c r="C158">
-        <v>192.19</v>
+        <v>199.77</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3916,7 +3917,7 @@
         <v>280</v>
       </c>
       <c r="C159">
-        <v>190.71</v>
+        <v>196.41</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3924,10 +3925,10 @@
         <v>281</v>
       </c>
       <c r="B160" t="s">
-        <v>247</v>
+        <v>145</v>
       </c>
       <c r="C160">
-        <v>188.83</v>
+        <v>192.19</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3938,7 +3939,7 @@
         <v>283</v>
       </c>
       <c r="C161">
-        <v>188.11</v>
+        <v>190.71</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3946,21 +3947,21 @@
         <v>284</v>
       </c>
       <c r="B162" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="C162">
-        <v>188.07</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
+        <v>285</v>
+      </c>
+      <c r="B163" t="s">
         <v>286</v>
       </c>
-      <c r="B163" t="s">
-        <v>82</v>
-      </c>
       <c r="C163">
-        <v>180.54</v>
+        <v>188.11</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3971,7 +3972,7 @@
         <v>288</v>
       </c>
       <c r="C164">
-        <v>178.03</v>
+        <v>188.07</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3979,43 +3980,43 @@
         <v>289</v>
       </c>
       <c r="B165" t="s">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="C165">
-        <v>173.83</v>
+        <v>180.54</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
+        <v>290</v>
+      </c>
+      <c r="B166" t="s">
         <v>291</v>
       </c>
-      <c r="B166" t="s">
-        <v>292</v>
-      </c>
       <c r="C166">
-        <v>172.7</v>
+        <v>178.03</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
+        <v>292</v>
+      </c>
+      <c r="B167" t="s">
         <v>293</v>
       </c>
-      <c r="B167" t="s">
-        <v>294</v>
-      </c>
       <c r="C167">
-        <v>172.32</v>
+        <v>173.83</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
+        <v>294</v>
+      </c>
+      <c r="B168" t="s">
         <v>295</v>
       </c>
-      <c r="B168" t="s">
-        <v>134</v>
-      </c>
       <c r="C168">
-        <v>170.37</v>
+        <v>172.7</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -4026,7 +4027,7 @@
         <v>297</v>
       </c>
       <c r="C169">
-        <v>170.27</v>
+        <v>172.32</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4034,10 +4035,10 @@
         <v>298</v>
       </c>
       <c r="B170" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="C170">
-        <v>163.77000000000001</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4048,7 +4049,7 @@
         <v>300</v>
       </c>
       <c r="C171">
-        <v>163.62</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -4056,10 +4057,10 @@
         <v>301</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="C172">
-        <v>160.33000000000001</v>
+        <v>163.77000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -4067,32 +4068,32 @@
         <v>302</v>
       </c>
       <c r="B173" t="s">
-        <v>117</v>
+        <v>303</v>
       </c>
       <c r="C173">
-        <v>156.99</v>
+        <v>163.62</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B174" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C174">
-        <v>155.81</v>
+        <v>160.33000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B175" t="s">
-        <v>305</v>
+        <v>118</v>
       </c>
       <c r="C175">
-        <v>155.47</v>
+        <v>156.99</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4100,10 +4101,10 @@
         <v>306</v>
       </c>
       <c r="B176" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="C176">
-        <v>155.30000000000001</v>
+        <v>155.81</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4111,21 +4112,21 @@
         <v>307</v>
       </c>
       <c r="B177" t="s">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="C177">
-        <v>154.04</v>
+        <v>155.47</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B178" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="C178">
-        <v>151.79</v>
+        <v>155.30000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4133,10 +4134,10 @@
         <v>310</v>
       </c>
       <c r="B179" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="C179">
-        <v>149.66</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4144,32 +4145,32 @@
         <v>311</v>
       </c>
       <c r="B180" t="s">
-        <v>194</v>
+        <v>312</v>
       </c>
       <c r="C180">
-        <v>148.72999999999999</v>
+        <v>151.79</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B181" t="s">
-        <v>283</v>
+        <v>113</v>
       </c>
       <c r="C181">
-        <v>147.84</v>
+        <v>149.66</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B182" t="s">
-        <v>314</v>
+        <v>197</v>
       </c>
       <c r="C182">
-        <v>142.44</v>
+        <v>148.72999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4177,10 +4178,10 @@
         <v>315</v>
       </c>
       <c r="B183" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="C183">
-        <v>136.12</v>
+        <v>147.84</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -4188,21 +4189,21 @@
         <v>316</v>
       </c>
       <c r="B184" t="s">
-        <v>207</v>
+        <v>317</v>
       </c>
       <c r="C184">
-        <v>135.84</v>
+        <v>142.44</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B185" t="s">
-        <v>318</v>
+        <v>250</v>
       </c>
       <c r="C185">
-        <v>135.63</v>
+        <v>136.12</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4210,32 +4211,32 @@
         <v>319</v>
       </c>
       <c r="B186" t="s">
-        <v>320</v>
+        <v>210</v>
       </c>
       <c r="C186">
-        <v>135.37</v>
+        <v>135.84</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
+        <v>320</v>
+      </c>
+      <c r="B187" t="s">
         <v>321</v>
       </c>
-      <c r="B187" t="s">
-        <v>322</v>
-      </c>
       <c r="C187">
-        <v>135.19</v>
+        <v>135.63</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
+        <v>322</v>
+      </c>
+      <c r="B188" t="s">
         <v>323</v>
       </c>
-      <c r="B188" t="s">
-        <v>172</v>
-      </c>
       <c r="C188">
-        <v>134.62</v>
+        <v>135.37</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -4246,7 +4247,7 @@
         <v>325</v>
       </c>
       <c r="C189">
-        <v>132.79</v>
+        <v>135.19</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4254,10 +4255,10 @@
         <v>326</v>
       </c>
       <c r="B190" t="s">
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="C190">
-        <v>132.05000000000001</v>
+        <v>134.62</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4265,43 +4266,43 @@
         <v>327</v>
       </c>
       <c r="B191" t="s">
-        <v>55</v>
+        <v>328</v>
       </c>
       <c r="C191">
-        <v>129.97</v>
+        <v>132.79</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B192" t="s">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="C192">
-        <v>129.93</v>
+        <v>132.05000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B193" t="s">
-        <v>226</v>
+        <v>57</v>
       </c>
       <c r="C193">
-        <v>128.85</v>
+        <v>129.97</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B194" t="s">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="C194">
-        <v>128.63</v>
+        <v>129.93</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4309,10 +4310,10 @@
         <v>332</v>
       </c>
       <c r="B195" t="s">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="C195">
-        <v>128.63</v>
+        <v>128.85</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4323,7 +4324,7 @@
         <v>334</v>
       </c>
       <c r="C196">
-        <v>128.35</v>
+        <v>128.63</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4331,43 +4332,43 @@
         <v>335</v>
       </c>
       <c r="B197" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="C197">
-        <v>128.30000000000001</v>
+        <v>128.63</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
+        <v>336</v>
+      </c>
+      <c r="B198" t="s">
         <v>337</v>
       </c>
-      <c r="B198" t="s">
-        <v>338</v>
-      </c>
       <c r="C198">
-        <v>127.76</v>
+        <v>128.35</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
+        <v>338</v>
+      </c>
+      <c r="B199" t="s">
         <v>339</v>
       </c>
-      <c r="B199" t="s">
-        <v>340</v>
-      </c>
       <c r="C199">
-        <v>127.59</v>
+        <v>128.30000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
+        <v>340</v>
+      </c>
+      <c r="B200" t="s">
         <v>341</v>
       </c>
-      <c r="B200" t="s">
-        <v>20</v>
-      </c>
       <c r="C200">
-        <v>126.19</v>
+        <v>127.76</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4375,21 +4376,21 @@
         <v>342</v>
       </c>
       <c r="B201" t="s">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="C201">
-        <v>124.52</v>
+        <v>127.59</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B202" t="s">
-        <v>344</v>
+        <v>20</v>
       </c>
       <c r="C202">
-        <v>123.03</v>
+        <v>126.19</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4397,10 +4398,10 @@
         <v>345</v>
       </c>
       <c r="B203" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="C203">
-        <v>122.89</v>
+        <v>124.52</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4411,7 +4412,7 @@
         <v>347</v>
       </c>
       <c r="C204">
-        <v>121.28</v>
+        <v>123.03</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -4419,21 +4420,21 @@
         <v>348</v>
       </c>
       <c r="B205" t="s">
-        <v>349</v>
+        <v>189</v>
       </c>
       <c r="C205">
-        <v>121.15</v>
+        <v>122.89</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
+        <v>349</v>
+      </c>
+      <c r="B206" t="s">
         <v>350</v>
       </c>
-      <c r="B206" t="s">
-        <v>174</v>
-      </c>
       <c r="C206">
-        <v>120.88</v>
+        <v>121.28</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4441,21 +4442,21 @@
         <v>351</v>
       </c>
       <c r="B207" t="s">
-        <v>55</v>
+        <v>352</v>
       </c>
       <c r="C207">
-        <v>120.72</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B208" t="s">
-        <v>353</v>
+        <v>177</v>
       </c>
       <c r="C208">
-        <v>120.7</v>
+        <v>120.88</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4463,10 +4464,10 @@
         <v>354</v>
       </c>
       <c r="B209" t="s">
-        <v>338</v>
+        <v>57</v>
       </c>
       <c r="C209">
-        <v>119.26</v>
+        <v>120.72</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -4474,21 +4475,21 @@
         <v>355</v>
       </c>
       <c r="B210" t="s">
-        <v>219</v>
+        <v>356</v>
       </c>
       <c r="C210">
-        <v>118.26</v>
+        <v>120.7</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B211" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="C211">
-        <v>113.99</v>
+        <v>119.26</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4496,10 +4497,10 @@
         <v>358</v>
       </c>
       <c r="B212" t="s">
-        <v>331</v>
+        <v>222</v>
       </c>
       <c r="C212">
-        <v>113</v>
+        <v>118.26</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4507,43 +4508,43 @@
         <v>359</v>
       </c>
       <c r="B213" t="s">
-        <v>142</v>
+        <v>360</v>
       </c>
       <c r="C213">
-        <v>109.4</v>
+        <v>113.99</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B214" t="s">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="C214">
-        <v>109.27</v>
+        <v>113</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B215" t="s">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="C215">
-        <v>109.01</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B216" t="s">
-        <v>363</v>
+        <v>261</v>
       </c>
       <c r="C216">
-        <v>106.84</v>
+        <v>109.27</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4551,43 +4552,43 @@
         <v>364</v>
       </c>
       <c r="B217" t="s">
-        <v>365</v>
+        <v>243</v>
       </c>
       <c r="C217">
-        <v>105.23</v>
+        <v>109.01</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
+        <v>365</v>
+      </c>
+      <c r="B218" t="s">
         <v>366</v>
       </c>
-      <c r="B218" t="s">
-        <v>367</v>
-      </c>
       <c r="C218">
-        <v>104.9</v>
+        <v>106.84</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
+        <v>367</v>
+      </c>
+      <c r="B219" t="s">
         <v>368</v>
       </c>
-      <c r="B219" t="s">
-        <v>369</v>
-      </c>
       <c r="C219">
-        <v>99.24</v>
+        <v>105.23</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
+        <v>369</v>
+      </c>
+      <c r="B220" t="s">
         <v>370</v>
       </c>
-      <c r="B220" t="s">
-        <v>65</v>
-      </c>
       <c r="C220">
-        <v>98.28</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4595,32 +4596,32 @@
         <v>371</v>
       </c>
       <c r="B221" t="s">
-        <v>69</v>
+        <v>372</v>
       </c>
       <c r="C221">
-        <v>97.08</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B222" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C222">
-        <v>95.88</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B223" t="s">
-        <v>374</v>
+        <v>71</v>
       </c>
       <c r="C223">
-        <v>95.38</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4628,21 +4629,21 @@
         <v>375</v>
       </c>
       <c r="B224" t="s">
-        <v>376</v>
+        <v>83</v>
       </c>
       <c r="C224">
-        <v>94.95</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
+        <v>376</v>
+      </c>
+      <c r="B225" t="s">
         <v>377</v>
       </c>
-      <c r="B225" t="s">
-        <v>156</v>
-      </c>
       <c r="C225">
-        <v>94.27</v>
+        <v>95.38</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4650,43 +4651,43 @@
         <v>378</v>
       </c>
       <c r="B226" t="s">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="C226">
-        <v>92.07</v>
+        <v>94.95</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B227" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="C227">
-        <v>90.83</v>
+        <v>94.27</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B228" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="C228">
-        <v>90.2</v>
+        <v>92.07</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B229" t="s">
-        <v>382</v>
+        <v>30</v>
       </c>
       <c r="C229">
-        <v>89.85</v>
+        <v>90.83</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4694,32 +4695,32 @@
         <v>383</v>
       </c>
       <c r="B230" t="s">
-        <v>384</v>
+        <v>22</v>
       </c>
       <c r="C230">
-        <v>88.8</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
+        <v>384</v>
+      </c>
+      <c r="B231" t="s">
         <v>385</v>
       </c>
-      <c r="B231" t="s">
-        <v>386</v>
-      </c>
       <c r="C231">
-        <v>86.45</v>
+        <v>89.85</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
+        <v>386</v>
+      </c>
+      <c r="B232" t="s">
         <v>387</v>
       </c>
-      <c r="B232" t="s">
-        <v>186</v>
-      </c>
       <c r="C232">
-        <v>86.38</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4730,7 +4731,7 @@
         <v>389</v>
       </c>
       <c r="C233">
-        <v>84.72</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4738,10 +4739,10 @@
         <v>390</v>
       </c>
       <c r="B234" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="C234">
-        <v>83.13</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4752,7 +4753,7 @@
         <v>392</v>
       </c>
       <c r="C235">
-        <v>83.06</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4760,10 +4761,10 @@
         <v>393</v>
       </c>
       <c r="B236" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="C236">
-        <v>82.79</v>
+        <v>83.13</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4771,21 +4772,21 @@
         <v>394</v>
       </c>
       <c r="B237" t="s">
-        <v>102</v>
+        <v>395</v>
       </c>
       <c r="C237">
-        <v>81.87</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B238" t="s">
-        <v>396</v>
+        <v>193</v>
       </c>
       <c r="C238">
-        <v>80.05</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4793,21 +4794,21 @@
         <v>397</v>
       </c>
       <c r="B239" t="s">
-        <v>398</v>
+        <v>103</v>
       </c>
       <c r="C239">
-        <v>79.36</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
+        <v>398</v>
+      </c>
+      <c r="B240" t="s">
         <v>399</v>
       </c>
-      <c r="B240" t="s">
-        <v>247</v>
-      </c>
       <c r="C240">
-        <v>78.73</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -4815,10 +4816,10 @@
         <v>400</v>
       </c>
       <c r="B241" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C241">
-        <v>78.319999999999993</v>
+        <v>79.36</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4826,175 +4827,175 @@
         <v>401</v>
       </c>
       <c r="B242" t="s">
-        <v>402</v>
+        <v>250</v>
       </c>
       <c r="C242">
-        <v>77.19</v>
+        <v>78.73</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B243" t="s">
-        <v>404</v>
+        <v>55</v>
       </c>
       <c r="C243">
-        <v>76.260000000000005</v>
+        <v>78.319999999999993</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B244" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C244">
-        <v>75.86</v>
+        <v>77.19</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B245" t="s">
-        <v>146</v>
+        <v>406</v>
       </c>
       <c r="C245">
-        <v>75.56</v>
+        <v>76.260000000000005</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
+        <v>407</v>
+      </c>
+      <c r="B246" t="s">
         <v>408</v>
       </c>
-      <c r="B246" t="s">
-        <v>409</v>
-      </c>
       <c r="C246">
-        <v>74.39</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B247" t="s">
-        <v>411</v>
+        <v>147</v>
       </c>
       <c r="C247">
-        <v>74.27</v>
+        <v>75.56</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B248" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C248">
-        <v>74.23</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B249" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C249">
-        <v>73.650000000000006</v>
+        <v>74.27</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B250" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C250">
-        <v>73.599999999999994</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B251" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C251">
-        <v>73.56</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B252" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C252">
-        <v>73.53</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B253" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C253">
-        <v>73.430000000000007</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B254" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C254">
-        <v>73.3</v>
+        <v>73.53</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B255" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C255">
-        <v>72.42</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B256" t="s">
-        <v>347</v>
+        <v>427</v>
       </c>
       <c r="C256">
-        <v>71.31</v>
+        <v>73.3</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
+        <v>428</v>
+      </c>
+      <c r="B257" t="s">
         <v>429</v>
       </c>
-      <c r="B257" t="s">
-        <v>55</v>
-      </c>
       <c r="C257">
-        <v>70.459999999999994</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5002,10 +5003,10 @@
         <v>430</v>
       </c>
       <c r="B258" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="C258">
-        <v>69.45</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5013,10 +5014,10 @@
         <v>431</v>
       </c>
       <c r="B259" t="s">
-        <v>217</v>
+        <v>57</v>
       </c>
       <c r="C259">
-        <v>68.459999999999994</v>
+        <v>70.459999999999994</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5024,54 +5025,54 @@
         <v>432</v>
       </c>
       <c r="B260" t="s">
-        <v>433</v>
+        <v>334</v>
       </c>
       <c r="C260">
-        <v>68.05</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B261" t="s">
-        <v>435</v>
+        <v>220</v>
       </c>
       <c r="C261">
-        <v>67.69</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B262" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C262">
-        <v>66.010000000000005</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B263" t="s">
-        <v>35</v>
+        <v>437</v>
       </c>
       <c r="C263">
-        <v>65.06</v>
+        <v>67.69</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
+        <v>438</v>
+      </c>
+      <c r="B264" t="s">
         <v>439</v>
       </c>
-      <c r="B264" t="s">
-        <v>82</v>
-      </c>
       <c r="C264">
-        <v>64.709999999999994</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5079,43 +5080,43 @@
         <v>440</v>
       </c>
       <c r="B265" t="s">
-        <v>441</v>
+        <v>35</v>
       </c>
       <c r="C265">
-        <v>64.400000000000006</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B266" t="s">
-        <v>443</v>
+        <v>83</v>
       </c>
       <c r="C266">
-        <v>64.040000000000006</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B267" t="s">
-        <v>32</v>
+        <v>443</v>
       </c>
       <c r="C267">
-        <v>63.94</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
+        <v>444</v>
+      </c>
+      <c r="B268" t="s">
         <v>445</v>
       </c>
-      <c r="B268" t="s">
-        <v>347</v>
-      </c>
       <c r="C268">
-        <v>62.6</v>
+        <v>64.040000000000006</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5123,32 +5124,32 @@
         <v>446</v>
       </c>
       <c r="B269" t="s">
-        <v>447</v>
+        <v>32</v>
       </c>
       <c r="C269">
-        <v>61.74</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B270" t="s">
-        <v>142</v>
+        <v>350</v>
       </c>
       <c r="C270">
-        <v>60.44</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
+        <v>448</v>
+      </c>
+      <c r="B271" t="s">
         <v>449</v>
       </c>
-      <c r="B271" t="s">
-        <v>374</v>
-      </c>
       <c r="C271">
-        <v>59.87</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5156,32 +5157,32 @@
         <v>450</v>
       </c>
       <c r="B272" t="s">
-        <v>451</v>
+        <v>143</v>
       </c>
       <c r="C272">
-        <v>59.63</v>
+        <v>60.44</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B273" t="s">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="C273">
-        <v>59.2</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
+        <v>452</v>
+      </c>
+      <c r="B274" t="s">
         <v>453</v>
       </c>
-      <c r="B274" t="s">
-        <v>305</v>
-      </c>
       <c r="C274">
-        <v>57.82</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5189,10 +5190,10 @@
         <v>454</v>
       </c>
       <c r="B275" t="s">
-        <v>275</v>
+        <v>449</v>
       </c>
       <c r="C275">
-        <v>56.79</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5200,87 +5201,87 @@
         <v>455</v>
       </c>
       <c r="B276" t="s">
-        <v>456</v>
+        <v>308</v>
       </c>
       <c r="C276">
-        <v>55.66</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B277" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
       <c r="C277">
-        <v>55.24</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
+        <v>457</v>
+      </c>
+      <c r="B278" t="s">
         <v>458</v>
       </c>
-      <c r="B278" t="s">
-        <v>459</v>
-      </c>
       <c r="C278">
-        <v>54.71</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B279" t="s">
-        <v>290</v>
+        <v>97</v>
       </c>
       <c r="C279">
-        <v>52.09</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
+        <v>460</v>
+      </c>
+      <c r="B280" t="s">
         <v>461</v>
       </c>
-      <c r="B280" t="s">
-        <v>462</v>
-      </c>
       <c r="C280">
-        <v>51.65</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B281" t="s">
-        <v>464</v>
+        <v>293</v>
       </c>
       <c r="C281">
-        <v>50</v>
+        <v>52.09</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B282" t="s">
-        <v>294</v>
+        <v>464</v>
       </c>
       <c r="C282">
-        <v>49.28</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
+        <v>465</v>
+      </c>
+      <c r="B283" t="s">
         <v>466</v>
       </c>
-      <c r="B283" t="s">
-        <v>22</v>
-      </c>
       <c r="C283">
-        <v>48.65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5288,32 +5289,32 @@
         <v>467</v>
       </c>
       <c r="B284" t="s">
-        <v>468</v>
+        <v>297</v>
       </c>
       <c r="C284">
-        <v>48.38</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B285" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C285">
-        <v>48.16</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
+        <v>469</v>
+      </c>
+      <c r="B286" t="s">
         <v>470</v>
       </c>
-      <c r="B286" t="s">
-        <v>325</v>
-      </c>
       <c r="C286">
-        <v>46.28</v>
+        <v>48.38</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5321,10 +5322,10 @@
         <v>471</v>
       </c>
       <c r="B287" t="s">
-        <v>297</v>
+        <v>6</v>
       </c>
       <c r="C287">
-        <v>46.23</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5332,32 +5333,32 @@
         <v>472</v>
       </c>
       <c r="B288" t="s">
-        <v>473</v>
+        <v>328</v>
       </c>
       <c r="C288">
-        <v>44.69</v>
+        <v>46.28</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B289" t="s">
-        <v>163</v>
+        <v>300</v>
       </c>
       <c r="C289">
-        <v>44.52</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
+        <v>474</v>
+      </c>
+      <c r="B290" t="s">
         <v>475</v>
       </c>
-      <c r="B290" t="s">
-        <v>102</v>
-      </c>
       <c r="C290">
-        <v>44.47</v>
+        <v>44.69</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5365,10 +5366,10 @@
         <v>476</v>
       </c>
       <c r="B291" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="C291">
-        <v>44.44</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5376,65 +5377,65 @@
         <v>477</v>
       </c>
       <c r="B292" t="s">
-        <v>478</v>
+        <v>103</v>
       </c>
       <c r="C292">
-        <v>44.44</v>
+        <v>44.47</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B293" t="s">
-        <v>480</v>
+        <v>135</v>
       </c>
       <c r="C293">
-        <v>43.96</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B294" t="s">
-        <v>55</v>
+        <v>480</v>
       </c>
       <c r="C294">
-        <v>42.7</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
+        <v>481</v>
+      </c>
+      <c r="B295" t="s">
         <v>482</v>
       </c>
-      <c r="B295" t="s">
-        <v>483</v>
-      </c>
       <c r="C295">
-        <v>42.45</v>
+        <v>43.96</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B296" t="s">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="C296">
-        <v>42.2</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
+        <v>484</v>
+      </c>
+      <c r="B297" t="s">
         <v>485</v>
       </c>
-      <c r="B297" t="s">
-        <v>190</v>
-      </c>
       <c r="C297">
-        <v>40</v>
+        <v>42.45</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5442,131 +5443,131 @@
         <v>486</v>
       </c>
       <c r="B298" t="s">
-        <v>487</v>
+        <v>143</v>
       </c>
       <c r="C298">
-        <v>39.79</v>
+        <v>42.2</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B299" t="s">
-        <v>57</v>
+        <v>193</v>
       </c>
       <c r="C299">
-        <v>37.799999999999997</v>
+        <v>40</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
+        <v>488</v>
+      </c>
+      <c r="B300" t="s">
         <v>489</v>
       </c>
-      <c r="B300" t="s">
-        <v>490</v>
-      </c>
       <c r="C300">
-        <v>37.200000000000003</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B301" t="s">
-        <v>492</v>
+        <v>59</v>
       </c>
       <c r="C301">
-        <v>36.94</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B302" t="s">
-        <v>290</v>
+        <v>492</v>
       </c>
       <c r="C302">
-        <v>33.049999999999997</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
+        <v>493</v>
+      </c>
+      <c r="B303" t="s">
         <v>494</v>
       </c>
-      <c r="B303" t="s">
-        <v>495</v>
-      </c>
       <c r="C303">
-        <v>32.78</v>
+        <v>36.94</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B304" t="s">
-        <v>497</v>
+        <v>293</v>
       </c>
       <c r="C304">
-        <v>31.71</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B305" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C305">
-        <v>30.03</v>
+        <v>32.78</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B306" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C306">
-        <v>29.9</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B307" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C307">
-        <v>29.32</v>
+        <v>30.03</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B308" t="s">
-        <v>190</v>
+        <v>503</v>
       </c>
       <c r="C308">
-        <v>28.58</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
+        <v>504</v>
+      </c>
+      <c r="B309" t="s">
         <v>505</v>
       </c>
-      <c r="B309" t="s">
-        <v>57</v>
-      </c>
       <c r="C309">
-        <v>28.26</v>
+        <v>29.32</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5574,54 +5575,54 @@
         <v>506</v>
       </c>
       <c r="B310" t="s">
-        <v>507</v>
+        <v>193</v>
       </c>
       <c r="C310">
-        <v>27.86</v>
+        <v>28.58</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B311" t="s">
-        <v>509</v>
+        <v>59</v>
       </c>
       <c r="C311">
-        <v>27.83</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B312" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C312">
-        <v>26.89</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B313" t="s">
-        <v>174</v>
+        <v>511</v>
       </c>
       <c r="C313">
-        <v>26.8</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
+        <v>512</v>
+      </c>
+      <c r="B314" t="s">
         <v>513</v>
       </c>
-      <c r="B314" t="s">
-        <v>112</v>
-      </c>
       <c r="C314">
-        <v>26.1</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -5629,164 +5630,164 @@
         <v>514</v>
       </c>
       <c r="B315" t="s">
-        <v>515</v>
+        <v>177</v>
       </c>
       <c r="C315">
-        <v>24.5</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B316" t="s">
-        <v>336</v>
+        <v>113</v>
       </c>
       <c r="C316">
-        <v>24.33</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
+        <v>516</v>
+      </c>
+      <c r="B317" t="s">
         <v>517</v>
       </c>
-      <c r="B317" t="s">
-        <v>518</v>
-      </c>
       <c r="C317">
-        <v>23.89</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B318" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C318">
-        <v>23.11</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
+        <v>519</v>
+      </c>
+      <c r="B319" t="s">
         <v>520</v>
       </c>
-      <c r="B319" t="s">
-        <v>521</v>
-      </c>
       <c r="C319">
-        <v>21.27</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B320" t="s">
-        <v>112</v>
+        <v>339</v>
       </c>
       <c r="C320">
-        <v>20.49</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
+        <v>522</v>
+      </c>
+      <c r="B321" t="s">
         <v>523</v>
       </c>
-      <c r="B321" t="s">
-        <v>524</v>
-      </c>
       <c r="C321">
-        <v>19.12</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B322" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="C322">
-        <v>16.78</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
+        <v>525</v>
+      </c>
+      <c r="B323" t="s">
         <v>526</v>
       </c>
-      <c r="B323" t="s">
-        <v>527</v>
-      </c>
       <c r="C323">
-        <v>15.76</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B324" t="s">
-        <v>529</v>
+        <v>215</v>
       </c>
       <c r="C324">
-        <v>14.67</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B325" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C325">
-        <v>13.69</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B326" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C326">
-        <v>12.38</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B327" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C327">
-        <v>11.39</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B328" t="s">
-        <v>184</v>
+        <v>535</v>
       </c>
       <c r="C328">
-        <v>10</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
+        <v>536</v>
+      </c>
+      <c r="B329" t="s">
         <v>537</v>
       </c>
-      <c r="B329" t="s">
-        <v>247</v>
-      </c>
       <c r="C329">
-        <v>9.85</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5794,43 +5795,43 @@
         <v>538</v>
       </c>
       <c r="B330" t="s">
-        <v>539</v>
+        <v>187</v>
       </c>
       <c r="C330">
-        <v>9.7200000000000006</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B331" t="s">
-        <v>541</v>
+        <v>250</v>
       </c>
       <c r="C331">
-        <v>9.52</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B332" t="s">
-        <v>178</v>
+        <v>541</v>
       </c>
       <c r="C332">
-        <v>9.44</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
+        <v>542</v>
+      </c>
+      <c r="B333" t="s">
         <v>543</v>
       </c>
-      <c r="B333" t="s">
-        <v>305</v>
-      </c>
       <c r="C333">
-        <v>8.66</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -5838,109 +5839,109 @@
         <v>544</v>
       </c>
       <c r="B334" t="s">
-        <v>545</v>
+        <v>181</v>
       </c>
       <c r="C334">
-        <v>8.4499999999999993</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B335" t="s">
-        <v>94</v>
+        <v>308</v>
       </c>
       <c r="C335">
-        <v>7.91</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
+        <v>546</v>
+      </c>
+      <c r="B336" t="s">
         <v>547</v>
       </c>
-      <c r="B336" t="s">
-        <v>548</v>
-      </c>
       <c r="C336">
-        <v>7.62</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B337" t="s">
-        <v>550</v>
+        <v>95</v>
       </c>
       <c r="C337">
-        <v>6.98</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B338" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C338">
-        <v>6.66</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B339" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C339">
-        <v>6.53</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B340" t="s">
-        <v>112</v>
+        <v>554</v>
       </c>
       <c r="C340">
-        <v>6.04</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
+        <v>555</v>
+      </c>
+      <c r="B341" t="s">
         <v>556</v>
       </c>
-      <c r="B341" t="s">
-        <v>557</v>
-      </c>
       <c r="C341">
-        <v>5.56</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B342" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="C342">
-        <v>5.55</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
+        <v>558</v>
+      </c>
+      <c r="B343" t="s">
         <v>559</v>
       </c>
-      <c r="B343" t="s">
-        <v>398</v>
-      </c>
       <c r="C343">
-        <v>4.88</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -5948,21 +5949,21 @@
         <v>560</v>
       </c>
       <c r="B344" t="s">
-        <v>561</v>
+        <v>189</v>
       </c>
       <c r="C344">
-        <v>4.08</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
+        <v>561</v>
+      </c>
+      <c r="B345" t="s">
         <v>562</v>
       </c>
-      <c r="B345" t="s">
-        <v>294</v>
-      </c>
       <c r="C345">
-        <v>3.26</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -5970,32 +5971,32 @@
         <v>563</v>
       </c>
       <c r="B346" t="s">
-        <v>564</v>
+        <v>297</v>
       </c>
       <c r="C346">
-        <v>2.08</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
+        <v>564</v>
+      </c>
+      <c r="B347" t="s">
         <v>565</v>
       </c>
-      <c r="B347" t="s">
-        <v>566</v>
-      </c>
       <c r="C347">
-        <v>1.66</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
+        <v>566</v>
+      </c>
+      <c r="B348" t="s">
         <v>567</v>
       </c>
-      <c r="B348" t="s">
-        <v>32</v>
-      </c>
       <c r="C348">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6003,43 +6004,43 @@
         <v>568</v>
       </c>
       <c r="B349" t="s">
-        <v>569</v>
+        <v>32</v>
       </c>
       <c r="C349">
-        <v>0.78</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
+        <v>569</v>
+      </c>
+      <c r="B350" t="s">
         <v>570</v>
       </c>
-      <c r="B350" t="s">
-        <v>571</v>
-      </c>
       <c r="C350">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
+        <v>571</v>
+      </c>
+      <c r="B351" t="s">
         <v>572</v>
       </c>
-      <c r="B351" t="s">
-        <v>573</v>
-      </c>
       <c r="C351">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
+        <v>573</v>
+      </c>
+      <c r="B352" t="s">
         <v>574</v>
       </c>
-      <c r="B352" t="s">
-        <v>305</v>
-      </c>
       <c r="C352">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6047,10 +6048,10 @@
         <v>575</v>
       </c>
       <c r="B353" t="s">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="C353">
-        <v>0.47</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6058,21 +6059,21 @@
         <v>576</v>
       </c>
       <c r="B354" t="s">
-        <v>577</v>
+        <v>20</v>
       </c>
       <c r="C354">
-        <v>0.06</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
+        <v>577</v>
+      </c>
+      <c r="B355" t="s">
         <v>578</v>
       </c>
-      <c r="B355" t="s">
-        <v>167</v>
-      </c>
       <c r="C355">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6080,7 +6081,7 @@
         <v>579</v>
       </c>
       <c r="B356" t="s">
-        <v>580</v>
+        <v>170</v>
       </c>
       <c r="C356">
         <v>0.03</v>
@@ -6088,13 +6089,13 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
+        <v>580</v>
+      </c>
+      <c r="B357" t="s">
         <v>581</v>
       </c>
-      <c r="B357" t="s">
-        <v>134</v>
-      </c>
       <c r="C357">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6102,7 +6103,7 @@
         <v>582</v>
       </c>
       <c r="B358" t="s">
-        <v>583</v>
+        <v>135</v>
       </c>
       <c r="C358">
         <v>0.01</v>
@@ -6110,10 +6111,10 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
+        <v>583</v>
+      </c>
+      <c r="B359" t="s">
         <v>584</v>
-      </c>
-      <c r="B359" t="s">
-        <v>585</v>
       </c>
       <c r="C359">
         <v>0.01</v>
@@ -6121,18 +6122,29 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
+        <v>585</v>
+      </c>
+      <c r="B360" t="s">
         <v>586</v>
       </c>
-      <c r="B360" t="s">
-        <v>67</v>
-      </c>
       <c r="C360">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>587</v>
+      </c>
+      <c r="B361" t="s">
+        <v>69</v>
+      </c>
+      <c r="C361">
         <v>-167.52</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
-      <c r="A362" t="s">
-        <v>587</v>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33E047B2-257B-4062-92FC-E74FED474AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EECE739-DA7F-4AF7-90D6-00AD212C15B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="622">
   <si>
     <t>CONTA</t>
   </si>
@@ -44,1759 +31,1858 @@
     <t>SALDO</t>
   </si>
   <si>
+    <t>004999410</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>002878817</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004216401</t>
+  </si>
+  <si>
+    <t>SUELY</t>
+  </si>
+  <si>
+    <t>004400000</t>
+  </si>
+  <si>
+    <t>VILMA</t>
+  </si>
+  <si>
+    <t>004321092</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004371857</t>
+  </si>
+  <si>
+    <t>NAZARETH</t>
+  </si>
+  <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>003301389</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>002738211</t>
+  </si>
+  <si>
+    <t>MARGARETH</t>
+  </si>
+  <si>
+    <t>004853111</t>
+  </si>
+  <si>
+    <t>MARCONDES</t>
+  </si>
+  <si>
+    <t>000938440</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004267119</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004848927</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004575632</t>
+  </si>
+  <si>
+    <t>ADELE</t>
+  </si>
+  <si>
+    <t>004204500</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>005135281</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>004448501</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004388490</t>
+  </si>
+  <si>
+    <t>CAMILLA</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004459461</t>
+  </si>
+  <si>
+    <t>INTERLAGOS</t>
+  </si>
+  <si>
+    <t>004511696</t>
+  </si>
+  <si>
+    <t>KRYSCIA</t>
+  </si>
+  <si>
+    <t>004238164</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>004589311</t>
+  </si>
+  <si>
+    <t>CLARICE</t>
+  </si>
+  <si>
+    <t>004971448</t>
+  </si>
+  <si>
+    <t>CLOVIS</t>
+  </si>
+  <si>
+    <t>004335031</t>
+  </si>
+  <si>
+    <t>004421636</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004216298</t>
+  </si>
+  <si>
+    <t>FLORDELIZ</t>
+  </si>
+  <si>
+    <t>004313254</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004482090</t>
+  </si>
+  <si>
+    <t>CEZAR</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>004918709</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004588677</t>
+  </si>
+  <si>
+    <t>RACHEL</t>
+  </si>
+  <si>
+    <t>004422594</t>
+  </si>
+  <si>
+    <t>WANDIR</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004355790</t>
+  </si>
+  <si>
+    <t>MINEIA</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>004281300</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>000827730</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004404724</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>004214592</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>004264780</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>005009947</t>
+  </si>
+  <si>
+    <t>VERANICE</t>
+  </si>
+  <si>
+    <t>004552021</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004517506</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004691225</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004643153</t>
+  </si>
+  <si>
+    <t>CARLA</t>
+  </si>
+  <si>
+    <t>003497496</t>
+  </si>
+  <si>
+    <t>ELISANDRA</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>DILSON</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004212476</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004340984</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>004369172</t>
+  </si>
+  <si>
+    <t>LUIZA</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004243043</t>
+  </si>
+  <si>
+    <t>SUELI</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>004450405</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004334158</t>
+  </si>
+  <si>
+    <t>LEONE</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>004207278</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004425965</t>
+  </si>
+  <si>
+    <t>CAROLLINA</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004466221</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>004444605</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004212409</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004207374</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>002458288</t>
+  </si>
+  <si>
+    <t>BENEDITO</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
+    <t>004208869</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004460491</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>002592340</t>
+  </si>
+  <si>
+    <t>004870019</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>004467884</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004265173</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>004461526</t>
+  </si>
+  <si>
+    <t>ASSISTIGAS</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004643737</t>
+  </si>
+  <si>
+    <t>004641487</t>
+  </si>
+  <si>
+    <t>LAILA</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
+  </si>
+  <si>
+    <t>005142624</t>
+  </si>
+  <si>
     <t>005142661</t>
   </si>
   <si>
     <t>SABRINA</t>
   </si>
   <si>
-    <t>005142624</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
-  </si>
-  <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>004641487</t>
-  </si>
-  <si>
-    <t>LAILA</t>
-  </si>
-  <si>
-    <t>005169333</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004643737</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004467884</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004482439</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>004870019</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>002592340</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004207374</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>004212409</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>004444605</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>004425965</t>
-  </si>
-  <si>
-    <t>CAROLLINA</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>004207278</t>
-  </si>
-  <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>004334158</t>
-  </si>
-  <si>
-    <t>LEONE</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>004450405</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004243043</t>
-  </si>
-  <si>
-    <t>SUELI</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004369172</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>004340984</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>000834301</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>004556150</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>003497496</t>
-  </si>
-  <si>
-    <t>ELISANDRA</t>
-  </si>
-  <si>
-    <t>004643153</t>
-  </si>
-  <si>
-    <t>CARLA</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>004461526</t>
-  </si>
-  <si>
-    <t>ASSISTIGAS</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004691225</t>
-  </si>
-  <si>
-    <t>ANNA</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004265173</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>004517506</t>
-  </si>
-  <si>
-    <t>004552021</t>
-  </si>
-  <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004264780</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>004214592</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>004404724</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>000827730</t>
-  </si>
-  <si>
-    <t>004281300</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>004355790</t>
-  </si>
-  <si>
-    <t>MINEIA</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004422594</t>
-  </si>
-  <si>
-    <t>WANDIR</t>
-  </si>
-  <si>
-    <t>004588677</t>
-  </si>
-  <si>
-    <t>RACHEL</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
     <t>005142592</t>
   </si>
   <si>
-    <t>004313254</t>
-  </si>
-  <si>
-    <t>004216298</t>
-  </si>
-  <si>
-    <t>FLORDELIZ</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004421636</t>
-  </si>
-  <si>
-    <t>004335031</t>
-  </si>
-  <si>
-    <t>004589311</t>
-  </si>
-  <si>
-    <t>CLARICE</t>
-  </si>
-  <si>
-    <t>004238164</t>
-  </si>
-  <si>
-    <t>004511696</t>
-  </si>
-  <si>
-    <t>KRYSCIA</t>
-  </si>
-  <si>
-    <t>004459461</t>
-  </si>
-  <si>
-    <t>INTERLAGOS</t>
-  </si>
-  <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>004388490</t>
-  </si>
-  <si>
-    <t>CAMILLA</t>
-  </si>
-  <si>
-    <t>004448501</t>
-  </si>
-  <si>
-    <t>004204500</t>
-  </si>
-  <si>
-    <t>EDWARD</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>004971448</t>
-  </si>
-  <si>
-    <t>CLOVIS</t>
-  </si>
-  <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
-    <t>004267119</t>
-  </si>
-  <si>
-    <t>000938440</t>
-  </si>
-  <si>
-    <t>BASE</t>
-  </si>
-  <si>
-    <t>004853111</t>
-  </si>
-  <si>
-    <t>MARCONDES</t>
-  </si>
-  <si>
-    <t>002738211</t>
-  </si>
-  <si>
-    <t>MARGARETH</t>
-  </si>
-  <si>
-    <t>003301389</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>004321092</t>
-  </si>
-  <si>
-    <t>004371857</t>
-  </si>
-  <si>
-    <t>NAZARETH</t>
-  </si>
-  <si>
-    <t>002878817</t>
-  </si>
-  <si>
-    <t>004216401</t>
-  </si>
-  <si>
-    <t>SUELY</t>
-  </si>
-  <si>
-    <t>004400000</t>
-  </si>
-  <si>
-    <t>VILMA</t>
-  </si>
-  <si>
-    <t>004999410</t>
+    <t>005143579</t>
   </si>
   <si>
     <t>Filtros aplicados: 
@@ -2165,9 +2251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C363"/>
+  <dimension ref="A1:C385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2190,7 +2278,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>157501.04999999999</v>
+        <v>-167.52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2201,7 +2289,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>155004.92000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2212,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>146963.18</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2223,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>100000</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2234,7 +2322,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>85000</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2245,7 +2333,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>37906.410000000003</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2256,7 +2344,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>30667.24</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2267,7 +2355,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>22063.42</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2278,7 +2366,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>20000</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2289,7 +2377,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>17492.96</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2300,7 +2388,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>13566.65</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2311,7 +2399,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>11053.46</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2322,7 +2410,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>10412.89</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2333,7 +2421,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>6354.84</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2344,7 +2432,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>4719.6000000000004</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2352,65 +2440,65 @@
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>4050.48</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>3241.46</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19">
-        <v>2691.13</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>1200</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21">
-        <v>1004.88</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C22">
-        <v>988.32</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2418,3607 +2506,3607 @@
         <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C23">
-        <v>950.52</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>946.84</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>946.25</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>943.73</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C27">
-        <v>943.24</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28">
-        <v>937.33</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29">
-        <v>933.95</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C30">
-        <v>932.56</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C31">
-        <v>906.28</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32">
-        <v>905.16</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33">
-        <v>842.42</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C34">
-        <v>841.08</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C35">
-        <v>839.9</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36">
-        <v>836.83</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C37">
-        <v>831.69</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C38">
-        <v>812.69</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C39">
-        <v>804.59</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C40">
-        <v>799.43</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C41">
-        <v>791.35</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="C42">
-        <v>791.07</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C43">
-        <v>748.56</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C44">
-        <v>748.39</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C45">
-        <v>744.09</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C46">
-        <v>737.21</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C47">
-        <v>733.35</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C48">
-        <v>732.69</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C49">
-        <v>715.56</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C50">
-        <v>705.17</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C51">
-        <v>704.83</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C52">
-        <v>701.13</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="C53">
-        <v>685.03</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C54">
-        <v>677.05</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C55">
-        <v>675.5</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
         <v>103</v>
       </c>
       <c r="C56">
-        <v>667.36</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C57">
-        <v>666.01</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="C58">
-        <v>666</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C59">
-        <v>666</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C60">
-        <v>666</v>
+        <v>27.45</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C61">
-        <v>666</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C62">
-        <v>666</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C63">
-        <v>666</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C64">
-        <v>666</v>
+        <v>28.58</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C65">
-        <v>663.35</v>
+        <v>30.03</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C66">
-        <v>623.46</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C67">
-        <v>619.59</v>
+        <v>31.78</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C68">
-        <v>618.47</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="C69">
-        <v>614.59</v>
+        <v>36.94</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C70">
-        <v>607.04999999999995</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C71">
-        <v>598.08000000000004</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C72">
-        <v>592.84</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B73" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C73">
-        <v>590.78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C74">
-        <v>587.61</v>
+        <v>42.64</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C75">
-        <v>581.08000000000004</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B76" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C76">
-        <v>578.08000000000004</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="C77">
-        <v>574.65</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C78">
-        <v>568.94000000000005</v>
+        <v>44.69</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C79">
-        <v>558.77</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C80">
-        <v>557.85</v>
+        <v>46.05</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C81">
-        <v>553.35</v>
+        <v>46.16</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="C82">
-        <v>549.72</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s">
-        <v>59</v>
+        <v>157</v>
       </c>
       <c r="C83">
-        <v>549.71</v>
+        <v>46.28</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B84" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C84">
-        <v>534.91</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C85">
-        <v>531.14</v>
+        <v>47.01</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C86">
-        <v>525.92999999999995</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="C87">
-        <v>521.65</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="C88">
-        <v>517.87</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C89">
-        <v>507.85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B90" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C90">
-        <v>501.06</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C91">
-        <v>500.58</v>
+        <v>52.59</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="C92">
-        <v>491.62</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="C93">
-        <v>490.15</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B94" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C94">
-        <v>489.49</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C95">
-        <v>486.2</v>
+        <v>55.49</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C96">
-        <v>467.79</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C97">
-        <v>465.01</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="C98">
-        <v>459.2</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B99" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C99">
-        <v>450.33</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C100">
-        <v>449.3</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c r="C101">
-        <v>448.42</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B102" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C102">
-        <v>444.28</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="C103">
-        <v>438.09</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B104" t="s">
-        <v>187</v>
+        <v>30</v>
       </c>
       <c r="C104">
-        <v>420.94</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C105">
-        <v>414.23</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C106">
-        <v>412.83</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C107">
-        <v>410.43</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C108">
-        <v>407.48</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C109">
-        <v>405.36</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="C110">
-        <v>400.75</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B111" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C111">
-        <v>396.16</v>
+        <v>69.069999999999993</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B112" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C112">
-        <v>393.52</v>
+        <v>69.34</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B113" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C113">
-        <v>385.94</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B114" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C114">
-        <v>374.89</v>
+        <v>69.88</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B115" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="C115">
-        <v>369.59</v>
+        <v>70.459999999999994</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B116" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C116">
-        <v>365.44</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B117" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="C117">
-        <v>365.37</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B118" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="C118">
-        <v>355</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B119" t="s">
-        <v>59</v>
+        <v>222</v>
       </c>
       <c r="C119">
-        <v>346.83</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C120">
-        <v>344.89</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B121" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C121">
-        <v>335.31</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B122" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="C122">
-        <v>332.65</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B123" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C123">
-        <v>328.23</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B124" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C124">
-        <v>323.79000000000002</v>
+        <v>76.260000000000005</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B125" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C125">
-        <v>321.54000000000002</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B126" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C126">
-        <v>321.31</v>
+        <v>76.790000000000006</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B127" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="C127">
-        <v>313.51</v>
+        <v>77.19</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B128" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C128">
-        <v>312.05</v>
+        <v>78.97</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B129" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C129">
-        <v>311.82</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B130" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="C130">
-        <v>305.27</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B131" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="C131">
-        <v>302.51</v>
+        <v>82.28</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B132" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="C132">
-        <v>293.3</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B133" t="s">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="C133">
-        <v>290.79000000000002</v>
+        <v>82.91</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B134" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C134">
-        <v>281.69</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B135" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C135">
-        <v>278.49</v>
+        <v>83.13</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B136" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C136">
-        <v>277.3</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B137" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="C137">
-        <v>276.66000000000003</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B138" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C138">
-        <v>276.52</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B139" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C139">
-        <v>264.8</v>
+        <v>86.73</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B140" t="s">
-        <v>202</v>
+        <v>259</v>
       </c>
       <c r="C140">
-        <v>262.73</v>
+        <v>89.85</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B141" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="C141">
-        <v>260.51</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B142" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C142">
-        <v>260.14999999999998</v>
+        <v>92.07</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B143" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="C143">
-        <v>253.25</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B144" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="C144">
-        <v>248.66</v>
+        <v>92.72</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
+        <v>267</v>
+      </c>
+      <c r="B145" t="s">
         <v>257</v>
       </c>
-      <c r="B145" t="s">
-        <v>258</v>
-      </c>
       <c r="C145">
-        <v>248.22</v>
+        <v>93.21</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B146" t="s">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="C146">
-        <v>248.07</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>63</v>
       </c>
       <c r="C147">
-        <v>242.48</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B148" t="s">
-        <v>145</v>
+        <v>271</v>
       </c>
       <c r="C148">
-        <v>237.08</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B149" t="s">
-        <v>32</v>
+        <v>273</v>
       </c>
       <c r="C149">
-        <v>236.99</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>275</v>
       </c>
       <c r="C150">
-        <v>235.61</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B151" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="C151">
-        <v>233.93</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B152" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C152">
-        <v>233.88</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B153" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="C153">
-        <v>232.63</v>
+        <v>108.51</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B154" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="C154">
-        <v>227.02</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B155" t="s">
-        <v>145</v>
+        <v>283</v>
       </c>
       <c r="C155">
-        <v>217.03</v>
+        <v>112.47</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B156" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C156">
-        <v>212.6</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B157" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C157">
-        <v>206.79</v>
+        <v>119.07</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B158" t="s">
-        <v>278</v>
+        <v>143</v>
       </c>
       <c r="C158">
-        <v>199.77</v>
+        <v>120.72</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="B159" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C159">
-        <v>196.41</v>
+        <v>120.85</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B160" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="C160">
-        <v>192.19</v>
+        <v>120.88</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B161" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C161">
-        <v>190.71</v>
+        <v>121.43</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B162" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="C162">
-        <v>188.83</v>
+        <v>123.41</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B163" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C163">
-        <v>188.11</v>
+        <v>124.92</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B164" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C164">
-        <v>188.07</v>
+        <v>126.22</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B165" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="C165">
-        <v>180.54</v>
+        <v>126.56</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B166" t="s">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="C166">
-        <v>178.03</v>
+        <v>126.72</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B167" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C167">
-        <v>173.83</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B168" t="s">
-        <v>295</v>
+        <v>38</v>
       </c>
       <c r="C168">
-        <v>172.7</v>
+        <v>127.86</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B169" t="s">
-        <v>297</v>
+        <v>49</v>
       </c>
       <c r="C169">
-        <v>172.32</v>
+        <v>128.33000000000001</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B170" t="s">
-        <v>135</v>
+        <v>307</v>
       </c>
       <c r="C170">
-        <v>170.37</v>
+        <v>131.16999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B171" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C171">
-        <v>170.27</v>
+        <v>131.31</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B172" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C172">
-        <v>163.77000000000001</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B173" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C173">
-        <v>163.62</v>
+        <v>133.49</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B174" t="s">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="C174">
-        <v>160.33000000000001</v>
+        <v>134.08000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B175" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="C175">
-        <v>156.99</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B176" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="C176">
-        <v>155.81</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B177" t="s">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="C177">
-        <v>155.47</v>
+        <v>134.97999999999999</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B178" t="s">
-        <v>20</v>
+        <v>318</v>
       </c>
       <c r="C178">
-        <v>155.30000000000001</v>
+        <v>135.37</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B179" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="C179">
-        <v>154.04</v>
+        <v>135.81</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B180" t="s">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="C180">
-        <v>151.79</v>
+        <v>137.93</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B181" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="C181">
-        <v>149.66</v>
+        <v>138.74</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B182" t="s">
-        <v>197</v>
+        <v>323</v>
       </c>
       <c r="C182">
-        <v>148.72999999999999</v>
+        <v>140.47999999999999</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B183" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="C183">
-        <v>147.84</v>
+        <v>140.63999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B184" t="s">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c r="C184">
-        <v>142.44</v>
+        <v>142.36000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B185" t="s">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="C185">
-        <v>136.12</v>
+        <v>147.84</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B186" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="C186">
-        <v>135.84</v>
+        <v>149.66</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B187" t="s">
-        <v>321</v>
+        <v>141</v>
       </c>
       <c r="C187">
-        <v>135.63</v>
+        <v>151.41</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B188" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C188">
-        <v>135.37</v>
+        <v>153.11000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B189" t="s">
-        <v>325</v>
+        <v>38</v>
       </c>
       <c r="C189">
-        <v>135.19</v>
+        <v>156.68</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B190" t="s">
-        <v>175</v>
+        <v>335</v>
       </c>
       <c r="C190">
-        <v>134.62</v>
+        <v>159.85</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B191" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C191">
-        <v>132.79</v>
+        <v>163.62</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B192" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="C192">
-        <v>132.05000000000001</v>
+        <v>164.18</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B193" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="C193">
-        <v>129.97</v>
+        <v>168.17</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B194" t="s">
-        <v>81</v>
+        <v>341</v>
       </c>
       <c r="C194">
-        <v>129.93</v>
+        <v>168.35</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B195" t="s">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c r="C195">
-        <v>128.85</v>
+        <v>169.48</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="B196" t="s">
-        <v>334</v>
+        <v>155</v>
       </c>
       <c r="C196">
-        <v>128.63</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B197" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C197">
-        <v>128.63</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B198" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C198">
-        <v>128.35</v>
+        <v>170.45</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B199" t="s">
-        <v>339</v>
+        <v>59</v>
       </c>
       <c r="C199">
-        <v>128.30000000000001</v>
+        <v>172.32</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B200" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C200">
-        <v>127.76</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B201" t="s">
-        <v>343</v>
+        <v>131</v>
       </c>
       <c r="C201">
-        <v>127.59</v>
+        <v>181.74</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B202" t="s">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="C202">
-        <v>126.19</v>
+        <v>186.02</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B203" t="s">
-        <v>83</v>
+        <v>354</v>
       </c>
       <c r="C203">
-        <v>124.52</v>
+        <v>188.07</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B204" t="s">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="C204">
-        <v>123.03</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B205" t="s">
-        <v>189</v>
+        <v>357</v>
       </c>
       <c r="C205">
-        <v>122.89</v>
+        <v>190.71</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B206" t="s">
-        <v>350</v>
+        <v>141</v>
       </c>
       <c r="C206">
-        <v>121.28</v>
+        <v>196.05</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B207" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="C207">
-        <v>121.15</v>
+        <v>196.68</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B208" t="s">
-        <v>177</v>
+        <v>361</v>
       </c>
       <c r="C208">
-        <v>120.88</v>
+        <v>198.65</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B209" t="s">
-        <v>57</v>
+        <v>363</v>
       </c>
       <c r="C209">
-        <v>120.72</v>
+        <v>199.04</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B210" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="C210">
-        <v>120.7</v>
+        <v>204.9</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B211" t="s">
-        <v>341</v>
+        <v>183</v>
       </c>
       <c r="C211">
-        <v>119.26</v>
+        <v>206.67</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B212" t="s">
-        <v>222</v>
+        <v>368</v>
       </c>
       <c r="C212">
-        <v>118.26</v>
+        <v>212.6</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B213" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C213">
-        <v>113.99</v>
+        <v>216.08</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
+        <v>371</v>
+      </c>
+      <c r="B214" t="s">
         <v>361</v>
       </c>
-      <c r="B214" t="s">
-        <v>334</v>
-      </c>
       <c r="C214">
-        <v>113</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B215" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="C215">
-        <v>109.4</v>
+        <v>226.37</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B216" t="s">
-        <v>261</v>
+        <v>374</v>
       </c>
       <c r="C216">
-        <v>109.27</v>
+        <v>227.02</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="B217" t="s">
-        <v>243</v>
+        <v>376</v>
       </c>
       <c r="C217">
-        <v>109.01</v>
+        <v>233.93</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B218" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C218">
-        <v>106.84</v>
+        <v>237.08</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B219" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="C219">
-        <v>105.23</v>
+        <v>238.55</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B220" t="s">
-        <v>370</v>
+        <v>309</v>
       </c>
       <c r="C220">
-        <v>104.9</v>
+        <v>242.48</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B221" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="C221">
-        <v>99.24</v>
+        <v>242.72</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B222" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C222">
-        <v>98.28</v>
+        <v>245.99</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B223" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C223">
-        <v>97.08</v>
+        <v>246.21</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B224" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="C224">
-        <v>95.88</v>
+        <v>253.25</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B225" t="s">
-        <v>377</v>
+        <v>257</v>
       </c>
       <c r="C225">
-        <v>95.38</v>
+        <v>253.95</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B226" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="C226">
-        <v>94.95</v>
+        <v>255.99</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B227" t="s">
-        <v>157</v>
+        <v>389</v>
       </c>
       <c r="C227">
-        <v>94.27</v>
+        <v>258.75</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B228" t="s">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="C228">
-        <v>92.07</v>
+        <v>260.14999999999998</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B229" t="s">
-        <v>30</v>
+        <v>393</v>
       </c>
       <c r="C229">
-        <v>90.83</v>
+        <v>260.51</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B230" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C230">
-        <v>90.2</v>
+        <v>276.93</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B231" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="C231">
-        <v>89.85</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="B232" t="s">
-        <v>387</v>
+        <v>285</v>
       </c>
       <c r="C232">
-        <v>88.8</v>
+        <v>278.49</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B233" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C233">
-        <v>86.45</v>
+        <v>279.35000000000002</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B234" t="s">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="C234">
-        <v>86.38</v>
+        <v>282.54000000000002</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B235" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C235">
-        <v>84.72</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B236" t="s">
-        <v>118</v>
+        <v>389</v>
       </c>
       <c r="C236">
-        <v>83.13</v>
+        <v>294.54000000000002</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B237" t="s">
-        <v>395</v>
+        <v>335</v>
       </c>
       <c r="C237">
-        <v>83.06</v>
+        <v>302.51</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B238" t="s">
-        <v>193</v>
+        <v>406</v>
       </c>
       <c r="C238">
-        <v>82.79</v>
+        <v>302.77</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B239" t="s">
-        <v>103</v>
+        <v>408</v>
       </c>
       <c r="C239">
-        <v>81.87</v>
+        <v>309.32</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B240" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="C240">
-        <v>80.05</v>
+        <v>309.77</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="B241" t="s">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="C241">
-        <v>79.36</v>
+        <v>312.05</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="B242" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C242">
-        <v>78.73</v>
+        <v>321.24</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B243" t="s">
-        <v>55</v>
+        <v>414</v>
       </c>
       <c r="C243">
-        <v>78.319999999999993</v>
+        <v>321.31</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B244" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="C244">
-        <v>77.19</v>
+        <v>321.54000000000002</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B245" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="C245">
-        <v>76.260000000000005</v>
+        <v>324.08999999999997</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B246" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C246">
-        <v>75.86</v>
+        <v>327.89</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B247" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="C247">
-        <v>75.56</v>
+        <v>332.65</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B248" t="s">
-        <v>411</v>
+        <v>206</v>
       </c>
       <c r="C248">
-        <v>74.39</v>
+        <v>343.26</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B249" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C249">
-        <v>74.27</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B250" t="s">
-        <v>415</v>
+        <v>121</v>
       </c>
       <c r="C250">
-        <v>74.23</v>
+        <v>346.83</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B251" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="C251">
-        <v>73.650000000000006</v>
+        <v>348.3</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B252" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C252">
-        <v>73.599999999999994</v>
+        <v>350.34</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="B253" t="s">
-        <v>421</v>
+        <v>12</v>
       </c>
       <c r="C253">
-        <v>73.56</v>
+        <v>355</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B254" t="s">
-        <v>423</v>
+        <v>214</v>
       </c>
       <c r="C254">
-        <v>73.53</v>
+        <v>355.56</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B255" t="s">
-        <v>425</v>
+        <v>323</v>
       </c>
       <c r="C255">
-        <v>73.430000000000007</v>
+        <v>365.44</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B256" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="C256">
-        <v>73.3</v>
+        <v>369.59</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B257" t="s">
-        <v>429</v>
+        <v>6</v>
       </c>
       <c r="C257">
-        <v>72.42</v>
+        <v>377.42</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B258" t="s">
-        <v>350</v>
+        <v>436</v>
       </c>
       <c r="C258">
-        <v>71.31</v>
+        <v>387.23</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B259" t="s">
-        <v>57</v>
+        <v>426</v>
       </c>
       <c r="C259">
-        <v>70.459999999999994</v>
+        <v>393.52</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B260" t="s">
-        <v>334</v>
+        <v>439</v>
       </c>
       <c r="C260">
-        <v>69.45</v>
+        <v>400.75</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B261" t="s">
-        <v>220</v>
+        <v>441</v>
       </c>
       <c r="C261">
-        <v>68.459999999999994</v>
+        <v>407.48</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B262" t="s">
-        <v>435</v>
+        <v>123</v>
       </c>
       <c r="C262">
-        <v>68.05</v>
+        <v>413.55</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B263" t="s">
-        <v>437</v>
+        <v>141</v>
       </c>
       <c r="C263">
-        <v>67.69</v>
+        <v>423.95</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B264" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C264">
-        <v>66.010000000000005</v>
+        <v>425.17</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B265" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C265">
-        <v>65.06</v>
+        <v>430.64</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B266" t="s">
-        <v>83</v>
+        <v>448</v>
       </c>
       <c r="C266">
-        <v>64.709999999999994</v>
+        <v>436.86</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B267" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C267">
-        <v>64.400000000000006</v>
+        <v>442.44</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B268" t="s">
-        <v>445</v>
+        <v>76</v>
       </c>
       <c r="C268">
-        <v>64.040000000000006</v>
+        <v>449.3</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B269" t="s">
-        <v>32</v>
+        <v>453</v>
       </c>
       <c r="C269">
-        <v>63.94</v>
+        <v>450.33</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B270" t="s">
-        <v>350</v>
+        <v>455</v>
       </c>
       <c r="C270">
-        <v>62.6</v>
+        <v>453.65</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B271" t="s">
-        <v>449</v>
+        <v>257</v>
       </c>
       <c r="C271">
-        <v>61.74</v>
+        <v>458.13</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B272" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="C272">
-        <v>60.44</v>
+        <v>459.2</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B273" t="s">
-        <v>377</v>
+        <v>459</v>
       </c>
       <c r="C273">
-        <v>59.87</v>
+        <v>460.98</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B274" t="s">
-        <v>453</v>
+        <v>325</v>
       </c>
       <c r="C274">
-        <v>59.63</v>
+        <v>465.01</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B275" t="s">
-        <v>449</v>
+        <v>295</v>
       </c>
       <c r="C275">
-        <v>59.2</v>
+        <v>467.91</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B276" t="s">
-        <v>308</v>
+        <v>63</v>
       </c>
       <c r="C276">
-        <v>57.82</v>
+        <v>491.62</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B277" t="s">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="C277">
-        <v>56.79</v>
+        <v>494.86</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B278" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C278">
-        <v>55.66</v>
+        <v>507.08</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B279" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C279">
-        <v>55.24</v>
+        <v>508.42</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B280" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C280">
-        <v>54.71</v>
+        <v>516.78</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B281" t="s">
-        <v>293</v>
+        <v>470</v>
       </c>
       <c r="C281">
-        <v>52.09</v>
+        <v>517.87</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B282" t="s">
-        <v>464</v>
+        <v>32</v>
       </c>
       <c r="C282">
-        <v>51.65</v>
+        <v>524.29</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B283" t="s">
-        <v>466</v>
+        <v>273</v>
       </c>
       <c r="C283">
-        <v>50</v>
+        <v>529.34</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B284" t="s">
-        <v>297</v>
+        <v>121</v>
       </c>
       <c r="C284">
-        <v>49.28</v>
+        <v>549.71</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B285" t="s">
-        <v>22</v>
+        <v>475</v>
       </c>
       <c r="C285">
-        <v>48.65</v>
+        <v>549.72</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B286" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C286">
-        <v>48.38</v>
+        <v>557.41999999999996</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B287" t="s">
-        <v>6</v>
+        <v>193</v>
       </c>
       <c r="C287">
-        <v>48.16</v>
+        <v>568.94000000000005</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B288" t="s">
-        <v>328</v>
+        <v>480</v>
       </c>
       <c r="C288">
-        <v>46.28</v>
+        <v>573.34</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B289" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="C289">
-        <v>46.23</v>
+        <v>578.08000000000004</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B290" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="C290">
-        <v>44.69</v>
+        <v>578.48</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B291" t="s">
-        <v>166</v>
+        <v>485</v>
       </c>
       <c r="C291">
-        <v>44.52</v>
+        <v>581.08000000000004</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B292" t="s">
-        <v>103</v>
+        <v>361</v>
       </c>
       <c r="C292">
-        <v>44.47</v>
+        <v>581.79</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B293" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="C293">
-        <v>44.44</v>
+        <v>581.89</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B294" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="C294">
-        <v>44.44</v>
+        <v>585.70000000000005</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B295" t="s">
-        <v>482</v>
+        <v>146</v>
       </c>
       <c r="C295">
-        <v>43.96</v>
+        <v>591.30999999999995</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B296" t="s">
-        <v>57</v>
+        <v>492</v>
       </c>
       <c r="C296">
-        <v>42.7</v>
+        <v>592.84</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B297" t="s">
-        <v>485</v>
+        <v>6</v>
       </c>
       <c r="C297">
-        <v>42.45</v>
+        <v>595.05999999999995</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B298" t="s">
-        <v>143</v>
+        <v>495</v>
       </c>
       <c r="C298">
-        <v>42.2</v>
+        <v>598.08000000000004</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B299" t="s">
-        <v>193</v>
+        <v>497</v>
       </c>
       <c r="C299">
-        <v>40</v>
+        <v>614.55999999999995</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B300" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C300">
-        <v>39.79</v>
+        <v>617.72</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="B301" t="s">
-        <v>59</v>
+        <v>501</v>
       </c>
       <c r="C301">
-        <v>37.799999999999997</v>
+        <v>618.47</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="B302" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="C302">
-        <v>37.200000000000003</v>
+        <v>623.46</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="B303" t="s">
-        <v>494</v>
+        <v>264</v>
       </c>
       <c r="C303">
-        <v>36.94</v>
+        <v>625.5</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B304" t="s">
-        <v>293</v>
+        <v>506</v>
       </c>
       <c r="C304">
-        <v>33.049999999999997</v>
+        <v>644.94000000000005</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="B305" t="s">
-        <v>497</v>
+        <v>69</v>
       </c>
       <c r="C305">
-        <v>32.78</v>
+        <v>649.30999999999995</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B306" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="C306">
-        <v>31.71</v>
+        <v>663.35</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B307" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C307">
-        <v>30.03</v>
+        <v>666</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="B308" t="s">
-        <v>503</v>
+        <v>393</v>
       </c>
       <c r="C308">
-        <v>29.9</v>
+        <v>666</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B309" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="C309">
-        <v>29.32</v>
+        <v>666</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B310" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="C310">
-        <v>28.58</v>
+        <v>666</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B311" t="s">
-        <v>59</v>
+        <v>517</v>
       </c>
       <c r="C311">
-        <v>28.26</v>
+        <v>666</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="B312" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="C312">
-        <v>27.86</v>
+        <v>675.5</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B313" t="s">
-        <v>511</v>
+        <v>250</v>
       </c>
       <c r="C313">
-        <v>27.83</v>
+        <v>679.29</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B314" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="C314">
-        <v>26.89</v>
+        <v>689.06</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B315" t="s">
-        <v>177</v>
+        <v>524</v>
       </c>
       <c r="C315">
-        <v>26.8</v>
+        <v>698.03</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B316" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="C316">
-        <v>26.1</v>
+        <v>698.83</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="B317" t="s">
-        <v>517</v>
+        <v>55</v>
       </c>
       <c r="C317">
-        <v>24.5</v>
+        <v>700.86</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B318" t="s">
-        <v>339</v>
+        <v>178</v>
       </c>
       <c r="C318">
-        <v>24.33</v>
+        <v>702.87</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B319" t="s">
-        <v>520</v>
+        <v>69</v>
       </c>
       <c r="C319">
-        <v>23.89</v>
+        <v>704.83</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B320" t="s">
-        <v>339</v>
+        <v>121</v>
       </c>
       <c r="C320">
-        <v>23.11</v>
+        <v>707.41</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B321" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="C321">
-        <v>21.27</v>
+        <v>715.56</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B322" t="s">
-        <v>113</v>
+        <v>459</v>
       </c>
       <c r="C322">
-        <v>20.49</v>
+        <v>716.35</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B323" t="s">
-        <v>526</v>
+        <v>346</v>
       </c>
       <c r="C323">
-        <v>19.12</v>
+        <v>733.93</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B324" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="C324">
-        <v>16.78</v>
+        <v>737.21</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="B325" t="s">
-        <v>529</v>
+        <v>262</v>
       </c>
       <c r="C325">
-        <v>15.76</v>
+        <v>748.56</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B326" t="s">
-        <v>531</v>
+        <v>198</v>
       </c>
       <c r="C326">
-        <v>14.67</v>
+        <v>754.27</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B327" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C327">
-        <v>13.69</v>
+        <v>775.45</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B328" t="s">
-        <v>535</v>
+        <v>257</v>
       </c>
       <c r="C328">
-        <v>12.38</v>
+        <v>807.58</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B329" t="s">
-        <v>537</v>
+        <v>38</v>
       </c>
       <c r="C329">
-        <v>11.39</v>
+        <v>823.1</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B330" t="s">
-        <v>187</v>
+        <v>542</v>
       </c>
       <c r="C330">
-        <v>10</v>
+        <v>839.03</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B331" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="C331">
-        <v>9.85</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B332" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C332">
-        <v>9.7200000000000006</v>
+        <v>842.42</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B333" t="s">
-        <v>543</v>
+        <v>4</v>
       </c>
       <c r="C333">
-        <v>9.52</v>
+        <v>847.72</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B334" t="s">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="C334">
-        <v>9.44</v>
+        <v>848.25</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B335" t="s">
-        <v>308</v>
+        <v>475</v>
       </c>
       <c r="C335">
-        <v>8.66</v>
+        <v>849.15</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B336" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C336">
-        <v>8.4499999999999993</v>
+        <v>854.73</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B337" t="s">
-        <v>95</v>
+        <v>552</v>
       </c>
       <c r="C337">
-        <v>7.91</v>
+        <v>894.66</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B338" t="s">
-        <v>550</v>
+        <v>257</v>
       </c>
       <c r="C338">
-        <v>7.62</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B339" t="s">
-        <v>552</v>
+        <v>439</v>
       </c>
       <c r="C339">
-        <v>6.98</v>
+        <v>937.33</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B340" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C340">
-        <v>6.66</v>
+        <v>942.42</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B341" t="s">
-        <v>556</v>
+        <v>408</v>
       </c>
       <c r="C341">
-        <v>6.53</v>
+        <v>943.73</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B342" t="s">
-        <v>113</v>
+        <v>559</v>
       </c>
       <c r="C342">
-        <v>6.04</v>
+        <v>946.84</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B343" t="s">
-        <v>559</v>
+        <v>163</v>
       </c>
       <c r="C343">
-        <v>5.56</v>
+        <v>952.26</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B344" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="C344">
-        <v>5.55</v>
+        <v>975.27</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B345" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C345">
-        <v>4.08</v>
+        <v>988.32</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B346" t="s">
-        <v>297</v>
+        <v>565</v>
       </c>
       <c r="C346">
-        <v>3.26</v>
+        <v>989.61</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B347" t="s">
-        <v>565</v>
+        <v>38</v>
       </c>
       <c r="C347">
-        <v>2.08</v>
+        <v>1004.98</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B348" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C348">
-        <v>1.66</v>
+        <v>1052.79</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B349" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="C349">
-        <v>1.24</v>
+        <v>1056.4000000000001</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B350" t="s">
-        <v>570</v>
+        <v>143</v>
       </c>
       <c r="C350">
-        <v>0.78</v>
+        <v>1191.3900000000001</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6029,7 +6117,7 @@
         <v>572</v>
       </c>
       <c r="C351">
-        <v>0.7</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6040,7 +6128,7 @@
         <v>574</v>
       </c>
       <c r="C352">
-        <v>0.6</v>
+        <v>1574.27</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6048,10 +6136,10 @@
         <v>575</v>
       </c>
       <c r="B353" t="s">
-        <v>308</v>
+        <v>161</v>
       </c>
       <c r="C353">
-        <v>0.55000000000000004</v>
+        <v>1767.36</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6059,10 +6147,10 @@
         <v>576</v>
       </c>
       <c r="B354" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="C354">
-        <v>0.47</v>
+        <v>2006.28</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6073,7 +6161,7 @@
         <v>578</v>
       </c>
       <c r="C355">
-        <v>0.06</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6081,10 +6169,10 @@
         <v>579</v>
       </c>
       <c r="B356" t="s">
-        <v>170</v>
+        <v>290</v>
       </c>
       <c r="C356">
-        <v>0.03</v>
+        <v>3241.75</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6092,59 +6180,301 @@
         <v>580</v>
       </c>
       <c r="B357" t="s">
-        <v>581</v>
+        <v>30</v>
       </c>
       <c r="C357">
-        <v>0.03</v>
+        <v>4050.48</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B358" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="C358">
-        <v>0.01</v>
+        <v>4734.63</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
+        <v>582</v>
+      </c>
+      <c r="B359" t="s">
         <v>583</v>
       </c>
-      <c r="B359" t="s">
-        <v>584</v>
-      </c>
       <c r="C359">
-        <v>0.01</v>
+        <v>5627.35</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B360" t="s">
-        <v>586</v>
+        <v>264</v>
       </c>
       <c r="C360">
-        <v>0.01</v>
+        <v>6354.84</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B361" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="C361">
-        <v>-167.52</v>
+        <v>6387.28</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>586</v>
+      </c>
+      <c r="B362" t="s">
+        <v>198</v>
+      </c>
+      <c r="C362">
+        <v>7574</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
+        <v>587</v>
+      </c>
+      <c r="B363" t="s">
         <v>588</v>
+      </c>
+      <c r="C363">
+        <v>10412.89</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>589</v>
+      </c>
+      <c r="B364" t="s">
+        <v>590</v>
+      </c>
+      <c r="C364">
+        <v>11057.89</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>591</v>
+      </c>
+      <c r="B365" t="s">
+        <v>592</v>
+      </c>
+      <c r="C365">
+        <v>11085.71</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>593</v>
+      </c>
+      <c r="B366" t="s">
+        <v>594</v>
+      </c>
+      <c r="C366">
+        <v>12674.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>595</v>
+      </c>
+      <c r="B367" t="s">
+        <v>32</v>
+      </c>
+      <c r="C367">
+        <v>13571.37</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>596</v>
+      </c>
+      <c r="B368" t="s">
+        <v>597</v>
+      </c>
+      <c r="C368">
+        <v>17073.599999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>598</v>
+      </c>
+      <c r="B369" t="s">
+        <v>165</v>
+      </c>
+      <c r="C369">
+        <v>17492.96</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>599</v>
+      </c>
+      <c r="B370" t="s">
+        <v>600</v>
+      </c>
+      <c r="C370">
+        <v>22063.42</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>601</v>
+      </c>
+      <c r="B371" t="s">
+        <v>602</v>
+      </c>
+      <c r="C371">
+        <v>30667.24</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>603</v>
+      </c>
+      <c r="B372" t="s">
+        <v>604</v>
+      </c>
+      <c r="C372">
+        <v>34012.18</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>605</v>
+      </c>
+      <c r="B373" t="s">
+        <v>606</v>
+      </c>
+      <c r="C373">
+        <v>37911.93</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>607</v>
+      </c>
+      <c r="B374" t="s">
+        <v>608</v>
+      </c>
+      <c r="C374">
+        <v>40064.79</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>609</v>
+      </c>
+      <c r="B375" t="s">
+        <v>608</v>
+      </c>
+      <c r="C375">
+        <v>40744.089999999997</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>610</v>
+      </c>
+      <c r="B376" t="s">
+        <v>475</v>
+      </c>
+      <c r="C376">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>611</v>
+      </c>
+      <c r="B377" t="s">
+        <v>612</v>
+      </c>
+      <c r="C377">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>613</v>
+      </c>
+      <c r="B378" t="s">
+        <v>163</v>
+      </c>
+      <c r="C378">
+        <v>100523.24</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>614</v>
+      </c>
+      <c r="B379" t="s">
+        <v>615</v>
+      </c>
+      <c r="C379">
+        <v>147040.70000000001</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>616</v>
+      </c>
+      <c r="B380" t="s">
+        <v>163</v>
+      </c>
+      <c r="C380">
+        <v>155005.85</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>617</v>
+      </c>
+      <c r="B381" t="s">
+        <v>618</v>
+      </c>
+      <c r="C381">
+        <v>157501.6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>619</v>
+      </c>
+      <c r="B382" t="s">
+        <v>450</v>
+      </c>
+      <c r="C382">
+        <v>255010</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>620</v>
+      </c>
+      <c r="B383" t="s">
+        <v>250</v>
+      </c>
+      <c r="C383">
+        <v>702000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EECE739-DA7F-4AF7-90D6-00AD212C15B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12D8E923-C73D-41C6-8F29-9CE70179CEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="622">
   <si>
     <t>CONTA</t>
   </si>
@@ -31,1858 +31,1858 @@
     <t>SALDO</t>
   </si>
   <si>
+    <t>005143579</t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t>005142592</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>005142661</t>
+  </si>
+  <si>
+    <t>SABRINA</t>
+  </si>
+  <si>
+    <t>005142624</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
+  </si>
+  <si>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>004641487</t>
+  </si>
+  <si>
+    <t>LAILA</t>
+  </si>
+  <si>
+    <t>005169333</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004643737</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>004265173</t>
+  </si>
+  <si>
+    <t>JULIA</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004467884</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>002592340</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004461526</t>
+  </si>
+  <si>
+    <t>ASSISTIGAS</t>
+  </si>
+  <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
+    <t>004208869</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>002458288</t>
+  </si>
+  <si>
+    <t>BENEDITO</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004207374</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>004212409</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>004444605</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004466221</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>004425965</t>
+  </si>
+  <si>
+    <t>CAROLLINA</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004207278</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004334158</t>
+  </si>
+  <si>
+    <t>LEONE</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>004450405</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>004243043</t>
+  </si>
+  <si>
+    <t>SUELI</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>004369172</t>
+  </si>
+  <si>
+    <t>LUIZA</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>004340984</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>004212476</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>DILSON</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>003497496</t>
+  </si>
+  <si>
+    <t>ELISANDRA</t>
+  </si>
+  <si>
+    <t>004643153</t>
+  </si>
+  <si>
+    <t>CARLA</t>
+  </si>
+  <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004691225</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>004517506</t>
+  </si>
+  <si>
+    <t>004552021</t>
+  </si>
+  <si>
+    <t>005009947</t>
+  </si>
+  <si>
+    <t>VERANICE</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>004264780</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>004214592</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>004404724</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>000827730</t>
+  </si>
+  <si>
+    <t>004281300</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>004355790</t>
+  </si>
+  <si>
+    <t>MINEIA</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004422594</t>
+  </si>
+  <si>
+    <t>WANDIR</t>
+  </si>
+  <si>
+    <t>004588677</t>
+  </si>
+  <si>
+    <t>RACHEL</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004918709</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>004482090</t>
+  </si>
+  <si>
+    <t>CEZAR</t>
+  </si>
+  <si>
+    <t>004313254</t>
+  </si>
+  <si>
+    <t>004216298</t>
+  </si>
+  <si>
+    <t>FLORDELIZ</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004421636</t>
+  </si>
+  <si>
+    <t>004335031</t>
+  </si>
+  <si>
+    <t>004971448</t>
+  </si>
+  <si>
+    <t>CLOVIS</t>
+  </si>
+  <si>
+    <t>004589311</t>
+  </si>
+  <si>
+    <t>CLARICE</t>
+  </si>
+  <si>
+    <t>004238164</t>
+  </si>
+  <si>
+    <t>004511696</t>
+  </si>
+  <si>
+    <t>KRYSCIA</t>
+  </si>
+  <si>
+    <t>004459461</t>
+  </si>
+  <si>
+    <t>INTERLAGOS</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004388490</t>
+  </si>
+  <si>
+    <t>CAMILLA</t>
+  </si>
+  <si>
+    <t>004448501</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>005135281</t>
+  </si>
+  <si>
+    <t>004204500</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>004575632</t>
+  </si>
+  <si>
+    <t>ADELE</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004848927</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004267119</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>000938440</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>004853111</t>
+  </si>
+  <si>
+    <t>MARCONDES</t>
+  </si>
+  <si>
+    <t>002738211</t>
+  </si>
+  <si>
+    <t>MARGARETH</t>
+  </si>
+  <si>
+    <t>003301389</t>
+  </si>
+  <si>
+    <t>004552944</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>004321092</t>
+  </si>
+  <si>
+    <t>004371857</t>
+  </si>
+  <si>
+    <t>NAZARETH</t>
+  </si>
+  <si>
+    <t>001761119</t>
+  </si>
+  <si>
+    <t>BLUEMETRIX</t>
+  </si>
+  <si>
+    <t>002878817</t>
+  </si>
+  <si>
+    <t>004216401</t>
+  </si>
+  <si>
+    <t>SUELY</t>
+  </si>
+  <si>
+    <t>004400000</t>
+  </si>
+  <si>
+    <t>VILMA</t>
+  </si>
+  <si>
     <t>004999410</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>002878817</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004216401</t>
-  </si>
-  <si>
-    <t>SUELY</t>
-  </si>
-  <si>
-    <t>004400000</t>
-  </si>
-  <si>
-    <t>VILMA</t>
-  </si>
-  <si>
-    <t>004321092</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004371857</t>
-  </si>
-  <si>
-    <t>NAZARETH</t>
-  </si>
-  <si>
-    <t>004552944</t>
-  </si>
-  <si>
-    <t>YURI</t>
-  </si>
-  <si>
-    <t>003301389</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>002738211</t>
-  </si>
-  <si>
-    <t>MARGARETH</t>
-  </si>
-  <si>
-    <t>004853111</t>
-  </si>
-  <si>
-    <t>MARCONDES</t>
-  </si>
-  <si>
-    <t>000938440</t>
-  </si>
-  <si>
-    <t>BASE</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004267119</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004575632</t>
-  </si>
-  <si>
-    <t>ADELE</t>
-  </si>
-  <si>
-    <t>004204500</t>
-  </si>
-  <si>
-    <t>EDWARD</t>
-  </si>
-  <si>
-    <t>005135281</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>004448501</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004388490</t>
-  </si>
-  <si>
-    <t>CAMILLA</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
-    <t>004212933</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004459461</t>
-  </si>
-  <si>
-    <t>INTERLAGOS</t>
-  </si>
-  <si>
-    <t>004511696</t>
-  </si>
-  <si>
-    <t>KRYSCIA</t>
-  </si>
-  <si>
-    <t>004238164</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>004589311</t>
-  </si>
-  <si>
-    <t>CLARICE</t>
-  </si>
-  <si>
-    <t>004971448</t>
-  </si>
-  <si>
-    <t>CLOVIS</t>
-  </si>
-  <si>
-    <t>004335031</t>
-  </si>
-  <si>
-    <t>004421636</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004216298</t>
-  </si>
-  <si>
-    <t>FLORDELIZ</t>
-  </si>
-  <si>
-    <t>004313254</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>004482090</t>
-  </si>
-  <si>
-    <t>CEZAR</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>004918709</t>
-  </si>
-  <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004588677</t>
-  </si>
-  <si>
-    <t>RACHEL</t>
-  </si>
-  <si>
-    <t>004422594</t>
-  </si>
-  <si>
-    <t>WANDIR</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004355790</t>
-  </si>
-  <si>
-    <t>MINEIA</t>
-  </si>
-  <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>004281300</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>000827730</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>004404724</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>004214592</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004264780</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
-    <t>004552021</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004517506</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004691225</t>
-  </si>
-  <si>
-    <t>ANNA</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004643153</t>
-  </si>
-  <si>
-    <t>CARLA</t>
-  </si>
-  <si>
-    <t>003497496</t>
-  </si>
-  <si>
-    <t>ELISANDRA</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004436055</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>004556150</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004751770</t>
-  </si>
-  <si>
-    <t>DILSON</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004212476</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>000834301</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004340984</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>004369172</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004243043</t>
-  </si>
-  <si>
-    <t>SUELI</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>004450405</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004334158</t>
-  </si>
-  <si>
-    <t>LEONE</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>004207278</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004425965</t>
-  </si>
-  <si>
-    <t>CAROLLINA</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004466221</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>004444605</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004212409</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004207374</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004482439</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004461070</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004460491</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>002592340</t>
-  </si>
-  <si>
-    <t>004870019</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>004467884</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004265173</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>004461526</t>
-  </si>
-  <si>
-    <t>ASSISTIGAS</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004643737</t>
-  </si>
-  <si>
-    <t>004641487</t>
-  </si>
-  <si>
-    <t>LAILA</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
-  </si>
-  <si>
-    <t>005142624</t>
-  </si>
-  <si>
-    <t>005142661</t>
-  </si>
-  <si>
-    <t>SABRINA</t>
-  </si>
-  <si>
-    <t>005142592</t>
-  </si>
-  <si>
-    <t>005143579</t>
   </si>
   <si>
     <t>Filtros aplicados: 
@@ -2251,10 +2251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C385"/>
+  <dimension ref="A1:C384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2278,7 +2278,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>-167.52</v>
+        <v>702000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2289,7 +2289,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>255010</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2300,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>157501.6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2311,7 +2311,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>155005.85</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2322,7 +2322,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0.03</v>
+        <v>147040.70000000001</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2333,7 +2333,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0.03</v>
+        <v>100975.27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2344,7 +2344,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>0.06</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2355,7 +2355,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>0.55000000000000004</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2363,142 +2363,142 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>0.6</v>
+        <v>48151.24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
       <c r="C11">
-        <v>0.7</v>
+        <v>48014.67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
       <c r="C12">
-        <v>0.78</v>
+        <v>40064.79</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
       <c r="C13">
-        <v>0.87</v>
+        <v>30667.24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
       <c r="C14">
-        <v>1.1599999999999999</v>
+        <v>22063.42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
       <c r="C15">
-        <v>1.24</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
       <c r="C16">
-        <v>1.3</v>
+        <v>17492.96</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
       <c r="C17">
-        <v>1.3</v>
+        <v>17073.599999999999</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
       <c r="C18">
-        <v>1.66</v>
+        <v>13571.37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
       <c r="C19">
-        <v>1.77</v>
+        <v>11085.71</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
       <c r="C20">
-        <v>1.81</v>
+        <v>11057.89</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
       <c r="C21">
-        <v>4.08</v>
+        <v>10412.89</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
       <c r="C22">
-        <v>4.79</v>
+        <v>7574</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>4.88</v>
+        <v>7074.74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2520,7 +2520,7 @@
         <v>47</v>
       </c>
       <c r="C24">
-        <v>5.23</v>
+        <v>6387.28</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2531,7 +2531,7 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>5.55</v>
+        <v>6354.84</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2542,7 +2542,7 @@
         <v>51</v>
       </c>
       <c r="C26">
-        <v>5.56</v>
+        <v>4734.63</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2550,3640 +2550,3640 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>6.02</v>
+        <v>4050.48</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
-        <v>55</v>
-      </c>
       <c r="C28">
-        <v>6.04</v>
+        <v>3241.75</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
       <c r="C29">
-        <v>6.53</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
       <c r="C30">
-        <v>6.6</v>
+        <v>1767.36</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
       <c r="C31">
-        <v>6.66</v>
+        <v>1574.27</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
       <c r="C32">
-        <v>6.9</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>6.98</v>
+        <v>1191.3900000000001</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34">
-        <v>7.62</v>
+        <v>989.61</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35">
-        <v>7.91</v>
+        <v>988.32</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>8.4499999999999993</v>
+        <v>952.26</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C37">
-        <v>8.61</v>
+        <v>946.84</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="C38">
-        <v>8.66</v>
+        <v>943.73</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39">
-        <v>9.44</v>
+        <v>942.42</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40">
-        <v>9.52</v>
+        <v>937.33</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41">
-        <v>9.7200000000000006</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42">
-        <v>9.85</v>
+        <v>894.66</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43">
-        <v>11.04</v>
+        <v>854.73</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="C44">
-        <v>11.39</v>
+        <v>849.15</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C45">
-        <v>12.27</v>
+        <v>848.25</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C46">
-        <v>12.38</v>
+        <v>847.72</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C47">
-        <v>13.69</v>
+        <v>842.42</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C48">
-        <v>14.67</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C49">
-        <v>15.76</v>
+        <v>839.03</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C50">
-        <v>19.12</v>
+        <v>823.1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C51">
-        <v>20.49</v>
+        <v>807.58</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C52">
-        <v>21.27</v>
+        <v>775.45</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="C53">
-        <v>23.11</v>
+        <v>754.27</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C54">
-        <v>23.46</v>
+        <v>748.56</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="C55">
-        <v>23.89</v>
+        <v>744.09</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
         <v>103</v>
       </c>
       <c r="C56">
-        <v>24.33</v>
+        <v>737.21</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C57">
-        <v>24.5</v>
+        <v>733.93</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C58">
-        <v>26.1</v>
+        <v>716.35</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C59">
-        <v>26.89</v>
+        <v>715.56</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C60">
-        <v>27.45</v>
+        <v>707.41</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C61">
-        <v>27.83</v>
+        <v>704.83</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C62">
-        <v>27.86</v>
+        <v>702.87</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C63">
-        <v>28.26</v>
+        <v>700.86</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="C64">
-        <v>28.58</v>
+        <v>698.83</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C65">
-        <v>30.03</v>
+        <v>698.03</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C66">
-        <v>31.71</v>
+        <v>689.06</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>31.78</v>
+        <v>679.29</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C68">
-        <v>33.049999999999997</v>
+        <v>675.5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B69" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C69">
-        <v>36.94</v>
+        <v>674.5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B70" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C70">
-        <v>37.200000000000003</v>
+        <v>666</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C71">
-        <v>37.799999999999997</v>
+        <v>666</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C72">
-        <v>39.79</v>
+        <v>666</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C73">
-        <v>40</v>
+        <v>666</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C74">
-        <v>42.64</v>
+        <v>666</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C75">
-        <v>42.7</v>
+        <v>663.35</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="C76">
-        <v>44.44</v>
+        <v>649.30999999999995</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B77" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C77">
-        <v>44.52</v>
+        <v>644.94000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C78">
-        <v>44.69</v>
+        <v>627.35</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="C79">
-        <v>44.89</v>
+        <v>625.5</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C80">
-        <v>46.05</v>
+        <v>623.46</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C81">
-        <v>46.16</v>
+        <v>617.72</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C82">
-        <v>46.23</v>
+        <v>614.55999999999995</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C83">
-        <v>46.28</v>
+        <v>598.08000000000004</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B84" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C84">
-        <v>46.4</v>
+        <v>595.05999999999995</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B85" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C85">
-        <v>47.01</v>
+        <v>592.84</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C86">
-        <v>48.16</v>
+        <v>591.30999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C87">
-        <v>48.65</v>
+        <v>585.70000000000005</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="C88">
-        <v>49.28</v>
+        <v>581.89</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C89">
-        <v>50</v>
+        <v>581.79</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C90">
-        <v>51.65</v>
+        <v>581.08000000000004</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C91">
-        <v>52.59</v>
+        <v>578.48</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="C92">
-        <v>54.2</v>
+        <v>578.08000000000004</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B93" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C93">
-        <v>54.71</v>
+        <v>573.34</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C94">
-        <v>55.24</v>
+        <v>568.94000000000005</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C95">
-        <v>55.49</v>
+        <v>557.41999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="C96">
-        <v>55.66</v>
+        <v>549.72</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B97" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="C97">
-        <v>56.79</v>
+        <v>549.71</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="C98">
-        <v>57.82</v>
+        <v>529.34</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B99" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="C99">
-        <v>59.2</v>
+        <v>524.29</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B100" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C100">
-        <v>59.63</v>
+        <v>517.87</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B101" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C101">
-        <v>59.87</v>
+        <v>516.78</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="C102">
-        <v>61.74</v>
+        <v>508.42</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B103" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C103">
-        <v>61.82</v>
+        <v>507.08</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="C104">
-        <v>63.94</v>
+        <v>494.86</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B105" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="C105">
-        <v>64.400000000000006</v>
+        <v>491.62</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B106" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C106">
-        <v>64.709999999999994</v>
+        <v>467.91</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B107" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C107">
-        <v>65.06</v>
+        <v>465.01</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="C108">
-        <v>66.010000000000005</v>
+        <v>460.98</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B109" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C109">
-        <v>68.05</v>
+        <v>459.2</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B110" t="s">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="C110">
-        <v>68.459999999999994</v>
+        <v>458.13</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B111" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C111">
-        <v>69.069999999999993</v>
+        <v>453.65</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B112" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C112">
-        <v>69.34</v>
+        <v>450.33</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B113" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C113">
-        <v>69.45</v>
+        <v>449.3</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B114" t="s">
-        <v>214</v>
+        <v>6</v>
       </c>
       <c r="C114">
-        <v>69.88</v>
+        <v>442.44</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B115" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="C115">
-        <v>70.459999999999994</v>
+        <v>436.86</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B116" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C116">
-        <v>71.31</v>
+        <v>430.64</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B117" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C117">
-        <v>72.42</v>
+        <v>425.17</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B118" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C118">
-        <v>73.430000000000007</v>
+        <v>423.95</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B119" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C119">
-        <v>73.56</v>
+        <v>413.55</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B120" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C120">
-        <v>73.650000000000006</v>
+        <v>407.48</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B121" t="s">
-        <v>226</v>
+        <v>76</v>
       </c>
       <c r="C121">
-        <v>74.23</v>
+        <v>400.75</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B122" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C122">
-        <v>74.39</v>
+        <v>393.52</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B123" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C123">
-        <v>75.86</v>
+        <v>387.23</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B124" t="s">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="C124">
-        <v>76.260000000000005</v>
+        <v>377.42</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B125" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C125">
-        <v>76.56</v>
+        <v>369.59</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B126" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C126">
-        <v>76.790000000000006</v>
+        <v>365.44</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B127" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C127">
-        <v>77.19</v>
+        <v>355.56</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B128" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="C128">
-        <v>78.97</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B129" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C129">
-        <v>80.05</v>
+        <v>350.34</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B130" t="s">
-        <v>161</v>
+        <v>219</v>
       </c>
       <c r="C130">
-        <v>81.87</v>
+        <v>348.3</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B131" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C131">
-        <v>82.28</v>
+        <v>346.83</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B132" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="C132">
-        <v>82.79</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B133" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="C133">
-        <v>82.91</v>
+        <v>343.26</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B134" t="s">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="C134">
-        <v>83.06</v>
+        <v>332.65</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B135" t="s">
-        <v>250</v>
+        <v>130</v>
       </c>
       <c r="C135">
-        <v>83.13</v>
+        <v>327.89</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B136" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C136">
-        <v>84.72</v>
+        <v>324.08999999999997</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B137" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="C137">
-        <v>86.38</v>
+        <v>321.54000000000002</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B138" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C138">
-        <v>86.45</v>
+        <v>321.31</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B139" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C139">
-        <v>86.73</v>
+        <v>321.24</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B140" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C140">
-        <v>89.85</v>
+        <v>312.05</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B141" t="s">
-        <v>165</v>
+        <v>251</v>
       </c>
       <c r="C141">
-        <v>90.2</v>
+        <v>309.77</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B142" t="s">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="C142">
-        <v>92.07</v>
+        <v>309.32</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B143" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C143">
-        <v>92.5</v>
+        <v>302.77</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B144" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C144">
-        <v>92.72</v>
+        <v>302.51</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B145" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C145">
-        <v>93.21</v>
+        <v>294.54000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B146" t="s">
-        <v>198</v>
+        <v>260</v>
       </c>
       <c r="C146">
-        <v>95.88</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B147" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="C147">
-        <v>97.08</v>
+        <v>282.54000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B148" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C148">
-        <v>98.28</v>
+        <v>279.35000000000002</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B149" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C149">
-        <v>98.55</v>
+        <v>278.49</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B150" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C150">
-        <v>99.24</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B151" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="C151">
-        <v>99.3</v>
+        <v>276.93</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B152" t="s">
-        <v>278</v>
+        <v>130</v>
       </c>
       <c r="C152">
-        <v>104.9</v>
+        <v>260.51</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B153" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C153">
-        <v>108.51</v>
+        <v>260.14999999999998</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B154" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="C154">
-        <v>109.4</v>
+        <v>258.75</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B155" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C155">
-        <v>112.47</v>
+        <v>255.99</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B156" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="C156">
-        <v>113.8</v>
+        <v>253.95</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B157" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="C157">
-        <v>119.07</v>
+        <v>253.25</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B158" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="C158">
-        <v>120.72</v>
+        <v>246.21</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B159" t="s">
-        <v>290</v>
+        <v>35</v>
       </c>
       <c r="C159">
-        <v>120.85</v>
+        <v>245.99</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B160" t="s">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="C160">
-        <v>120.88</v>
+        <v>242.72</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B161" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C161">
-        <v>121.43</v>
+        <v>242.48</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B162" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C162">
-        <v>123.41</v>
+        <v>238.55</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B163" t="s">
-        <v>297</v>
+        <v>163</v>
       </c>
       <c r="C163">
-        <v>124.92</v>
+        <v>237.08</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B164" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C164">
-        <v>126.22</v>
+        <v>233.93</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B165" t="s">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="C165">
-        <v>126.56</v>
+        <v>227.02</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B166" t="s">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="C166">
-        <v>126.72</v>
+        <v>226.37</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B167" t="s">
-        <v>303</v>
+        <v>163</v>
       </c>
       <c r="C167">
-        <v>126.88</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B168" t="s">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="C168">
-        <v>127.86</v>
+        <v>216.08</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B169" t="s">
-        <v>49</v>
+        <v>296</v>
       </c>
       <c r="C169">
-        <v>128.33000000000001</v>
+        <v>212.6</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B170" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C170">
-        <v>131.16999999999999</v>
+        <v>206.67</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B171" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C171">
-        <v>131.31</v>
+        <v>204.9</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B172" t="s">
-        <v>103</v>
+        <v>302</v>
       </c>
       <c r="C172">
-        <v>132</v>
+        <v>199.04</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B173" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c r="C173">
-        <v>133.49</v>
+        <v>198.65</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B174" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C174">
-        <v>134.08000000000001</v>
+        <v>196.68</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B175" t="s">
         <v>212</v>
       </c>
       <c r="C175">
-        <v>134.44</v>
+        <v>196.05</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B176" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="C176">
-        <v>134.44</v>
+        <v>190.71</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B177" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="C177">
-        <v>134.97999999999999</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B178" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C178">
-        <v>135.37</v>
+        <v>188.07</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B179" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="C179">
-        <v>135.81</v>
+        <v>186.02</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>47</v>
       </c>
       <c r="C180">
-        <v>137.93</v>
+        <v>181.74</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B181" t="s">
-        <v>157</v>
+        <v>316</v>
       </c>
       <c r="C181">
-        <v>138.74</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B182" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C182">
-        <v>140.47999999999999</v>
+        <v>172.32</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B183" t="s">
-        <v>325</v>
+        <v>105</v>
       </c>
       <c r="C183">
-        <v>140.63999999999999</v>
+        <v>170.45</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B184" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="C184">
-        <v>142.36000000000001</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B185" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C185">
-        <v>147.84</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B186" t="s">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="C186">
-        <v>149.66</v>
+        <v>169.48</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B187" t="s">
-        <v>141</v>
+        <v>326</v>
       </c>
       <c r="C187">
-        <v>151.41</v>
+        <v>168.35</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B188" t="s">
-        <v>332</v>
+        <v>196</v>
       </c>
       <c r="C188">
-        <v>153.11000000000001</v>
+        <v>168.17</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B189" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C189">
-        <v>156.68</v>
+        <v>164.18</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B190" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C190">
-        <v>159.85</v>
+        <v>163.62</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B191" t="s">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="C191">
-        <v>163.62</v>
+        <v>159.85</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B192" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="C192">
-        <v>164.18</v>
+        <v>156.68</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B193" t="s">
-        <v>115</v>
+        <v>334</v>
       </c>
       <c r="C193">
-        <v>168.17</v>
+        <v>153.11000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B194" t="s">
-        <v>341</v>
+        <v>212</v>
       </c>
       <c r="C194">
-        <v>168.35</v>
+        <v>151.41</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B195" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C195">
-        <v>169.48</v>
+        <v>149.66</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B196" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="C196">
-        <v>170.27</v>
+        <v>147.84</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>269</v>
       </c>
       <c r="C197">
-        <v>170.37</v>
+        <v>142.36000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B198" t="s">
-        <v>346</v>
+        <v>193</v>
       </c>
       <c r="C198">
-        <v>170.45</v>
+        <v>140.63999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B199" t="s">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="C199">
-        <v>172.32</v>
+        <v>140.47999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B200" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C200">
-        <v>176.4</v>
+        <v>138.74</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B201" t="s">
-        <v>131</v>
+        <v>298</v>
       </c>
       <c r="C201">
-        <v>181.74</v>
+        <v>137.93</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B202" t="s">
-        <v>352</v>
+        <v>100</v>
       </c>
       <c r="C202">
-        <v>186.02</v>
+        <v>135.81</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B203" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C203">
-        <v>188.07</v>
+        <v>135.37</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B204" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C204">
-        <v>188.83</v>
+        <v>134.97999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B205" t="s">
-        <v>357</v>
+        <v>247</v>
       </c>
       <c r="C205">
-        <v>190.71</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B206" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="C206">
-        <v>196.05</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B207" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="C207">
-        <v>196.68</v>
+        <v>134.08000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B208" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C208">
-        <v>198.65</v>
+        <v>133.49</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B209" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C209">
-        <v>199.04</v>
+        <v>132</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B210" t="s">
-        <v>365</v>
+        <v>282</v>
       </c>
       <c r="C210">
-        <v>204.9</v>
+        <v>131.31</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B211" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C211">
-        <v>206.67</v>
+        <v>131.16999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B212" t="s">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="C212">
-        <v>212.6</v>
+        <v>128.33000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B213" t="s">
-        <v>370</v>
+        <v>29</v>
       </c>
       <c r="C213">
-        <v>216.08</v>
+        <v>127.86</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B214" t="s">
         <v>361</v>
       </c>
       <c r="C214">
-        <v>217.03</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B215" t="s">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="C215">
-        <v>226.37</v>
+        <v>126.72</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B216" t="s">
-        <v>374</v>
+        <v>172</v>
       </c>
       <c r="C216">
-        <v>227.02</v>
+        <v>126.56</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B217" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C217">
-        <v>233.93</v>
+        <v>126.22</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B218" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C218">
-        <v>237.08</v>
+        <v>124.92</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B219" t="s">
-        <v>379</v>
+        <v>191</v>
       </c>
       <c r="C219">
-        <v>238.55</v>
+        <v>123.41</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B220" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="C220">
-        <v>242.48</v>
+        <v>121.43</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B221" t="s">
-        <v>285</v>
+        <v>196</v>
       </c>
       <c r="C221">
-        <v>242.72</v>
+        <v>120.88</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B222" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C222">
-        <v>245.99</v>
+        <v>120.85</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B223" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C223">
-        <v>246.21</v>
+        <v>120.72</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B224" t="s">
-        <v>49</v>
+        <v>375</v>
       </c>
       <c r="C224">
-        <v>253.25</v>
+        <v>119.07</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B225" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C225">
-        <v>253.95</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B226" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C226">
-        <v>255.99</v>
+        <v>112.47</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B227" t="s">
-        <v>389</v>
+        <v>172</v>
       </c>
       <c r="C227">
-        <v>258.75</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B228" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C228">
-        <v>260.14999999999998</v>
+        <v>108.51</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B229" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C229">
-        <v>260.51</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B230" t="s">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="C230">
-        <v>276.93</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B231" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C231">
-        <v>277.3</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B232" t="s">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="C232">
-        <v>278.49</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B233" t="s">
-        <v>399</v>
+        <v>91</v>
       </c>
       <c r="C233">
-        <v>279.35000000000002</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B234" t="s">
-        <v>273</v>
+        <v>85</v>
       </c>
       <c r="C234">
-        <v>282.54000000000002</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B235" t="s">
-        <v>402</v>
+        <v>43</v>
       </c>
       <c r="C235">
-        <v>293.3</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B236" t="s">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="C236">
-        <v>294.54000000000002</v>
+        <v>93.21</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B237" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="C237">
-        <v>302.51</v>
+        <v>92.72</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B238" t="s">
-        <v>406</v>
+        <v>49</v>
       </c>
       <c r="C238">
-        <v>302.77</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B239" t="s">
-        <v>408</v>
+        <v>100</v>
       </c>
       <c r="C239">
-        <v>309.32</v>
+        <v>92.07</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B240" t="s">
-        <v>410</v>
+        <v>31</v>
       </c>
       <c r="C240">
-        <v>309.77</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B241" t="s">
-        <v>307</v>
+        <v>399</v>
       </c>
       <c r="C241">
-        <v>312.05</v>
+        <v>89.85</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B242" t="s">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="C242">
-        <v>321.24</v>
+        <v>86.73</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B243" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C243">
-        <v>321.31</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B244" t="s">
-        <v>416</v>
+        <v>208</v>
       </c>
       <c r="C244">
-        <v>321.54000000000002</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B245" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C245">
-        <v>324.08999999999997</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B246" t="s">
-        <v>393</v>
+        <v>4</v>
       </c>
       <c r="C246">
-        <v>327.89</v>
+        <v>83.13</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B247" t="s">
-        <v>30</v>
+        <v>408</v>
       </c>
       <c r="C247">
-        <v>332.65</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B248" t="s">
-        <v>206</v>
+        <v>410</v>
       </c>
       <c r="C248">
-        <v>343.26</v>
+        <v>82.91</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B249" t="s">
-        <v>423</v>
+        <v>214</v>
       </c>
       <c r="C249">
-        <v>343.52</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B250" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="C250">
-        <v>346.83</v>
+        <v>82.28</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="B251" t="s">
-        <v>426</v>
+        <v>58</v>
       </c>
       <c r="C251">
-        <v>348.3</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B252" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C252">
-        <v>350.34</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="C253">
-        <v>355</v>
+        <v>78.97</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="B254" t="s">
-        <v>214</v>
+        <v>418</v>
       </c>
       <c r="C254">
-        <v>355.56</v>
+        <v>77.19</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="B255" t="s">
-        <v>323</v>
+        <v>420</v>
       </c>
       <c r="C255">
-        <v>365.44</v>
+        <v>76.790000000000006</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B256" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C256">
-        <v>369.59</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>424</v>
       </c>
       <c r="C257">
-        <v>377.42</v>
+        <v>76.260000000000005</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="B258" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="C258">
-        <v>387.23</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B259" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C259">
-        <v>393.52</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B260" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C260">
-        <v>400.75</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B261" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C261">
-        <v>407.48</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B262" t="s">
-        <v>123</v>
+        <v>434</v>
       </c>
       <c r="C262">
-        <v>413.55</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B263" t="s">
-        <v>141</v>
+        <v>436</v>
       </c>
       <c r="C263">
-        <v>423.95</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B264" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C264">
-        <v>425.17</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B265" t="s">
-        <v>49</v>
+        <v>363</v>
       </c>
       <c r="C265">
-        <v>430.64</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B266" t="s">
-        <v>448</v>
+        <v>14</v>
       </c>
       <c r="C266">
-        <v>436.86</v>
+        <v>70.459999999999994</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B267" t="s">
-        <v>450</v>
+        <v>228</v>
       </c>
       <c r="C267">
-        <v>442.44</v>
+        <v>69.88</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B268" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="C268">
-        <v>449.3</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B269" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C269">
-        <v>450.33</v>
+        <v>69.34</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B270" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C270">
-        <v>453.65</v>
+        <v>69.069999999999993</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B271" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="C271">
-        <v>458.13</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B272" t="s">
-        <v>115</v>
+        <v>449</v>
       </c>
       <c r="C272">
-        <v>459.2</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B273" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C273">
-        <v>460.98</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B274" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="C274">
-        <v>465.01</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B275" t="s">
-        <v>295</v>
+        <v>43</v>
       </c>
       <c r="C275">
-        <v>467.91</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B276" t="s">
-        <v>63</v>
+        <v>455</v>
       </c>
       <c r="C276">
-        <v>491.62</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B277" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C277">
-        <v>494.86</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B278" t="s">
-        <v>465</v>
+        <v>172</v>
       </c>
       <c r="C278">
-        <v>507.08</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B279" t="s">
-        <v>63</v>
+        <v>459</v>
       </c>
       <c r="C279">
-        <v>508.42</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B280" t="s">
-        <v>468</v>
+        <v>385</v>
       </c>
       <c r="C280">
-        <v>516.78</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B281" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C281">
-        <v>517.87</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B282" t="s">
-        <v>32</v>
+        <v>459</v>
       </c>
       <c r="C282">
-        <v>524.29</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B283" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C283">
-        <v>529.34</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B284" t="s">
-        <v>121</v>
+        <v>298</v>
       </c>
       <c r="C284">
-        <v>549.71</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B285" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C285">
-        <v>549.72</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B286" t="s">
-        <v>477</v>
+        <v>103</v>
       </c>
       <c r="C286">
-        <v>557.41999999999996</v>
+        <v>55.49</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B287" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="C287">
-        <v>568.94000000000005</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B288" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C288">
-        <v>573.34</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B289" t="s">
-        <v>264</v>
+        <v>473</v>
       </c>
       <c r="C289">
-        <v>578.08000000000004</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B290" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C290">
-        <v>578.48</v>
+        <v>52.59</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B291" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C291">
-        <v>581.08000000000004</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B292" t="s">
-        <v>361</v>
+        <v>479</v>
       </c>
       <c r="C292">
-        <v>581.79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B293" t="s">
-        <v>240</v>
+        <v>318</v>
       </c>
       <c r="C293">
-        <v>581.89</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B294" t="s">
-        <v>489</v>
+        <v>31</v>
       </c>
       <c r="C294">
-        <v>585.70000000000005</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B295" t="s">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="C295">
-        <v>591.30999999999995</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B296" t="s">
-        <v>492</v>
+        <v>58</v>
       </c>
       <c r="C296">
-        <v>592.84</v>
+        <v>47.01</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B297" t="s">
-        <v>6</v>
+        <v>485</v>
       </c>
       <c r="C297">
-        <v>595.05999999999995</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B298" t="s">
-        <v>495</v>
+        <v>342</v>
       </c>
       <c r="C298">
-        <v>598.08000000000004</v>
+        <v>46.28</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B299" t="s">
-        <v>497</v>
+        <v>322</v>
       </c>
       <c r="C299">
-        <v>614.55999999999995</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B300" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C300">
-        <v>617.72</v>
+        <v>46.16</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B301" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C301">
-        <v>618.47</v>
+        <v>46.05</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B302" t="s">
-        <v>503</v>
+        <v>212</v>
       </c>
       <c r="C302">
-        <v>623.46</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B303" t="s">
-        <v>264</v>
+        <v>494</v>
       </c>
       <c r="C303">
-        <v>625.5</v>
+        <v>44.69</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B304" t="s">
-        <v>506</v>
+        <v>157</v>
       </c>
       <c r="C304">
-        <v>644.94000000000005</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B305" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="C305">
-        <v>649.30999999999995</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B306" t="s">
-        <v>509</v>
+        <v>14</v>
       </c>
       <c r="C306">
-        <v>663.35</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="B307" t="s">
-        <v>511</v>
+        <v>212</v>
       </c>
       <c r="C307">
-        <v>666</v>
+        <v>42.64</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="B308" t="s">
-        <v>393</v>
+        <v>214</v>
       </c>
       <c r="C308">
-        <v>666</v>
+        <v>40</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="B309" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C309">
-        <v>666</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B310" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="C310">
-        <v>666</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="B311" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="C311">
-        <v>666</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B312" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C312">
-        <v>675.5</v>
+        <v>36.94</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="B313" t="s">
-        <v>250</v>
+        <v>47</v>
       </c>
       <c r="C313">
-        <v>679.29</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="B314" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="C314">
-        <v>689.06</v>
+        <v>31.78</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="B315" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C315">
-        <v>698.03</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="B316" t="s">
-        <v>32</v>
+        <v>513</v>
       </c>
       <c r="C316">
-        <v>698.83</v>
+        <v>30.03</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B317" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="C317">
-        <v>700.86</v>
+        <v>28.58</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="B318" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="C318">
-        <v>702.87</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="B319" t="s">
-        <v>69</v>
+        <v>517</v>
       </c>
       <c r="C319">
-        <v>704.83</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B320" t="s">
-        <v>121</v>
+        <v>519</v>
       </c>
       <c r="C320">
-        <v>707.41</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B321" t="s">
-        <v>531</v>
+        <v>196</v>
       </c>
       <c r="C321">
-        <v>715.56</v>
+        <v>27.45</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="B322" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="C322">
-        <v>716.35</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B323" t="s">
-        <v>346</v>
+        <v>116</v>
       </c>
       <c r="C323">
-        <v>733.93</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B324" t="s">
-        <v>121</v>
+        <v>525</v>
       </c>
       <c r="C324">
-        <v>737.21</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B325" t="s">
-        <v>262</v>
+        <v>355</v>
       </c>
       <c r="C325">
-        <v>748.56</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B326" t="s">
-        <v>198</v>
+        <v>528</v>
       </c>
       <c r="C326">
-        <v>754.27</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B327" t="s">
-        <v>538</v>
+        <v>324</v>
       </c>
       <c r="C327">
-        <v>775.45</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B328" t="s">
-        <v>257</v>
+        <v>355</v>
       </c>
       <c r="C328">
-        <v>807.58</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B329" t="s">
-        <v>38</v>
+        <v>532</v>
       </c>
       <c r="C329">
-        <v>823.1</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B330" t="s">
-        <v>542</v>
+        <v>116</v>
       </c>
       <c r="C330">
-        <v>839.03</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B331" t="s">
-        <v>271</v>
+        <v>535</v>
       </c>
       <c r="C331">
-        <v>839.9</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B332" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C332">
-        <v>842.42</v>
+        <v>18.47</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B333" t="s">
-        <v>4</v>
+        <v>539</v>
       </c>
       <c r="C333">
-        <v>847.72</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="B334" t="s">
-        <v>63</v>
+        <v>541</v>
       </c>
       <c r="C334">
-        <v>848.25</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B335" t="s">
-        <v>475</v>
+        <v>543</v>
       </c>
       <c r="C335">
-        <v>849.15</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B336" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C336">
-        <v>854.73</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B337" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C337">
-        <v>894.66</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B338" t="s">
-        <v>257</v>
+        <v>549</v>
       </c>
       <c r="C338">
-        <v>933.95</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B339" t="s">
-        <v>439</v>
+        <v>551</v>
       </c>
       <c r="C339">
-        <v>937.33</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B340" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C340">
-        <v>942.42</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B341" t="s">
-        <v>408</v>
+        <v>269</v>
       </c>
       <c r="C341">
-        <v>943.73</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B342" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C342">
-        <v>946.84</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B343" t="s">
-        <v>163</v>
+        <v>558</v>
       </c>
       <c r="C343">
-        <v>952.26</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B344" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="C344">
-        <v>975.27</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B345" t="s">
-        <v>563</v>
+        <v>291</v>
       </c>
       <c r="C345">
-        <v>988.32</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B346" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C346">
-        <v>989.61</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B347" t="s">
-        <v>38</v>
+        <v>564</v>
       </c>
       <c r="C347">
-        <v>1004.98</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B348" t="s">
-        <v>568</v>
+        <v>112</v>
       </c>
       <c r="C348">
-        <v>1052.79</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B349" t="s">
-        <v>143</v>
+        <v>567</v>
       </c>
       <c r="C349">
-        <v>1056.4000000000001</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B350" t="s">
-        <v>143</v>
+        <v>569</v>
       </c>
       <c r="C350">
-        <v>1191.3900000000001</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B351" t="s">
-        <v>572</v>
+        <v>85</v>
       </c>
       <c r="C351">
-        <v>1200</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B352" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C352">
-        <v>1574.27</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B353" t="s">
-        <v>161</v>
+        <v>318</v>
       </c>
       <c r="C353">
-        <v>1767.36</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B354" t="s">
-        <v>121</v>
+        <v>575</v>
       </c>
       <c r="C354">
-        <v>2006.28</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B355" t="s">
-        <v>578</v>
+        <v>116</v>
       </c>
       <c r="C355">
-        <v>2691.13</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B356" t="s">
-        <v>290</v>
+        <v>578</v>
       </c>
       <c r="C356">
-        <v>3241.75</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
+        <v>579</v>
+      </c>
+      <c r="B357" t="s">
         <v>580</v>
       </c>
-      <c r="B357" t="s">
-        <v>30</v>
-      </c>
       <c r="C357">
-        <v>4050.48</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6191,10 +6191,10 @@
         <v>581</v>
       </c>
       <c r="B358" t="s">
-        <v>30</v>
+        <v>208</v>
       </c>
       <c r="C358">
-        <v>4734.63</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6205,7 +6205,7 @@
         <v>583</v>
       </c>
       <c r="C359">
-        <v>5627.35</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6213,10 +6213,10 @@
         <v>584</v>
       </c>
       <c r="B360" t="s">
-        <v>264</v>
+        <v>410</v>
       </c>
       <c r="C360">
-        <v>6354.84</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6224,10 +6224,10 @@
         <v>585</v>
       </c>
       <c r="B361" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="C361">
-        <v>6387.28</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6235,32 +6235,32 @@
         <v>586</v>
       </c>
       <c r="B362" t="s">
-        <v>198</v>
+        <v>587</v>
       </c>
       <c r="C362">
-        <v>7574</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B363" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C363">
-        <v>10412.89</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B364" t="s">
-        <v>590</v>
+        <v>29</v>
       </c>
       <c r="C364">
-        <v>11057.89</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6271,7 +6271,7 @@
         <v>592</v>
       </c>
       <c r="C365">
-        <v>11085.71</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6279,21 +6279,21 @@
         <v>593</v>
       </c>
       <c r="B366" t="s">
-        <v>594</v>
+        <v>35</v>
       </c>
       <c r="C366">
-        <v>12674.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
+        <v>594</v>
+      </c>
+      <c r="B367" t="s">
         <v>595</v>
       </c>
-      <c r="B367" t="s">
-        <v>32</v>
-      </c>
       <c r="C367">
-        <v>13571.37</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6301,21 +6301,21 @@
         <v>596</v>
       </c>
       <c r="B368" t="s">
-        <v>597</v>
+        <v>51</v>
       </c>
       <c r="C368">
-        <v>17073.599999999999</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
+        <v>597</v>
+      </c>
+      <c r="B369" t="s">
         <v>598</v>
       </c>
-      <c r="B369" t="s">
-        <v>165</v>
-      </c>
       <c r="C369">
-        <v>17492.96</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6326,7 +6326,7 @@
         <v>600</v>
       </c>
       <c r="C370">
-        <v>22063.42</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6337,7 +6337,7 @@
         <v>602</v>
       </c>
       <c r="C371">
-        <v>30667.24</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6348,7 +6348,7 @@
         <v>604</v>
       </c>
       <c r="C372">
-        <v>34012.18</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6359,7 +6359,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>37911.93</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6367,21 +6367,21 @@
         <v>607</v>
       </c>
       <c r="B374" t="s">
-        <v>608</v>
+        <v>291</v>
       </c>
       <c r="C374">
-        <v>40064.79</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
+        <v>608</v>
+      </c>
+      <c r="B375" t="s">
         <v>609</v>
       </c>
-      <c r="B375" t="s">
-        <v>608</v>
-      </c>
       <c r="C375">
-        <v>40744.089999999997</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6389,10 +6389,10 @@
         <v>610</v>
       </c>
       <c r="B376" t="s">
-        <v>475</v>
+        <v>188</v>
       </c>
       <c r="C376">
-        <v>85000</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6403,7 +6403,7 @@
         <v>612</v>
       </c>
       <c r="C377">
-        <v>100000</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6411,21 +6411,21 @@
         <v>613</v>
       </c>
       <c r="B378" t="s">
-        <v>163</v>
+        <v>614</v>
       </c>
       <c r="C378">
-        <v>100523.24</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B379" t="s">
-        <v>615</v>
+        <v>153</v>
       </c>
       <c r="C379">
-        <v>147040.70000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -6433,47 +6433,36 @@
         <v>616</v>
       </c>
       <c r="B380" t="s">
-        <v>163</v>
+        <v>617</v>
       </c>
       <c r="C380">
-        <v>155005.85</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B381" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C381">
-        <v>157501.6</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B382" t="s">
-        <v>450</v>
+        <v>87</v>
       </c>
       <c r="C382">
-        <v>255010</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
-      <c r="A383" t="s">
-        <v>620</v>
-      </c>
-      <c r="B383" t="s">
-        <v>250</v>
-      </c>
-      <c r="C383">
-        <v>702000</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
+        <v>-167.52</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
         <v>621</v>
       </c>
     </row>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12D8E923-C73D-41C6-8F29-9CE70179CEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC01FEE8-4A45-40D5-AC4F-AF6440225C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,6 +79,12 @@
     <t>MONICA</t>
   </si>
   <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
     <t>005152037</t>
   </si>
   <si>
@@ -154,1155 +160,1152 @@
     <t>CARLOS</t>
   </si>
   <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004467884</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>002592340</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004461526</t>
+  </si>
+  <si>
+    <t>ASSISTIGAS</t>
+  </si>
+  <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
+    <t>004208869</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>002458288</t>
+  </si>
+  <si>
+    <t>BENEDITO</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004207374</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>004212409</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>004444605</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004466221</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>004425965</t>
+  </si>
+  <si>
+    <t>CAROLLINA</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004207278</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004334158</t>
+  </si>
+  <si>
+    <t>LEONE</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>004450405</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>004243043</t>
+  </si>
+  <si>
+    <t>SUELI</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
     <t>004383190</t>
   </si>
   <si>
     <t>MAFALDA</t>
   </si>
   <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004467884</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>002592340</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004461526</t>
-  </si>
-  <si>
-    <t>ASSISTIGAS</t>
-  </si>
-  <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004207374</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>004212409</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>004444605</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004466221</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>004425965</t>
-  </si>
-  <si>
-    <t>CAROLLINA</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004207278</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004334158</t>
-  </si>
-  <si>
-    <t>LEONE</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>004450405</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004243043</t>
-  </si>
-  <si>
-    <t>SUELI</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
     <t>003836362</t>
   </si>
   <si>
@@ -1478,9 +1481,6 @@
   </si>
   <si>
     <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004240014</t>
   </si>
   <si>
     <t>004556150</t>
@@ -2254,7 +2254,7 @@
   <dimension ref="A1:C384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2363,21 +2363,21 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>48151.24</v>
+        <v>50046.28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>48014.67</v>
+        <v>48151.24</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2388,7 +2388,7 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>40064.79</v>
+        <v>48014.67</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2399,7 +2399,7 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>30667.24</v>
+        <v>40064.79</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2410,7 +2410,7 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>22063.42</v>
+        <v>30667.24</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2421,7 +2421,7 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>20000</v>
+        <v>22063.42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2432,7 +2432,7 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>17492.96</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2443,7 +2443,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>17073.599999999999</v>
+        <v>17492.96</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2454,7 +2454,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>13571.37</v>
+        <v>17073.599999999999</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2465,7 +2465,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>11085.71</v>
+        <v>13571.37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2476,7 +2476,7 @@
         <v>39</v>
       </c>
       <c r="C20">
-        <v>11057.89</v>
+        <v>11085.71</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2487,7 +2487,7 @@
         <v>41</v>
       </c>
       <c r="C21">
-        <v>10412.89</v>
+        <v>11057.89</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2498,7 +2498,7 @@
         <v>43</v>
       </c>
       <c r="C22">
-        <v>7574</v>
+        <v>10412.89</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2509,7 +2509,7 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>7074.74</v>
+        <v>7574</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2803,7 +2803,7 @@
         <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C50">
         <v>823.1</v>
@@ -2836,7 +2836,7 @@
         <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C53">
         <v>754.27</v>
@@ -2858,7 +2858,7 @@
         <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C55">
         <v>744.09</v>
@@ -2957,7 +2957,7 @@
         <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C64">
         <v>698.83</v>
@@ -3342,7 +3342,7 @@
         <v>179</v>
       </c>
       <c r="B99" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C99">
         <v>524.29</v>
@@ -4002,7 +4002,7 @@
         <v>279</v>
       </c>
       <c r="B159" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C159">
         <v>245.99</v>
@@ -4365,7 +4365,7 @@
         <v>332</v>
       </c>
       <c r="B192" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C192">
         <v>156.68</v>
@@ -4453,7 +4453,7 @@
         <v>341</v>
       </c>
       <c r="B200" t="s">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="C200">
         <v>138.74</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B201" t="s">
         <v>298</v>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B202" t="s">
         <v>100</v>
@@ -4483,10 +4483,10 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
+        <v>344</v>
+      </c>
+      <c r="B203" t="s">
         <v>345</v>
-      </c>
-      <c r="B203" t="s">
-        <v>346</v>
       </c>
       <c r="C203">
         <v>135.37</v>
@@ -4494,10 +4494,10 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B204" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C204">
         <v>134.97999999999999</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B205" t="s">
         <v>247</v>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B206" t="s">
         <v>78</v>
@@ -4527,10 +4527,10 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
+        <v>349</v>
+      </c>
+      <c r="B207" t="s">
         <v>350</v>
-      </c>
-      <c r="B207" t="s">
-        <v>351</v>
       </c>
       <c r="C207">
         <v>134.08000000000001</v>
@@ -4538,10 +4538,10 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
+        <v>351</v>
+      </c>
+      <c r="B208" t="s">
         <v>352</v>
-      </c>
-      <c r="B208" t="s">
-        <v>353</v>
       </c>
       <c r="C208">
         <v>133.49</v>
@@ -4549,10 +4549,10 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
+        <v>353</v>
+      </c>
+      <c r="B209" t="s">
         <v>354</v>
-      </c>
-      <c r="B209" t="s">
-        <v>355</v>
       </c>
       <c r="C209">
         <v>132</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B210" t="s">
         <v>282</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B211" t="s">
         <v>249</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B212" t="s">
         <v>208</v>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B213" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C213">
         <v>127.86</v>
@@ -4604,10 +4604,10 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
+        <v>359</v>
+      </c>
+      <c r="B214" t="s">
         <v>360</v>
-      </c>
-      <c r="B214" t="s">
-        <v>361</v>
       </c>
       <c r="C214">
         <v>126.88</v>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
+        <v>361</v>
+      </c>
+      <c r="B215" t="s">
         <v>362</v>
-      </c>
-      <c r="B215" t="s">
-        <v>363</v>
       </c>
       <c r="C215">
         <v>126.72</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B216" t="s">
         <v>172</v>
@@ -4637,10 +4637,10 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
+        <v>364</v>
+      </c>
+      <c r="B217" t="s">
         <v>365</v>
-      </c>
-      <c r="B217" t="s">
-        <v>366</v>
       </c>
       <c r="C217">
         <v>126.22</v>
@@ -4648,10 +4648,10 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
+        <v>366</v>
+      </c>
+      <c r="B218" t="s">
         <v>367</v>
-      </c>
-      <c r="B218" t="s">
-        <v>368</v>
       </c>
       <c r="C218">
         <v>124.92</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B219" t="s">
         <v>191</v>
@@ -4670,10 +4670,10 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B220" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C220">
         <v>121.43</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B221" t="s">
         <v>196</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B222" t="s">
         <v>54</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B223" t="s">
         <v>14</v>
@@ -4714,10 +4714,10 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
+        <v>373</v>
+      </c>
+      <c r="B224" t="s">
         <v>374</v>
-      </c>
-      <c r="B224" t="s">
-        <v>375</v>
       </c>
       <c r="C224">
         <v>119.07</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B225" t="s">
         <v>265</v>
@@ -4736,10 +4736,10 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
+        <v>376</v>
+      </c>
+      <c r="B226" t="s">
         <v>377</v>
-      </c>
-      <c r="B226" t="s">
-        <v>378</v>
       </c>
       <c r="C226">
         <v>112.47</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B227" t="s">
         <v>172</v>
@@ -4758,10 +4758,10 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
+        <v>379</v>
+      </c>
+      <c r="B228" t="s">
         <v>380</v>
-      </c>
-      <c r="B228" t="s">
-        <v>381</v>
       </c>
       <c r="C228">
         <v>108.51</v>
@@ -4769,10 +4769,10 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
+        <v>381</v>
+      </c>
+      <c r="B229" t="s">
         <v>382</v>
-      </c>
-      <c r="B229" t="s">
-        <v>383</v>
       </c>
       <c r="C229">
         <v>104.9</v>
@@ -4780,10 +4780,10 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
+        <v>383</v>
+      </c>
+      <c r="B230" t="s">
         <v>384</v>
-      </c>
-      <c r="B230" t="s">
-        <v>385</v>
       </c>
       <c r="C230">
         <v>99.3</v>
@@ -4791,10 +4791,10 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
+        <v>385</v>
+      </c>
+      <c r="B231" t="s">
         <v>386</v>
-      </c>
-      <c r="B231" t="s">
-        <v>387</v>
       </c>
       <c r="C231">
         <v>99.24</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B232" t="s">
         <v>178</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B233" t="s">
         <v>91</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B234" t="s">
         <v>85</v>
@@ -4835,10 +4835,10 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B235" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C235">
         <v>95.88</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B236" t="s">
         <v>78</v>
@@ -4857,10 +4857,10 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
+        <v>392</v>
+      </c>
+      <c r="B237" t="s">
         <v>393</v>
-      </c>
-      <c r="B237" t="s">
-        <v>394</v>
       </c>
       <c r="C237">
         <v>92.72</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B238" t="s">
         <v>49</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B239" t="s">
         <v>100</v>
@@ -4890,10 +4890,10 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B240" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C240">
         <v>90.2</v>
@@ -4901,10 +4901,10 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
+        <v>397</v>
+      </c>
+      <c r="B241" t="s">
         <v>398</v>
-      </c>
-      <c r="B241" t="s">
-        <v>399</v>
       </c>
       <c r="C241">
         <v>89.85</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B242" t="s">
         <v>78</v>
@@ -4923,10 +4923,10 @@
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
+        <v>400</v>
+      </c>
+      <c r="B243" t="s">
         <v>401</v>
-      </c>
-      <c r="B243" t="s">
-        <v>402</v>
       </c>
       <c r="C243">
         <v>86.45</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B244" t="s">
         <v>208</v>
@@ -4945,10 +4945,10 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
+        <v>403</v>
+      </c>
+      <c r="B245" t="s">
         <v>404</v>
-      </c>
-      <c r="B245" t="s">
-        <v>405</v>
       </c>
       <c r="C245">
         <v>84.72</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B246" t="s">
         <v>4</v>
@@ -4967,10 +4967,10 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
+        <v>406</v>
+      </c>
+      <c r="B247" t="s">
         <v>407</v>
-      </c>
-      <c r="B247" t="s">
-        <v>408</v>
       </c>
       <c r="C247">
         <v>83.06</v>
@@ -4978,10 +4978,10 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
+        <v>408</v>
+      </c>
+      <c r="B248" t="s">
         <v>409</v>
-      </c>
-      <c r="B248" t="s">
-        <v>410</v>
       </c>
       <c r="C248">
         <v>82.91</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B249" t="s">
         <v>214</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B250" t="s">
         <v>269</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B251" t="s">
         <v>58</v>
@@ -5022,10 +5022,10 @@
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
+        <v>413</v>
+      </c>
+      <c r="B252" t="s">
         <v>414</v>
-      </c>
-      <c r="B252" t="s">
-        <v>415</v>
       </c>
       <c r="C252">
         <v>80.05</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B253" t="s">
         <v>161</v>
@@ -5044,10 +5044,10 @@
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
+        <v>416</v>
+      </c>
+      <c r="B254" t="s">
         <v>417</v>
-      </c>
-      <c r="B254" t="s">
-        <v>418</v>
       </c>
       <c r="C254">
         <v>77.19</v>
@@ -5055,10 +5055,10 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
+        <v>418</v>
+      </c>
+      <c r="B255" t="s">
         <v>419</v>
-      </c>
-      <c r="B255" t="s">
-        <v>420</v>
       </c>
       <c r="C255">
         <v>76.790000000000006</v>
@@ -5066,10 +5066,10 @@
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
+        <v>420</v>
+      </c>
+      <c r="B256" t="s">
         <v>421</v>
-      </c>
-      <c r="B256" t="s">
-        <v>422</v>
       </c>
       <c r="C256">
         <v>76.56</v>
@@ -5077,10 +5077,10 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
+        <v>422</v>
+      </c>
+      <c r="B257" t="s">
         <v>423</v>
-      </c>
-      <c r="B257" t="s">
-        <v>424</v>
       </c>
       <c r="C257">
         <v>76.260000000000005</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
+        <v>424</v>
+      </c>
+      <c r="B258" t="s">
         <v>425</v>
-      </c>
-      <c r="B258" t="s">
-        <v>426</v>
       </c>
       <c r="C258">
         <v>75.86</v>
@@ -5099,79 +5099,79 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
+        <v>426</v>
+      </c>
+      <c r="B259" t="s">
         <v>427</v>
       </c>
-      <c r="B259" t="s">
-        <v>428</v>
-      </c>
       <c r="C259">
-        <v>74.39</v>
+        <v>74.739999999999995</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
+        <v>428</v>
+      </c>
+      <c r="B260" t="s">
         <v>429</v>
       </c>
-      <c r="B260" t="s">
-        <v>430</v>
-      </c>
       <c r="C260">
-        <v>74.23</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
+        <v>430</v>
+      </c>
+      <c r="B261" t="s">
         <v>431</v>
       </c>
-      <c r="B261" t="s">
-        <v>432</v>
-      </c>
       <c r="C261">
-        <v>73.650000000000006</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
+        <v>432</v>
+      </c>
+      <c r="B262" t="s">
         <v>433</v>
       </c>
-      <c r="B262" t="s">
-        <v>434</v>
-      </c>
       <c r="C262">
-        <v>73.56</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
+        <v>434</v>
+      </c>
+      <c r="B263" t="s">
         <v>435</v>
       </c>
-      <c r="B263" t="s">
-        <v>436</v>
-      </c>
       <c r="C263">
-        <v>73.430000000000007</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
+        <v>436</v>
+      </c>
+      <c r="B264" t="s">
         <v>437</v>
       </c>
-      <c r="B264" t="s">
-        <v>438</v>
-      </c>
       <c r="C264">
-        <v>72.42</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
+        <v>438</v>
+      </c>
+      <c r="B265" t="s">
         <v>439</v>
       </c>
-      <c r="B265" t="s">
-        <v>363</v>
-      </c>
       <c r="C265">
-        <v>71.31</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -5179,10 +5179,10 @@
         <v>440</v>
       </c>
       <c r="B266" t="s">
-        <v>14</v>
+        <v>362</v>
       </c>
       <c r="C266">
-        <v>70.459999999999994</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -5190,10 +5190,10 @@
         <v>441</v>
       </c>
       <c r="B267" t="s">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="C267">
-        <v>69.88</v>
+        <v>70.459999999999994</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -5201,10 +5201,10 @@
         <v>442</v>
       </c>
       <c r="B268" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C268">
-        <v>69.45</v>
+        <v>69.88</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5212,32 +5212,32 @@
         <v>443</v>
       </c>
       <c r="B269" t="s">
-        <v>444</v>
+        <v>247</v>
       </c>
       <c r="C269">
-        <v>69.34</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
+        <v>444</v>
+      </c>
+      <c r="B270" t="s">
         <v>445</v>
       </c>
-      <c r="B270" t="s">
-        <v>446</v>
-      </c>
       <c r="C270">
-        <v>69.069999999999993</v>
+        <v>69.34</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
+        <v>446</v>
+      </c>
+      <c r="B271" t="s">
         <v>447</v>
       </c>
-      <c r="B271" t="s">
-        <v>237</v>
-      </c>
       <c r="C271">
-        <v>68.459999999999994</v>
+        <v>69.069999999999993</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5245,32 +5245,32 @@
         <v>448</v>
       </c>
       <c r="B272" t="s">
-        <v>449</v>
+        <v>237</v>
       </c>
       <c r="C272">
-        <v>68.05</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
+        <v>449</v>
+      </c>
+      <c r="B273" t="s">
         <v>450</v>
       </c>
-      <c r="B273" t="s">
-        <v>451</v>
-      </c>
       <c r="C273">
-        <v>66.010000000000005</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
+        <v>451</v>
+      </c>
+      <c r="B274" t="s">
         <v>452</v>
       </c>
-      <c r="B274" t="s">
-        <v>363</v>
-      </c>
       <c r="C274">
-        <v>65.06</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -5278,10 +5278,10 @@
         <v>453</v>
       </c>
       <c r="B275" t="s">
-        <v>43</v>
+        <v>362</v>
       </c>
       <c r="C275">
-        <v>64.709999999999994</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5289,21 +5289,21 @@
         <v>454</v>
       </c>
       <c r="B276" t="s">
-        <v>455</v>
+        <v>45</v>
       </c>
       <c r="C276">
-        <v>64.400000000000006</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
+        <v>455</v>
+      </c>
+      <c r="B277" t="s">
         <v>456</v>
       </c>
-      <c r="B277" t="s">
-        <v>51</v>
-      </c>
       <c r="C277">
-        <v>63.94</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -5311,10 +5311,10 @@
         <v>457</v>
       </c>
       <c r="B278" t="s">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="C278">
-        <v>61.82</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5322,21 +5322,21 @@
         <v>458</v>
       </c>
       <c r="B279" t="s">
-        <v>459</v>
+        <v>172</v>
       </c>
       <c r="C279">
-        <v>61.74</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
+        <v>459</v>
+      </c>
+      <c r="B280" t="s">
         <v>460</v>
       </c>
-      <c r="B280" t="s">
-        <v>385</v>
-      </c>
       <c r="C280">
-        <v>59.87</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5344,21 +5344,21 @@
         <v>461</v>
       </c>
       <c r="B281" t="s">
-        <v>462</v>
+        <v>384</v>
       </c>
       <c r="C281">
-        <v>59.63</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
+        <v>462</v>
+      </c>
+      <c r="B282" t="s">
         <v>463</v>
       </c>
-      <c r="B282" t="s">
-        <v>459</v>
-      </c>
       <c r="C282">
-        <v>59.2</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -5366,10 +5366,10 @@
         <v>464</v>
       </c>
       <c r="B283" t="s">
-        <v>291</v>
+        <v>460</v>
       </c>
       <c r="C283">
-        <v>57.82</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -5377,10 +5377,10 @@
         <v>465</v>
       </c>
       <c r="B284" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C284">
-        <v>56.79</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5388,21 +5388,21 @@
         <v>466</v>
       </c>
       <c r="B285" t="s">
-        <v>467</v>
+        <v>298</v>
       </c>
       <c r="C285">
-        <v>55.66</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
+        <v>467</v>
+      </c>
+      <c r="B286" t="s">
         <v>468</v>
       </c>
-      <c r="B286" t="s">
-        <v>103</v>
-      </c>
       <c r="C286">
-        <v>55.49</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -5410,10 +5410,10 @@
         <v>469</v>
       </c>
       <c r="B287" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C287">
-        <v>55.24</v>
+        <v>55.49</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5421,65 +5421,65 @@
         <v>470</v>
       </c>
       <c r="B288" t="s">
-        <v>471</v>
+        <v>114</v>
       </c>
       <c r="C288">
-        <v>54.71</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
+        <v>471</v>
+      </c>
+      <c r="B289" t="s">
         <v>472</v>
       </c>
-      <c r="B289" t="s">
-        <v>473</v>
-      </c>
       <c r="C289">
-        <v>54.2</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
+        <v>473</v>
+      </c>
+      <c r="B290" t="s">
         <v>474</v>
       </c>
-      <c r="B290" t="s">
-        <v>475</v>
-      </c>
       <c r="C290">
-        <v>52.59</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
+        <v>475</v>
+      </c>
+      <c r="B291" t="s">
         <v>476</v>
       </c>
-      <c r="B291" t="s">
-        <v>477</v>
-      </c>
       <c r="C291">
-        <v>51.65</v>
+        <v>52.59</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
+        <v>477</v>
+      </c>
+      <c r="B292" t="s">
         <v>478</v>
       </c>
-      <c r="B292" t="s">
-        <v>479</v>
-      </c>
       <c r="C292">
-        <v>50</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
+        <v>479</v>
+      </c>
+      <c r="B293" t="s">
         <v>480</v>
       </c>
-      <c r="B293" t="s">
-        <v>318</v>
-      </c>
       <c r="C293">
-        <v>49.28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5487,10 +5487,10 @@
         <v>481</v>
       </c>
       <c r="B294" t="s">
-        <v>31</v>
+        <v>318</v>
       </c>
       <c r="C294">
-        <v>48.65</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -5498,10 +5498,10 @@
         <v>482</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C295">
-        <v>48.16</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -5509,10 +5509,10 @@
         <v>483</v>
       </c>
       <c r="B296" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="C296">
-        <v>47.01</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5520,21 +5520,21 @@
         <v>484</v>
       </c>
       <c r="B297" t="s">
-        <v>485</v>
+        <v>58</v>
       </c>
       <c r="C297">
-        <v>46.4</v>
+        <v>47.01</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
+        <v>485</v>
+      </c>
+      <c r="B298" t="s">
         <v>486</v>
       </c>
-      <c r="B298" t="s">
-        <v>342</v>
-      </c>
       <c r="C298">
-        <v>46.28</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5828,7 +5828,7 @@
         <v>526</v>
       </c>
       <c r="B325" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C325">
         <v>24.33</v>
@@ -5861,7 +5861,7 @@
         <v>530</v>
       </c>
       <c r="B328" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C328">
         <v>23.11</v>
@@ -6213,7 +6213,7 @@
         <v>584</v>
       </c>
       <c r="B360" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C360">
         <v>4.88</v>
@@ -6224,7 +6224,7 @@
         <v>585</v>
       </c>
       <c r="B361" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C361">
         <v>4.79</v>
@@ -6257,7 +6257,7 @@
         <v>590</v>
       </c>
       <c r="B364" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C364">
         <v>1.77</v>
@@ -6279,7 +6279,7 @@
         <v>593</v>
       </c>
       <c r="B366" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C366">
         <v>1.3</v>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC01FEE8-4A45-40D5-AC4F-AF6440225C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{867978F9-6140-4C93-80CA-E9C2B250DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="620">
   <si>
     <t>CONTA</t>
   </si>
@@ -79,33 +79,36 @@
     <t>MONICA</t>
   </si>
   <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
     <t>004240014</t>
   </si>
   <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
     <t>004641487</t>
   </si>
   <si>
@@ -124,1726 +127,1717 @@
     <t>LARA</t>
   </si>
   <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004467884</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004461526</t>
+  </si>
+  <si>
+    <t>ASSISTIGAS</t>
+  </si>
+  <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
+    <t>004208869</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>002458288</t>
+  </si>
+  <si>
+    <t>BENEDITO</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004207374</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>004212409</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>004444605</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004466221</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>004425965</t>
+  </si>
+  <si>
+    <t>CAROLLINA</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004207278</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004334158</t>
+  </si>
+  <si>
+    <t>LEONE</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004497825</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>004450405</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>004243043</t>
+  </si>
+  <si>
+    <t>SUELI</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
     <t>004224011</t>
   </si>
   <si>
     <t>THOMAS</t>
   </si>
   <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>004265173</t>
-  </si>
-  <si>
-    <t>JULIA</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004467884</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>004369172</t>
+  </si>
+  <si>
+    <t>LUIZA</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>004340984</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>004212476</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>DILSON</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>003497496</t>
+  </si>
+  <si>
+    <t>ELISANDRA</t>
+  </si>
+  <si>
+    <t>004643153</t>
+  </si>
+  <si>
+    <t>CARLA</t>
+  </si>
+  <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004691225</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>004517506</t>
+  </si>
+  <si>
+    <t>004552021</t>
+  </si>
+  <si>
+    <t>005009947</t>
+  </si>
+  <si>
+    <t>VERANICE</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>004264780</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>004214592</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>004404724</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>000827730</t>
+  </si>
+  <si>
+    <t>004281300</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>004355790</t>
+  </si>
+  <si>
+    <t>MINEIA</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004422594</t>
+  </si>
+  <si>
+    <t>WANDIR</t>
+  </si>
+  <si>
+    <t>004588677</t>
+  </si>
+  <si>
+    <t>RACHEL</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004918709</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>004482090</t>
+  </si>
+  <si>
+    <t>CEZAR</t>
+  </si>
+  <si>
+    <t>004313254</t>
+  </si>
+  <si>
+    <t>004216298</t>
+  </si>
+  <si>
+    <t>FLORDELIZ</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004421636</t>
+  </si>
+  <si>
+    <t>004335031</t>
+  </si>
+  <si>
+    <t>004971448</t>
+  </si>
+  <si>
+    <t>CLOVIS</t>
+  </si>
+  <si>
+    <t>004589311</t>
+  </si>
+  <si>
+    <t>CLARICE</t>
+  </si>
+  <si>
+    <t>004238164</t>
+  </si>
+  <si>
+    <t>004511696</t>
+  </si>
+  <si>
+    <t>KRYSCIA</t>
+  </si>
+  <si>
+    <t>004459461</t>
+  </si>
+  <si>
+    <t>INTERLAGOS</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004388490</t>
+  </si>
+  <si>
+    <t>CAMILLA</t>
+  </si>
+  <si>
+    <t>004448501</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>005135281</t>
+  </si>
+  <si>
+    <t>004204500</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>004575632</t>
+  </si>
+  <si>
+    <t>ADELE</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004848927</t>
+  </si>
+  <si>
+    <t>ULDARICO</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004267119</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>000938440</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>004853111</t>
+  </si>
+  <si>
+    <t>MARCONDES</t>
+  </si>
+  <si>
+    <t>002738211</t>
+  </si>
+  <si>
+    <t>MARGARETH</t>
+  </si>
+  <si>
+    <t>003301389</t>
   </si>
   <si>
     <t>002592340</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004461526</t>
-  </si>
-  <si>
-    <t>ASSISTIGAS</t>
-  </si>
-  <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004207374</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>004212409</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>004444605</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004466221</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>004425965</t>
-  </si>
-  <si>
-    <t>CAROLLINA</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004207278</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004334158</t>
-  </si>
-  <si>
-    <t>LEONE</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>004450405</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004243043</t>
-  </si>
-  <si>
-    <t>SUELI</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>004369172</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>004340984</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>000834301</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>004212476</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004751770</t>
-  </si>
-  <si>
-    <t>DILSON</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004556150</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004436055</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>003497496</t>
-  </si>
-  <si>
-    <t>ELISANDRA</t>
-  </si>
-  <si>
-    <t>004643153</t>
-  </si>
-  <si>
-    <t>CARLA</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004691225</t>
-  </si>
-  <si>
-    <t>ANNA</t>
-  </si>
-  <si>
-    <t>004517506</t>
-  </si>
-  <si>
-    <t>004552021</t>
-  </si>
-  <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>004264780</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>004214592</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>004404724</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>000827730</t>
-  </si>
-  <si>
-    <t>004281300</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>004355790</t>
-  </si>
-  <si>
-    <t>MINEIA</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004422594</t>
-  </si>
-  <si>
-    <t>WANDIR</t>
-  </si>
-  <si>
-    <t>004588677</t>
-  </si>
-  <si>
-    <t>RACHEL</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004918709</t>
-  </si>
-  <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>004482090</t>
-  </si>
-  <si>
-    <t>CEZAR</t>
-  </si>
-  <si>
-    <t>004313254</t>
-  </si>
-  <si>
-    <t>004216298</t>
-  </si>
-  <si>
-    <t>FLORDELIZ</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004421636</t>
-  </si>
-  <si>
-    <t>004335031</t>
-  </si>
-  <si>
-    <t>004971448</t>
-  </si>
-  <si>
-    <t>CLOVIS</t>
-  </si>
-  <si>
-    <t>004589311</t>
-  </si>
-  <si>
-    <t>CLARICE</t>
-  </si>
-  <si>
-    <t>004238164</t>
-  </si>
-  <si>
-    <t>004511696</t>
-  </si>
-  <si>
-    <t>KRYSCIA</t>
-  </si>
-  <si>
-    <t>004459461</t>
-  </si>
-  <si>
-    <t>INTERLAGOS</t>
-  </si>
-  <si>
-    <t>004212933</t>
-  </si>
-  <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>004388490</t>
-  </si>
-  <si>
-    <t>CAMILLA</t>
-  </si>
-  <si>
-    <t>004448501</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>005135281</t>
-  </si>
-  <si>
-    <t>004204500</t>
-  </si>
-  <si>
-    <t>EDWARD</t>
-  </si>
-  <si>
-    <t>004575632</t>
-  </si>
-  <si>
-    <t>ADELE</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>004267119</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>000938440</t>
-  </si>
-  <si>
-    <t>BASE</t>
-  </si>
-  <si>
-    <t>004853111</t>
-  </si>
-  <si>
-    <t>MARCONDES</t>
-  </si>
-  <si>
-    <t>002738211</t>
-  </si>
-  <si>
-    <t>MARGARETH</t>
-  </si>
-  <si>
-    <t>003301389</t>
   </si>
   <si>
     <t>004552944</t>
@@ -2251,10 +2245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C384"/>
+  <dimension ref="A1:C383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2363,21 +2357,21 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>50046.28</v>
+        <v>48151.24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
       <c r="C11">
-        <v>48151.24</v>
+        <v>48014.67</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2388,7 +2382,7 @@
         <v>23</v>
       </c>
       <c r="C12">
-        <v>48014.67</v>
+        <v>40064.79</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2399,7 +2393,7 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>40064.79</v>
+        <v>30667.24</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2410,7 +2404,7 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>30667.24</v>
+        <v>25138.74</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2418,51 +2412,51 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>22063.42</v>
+        <v>25046.28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
       <c r="C16">
-        <v>20000</v>
+        <v>22063.42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
       <c r="C17">
-        <v>17492.96</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
       <c r="C18">
-        <v>17073.599999999999</v>
+        <v>17492.96</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
       <c r="C19">
         <v>13571.37</v>
@@ -2470,43 +2464,43 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
       <c r="C20">
-        <v>11085.71</v>
+        <v>11057.89</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
       <c r="C21">
-        <v>11057.89</v>
+        <v>10412.89</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>10412.89</v>
+        <v>9852.26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>7574</v>
@@ -2514,10 +2508,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24">
         <v>6387.28</v>
@@ -2525,10 +2519,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25">
         <v>6354.84</v>
@@ -2536,10 +2530,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26">
         <v>4734.63</v>
@@ -2547,10 +2541,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27">
         <v>4050.48</v>
@@ -2558,10 +2552,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28">
         <v>3241.75</v>
@@ -2569,10 +2563,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>2691.13</v>
@@ -2580,450 +2574,450 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30">
-        <v>1767.36</v>
+        <v>1574.27</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31">
-        <v>1574.27</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>1200</v>
+        <v>1191.3900000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C33">
-        <v>1191.3900000000001</v>
+        <v>989.61</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34">
-        <v>989.61</v>
+        <v>988.32</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
-        <v>988.32</v>
+        <v>946.84</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C36">
-        <v>952.26</v>
+        <v>943.73</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" t="s">
-        <v>70</v>
-      </c>
       <c r="C37">
-        <v>946.84</v>
+        <v>942.42</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
       <c r="C38">
-        <v>943.73</v>
+        <v>937.33</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
         <v>73</v>
       </c>
-      <c r="B39" t="s">
-        <v>74</v>
-      </c>
       <c r="C39">
-        <v>942.42</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
         <v>75</v>
       </c>
-      <c r="B40" t="s">
-        <v>76</v>
-      </c>
       <c r="C40">
-        <v>937.33</v>
+        <v>894.66</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
         <v>77</v>
       </c>
-      <c r="B41" t="s">
-        <v>78</v>
-      </c>
       <c r="C41">
-        <v>933.95</v>
+        <v>854.73</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="C42">
-        <v>894.66</v>
+        <v>849.15</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43">
-        <v>854.73</v>
+        <v>848.25</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="C44">
-        <v>849.15</v>
+        <v>847.72</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
         <v>84</v>
       </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
       <c r="C45">
-        <v>848.25</v>
+        <v>842.42</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
         <v>86</v>
       </c>
-      <c r="B46" t="s">
-        <v>87</v>
-      </c>
       <c r="C46">
-        <v>847.72</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
         <v>88</v>
       </c>
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
       <c r="C47">
-        <v>842.42</v>
+        <v>839.03</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="C48">
-        <v>839.9</v>
+        <v>823.1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C49">
-        <v>839.03</v>
+        <v>807.58</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="C50">
-        <v>823.1</v>
+        <v>775.45</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C51">
-        <v>807.58</v>
+        <v>754.27</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52">
-        <v>775.45</v>
+        <v>748.56</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C53">
-        <v>754.27</v>
+        <v>744.09</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C54">
-        <v>748.56</v>
+        <v>737.21</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C55">
-        <v>744.09</v>
+        <v>733.93</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" t="s">
         <v>102</v>
       </c>
-      <c r="B56" t="s">
-        <v>103</v>
-      </c>
       <c r="C56">
-        <v>737.21</v>
+        <v>716.35</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" t="s">
         <v>104</v>
       </c>
-      <c r="B57" t="s">
-        <v>105</v>
-      </c>
       <c r="C57">
-        <v>733.93</v>
+        <v>715.56</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C58">
-        <v>716.35</v>
+        <v>707.41</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C59">
-        <v>715.56</v>
+        <v>704.83</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C60">
-        <v>707.41</v>
+        <v>702.87</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" t="s">
         <v>111</v>
       </c>
-      <c r="B61" t="s">
-        <v>112</v>
-      </c>
       <c r="C61">
-        <v>704.83</v>
+        <v>700.86</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="C62">
-        <v>702.87</v>
+        <v>698.83</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C63">
-        <v>700.86</v>
+        <v>698.03</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="C64">
-        <v>698.83</v>
+        <v>689.06</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="C65">
-        <v>698.03</v>
+        <v>679.29</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C66">
-        <v>689.06</v>
+        <v>675.5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="C67">
-        <v>679.29</v>
+        <v>674.5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
         <v>123</v>
       </c>
-      <c r="B68" t="s">
-        <v>124</v>
-      </c>
       <c r="C68">
-        <v>675.5</v>
+        <v>666</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" t="s">
         <v>125</v>
       </c>
-      <c r="B69" t="s">
-        <v>126</v>
-      </c>
       <c r="C69">
-        <v>674.5</v>
+        <v>666</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" t="s">
         <v>127</v>
-      </c>
-      <c r="B70" t="s">
-        <v>128</v>
       </c>
       <c r="C70">
         <v>666</v>
@@ -3031,10 +3025,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C71">
         <v>666</v>
@@ -3042,10 +3036,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C72">
         <v>666</v>
@@ -3053,1476 +3047,1476 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B73" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="C73">
-        <v>666</v>
+        <v>663.35</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C74">
-        <v>666</v>
+        <v>649.30999999999995</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C75">
-        <v>663.35</v>
+        <v>644.94000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C76">
-        <v>649.30999999999995</v>
+        <v>627.35</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="C77">
-        <v>644.94000000000005</v>
+        <v>625.5</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C78">
-        <v>627.35</v>
+        <v>623.46</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="C79">
-        <v>625.5</v>
+        <v>617.72</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" t="s">
         <v>144</v>
       </c>
-      <c r="B80" t="s">
-        <v>145</v>
-      </c>
       <c r="C80">
-        <v>623.46</v>
+        <v>614.55999999999995</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" t="s">
         <v>146</v>
       </c>
-      <c r="B81" t="s">
-        <v>147</v>
-      </c>
       <c r="C81">
-        <v>617.72</v>
+        <v>598.08000000000004</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" t="s">
         <v>148</v>
       </c>
-      <c r="B82" t="s">
-        <v>149</v>
-      </c>
       <c r="C82">
-        <v>614.55999999999995</v>
+        <v>595.05999999999995</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" t="s">
         <v>150</v>
       </c>
-      <c r="B83" t="s">
-        <v>151</v>
-      </c>
       <c r="C83">
-        <v>598.08000000000004</v>
+        <v>592.84</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" t="s">
         <v>152</v>
       </c>
-      <c r="B84" t="s">
-        <v>153</v>
-      </c>
       <c r="C84">
-        <v>595.05999999999995</v>
+        <v>591.30999999999995</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" t="s">
         <v>154</v>
       </c>
-      <c r="B85" t="s">
-        <v>155</v>
-      </c>
       <c r="C85">
-        <v>592.84</v>
+        <v>585.70000000000005</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" t="s">
         <v>156</v>
       </c>
-      <c r="B86" t="s">
-        <v>157</v>
-      </c>
       <c r="C86">
-        <v>591.30999999999995</v>
+        <v>581.89</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" t="s">
         <v>158</v>
       </c>
-      <c r="B87" t="s">
-        <v>159</v>
-      </c>
       <c r="C87">
-        <v>585.70000000000005</v>
+        <v>581.79</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" t="s">
         <v>160</v>
       </c>
-      <c r="B88" t="s">
-        <v>161</v>
-      </c>
       <c r="C88">
-        <v>581.89</v>
+        <v>581.08000000000004</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" t="s">
         <v>162</v>
       </c>
-      <c r="B89" t="s">
-        <v>163</v>
-      </c>
       <c r="C89">
-        <v>581.79</v>
+        <v>578.48</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="C90">
-        <v>581.08000000000004</v>
+        <v>578.08000000000004</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C91">
-        <v>578.48</v>
+        <v>573.34</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="C92">
-        <v>578.08000000000004</v>
+        <v>568.94000000000005</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" t="s">
         <v>169</v>
       </c>
-      <c r="B93" t="s">
-        <v>170</v>
-      </c>
       <c r="C93">
-        <v>573.34</v>
+        <v>557.41999999999996</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="C94">
-        <v>568.94000000000005</v>
+        <v>549.72</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="C95">
-        <v>557.41999999999996</v>
+        <v>549.71</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="C96">
-        <v>549.72</v>
+        <v>529.34</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="C97">
-        <v>549.71</v>
+        <v>524.29</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C98">
-        <v>529.34</v>
+        <v>517.87</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="C99">
-        <v>524.29</v>
+        <v>516.78</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="C100">
-        <v>517.87</v>
+        <v>508.42</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B101" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C101">
-        <v>516.78</v>
+        <v>507.08</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B102" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="C102">
-        <v>508.42</v>
+        <v>494.86</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B103" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="C103">
-        <v>507.08</v>
+        <v>491.62</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B104" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C104">
-        <v>494.86</v>
+        <v>467.91</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B105" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="C105">
-        <v>491.62</v>
+        <v>465.01</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="C106">
-        <v>467.91</v>
+        <v>460.98</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C107">
-        <v>465.01</v>
+        <v>459.2</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C108">
-        <v>460.98</v>
+        <v>458.13</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B109" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C109">
-        <v>459.2</v>
+        <v>453.65</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="C110">
-        <v>458.13</v>
+        <v>450.33</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>197</v>
+      </c>
+      <c r="B111" t="s">
         <v>198</v>
       </c>
-      <c r="B111" t="s">
-        <v>199</v>
-      </c>
       <c r="C111">
-        <v>453.65</v>
+        <v>449.3</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B112" t="s">
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="C112">
-        <v>450.33</v>
+        <v>442.44</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C113">
-        <v>449.3</v>
+        <v>436.86</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="C114">
-        <v>442.44</v>
+        <v>430.64</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
+        <v>204</v>
+      </c>
+      <c r="B115" t="s">
         <v>205</v>
       </c>
-      <c r="B115" t="s">
-        <v>206</v>
-      </c>
       <c r="C115">
-        <v>436.86</v>
+        <v>425.17</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" t="s">
         <v>207</v>
       </c>
-      <c r="B116" t="s">
-        <v>208</v>
-      </c>
       <c r="C116">
-        <v>430.64</v>
+        <v>423.95</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
+        <v>208</v>
+      </c>
+      <c r="B117" t="s">
         <v>209</v>
       </c>
-      <c r="B117" t="s">
-        <v>210</v>
-      </c>
       <c r="C117">
-        <v>425.17</v>
+        <v>413.55</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
+        <v>210</v>
+      </c>
+      <c r="B118" t="s">
         <v>211</v>
       </c>
-      <c r="B118" t="s">
-        <v>212</v>
-      </c>
       <c r="C118">
-        <v>423.95</v>
+        <v>407.48</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="C119">
-        <v>413.55</v>
+        <v>400.75</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C120">
-        <v>407.48</v>
+        <v>393.52</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B121" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="C121">
-        <v>400.75</v>
+        <v>387.23</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="C122">
-        <v>393.52</v>
+        <v>377.42</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B123" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C123">
-        <v>387.23</v>
+        <v>369.59</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B124" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="C124">
-        <v>377.42</v>
+        <v>365.44</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
+        <v>222</v>
+      </c>
+      <c r="B125" t="s">
         <v>223</v>
       </c>
-      <c r="B125" t="s">
-        <v>224</v>
-      </c>
       <c r="C125">
-        <v>369.59</v>
+        <v>355.56</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B126" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="C126">
-        <v>365.44</v>
+        <v>355</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B127" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C127">
-        <v>355.56</v>
+        <v>350.34</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B128" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="C128">
-        <v>355</v>
+        <v>348.3</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B129" t="s">
-        <v>231</v>
+        <v>98</v>
       </c>
       <c r="C129">
-        <v>350.34</v>
+        <v>346.83</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B130" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C130">
-        <v>348.3</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="C131">
-        <v>346.83</v>
+        <v>343.26</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B132" t="s">
-        <v>235</v>
+        <v>49</v>
       </c>
       <c r="C132">
-        <v>343.52</v>
+        <v>332.65</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B133" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="C133">
-        <v>343.26</v>
+        <v>327.89</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B134" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="C134">
-        <v>332.65</v>
+        <v>324.08999999999997</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B135" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="C135">
-        <v>327.89</v>
+        <v>321.54000000000002</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
+        <v>239</v>
+      </c>
+      <c r="B136" t="s">
         <v>240</v>
       </c>
-      <c r="B136" t="s">
-        <v>241</v>
-      </c>
       <c r="C136">
-        <v>324.08999999999997</v>
+        <v>321.31</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
+        <v>241</v>
+      </c>
+      <c r="B137" t="s">
         <v>242</v>
       </c>
-      <c r="B137" t="s">
-        <v>243</v>
-      </c>
       <c r="C137">
-        <v>321.54000000000002</v>
+        <v>321.24</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>243</v>
+      </c>
+      <c r="B138" t="s">
         <v>244</v>
       </c>
-      <c r="B138" t="s">
-        <v>245</v>
-      </c>
       <c r="C138">
-        <v>321.31</v>
+        <v>312.05</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
+        <v>245</v>
+      </c>
+      <c r="B139" t="s">
         <v>246</v>
       </c>
-      <c r="B139" t="s">
-        <v>247</v>
-      </c>
       <c r="C139">
-        <v>321.24</v>
+        <v>309.77</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B140" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="C140">
-        <v>312.05</v>
+        <v>309.32</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B141" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C141">
-        <v>309.77</v>
+        <v>302.77</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B142" t="s">
-        <v>72</v>
+        <v>251</v>
       </c>
       <c r="C142">
-        <v>309.32</v>
+        <v>302.51</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
+        <v>252</v>
+      </c>
+      <c r="B143" t="s">
         <v>253</v>
       </c>
-      <c r="B143" t="s">
-        <v>254</v>
-      </c>
       <c r="C143">
-        <v>302.77</v>
+        <v>294.54000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
+        <v>254</v>
+      </c>
+      <c r="B144" t="s">
         <v>255</v>
       </c>
-      <c r="B144" t="s">
-        <v>256</v>
-      </c>
       <c r="C144">
-        <v>302.51</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B145" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="C145">
-        <v>294.54000000000002</v>
+        <v>282.54000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B146" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C146">
-        <v>293.3</v>
+        <v>279.35000000000002</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B147" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="C147">
-        <v>282.54000000000002</v>
+        <v>278.49</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
+        <v>261</v>
+      </c>
+      <c r="B148" t="s">
         <v>262</v>
       </c>
-      <c r="B148" t="s">
-        <v>263</v>
-      </c>
       <c r="C148">
-        <v>279.35000000000002</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
+        <v>263</v>
+      </c>
+      <c r="B149" t="s">
         <v>264</v>
       </c>
-      <c r="B149" t="s">
-        <v>265</v>
-      </c>
       <c r="C149">
-        <v>278.49</v>
+        <v>276.93</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B150" t="s">
-        <v>267</v>
+        <v>125</v>
       </c>
       <c r="C150">
-        <v>277.3</v>
+        <v>260.51</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B151" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C151">
-        <v>276.93</v>
+        <v>260.14999999999998</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B152" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="C152">
-        <v>260.51</v>
+        <v>258.75</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B153" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C153">
-        <v>260.14999999999998</v>
+        <v>255.99</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B154" t="s">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="C154">
-        <v>258.75</v>
+        <v>253.95</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B155" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="C155">
-        <v>255.99</v>
+        <v>253.25</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B156" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C156">
-        <v>253.95</v>
+        <v>246.21</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B157" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="C157">
-        <v>253.25</v>
+        <v>245.99</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B158" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
       <c r="C158">
-        <v>246.21</v>
+        <v>242.72</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B159" t="s">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c r="C159">
-        <v>245.99</v>
+        <v>242.48</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B160" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C160">
-        <v>242.72</v>
+        <v>238.55</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B161" t="s">
-        <v>282</v>
+        <v>158</v>
       </c>
       <c r="C161">
-        <v>242.48</v>
+        <v>237.08</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B162" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C162">
-        <v>238.55</v>
+        <v>233.93</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B163" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="C163">
-        <v>237.08</v>
+        <v>227.02</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
+        <v>285</v>
+      </c>
+      <c r="B164" t="s">
         <v>286</v>
       </c>
-      <c r="B164" t="s">
-        <v>287</v>
-      </c>
       <c r="C164">
-        <v>233.93</v>
+        <v>226.37</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B165" t="s">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="C165">
-        <v>227.02</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B166" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C166">
-        <v>226.37</v>
+        <v>216.08</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B167" t="s">
-        <v>163</v>
+        <v>291</v>
       </c>
       <c r="C167">
-        <v>217.03</v>
+        <v>212.6</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
+        <v>292</v>
+      </c>
+      <c r="B168" t="s">
         <v>293</v>
       </c>
-      <c r="B168" t="s">
-        <v>294</v>
-      </c>
       <c r="C168">
-        <v>216.08</v>
+        <v>206.67</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
+        <v>294</v>
+      </c>
+      <c r="B169" t="s">
         <v>295</v>
       </c>
-      <c r="B169" t="s">
-        <v>296</v>
-      </c>
       <c r="C169">
-        <v>212.6</v>
+        <v>204.9</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
+        <v>296</v>
+      </c>
+      <c r="B170" t="s">
         <v>297</v>
       </c>
-      <c r="B170" t="s">
-        <v>298</v>
-      </c>
       <c r="C170">
-        <v>206.67</v>
+        <v>199.04</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B171" t="s">
-        <v>300</v>
+        <v>158</v>
       </c>
       <c r="C171">
-        <v>204.9</v>
+        <v>198.65</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B172" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C172">
-        <v>199.04</v>
+        <v>196.68</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="C173">
-        <v>198.65</v>
+        <v>196.05</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B174" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C174">
-        <v>196.68</v>
+        <v>190.71</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B175" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="C175">
-        <v>196.05</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B176" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C176">
-        <v>190.71</v>
+        <v>188.07</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B177" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="C177">
-        <v>188.83</v>
+        <v>186.02</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B178" t="s">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="C178">
-        <v>188.07</v>
+        <v>181.74</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B179" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C179">
-        <v>186.02</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B180" t="s">
-        <v>47</v>
+        <v>313</v>
       </c>
       <c r="C180">
-        <v>181.74</v>
+        <v>172.32</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B181" t="s">
-        <v>316</v>
+        <v>100</v>
       </c>
       <c r="C181">
-        <v>176.4</v>
+        <v>170.45</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B182" t="s">
-        <v>318</v>
+        <v>148</v>
       </c>
       <c r="C182">
-        <v>172.32</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B183" t="s">
-        <v>105</v>
+        <v>317</v>
       </c>
       <c r="C183">
-        <v>170.45</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B184" t="s">
-        <v>153</v>
+        <v>319</v>
       </c>
       <c r="C184">
-        <v>170.37</v>
+        <v>169.48</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
+        <v>320</v>
+      </c>
+      <c r="B185" t="s">
         <v>321</v>
       </c>
-      <c r="B185" t="s">
-        <v>322</v>
-      </c>
       <c r="C185">
-        <v>170.27</v>
+        <v>168.35</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B186" t="s">
-        <v>324</v>
+        <v>191</v>
       </c>
       <c r="C186">
-        <v>169.48</v>
+        <v>168.17</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B187" t="s">
-        <v>326</v>
+        <v>4</v>
       </c>
       <c r="C187">
-        <v>168.35</v>
+        <v>164.18</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B188" t="s">
-        <v>196</v>
+        <v>325</v>
       </c>
       <c r="C188">
-        <v>168.17</v>
+        <v>163.62</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B189" t="s">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="C189">
-        <v>164.18</v>
+        <v>159.85</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B190" t="s">
-        <v>330</v>
+        <v>32</v>
       </c>
       <c r="C190">
-        <v>163.62</v>
+        <v>156.68</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B191" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="C191">
-        <v>159.85</v>
+        <v>153.11000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B192" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="C192">
-        <v>156.68</v>
+        <v>151.41</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B193" t="s">
-        <v>334</v>
+        <v>111</v>
       </c>
       <c r="C193">
-        <v>153.11000000000001</v>
+        <v>149.66</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B194" t="s">
-        <v>212</v>
+        <v>300</v>
       </c>
       <c r="C194">
-        <v>151.41</v>
+        <v>147.84</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B195" t="s">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="C195">
-        <v>149.66</v>
+        <v>142.36000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B196" t="s">
-        <v>305</v>
+        <v>188</v>
       </c>
       <c r="C196">
-        <v>147.84</v>
+        <v>140.63999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B197" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="C197">
-        <v>142.36000000000001</v>
+        <v>140.47999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B198" t="s">
-        <v>193</v>
+        <v>293</v>
       </c>
       <c r="C198">
-        <v>140.63999999999999</v>
+        <v>137.93</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B199" t="s">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="C199">
-        <v>140.47999999999999</v>
+        <v>135.81</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B200" t="s">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="C200">
-        <v>138.74</v>
+        <v>135.37</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B201" t="s">
-        <v>298</v>
+        <v>43</v>
       </c>
       <c r="C201">
-        <v>137.93</v>
+        <v>134.97999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B202" t="s">
-        <v>100</v>
+        <v>242</v>
       </c>
       <c r="C202">
-        <v>135.81</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B203" t="s">
-        <v>345</v>
+        <v>73</v>
       </c>
       <c r="C203">
-        <v>135.37</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B204" t="s">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="C204">
-        <v>134.97999999999999</v>
+        <v>134.08000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B205" t="s">
-        <v>247</v>
+        <v>346</v>
       </c>
       <c r="C205">
-        <v>134.44</v>
+        <v>133.49</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
+        <v>347</v>
+      </c>
+      <c r="B206" t="s">
         <v>348</v>
       </c>
-      <c r="B206" t="s">
-        <v>78</v>
-      </c>
       <c r="C206">
-        <v>134.44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4530,230 +4524,230 @@
         <v>349</v>
       </c>
       <c r="B207" t="s">
-        <v>350</v>
+        <v>277</v>
       </c>
       <c r="C207">
-        <v>134.08000000000001</v>
+        <v>131.31</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B208" t="s">
-        <v>352</v>
+        <v>244</v>
       </c>
       <c r="C208">
-        <v>133.49</v>
+        <v>131.16999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B209" t="s">
-        <v>354</v>
+        <v>203</v>
       </c>
       <c r="C209">
-        <v>132</v>
+        <v>128.33000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B210" t="s">
-        <v>282</v>
+        <v>32</v>
       </c>
       <c r="C210">
-        <v>131.31</v>
+        <v>127.86</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B211" t="s">
-        <v>249</v>
+        <v>354</v>
       </c>
       <c r="C211">
-        <v>131.16999999999999</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B212" t="s">
-        <v>208</v>
+        <v>356</v>
       </c>
       <c r="C212">
-        <v>128.33000000000001</v>
+        <v>126.72</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B213" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
       <c r="C213">
-        <v>127.86</v>
+        <v>126.56</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
+        <v>358</v>
+      </c>
+      <c r="B214" t="s">
         <v>359</v>
       </c>
-      <c r="B214" t="s">
-        <v>360</v>
-      </c>
       <c r="C214">
-        <v>126.88</v>
+        <v>126.22</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
+        <v>360</v>
+      </c>
+      <c r="B215" t="s">
         <v>361</v>
       </c>
-      <c r="B215" t="s">
-        <v>362</v>
-      </c>
       <c r="C215">
-        <v>126.72</v>
+        <v>124.92</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B216" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C216">
-        <v>126.56</v>
+        <v>123.41</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B217" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="C217">
-        <v>126.22</v>
+        <v>121.43</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B218" t="s">
-        <v>367</v>
+        <v>191</v>
       </c>
       <c r="C218">
-        <v>124.92</v>
+        <v>120.88</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B219" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="C219">
-        <v>123.41</v>
+        <v>120.85</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B220" t="s">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="C220">
-        <v>121.43</v>
+        <v>120.72</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B221" t="s">
-        <v>196</v>
+        <v>368</v>
       </c>
       <c r="C221">
-        <v>120.88</v>
+        <v>119.07</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B222" t="s">
-        <v>54</v>
+        <v>260</v>
       </c>
       <c r="C222">
-        <v>120.85</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>371</v>
       </c>
       <c r="C223">
-        <v>120.72</v>
+        <v>112.47</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B224" t="s">
-        <v>374</v>
+        <v>167</v>
       </c>
       <c r="C224">
-        <v>119.07</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B225" t="s">
-        <v>265</v>
+        <v>374</v>
       </c>
       <c r="C225">
-        <v>113.8</v>
+        <v>108.51</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
+        <v>375</v>
+      </c>
+      <c r="B226" t="s">
         <v>376</v>
       </c>
-      <c r="B226" t="s">
-        <v>377</v>
-      </c>
       <c r="C226">
-        <v>112.47</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
+        <v>377</v>
+      </c>
+      <c r="B227" t="s">
         <v>378</v>
       </c>
-      <c r="B227" t="s">
-        <v>172</v>
-      </c>
       <c r="C227">
-        <v>109.4</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4764,7 +4758,7 @@
         <v>380</v>
       </c>
       <c r="C228">
-        <v>108.51</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4772,252 +4766,252 @@
         <v>381</v>
       </c>
       <c r="B229" t="s">
-        <v>382</v>
+        <v>173</v>
       </c>
       <c r="C229">
-        <v>104.9</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B230" t="s">
-        <v>384</v>
+        <v>86</v>
       </c>
       <c r="C230">
-        <v>99.3</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B231" t="s">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="C231">
-        <v>99.24</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B232" t="s">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="C232">
-        <v>98.55</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B233" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C233">
-        <v>98.28</v>
+        <v>93.21</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B234" t="s">
-        <v>85</v>
+        <v>387</v>
       </c>
       <c r="C234">
-        <v>97.08</v>
+        <v>92.72</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B235" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C235">
-        <v>95.88</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B236" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C236">
-        <v>93.21</v>
+        <v>92.07</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B237" t="s">
-        <v>393</v>
+        <v>34</v>
       </c>
       <c r="C237">
-        <v>92.72</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B238" t="s">
-        <v>49</v>
+        <v>392</v>
       </c>
       <c r="C238">
-        <v>92.5</v>
+        <v>89.85</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B239" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C239">
-        <v>92.07</v>
+        <v>86.73</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B240" t="s">
-        <v>33</v>
+        <v>395</v>
       </c>
       <c r="C240">
-        <v>90.2</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B241" t="s">
-        <v>398</v>
+        <v>203</v>
       </c>
       <c r="C241">
-        <v>89.85</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B242" t="s">
-        <v>78</v>
+        <v>398</v>
       </c>
       <c r="C242">
-        <v>86.73</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B243" t="s">
-        <v>401</v>
+        <v>4</v>
       </c>
       <c r="C243">
-        <v>86.45</v>
+        <v>83.13</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B244" t="s">
-        <v>208</v>
+        <v>401</v>
       </c>
       <c r="C244">
-        <v>86.38</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
+        <v>402</v>
+      </c>
+      <c r="B245" t="s">
         <v>403</v>
       </c>
-      <c r="B245" t="s">
-        <v>404</v>
-      </c>
       <c r="C245">
-        <v>84.72</v>
+        <v>82.91</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B246" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="C246">
-        <v>83.13</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B247" t="s">
-        <v>407</v>
+        <v>264</v>
       </c>
       <c r="C247">
-        <v>83.06</v>
+        <v>82.28</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B248" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C248">
-        <v>82.91</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B249" t="s">
-        <v>214</v>
+        <v>409</v>
       </c>
       <c r="C249">
-        <v>82.79</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B250" t="s">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="C250">
-        <v>82.28</v>
+        <v>78.97</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
+        <v>411</v>
+      </c>
+      <c r="B251" t="s">
         <v>412</v>
       </c>
-      <c r="B251" t="s">
-        <v>58</v>
-      </c>
       <c r="C251">
-        <v>81.87</v>
+        <v>77.19</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5028,7 +5022,7 @@
         <v>414</v>
       </c>
       <c r="C252">
-        <v>80.05</v>
+        <v>76.790000000000006</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5036,131 +5030,131 @@
         <v>415</v>
       </c>
       <c r="B253" t="s">
-        <v>161</v>
+        <v>416</v>
       </c>
       <c r="C253">
-        <v>78.97</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B254" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C254">
-        <v>77.19</v>
+        <v>76.260000000000005</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B255" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C255">
-        <v>76.790000000000006</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B256" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C256">
-        <v>76.56</v>
+        <v>74.739999999999995</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B257" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C257">
-        <v>76.260000000000005</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B258" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C258">
-        <v>75.86</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B259" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C259">
-        <v>74.739999999999995</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B260" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C260">
-        <v>74.39</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B261" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C261">
-        <v>74.23</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B262" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C262">
-        <v>73.650000000000006</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B263" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C263">
-        <v>73.56</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B264" t="s">
-        <v>437</v>
+        <v>356</v>
       </c>
       <c r="C264">
-        <v>73.430000000000007</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5168,43 +5162,43 @@
         <v>438</v>
       </c>
       <c r="B265" t="s">
-        <v>439</v>
+        <v>14</v>
       </c>
       <c r="C265">
-        <v>72.42</v>
+        <v>70.459999999999994</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B266" t="s">
-        <v>362</v>
+        <v>223</v>
       </c>
       <c r="C266">
-        <v>71.31</v>
+        <v>69.88</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B267" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="C267">
-        <v>70.459999999999994</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
+        <v>441</v>
+      </c>
+      <c r="B268" t="s">
         <v>442</v>
       </c>
-      <c r="B268" t="s">
-        <v>228</v>
-      </c>
       <c r="C268">
-        <v>69.88</v>
+        <v>69.34</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5212,21 +5206,21 @@
         <v>443</v>
       </c>
       <c r="B269" t="s">
-        <v>247</v>
+        <v>444</v>
       </c>
       <c r="C269">
-        <v>69.45</v>
+        <v>69.069999999999993</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B270" t="s">
-        <v>445</v>
+        <v>232</v>
       </c>
       <c r="C270">
-        <v>69.34</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5237,7 +5231,7 @@
         <v>447</v>
       </c>
       <c r="C271">
-        <v>69.069999999999993</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5245,21 +5239,21 @@
         <v>448</v>
       </c>
       <c r="B272" t="s">
-        <v>237</v>
+        <v>449</v>
       </c>
       <c r="C272">
-        <v>68.459999999999994</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B273" t="s">
-        <v>450</v>
+        <v>356</v>
       </c>
       <c r="C273">
-        <v>68.05</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5267,21 +5261,21 @@
         <v>451</v>
       </c>
       <c r="B274" t="s">
-        <v>452</v>
+        <v>43</v>
       </c>
       <c r="C274">
-        <v>66.010000000000005</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
+        <v>452</v>
+      </c>
+      <c r="B275" t="s">
         <v>453</v>
       </c>
-      <c r="B275" t="s">
-        <v>362</v>
-      </c>
       <c r="C275">
-        <v>65.06</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -5289,10 +5283,10 @@
         <v>454</v>
       </c>
       <c r="B276" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C276">
-        <v>64.709999999999994</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5300,21 +5294,21 @@
         <v>455</v>
       </c>
       <c r="B277" t="s">
-        <v>456</v>
+        <v>167</v>
       </c>
       <c r="C277">
-        <v>64.400000000000006</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
+        <v>456</v>
+      </c>
+      <c r="B278" t="s">
         <v>457</v>
       </c>
-      <c r="B278" t="s">
-        <v>51</v>
-      </c>
       <c r="C278">
-        <v>63.94</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -5322,10 +5316,10 @@
         <v>458</v>
       </c>
       <c r="B279" t="s">
-        <v>172</v>
+        <v>378</v>
       </c>
       <c r="C279">
-        <v>61.82</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -5336,7 +5330,7 @@
         <v>460</v>
       </c>
       <c r="C280">
-        <v>61.74</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -5344,10 +5338,10 @@
         <v>461</v>
       </c>
       <c r="B281" t="s">
-        <v>384</v>
+        <v>457</v>
       </c>
       <c r="C281">
-        <v>59.87</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -5355,32 +5349,32 @@
         <v>462</v>
       </c>
       <c r="B282" t="s">
-        <v>463</v>
+        <v>286</v>
       </c>
       <c r="C282">
-        <v>59.63</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B283" t="s">
-        <v>460</v>
+        <v>293</v>
       </c>
       <c r="C283">
-        <v>59.2</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
+        <v>464</v>
+      </c>
+      <c r="B284" t="s">
         <v>465</v>
       </c>
-      <c r="B284" t="s">
-        <v>291</v>
-      </c>
       <c r="C284">
-        <v>57.82</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -5388,10 +5382,10 @@
         <v>466</v>
       </c>
       <c r="B285" t="s">
-        <v>298</v>
+        <v>98</v>
       </c>
       <c r="C285">
-        <v>56.79</v>
+        <v>55.49</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -5399,21 +5393,21 @@
         <v>467</v>
       </c>
       <c r="B286" t="s">
-        <v>468</v>
+        <v>109</v>
       </c>
       <c r="C286">
-        <v>55.66</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
+        <v>468</v>
+      </c>
+      <c r="B287" t="s">
         <v>469</v>
       </c>
-      <c r="B287" t="s">
-        <v>103</v>
-      </c>
       <c r="C287">
-        <v>55.49</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -5421,54 +5415,54 @@
         <v>470</v>
       </c>
       <c r="B288" t="s">
-        <v>114</v>
+        <v>471</v>
       </c>
       <c r="C288">
-        <v>55.24</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B289" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C289">
-        <v>54.71</v>
+        <v>52.59</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B290" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C290">
-        <v>54.2</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B291" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C291">
-        <v>52.59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B292" t="s">
-        <v>478</v>
+        <v>313</v>
       </c>
       <c r="C292">
-        <v>51.65</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5476,43 +5470,43 @@
         <v>479</v>
       </c>
       <c r="B293" t="s">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="C293">
-        <v>50</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B294" t="s">
-        <v>318</v>
+        <v>10</v>
       </c>
       <c r="C294">
-        <v>49.28</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B295" t="s">
-        <v>33</v>
+        <v>407</v>
       </c>
       <c r="C295">
-        <v>48.65</v>
+        <v>47.01</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
+        <v>482</v>
+      </c>
+      <c r="B296" t="s">
         <v>483</v>
       </c>
-      <c r="B296" t="s">
-        <v>10</v>
-      </c>
       <c r="C296">
-        <v>48.16</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5520,10 +5514,10 @@
         <v>484</v>
       </c>
       <c r="B297" t="s">
-        <v>58</v>
+        <v>317</v>
       </c>
       <c r="C297">
-        <v>47.01</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -5534,7 +5528,7 @@
         <v>486</v>
       </c>
       <c r="C298">
-        <v>46.4</v>
+        <v>46.16</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5542,21 +5536,21 @@
         <v>487</v>
       </c>
       <c r="B299" t="s">
-        <v>322</v>
+        <v>488</v>
       </c>
       <c r="C299">
-        <v>46.23</v>
+        <v>46.05</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B300" t="s">
-        <v>489</v>
+        <v>207</v>
       </c>
       <c r="C300">
-        <v>46.16</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5567,7 +5561,7 @@
         <v>491</v>
       </c>
       <c r="C301">
-        <v>46.05</v>
+        <v>44.69</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5575,10 +5569,10 @@
         <v>492</v>
       </c>
       <c r="B302" t="s">
-        <v>212</v>
+        <v>152</v>
       </c>
       <c r="C302">
-        <v>44.89</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5586,54 +5580,54 @@
         <v>493</v>
       </c>
       <c r="B303" t="s">
-        <v>494</v>
+        <v>148</v>
       </c>
       <c r="C303">
-        <v>44.69</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B304" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="C304">
-        <v>44.52</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B305" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="C305">
-        <v>44.44</v>
+        <v>42.64</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B306" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="C306">
-        <v>42.7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
+        <v>497</v>
+      </c>
+      <c r="B307" t="s">
         <v>498</v>
       </c>
-      <c r="B307" t="s">
-        <v>212</v>
-      </c>
       <c r="C307">
-        <v>42.64</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -5641,10 +5635,10 @@
         <v>499</v>
       </c>
       <c r="B308" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="C308">
-        <v>40</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -5655,7 +5649,7 @@
         <v>501</v>
       </c>
       <c r="C309">
-        <v>39.79</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -5663,21 +5657,21 @@
         <v>502</v>
       </c>
       <c r="B310" t="s">
-        <v>103</v>
+        <v>503</v>
       </c>
       <c r="C310">
-        <v>37.799999999999997</v>
+        <v>36.94</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B311" t="s">
-        <v>504</v>
+        <v>45</v>
       </c>
       <c r="C311">
-        <v>37.200000000000003</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5688,7 +5682,7 @@
         <v>506</v>
       </c>
       <c r="C312">
-        <v>36.94</v>
+        <v>31.78</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5696,32 +5690,32 @@
         <v>507</v>
       </c>
       <c r="B313" t="s">
-        <v>47</v>
+        <v>508</v>
       </c>
       <c r="C313">
-        <v>33.049999999999997</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B314" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C314">
-        <v>31.78</v>
+        <v>30.03</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B315" t="s">
-        <v>511</v>
+        <v>209</v>
       </c>
       <c r="C315">
-        <v>31.71</v>
+        <v>28.58</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5729,21 +5723,21 @@
         <v>512</v>
       </c>
       <c r="B316" t="s">
-        <v>513</v>
+        <v>98</v>
       </c>
       <c r="C316">
-        <v>30.03</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
+        <v>513</v>
+      </c>
+      <c r="B317" t="s">
         <v>514</v>
       </c>
-      <c r="B317" t="s">
-        <v>214</v>
-      </c>
       <c r="C317">
-        <v>28.58</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5751,21 +5745,21 @@
         <v>515</v>
       </c>
       <c r="B318" t="s">
-        <v>103</v>
+        <v>516</v>
       </c>
       <c r="C318">
-        <v>28.26</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B319" t="s">
-        <v>517</v>
+        <v>191</v>
       </c>
       <c r="C319">
-        <v>27.86</v>
+        <v>27.45</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -5776,7 +5770,7 @@
         <v>519</v>
       </c>
       <c r="C320">
-        <v>27.83</v>
+        <v>26.89</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -5784,10 +5778,10 @@
         <v>520</v>
       </c>
       <c r="B321" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="C321">
-        <v>27.45</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5798,7 +5792,7 @@
         <v>522</v>
       </c>
       <c r="C322">
-        <v>26.89</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5806,10 +5800,10 @@
         <v>523</v>
       </c>
       <c r="B323" t="s">
-        <v>116</v>
+        <v>348</v>
       </c>
       <c r="C323">
-        <v>26.1</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5820,7 +5814,7 @@
         <v>525</v>
       </c>
       <c r="C324">
-        <v>24.5</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -5828,10 +5822,10 @@
         <v>526</v>
       </c>
       <c r="B325" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="C325">
-        <v>24.33</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5839,21 +5833,21 @@
         <v>527</v>
       </c>
       <c r="B326" t="s">
-        <v>528</v>
+        <v>348</v>
       </c>
       <c r="C326">
-        <v>23.89</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
+        <v>528</v>
+      </c>
+      <c r="B327" t="s">
         <v>529</v>
       </c>
-      <c r="B327" t="s">
-        <v>324</v>
-      </c>
       <c r="C327">
-        <v>23.46</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5861,10 +5855,10 @@
         <v>530</v>
       </c>
       <c r="B328" t="s">
-        <v>354</v>
+        <v>111</v>
       </c>
       <c r="C328">
-        <v>23.11</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5875,7 +5869,7 @@
         <v>532</v>
       </c>
       <c r="C329">
-        <v>21.27</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -5883,109 +5877,109 @@
         <v>533</v>
       </c>
       <c r="B330" t="s">
-        <v>116</v>
+        <v>534</v>
       </c>
       <c r="C330">
-        <v>20.49</v>
+        <v>18.47</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B331" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C331">
-        <v>19.12</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B332" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C332">
-        <v>18.47</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B333" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C333">
-        <v>15.76</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B334" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C334">
-        <v>14.67</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B335" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C335">
-        <v>13.69</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B336" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C336">
-        <v>12.38</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B337" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C337">
-        <v>12.27</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B338" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C338">
-        <v>12.18</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B339" t="s">
-        <v>551</v>
+        <v>264</v>
       </c>
       <c r="C339">
-        <v>11.39</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -5996,7 +5990,7 @@
         <v>553</v>
       </c>
       <c r="C340">
-        <v>11.04</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6004,21 +5998,21 @@
         <v>554</v>
       </c>
       <c r="B341" t="s">
-        <v>269</v>
+        <v>555</v>
       </c>
       <c r="C341">
-        <v>9.85</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B342" t="s">
-        <v>556</v>
+        <v>198</v>
       </c>
       <c r="C342">
-        <v>9.7200000000000006</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6026,21 +6020,21 @@
         <v>557</v>
       </c>
       <c r="B343" t="s">
-        <v>558</v>
+        <v>286</v>
       </c>
       <c r="C343">
-        <v>9.52</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
+        <v>558</v>
+      </c>
+      <c r="B344" t="s">
         <v>559</v>
       </c>
-      <c r="B344" t="s">
-        <v>203</v>
-      </c>
       <c r="C344">
-        <v>9.44</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6048,21 +6042,21 @@
         <v>560</v>
       </c>
       <c r="B345" t="s">
-        <v>291</v>
+        <v>561</v>
       </c>
       <c r="C345">
-        <v>8.66</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B346" t="s">
-        <v>562</v>
+        <v>107</v>
       </c>
       <c r="C346">
-        <v>8.61</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -6073,7 +6067,7 @@
         <v>564</v>
       </c>
       <c r="C347">
-        <v>8.4499999999999993</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6081,21 +6075,21 @@
         <v>565</v>
       </c>
       <c r="B348" t="s">
-        <v>112</v>
+        <v>566</v>
       </c>
       <c r="C348">
-        <v>7.91</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B349" t="s">
-        <v>567</v>
+        <v>80</v>
       </c>
       <c r="C349">
-        <v>7.62</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6106,7 +6100,7 @@
         <v>569</v>
       </c>
       <c r="C350">
-        <v>6.98</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6114,10 +6108,10 @@
         <v>570</v>
       </c>
       <c r="B351" t="s">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c r="C351">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6128,7 +6122,7 @@
         <v>572</v>
       </c>
       <c r="C352">
-        <v>6.66</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6136,10 +6130,10 @@
         <v>573</v>
       </c>
       <c r="B353" t="s">
-        <v>318</v>
+        <v>111</v>
       </c>
       <c r="C353">
-        <v>6.6</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6150,7 +6144,7 @@
         <v>575</v>
       </c>
       <c r="C354">
-        <v>6.53</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6158,21 +6152,21 @@
         <v>576</v>
       </c>
       <c r="B355" t="s">
-        <v>116</v>
+        <v>577</v>
       </c>
       <c r="C355">
-        <v>6.04</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B356" t="s">
-        <v>578</v>
+        <v>203</v>
       </c>
       <c r="C356">
-        <v>6.02</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6183,7 +6177,7 @@
         <v>580</v>
       </c>
       <c r="C357">
-        <v>5.56</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6191,10 +6185,10 @@
         <v>581</v>
       </c>
       <c r="B358" t="s">
-        <v>208</v>
+        <v>403</v>
       </c>
       <c r="C358">
-        <v>5.55</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6202,21 +6196,21 @@
         <v>582</v>
       </c>
       <c r="B359" t="s">
-        <v>583</v>
+        <v>36</v>
       </c>
       <c r="C359">
-        <v>5.23</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
+        <v>583</v>
+      </c>
+      <c r="B360" t="s">
         <v>584</v>
       </c>
-      <c r="B360" t="s">
-        <v>409</v>
-      </c>
       <c r="C360">
-        <v>4.88</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6224,21 +6218,21 @@
         <v>585</v>
       </c>
       <c r="B361" t="s">
-        <v>37</v>
+        <v>586</v>
       </c>
       <c r="C361">
-        <v>4.79</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B362" t="s">
-        <v>587</v>
+        <v>32</v>
       </c>
       <c r="C362">
-        <v>4.08</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6249,7 +6243,7 @@
         <v>589</v>
       </c>
       <c r="C363">
-        <v>1.81</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6257,10 +6251,10 @@
         <v>590</v>
       </c>
       <c r="B364" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C364">
-        <v>1.77</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6271,7 +6265,7 @@
         <v>592</v>
       </c>
       <c r="C365">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6279,10 +6273,10 @@
         <v>593</v>
       </c>
       <c r="B366" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C366">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6293,7 +6287,7 @@
         <v>595</v>
       </c>
       <c r="C367">
-        <v>1.3</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6301,54 +6295,54 @@
         <v>596</v>
       </c>
       <c r="B368" t="s">
-        <v>51</v>
+        <v>597</v>
       </c>
       <c r="C368">
-        <v>1.24</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B369" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C369">
-        <v>1.1599999999999999</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B370" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C370">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B371" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C371">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B372" t="s">
-        <v>604</v>
+        <v>286</v>
       </c>
       <c r="C372">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6356,21 +6350,21 @@
         <v>605</v>
       </c>
       <c r="B373" t="s">
-        <v>606</v>
+        <v>407</v>
       </c>
       <c r="C373">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
+        <v>606</v>
+      </c>
+      <c r="B374" t="s">
         <v>607</v>
       </c>
-      <c r="B374" t="s">
-        <v>291</v>
-      </c>
       <c r="C374">
-        <v>0.55000000000000004</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6378,18 +6372,18 @@
         <v>608</v>
       </c>
       <c r="B375" t="s">
-        <v>609</v>
+        <v>183</v>
       </c>
       <c r="C375">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
+        <v>609</v>
+      </c>
+      <c r="B376" t="s">
         <v>610</v>
-      </c>
-      <c r="B376" t="s">
-        <v>188</v>
       </c>
       <c r="C376">
         <v>0.03</v>
@@ -6403,7 +6397,7 @@
         <v>612</v>
       </c>
       <c r="C377">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6411,7 +6405,7 @@
         <v>613</v>
       </c>
       <c r="B378" t="s">
-        <v>614</v>
+        <v>148</v>
       </c>
       <c r="C378">
         <v>0.01</v>
@@ -6419,10 +6413,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
+        <v>614</v>
+      </c>
+      <c r="B379" t="s">
         <v>615</v>
-      </c>
-      <c r="B379" t="s">
-        <v>153</v>
       </c>
       <c r="C379">
         <v>0.01</v>
@@ -6444,26 +6438,15 @@
         <v>618</v>
       </c>
       <c r="B381" t="s">
+        <v>82</v>
+      </c>
+      <c r="C381">
+        <v>-167.52</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
         <v>619</v>
-      </c>
-      <c r="C381">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
-      <c r="A382" t="s">
-        <v>620</v>
-      </c>
-      <c r="B382" t="s">
-        <v>87</v>
-      </c>
-      <c r="C382">
-        <v>-167.52</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
-      <c r="A384" t="s">
-        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{867978F9-6140-4C93-80CA-E9C2B250DA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C30445D-829A-4820-92D5-8574D0B94BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="619">
   <si>
     <t>CONTA</t>
   </si>
@@ -37,6 +37,12 @@
     <t>GABRIEL</t>
   </si>
   <si>
+    <t>004459461</t>
+  </si>
+  <si>
+    <t>INTERLAGOS</t>
+  </si>
+  <si>
     <t>005142592</t>
   </si>
   <si>
@@ -79,79 +85,700 @@
     <t>MONICA</t>
   </si>
   <si>
+    <t>004996634</t>
+  </si>
+  <si>
+    <t>HIROKO</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>004641487</t>
+  </si>
+  <si>
+    <t>LAILA</t>
+  </si>
+  <si>
+    <t>004643737</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
     <t>005152037</t>
   </si>
   <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>004641487</t>
-  </si>
-  <si>
-    <t>LAILA</t>
-  </si>
-  <si>
-    <t>005169333</t>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004467884</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004804125</t>
   </si>
   <si>
     <t>EDUARDO</t>
   </si>
   <si>
-    <t>004643737</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
-    <t>004374891</t>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004461526</t>
+  </si>
+  <si>
+    <t>ASSISTIGAS</t>
+  </si>
+  <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
+    <t>004208869</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004956636</t>
   </si>
   <si>
     <t>004386464</t>
   </si>
   <si>
-    <t>CARLOS</t>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>002458288</t>
+  </si>
+  <si>
+    <t>BENEDITO</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
   </si>
   <si>
     <t>005024046</t>
@@ -160,624 +787,6 @@
     <t>ALEXANDRE</t>
   </si>
   <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004467884</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004461526</t>
-  </si>
-  <si>
-    <t>ASSISTIGAS</t>
-  </si>
-  <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
     <t>004754920</t>
   </si>
   <si>
@@ -1576,12 +1585,6 @@
     <t>004264780</t>
   </si>
   <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
     <t>005133039</t>
   </si>
   <si>
@@ -1715,12 +1718,6 @@
   </si>
   <si>
     <t>KRYSCIA</t>
-  </si>
-  <si>
-    <t>004459461</t>
-  </si>
-  <si>
-    <t>INTERLAGOS</t>
   </si>
   <si>
     <t>004212933</t>
@@ -2245,10 +2242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C383"/>
+  <dimension ref="A1:C382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2283,7 +2280,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>255010</v>
+        <v>300006.96999999997</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2294,7 +2291,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>157501.6</v>
+        <v>255010</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2305,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>155005.85</v>
+        <v>157501.6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2316,7 +2313,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>147040.70000000001</v>
+        <v>155005.85</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2327,7 +2324,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>100975.27</v>
+        <v>147040.70000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2338,7 +2335,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>100000</v>
+        <v>100975.27</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2349,7 +2346,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>85000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2357,18 +2354,18 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>48151.24</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>48014.67</v>
@@ -2376,10 +2373,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>40064.79</v>
@@ -2387,10 +2384,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>30667.24</v>
@@ -2398,10 +2395,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>25138.74</v>
@@ -2409,10 +2406,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
       </c>
       <c r="C15">
         <v>25046.28</v>
@@ -2420,10 +2417,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>22063.42</v>
@@ -2431,35 +2428,35 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
-        <v>20000</v>
+        <v>17492.96</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>17492.96</v>
+        <v>16698.43</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>13571.37</v>
+        <v>15151.24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2470,7 +2467,7 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>11057.89</v>
+        <v>13571.37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2481,7 +2478,7 @@
         <v>40</v>
       </c>
       <c r="C21">
-        <v>10412.89</v>
+        <v>11057.89</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2489,21 +2486,21 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C22">
-        <v>9852.26</v>
+        <v>10412.89</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>7574</v>
+        <v>9852.26</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2514,7 +2511,7 @@
         <v>45</v>
       </c>
       <c r="C24">
-        <v>6387.28</v>
+        <v>6354.84</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2525,7 +2522,7 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <v>6354.84</v>
+        <v>4734.63</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2533,21 +2530,21 @@
         <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26">
-        <v>4734.63</v>
+        <v>4050.48</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
       <c r="C27">
-        <v>4050.48</v>
+        <v>3826.89</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2580,7 +2577,7 @@
         <v>56</v>
       </c>
       <c r="C30">
-        <v>1574.27</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2588,21 +2585,21 @@
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>1200</v>
+        <v>1191.3900000000001</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
         <v>59</v>
       </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
       <c r="C32">
-        <v>1191.3900000000001</v>
+        <v>989.61</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2613,7 +2610,7 @@
         <v>61</v>
       </c>
       <c r="C33">
-        <v>989.61</v>
+        <v>988.32</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2624,7 +2621,7 @@
         <v>63</v>
       </c>
       <c r="C34">
-        <v>988.32</v>
+        <v>946.84</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2635,7 +2632,7 @@
         <v>65</v>
       </c>
       <c r="C35">
-        <v>946.84</v>
+        <v>943.73</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2646,7 +2643,7 @@
         <v>67</v>
       </c>
       <c r="C36">
-        <v>943.73</v>
+        <v>942.42</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2657,7 +2654,7 @@
         <v>69</v>
       </c>
       <c r="C37">
-        <v>942.42</v>
+        <v>937.33</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2668,7 +2665,7 @@
         <v>71</v>
       </c>
       <c r="C38">
-        <v>937.33</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2679,7 +2676,7 @@
         <v>73</v>
       </c>
       <c r="C39">
-        <v>933.95</v>
+        <v>894.66</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2690,7 +2687,7 @@
         <v>75</v>
       </c>
       <c r="C40">
-        <v>894.66</v>
+        <v>854.73</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2698,21 +2695,21 @@
         <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>854.73</v>
+        <v>849.15</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
         <v>78</v>
       </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
       <c r="C42">
-        <v>849.15</v>
+        <v>848.25</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2723,7 +2720,7 @@
         <v>80</v>
       </c>
       <c r="C43">
-        <v>848.25</v>
+        <v>847.72</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2734,7 +2731,7 @@
         <v>82</v>
       </c>
       <c r="C44">
-        <v>847.72</v>
+        <v>842.42</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2745,7 +2742,7 @@
         <v>84</v>
       </c>
       <c r="C45">
-        <v>842.42</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2756,7 +2753,7 @@
         <v>86</v>
       </c>
       <c r="C46">
-        <v>839.9</v>
+        <v>839.03</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2767,7 +2764,7 @@
         <v>88</v>
       </c>
       <c r="C47">
-        <v>839.03</v>
+        <v>823.1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2775,10 +2772,10 @@
         <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C48">
-        <v>823.1</v>
+        <v>807.58</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2786,216 +2783,216 @@
         <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C49">
-        <v>807.58</v>
+        <v>775.45</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C50">
-        <v>775.45</v>
+        <v>754.27</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C51">
-        <v>754.27</v>
+        <v>748.56</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C52">
-        <v>748.56</v>
+        <v>744.09</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C53">
-        <v>744.09</v>
+        <v>737.21</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C54">
-        <v>737.21</v>
+        <v>733.93</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C55">
-        <v>733.93</v>
+        <v>716.35</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C56">
-        <v>716.35</v>
+        <v>715.56</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C57">
-        <v>715.56</v>
+        <v>707.41</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C58">
-        <v>707.41</v>
+        <v>704.83</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C59">
-        <v>704.83</v>
+        <v>702.87</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C60">
-        <v>702.87</v>
+        <v>700.86</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="C61">
-        <v>700.86</v>
+        <v>698.83</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="C62">
-        <v>698.83</v>
+        <v>698.03</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C63">
-        <v>698.03</v>
+        <v>689.06</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>689.06</v>
+        <v>679.29</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="C65">
-        <v>679.29</v>
+        <v>675.5</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C66">
-        <v>675.5</v>
+        <v>674.5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C67">
-        <v>674.5</v>
+        <v>666</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C68">
         <v>666</v>
@@ -3003,10 +3000,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C69">
         <v>666</v>
@@ -3014,10 +3011,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C70">
         <v>666</v>
@@ -3025,10 +3022,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="C71">
         <v>666</v>
@@ -3036,219 +3033,219 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C72">
-        <v>666</v>
+        <v>663.35</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="C73">
-        <v>663.35</v>
+        <v>649.30999999999995</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B74" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C74">
-        <v>649.30999999999995</v>
+        <v>644.94000000000005</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C75">
-        <v>644.94000000000005</v>
+        <v>627.35</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="C76">
-        <v>627.35</v>
+        <v>625.5</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="C77">
-        <v>625.5</v>
+        <v>623.46</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C78">
-        <v>623.46</v>
+        <v>617.72</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C79">
-        <v>617.72</v>
+        <v>614.55999999999995</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C80">
-        <v>614.55999999999995</v>
+        <v>598.08000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C81">
-        <v>598.08000000000004</v>
+        <v>595.05999999999995</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C82">
-        <v>595.05999999999995</v>
+        <v>592.84</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B83" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C83">
-        <v>592.84</v>
+        <v>591.30999999999995</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B84" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C84">
-        <v>591.30999999999995</v>
+        <v>585.70000000000005</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C85">
-        <v>585.70000000000005</v>
+        <v>581.89</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C86">
-        <v>581.89</v>
+        <v>581.79</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C87">
-        <v>581.79</v>
+        <v>581.08000000000004</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B88" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C88">
-        <v>581.08000000000004</v>
+        <v>578.48</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="C89">
-        <v>578.48</v>
+        <v>578.08000000000004</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C90">
-        <v>578.08000000000004</v>
+        <v>574</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B91" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C91">
         <v>573.34</v>
@@ -3256,10 +3253,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C92">
         <v>568.94000000000005</v>
@@ -3267,10 +3264,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B93" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C93">
         <v>557.41999999999996</v>
@@ -3278,10 +3275,10 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C94">
         <v>549.72</v>
@@ -3289,7 +3286,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
         <v>98</v>
@@ -3300,10 +3297,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C96">
         <v>529.34</v>
@@ -3311,10 +3308,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C97">
         <v>524.29</v>
@@ -3322,10 +3319,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C98">
         <v>517.87</v>
@@ -3333,10 +3330,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B99" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C99">
         <v>516.78</v>
@@ -3344,10 +3341,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B100" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C100">
         <v>508.42</v>
@@ -3355,10 +3352,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C101">
         <v>507.08</v>
@@ -3366,10 +3363,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C102">
         <v>494.86</v>
@@ -3377,10 +3374,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C103">
         <v>491.62</v>
@@ -3388,10 +3385,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B104" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C104">
         <v>467.91</v>
@@ -3399,10 +3396,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B105" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C105">
         <v>465.01</v>
@@ -3410,7 +3407,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B106" t="s">
         <v>102</v>
@@ -3421,10 +3418,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C107">
         <v>459.2</v>
@@ -3432,10 +3429,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B108" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C108">
         <v>458.13</v>
@@ -3443,10 +3440,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B109" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C109">
         <v>453.65</v>
@@ -3454,10 +3451,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C110">
         <v>450.33</v>
@@ -3465,10 +3462,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B111" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C111">
         <v>449.3</v>
@@ -3476,10 +3473,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112">
         <v>442.44</v>
@@ -3487,10 +3484,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C113">
         <v>436.86</v>
@@ -3498,10 +3495,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C114">
         <v>430.64</v>
@@ -3509,10 +3506,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C115">
         <v>425.17</v>
@@ -3520,10 +3517,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C116">
         <v>423.95</v>
@@ -3531,10 +3528,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B117" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C117">
         <v>413.55</v>
@@ -3542,10 +3539,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C118">
         <v>407.48</v>
@@ -3553,10 +3550,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B119" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C119">
         <v>400.75</v>
@@ -3564,10 +3561,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B120" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C120">
         <v>393.52</v>
@@ -3575,10 +3572,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C121">
         <v>387.23</v>
@@ -3586,7 +3583,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B122" t="s">
         <v>148</v>
@@ -3597,10 +3594,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B123" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C123">
         <v>369.59</v>
@@ -3608,10 +3605,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C124">
         <v>365.44</v>
@@ -3619,10 +3616,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B125" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C125">
         <v>355.56</v>
@@ -3630,10 +3627,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B126" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C126">
         <v>355</v>
@@ -3641,10 +3638,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C127">
         <v>350.34</v>
@@ -3652,10 +3649,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B128" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C128">
         <v>348.3</v>
@@ -3663,7 +3660,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B129" t="s">
         <v>98</v>
@@ -3674,10 +3671,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B130" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C130">
         <v>343.52</v>
@@ -3685,10 +3682,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B131" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C131">
         <v>343.26</v>
@@ -3696,10 +3693,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C132">
         <v>332.65</v>
@@ -3707,7 +3704,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B133" t="s">
         <v>125</v>
@@ -3718,10 +3715,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B134" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C134">
         <v>324.08999999999997</v>
@@ -3729,10 +3726,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B135" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C135">
         <v>321.54000000000002</v>
@@ -3740,10 +3737,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B136" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C136">
         <v>321.31</v>
@@ -3751,10 +3748,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B137" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C137">
         <v>321.24</v>
@@ -3762,10 +3759,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B138" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C138">
         <v>312.05</v>
@@ -3773,10 +3770,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C139">
         <v>309.77</v>
@@ -3784,10 +3781,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B140" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C140">
         <v>309.32</v>
@@ -3795,10 +3792,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B141" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C141">
         <v>302.77</v>
@@ -3806,10 +3803,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C142">
         <v>302.51</v>
@@ -3817,670 +3814,670 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B143" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C143">
-        <v>294.54000000000002</v>
+        <v>301.27</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B144" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C144">
-        <v>293.3</v>
+        <v>294.54000000000002</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B145" t="s">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="C145">
-        <v>282.54000000000002</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B146" t="s">
-        <v>258</v>
+        <v>174</v>
       </c>
       <c r="C146">
-        <v>279.35000000000002</v>
+        <v>282.54000000000002</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B147" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C147">
-        <v>278.49</v>
+        <v>279.35000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C148">
-        <v>277.3</v>
+        <v>278.49</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B149" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C149">
-        <v>276.93</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B150" t="s">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c r="C150">
-        <v>260.51</v>
+        <v>276.93</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B151" t="s">
-        <v>267</v>
+        <v>125</v>
       </c>
       <c r="C151">
-        <v>260.14999999999998</v>
+        <v>260.51</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B152" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="C152">
-        <v>258.75</v>
+        <v>260.14999999999998</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B153" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C153">
-        <v>255.99</v>
+        <v>258.75</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B154" t="s">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="C154">
-        <v>253.95</v>
+        <v>255.99</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B155" t="s">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="C155">
-        <v>253.25</v>
+        <v>253.95</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B156" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="C156">
-        <v>246.21</v>
+        <v>253.25</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B157" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C157">
-        <v>245.99</v>
+        <v>246.21</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B158" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="C158">
-        <v>242.72</v>
+        <v>245.99</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B159" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C159">
-        <v>242.48</v>
+        <v>242.72</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B160" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C160">
-        <v>238.55</v>
+        <v>242.48</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B161" t="s">
-        <v>158</v>
+        <v>282</v>
       </c>
       <c r="C161">
-        <v>237.08</v>
+        <v>238.55</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B162" t="s">
-        <v>282</v>
+        <v>158</v>
       </c>
       <c r="C162">
-        <v>233.93</v>
+        <v>237.08</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B163" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C163">
-        <v>227.02</v>
+        <v>233.93</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B164" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C164">
-        <v>226.37</v>
+        <v>227.02</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B165" t="s">
-        <v>158</v>
+        <v>289</v>
       </c>
       <c r="C165">
-        <v>217.03</v>
+        <v>226.37</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B166" t="s">
-        <v>289</v>
+        <v>158</v>
       </c>
       <c r="C166">
-        <v>216.08</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B167" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C167">
-        <v>212.6</v>
+        <v>216.08</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B168" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C168">
-        <v>206.67</v>
+        <v>212.6</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B169" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C169">
-        <v>204.9</v>
+        <v>206.67</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B170" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C170">
-        <v>199.04</v>
+        <v>204.9</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B171" t="s">
-        <v>158</v>
+        <v>300</v>
       </c>
       <c r="C171">
-        <v>198.65</v>
+        <v>199.04</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B172" t="s">
-        <v>300</v>
+        <v>158</v>
       </c>
       <c r="C172">
-        <v>196.68</v>
+        <v>198.65</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B173" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="C173">
-        <v>196.05</v>
+        <v>196.68</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B174" t="s">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="C174">
-        <v>190.71</v>
+        <v>196.05</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B175" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="C175">
-        <v>188.83</v>
+        <v>190.71</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B176" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="C176">
-        <v>188.07</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B177" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C177">
-        <v>186.02</v>
+        <v>188.07</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B178" t="s">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="C178">
-        <v>181.74</v>
+        <v>186.02</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B179" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="C179">
-        <v>176.4</v>
+        <v>181.74</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B180" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C180">
-        <v>172.32</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B181" t="s">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="C181">
-        <v>170.45</v>
+        <v>172.32</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B182" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="C182">
-        <v>170.37</v>
+        <v>170.45</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B183" t="s">
-        <v>317</v>
+        <v>148</v>
       </c>
       <c r="C183">
-        <v>170.27</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B184" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C184">
-        <v>169.48</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B185" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C185">
-        <v>168.35</v>
+        <v>169.48</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B186" t="s">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="C186">
-        <v>168.17</v>
+        <v>168.35</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B187" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="C187">
-        <v>164.18</v>
+        <v>168.17</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B188" t="s">
-        <v>325</v>
+        <v>4</v>
       </c>
       <c r="C188">
-        <v>163.62</v>
+        <v>164.18</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B189" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="C189">
-        <v>159.85</v>
+        <v>163.62</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B190" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="C190">
-        <v>156.68</v>
+        <v>159.85</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B191" t="s">
-        <v>329</v>
+        <v>88</v>
       </c>
       <c r="C191">
-        <v>153.11000000000001</v>
+        <v>156.68</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B192" t="s">
-        <v>207</v>
+        <v>332</v>
       </c>
       <c r="C192">
-        <v>151.41</v>
+        <v>153.11000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B193" t="s">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="C193">
-        <v>149.66</v>
+        <v>151.41</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B194" t="s">
-        <v>300</v>
+        <v>111</v>
       </c>
       <c r="C194">
-        <v>147.84</v>
+        <v>149.66</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B195" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="C195">
-        <v>142.36000000000001</v>
+        <v>147.84</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B196" t="s">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="C196">
-        <v>140.63999999999999</v>
+        <v>142.36000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B197" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="C197">
-        <v>140.47999999999999</v>
+        <v>140.63999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B198" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="C198">
-        <v>137.93</v>
+        <v>140.47999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B199" t="s">
-        <v>95</v>
+        <v>296</v>
       </c>
       <c r="C199">
-        <v>135.81</v>
+        <v>137.93</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B200" t="s">
-        <v>339</v>
+        <v>95</v>
       </c>
       <c r="C200">
-        <v>135.37</v>
+        <v>135.81</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B201" t="s">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="C201">
-        <v>134.97999999999999</v>
+        <v>135.37</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B202" t="s">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="C202">
-        <v>134.44</v>
+        <v>134.97999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B203" t="s">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="C203">
         <v>134.44</v>
@@ -4488,1294 +4485,1294 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B204" t="s">
-        <v>344</v>
+        <v>71</v>
       </c>
       <c r="C204">
-        <v>134.08000000000001</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B205" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C205">
-        <v>133.49</v>
+        <v>134.08000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B206" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C206">
-        <v>132</v>
+        <v>133.49</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B207" t="s">
-        <v>277</v>
+        <v>351</v>
       </c>
       <c r="C207">
-        <v>131.31</v>
+        <v>132</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B208" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="C208">
-        <v>131.16999999999999</v>
+        <v>131.31</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B209" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="C209">
-        <v>128.33000000000001</v>
+        <v>131.16999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B210" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="C210">
-        <v>127.86</v>
+        <v>128.33000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B211" t="s">
-        <v>354</v>
+        <v>88</v>
       </c>
       <c r="C211">
-        <v>126.88</v>
+        <v>127.86</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B212" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C212">
-        <v>126.72</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B213" t="s">
-        <v>167</v>
+        <v>359</v>
       </c>
       <c r="C213">
-        <v>126.56</v>
+        <v>126.72</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B214" t="s">
-        <v>359</v>
+        <v>168</v>
       </c>
       <c r="C214">
-        <v>126.22</v>
+        <v>126.56</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B215" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C215">
-        <v>124.92</v>
+        <v>126.22</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B216" t="s">
-        <v>186</v>
+        <v>364</v>
       </c>
       <c r="C216">
-        <v>123.41</v>
+        <v>124.92</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B217" t="s">
-        <v>346</v>
+        <v>187</v>
       </c>
       <c r="C217">
-        <v>121.43</v>
+        <v>123.41</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B218" t="s">
-        <v>191</v>
+        <v>349</v>
       </c>
       <c r="C218">
-        <v>120.88</v>
+        <v>121.43</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B219" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="C219">
-        <v>120.85</v>
+        <v>120.88</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B220" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C220">
-        <v>120.72</v>
+        <v>120.85</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B221" t="s">
-        <v>368</v>
+        <v>16</v>
       </c>
       <c r="C221">
-        <v>119.07</v>
+        <v>120.72</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B222" t="s">
-        <v>260</v>
+        <v>371</v>
       </c>
       <c r="C222">
-        <v>113.8</v>
+        <v>119.07</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B223" t="s">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="C223">
-        <v>112.47</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B224" t="s">
-        <v>167</v>
+        <v>374</v>
       </c>
       <c r="C224">
-        <v>109.4</v>
+        <v>112.47</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B225" t="s">
-        <v>374</v>
+        <v>168</v>
       </c>
       <c r="C225">
-        <v>108.51</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B226" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C226">
-        <v>104.9</v>
+        <v>108.51</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B227" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C227">
-        <v>99.3</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B228" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C228">
-        <v>99.24</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B229" t="s">
-        <v>173</v>
+        <v>383</v>
       </c>
       <c r="C229">
-        <v>98.55</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B230" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="C230">
-        <v>98.28</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B231" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C231">
-        <v>97.08</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B232" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="C232">
-        <v>95.88</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B233" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C233">
-        <v>93.21</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B234" t="s">
-        <v>387</v>
+        <v>71</v>
       </c>
       <c r="C234">
-        <v>92.72</v>
+        <v>93.21</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B235" t="s">
-        <v>47</v>
+        <v>390</v>
       </c>
       <c r="C235">
-        <v>92.5</v>
+        <v>92.72</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B236" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C236">
-        <v>92.07</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B237" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C237">
-        <v>90.2</v>
+        <v>92.07</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B238" t="s">
-        <v>392</v>
+        <v>33</v>
       </c>
       <c r="C238">
-        <v>89.85</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B239" t="s">
-        <v>73</v>
+        <v>395</v>
       </c>
       <c r="C239">
-        <v>86.73</v>
+        <v>89.85</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B240" t="s">
-        <v>395</v>
+        <v>71</v>
       </c>
       <c r="C240">
-        <v>86.45</v>
+        <v>86.73</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B241" t="s">
-        <v>203</v>
+        <v>398</v>
       </c>
       <c r="C241">
-        <v>86.38</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B242" t="s">
-        <v>398</v>
+        <v>204</v>
       </c>
       <c r="C242">
-        <v>84.72</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B243" t="s">
-        <v>4</v>
+        <v>401</v>
       </c>
       <c r="C243">
-        <v>83.13</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B244" t="s">
-        <v>401</v>
+        <v>4</v>
       </c>
       <c r="C244">
-        <v>83.06</v>
+        <v>83.13</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B245" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C245">
-        <v>82.91</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B246" t="s">
-        <v>209</v>
+        <v>406</v>
       </c>
       <c r="C246">
-        <v>82.79</v>
+        <v>82.91</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B247" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="C247">
-        <v>82.28</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B248" t="s">
-        <v>407</v>
+        <v>267</v>
       </c>
       <c r="C248">
-        <v>81.87</v>
+        <v>82.28</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B249" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C249">
-        <v>80.05</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B250" t="s">
-        <v>156</v>
+        <v>412</v>
       </c>
       <c r="C250">
-        <v>78.97</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B251" t="s">
-        <v>412</v>
+        <v>156</v>
       </c>
       <c r="C251">
-        <v>77.19</v>
+        <v>78.97</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B252" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C252">
-        <v>76.790000000000006</v>
+        <v>77.19</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B253" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C253">
-        <v>76.56</v>
+        <v>76.790000000000006</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B254" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C254">
-        <v>76.260000000000005</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B255" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C255">
-        <v>75.86</v>
+        <v>76.260000000000005</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B256" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C256">
-        <v>74.739999999999995</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B257" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C257">
-        <v>74.39</v>
+        <v>74.739999999999995</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B258" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C258">
-        <v>74.23</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B259" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C259">
-        <v>73.650000000000006</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B260" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C260">
-        <v>73.599999999999994</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B261" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C261">
-        <v>73.56</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B262" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C262">
-        <v>73.430000000000007</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B263" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C263">
-        <v>72.42</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B264" t="s">
-        <v>356</v>
+        <v>439</v>
       </c>
       <c r="C264">
-        <v>71.31</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B265" t="s">
-        <v>14</v>
+        <v>359</v>
       </c>
       <c r="C265">
-        <v>70.459999999999994</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B266" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
       <c r="C266">
-        <v>69.88</v>
+        <v>70.459999999999994</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B267" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C267">
-        <v>69.45</v>
+        <v>69.88</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B268" t="s">
-        <v>442</v>
+        <v>243</v>
       </c>
       <c r="C268">
-        <v>69.34</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B269" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C269">
-        <v>69.069999999999993</v>
+        <v>69.34</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B270" t="s">
-        <v>232</v>
+        <v>447</v>
       </c>
       <c r="C270">
-        <v>68.459999999999994</v>
+        <v>69.069999999999993</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B271" t="s">
-        <v>447</v>
+        <v>233</v>
       </c>
       <c r="C271">
-        <v>68.05</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B272" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C272">
-        <v>66.010000000000005</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B273" t="s">
-        <v>356</v>
+        <v>452</v>
       </c>
       <c r="C273">
-        <v>65.06</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B274" t="s">
-        <v>43</v>
+        <v>359</v>
       </c>
       <c r="C274">
-        <v>64.709999999999994</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B275" t="s">
-        <v>453</v>
+        <v>93</v>
       </c>
       <c r="C275">
-        <v>64.400000000000006</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B276" t="s">
-        <v>49</v>
+        <v>456</v>
       </c>
       <c r="C276">
-        <v>63.94</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B277" t="s">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="C277">
-        <v>61.82</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B278" t="s">
-        <v>457</v>
+        <v>168</v>
       </c>
       <c r="C278">
-        <v>61.74</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B279" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="C279">
-        <v>59.87</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B280" t="s">
-        <v>460</v>
+        <v>381</v>
       </c>
       <c r="C280">
-        <v>59.63</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B281" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="C281">
-        <v>59.2</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B282" t="s">
-        <v>286</v>
+        <v>460</v>
       </c>
       <c r="C282">
-        <v>57.82</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B283" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C283">
-        <v>56.79</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B284" t="s">
-        <v>465</v>
+        <v>296</v>
       </c>
       <c r="C284">
-        <v>55.66</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B285" t="s">
-        <v>98</v>
+        <v>468</v>
       </c>
       <c r="C285">
-        <v>55.49</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B286" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C286">
-        <v>55.24</v>
+        <v>55.49</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B287" t="s">
-        <v>469</v>
+        <v>109</v>
       </c>
       <c r="C287">
-        <v>54.71</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B288" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C288">
-        <v>54.2</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B289" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C289">
-        <v>52.59</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B290" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C290">
-        <v>51.65</v>
+        <v>52.59</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B291" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C291">
-        <v>50</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B292" t="s">
-        <v>313</v>
+        <v>480</v>
       </c>
       <c r="C292">
-        <v>49.28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B293" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="C293">
-        <v>48.65</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B294" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C294">
-        <v>48.16</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B295" t="s">
-        <v>407</v>
+        <v>12</v>
       </c>
       <c r="C295">
-        <v>47.01</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B296" t="s">
-        <v>483</v>
+        <v>410</v>
       </c>
       <c r="C296">
-        <v>46.4</v>
+        <v>47.01</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B297" t="s">
-        <v>317</v>
+        <v>486</v>
       </c>
       <c r="C297">
-        <v>46.23</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B298" t="s">
-        <v>486</v>
+        <v>320</v>
       </c>
       <c r="C298">
-        <v>46.16</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B299" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C299">
-        <v>46.05</v>
+        <v>46.16</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B300" t="s">
-        <v>207</v>
+        <v>491</v>
       </c>
       <c r="C300">
-        <v>44.89</v>
+        <v>46.05</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B301" t="s">
-        <v>491</v>
+        <v>208</v>
       </c>
       <c r="C301">
-        <v>44.69</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B302" t="s">
-        <v>152</v>
+        <v>494</v>
       </c>
       <c r="C302">
-        <v>44.52</v>
+        <v>44.69</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B303" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C303">
-        <v>44.44</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B304" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="C304">
-        <v>42.7</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B305" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
       <c r="C305">
-        <v>42.64</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B306" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C306">
-        <v>40</v>
+        <v>42.64</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B307" t="s">
-        <v>498</v>
+        <v>210</v>
       </c>
       <c r="C307">
-        <v>39.79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B308" t="s">
-        <v>98</v>
+        <v>501</v>
       </c>
       <c r="C308">
-        <v>37.799999999999997</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B309" t="s">
-        <v>501</v>
+        <v>98</v>
       </c>
       <c r="C309">
-        <v>37.200000000000003</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B310" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C310">
-        <v>36.94</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B311" t="s">
-        <v>45</v>
+        <v>506</v>
       </c>
       <c r="C311">
-        <v>33.049999999999997</v>
+        <v>36.94</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B312" t="s">
-        <v>506</v>
+        <v>254</v>
       </c>
       <c r="C312">
-        <v>31.78</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B313" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C313">
-        <v>31.71</v>
+        <v>31.78</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B314" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C314">
-        <v>30.03</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B315" t="s">
-        <v>209</v>
+        <v>513</v>
       </c>
       <c r="C315">
-        <v>28.58</v>
+        <v>30.03</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B316" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="C316">
-        <v>28.26</v>
+        <v>28.58</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B317" t="s">
-        <v>514</v>
+        <v>98</v>
       </c>
       <c r="C317">
-        <v>27.86</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B318" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C318">
-        <v>27.83</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B319" t="s">
-        <v>191</v>
+        <v>519</v>
       </c>
       <c r="C319">
-        <v>27.45</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B320" t="s">
-        <v>519</v>
+        <v>192</v>
       </c>
       <c r="C320">
-        <v>26.89</v>
+        <v>27.45</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B321" t="s">
         <v>111</v>
@@ -5786,10 +5783,10 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B322" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C322">
         <v>24.5</v>
@@ -5797,10 +5794,10 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B323" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C323">
         <v>24.33</v>
@@ -5808,10 +5805,10 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B324" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C324">
         <v>23.89</v>
@@ -5819,10 +5816,10 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B325" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C325">
         <v>23.46</v>
@@ -5830,10 +5827,10 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B326" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C326">
         <v>23.11</v>
@@ -5841,10 +5838,10 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B327" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C327">
         <v>21.27</v>
@@ -5852,7 +5849,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B328" t="s">
         <v>111</v>
@@ -5863,10 +5860,10 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B329" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C329">
         <v>19.12</v>
@@ -5874,10 +5871,10 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B330" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C330">
         <v>18.47</v>
@@ -5885,10 +5882,10 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B331" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C331">
         <v>15.76</v>
@@ -5896,10 +5893,10 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B332" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C332">
         <v>14.67</v>
@@ -5907,10 +5904,10 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B333" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C333">
         <v>13.69</v>
@@ -5918,10 +5915,10 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B334" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C334">
         <v>12.38</v>
@@ -5929,10 +5926,10 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B335" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C335">
         <v>12.27</v>
@@ -5940,10 +5937,10 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B336" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C336">
         <v>12.18</v>
@@ -5951,10 +5948,10 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B337" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C337">
         <v>11.39</v>
@@ -5962,10 +5959,10 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B338" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C338">
         <v>11.04</v>
@@ -5973,10 +5970,10 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B339" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C339">
         <v>9.85</v>
@@ -5984,10 +5981,10 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B340" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C340">
         <v>9.7200000000000006</v>
@@ -5995,10 +5992,10 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B341" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C341">
         <v>9.52</v>
@@ -6006,10 +6003,10 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B342" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C342">
         <v>9.44</v>
@@ -6017,10 +6014,10 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B343" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C343">
         <v>8.66</v>
@@ -6028,10 +6025,10 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B344" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C344">
         <v>8.61</v>
@@ -6039,10 +6036,10 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B345" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C345">
         <v>8.4499999999999993</v>
@@ -6050,7 +6047,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B346" t="s">
         <v>107</v>
@@ -6061,10 +6058,10 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B347" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C347">
         <v>7.62</v>
@@ -6072,13 +6069,13 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B348" t="s">
-        <v>566</v>
+        <v>78</v>
       </c>
       <c r="C348">
-        <v>6.98</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6086,21 +6083,21 @@
         <v>567</v>
       </c>
       <c r="B349" t="s">
-        <v>80</v>
+        <v>568</v>
       </c>
       <c r="C349">
-        <v>6.9</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B350" t="s">
-        <v>569</v>
+        <v>316</v>
       </c>
       <c r="C350">
-        <v>6.66</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6108,21 +6105,21 @@
         <v>570</v>
       </c>
       <c r="B351" t="s">
-        <v>313</v>
+        <v>571</v>
       </c>
       <c r="C351">
-        <v>6.6</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B352" t="s">
-        <v>572</v>
+        <v>111</v>
       </c>
       <c r="C352">
-        <v>6.53</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6130,32 +6127,32 @@
         <v>573</v>
       </c>
       <c r="B353" t="s">
-        <v>111</v>
+        <v>574</v>
       </c>
       <c r="C353">
-        <v>6.04</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B354" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C354">
-        <v>6.02</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B355" t="s">
-        <v>577</v>
+        <v>204</v>
       </c>
       <c r="C355">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6163,21 +6160,21 @@
         <v>578</v>
       </c>
       <c r="B356" t="s">
-        <v>203</v>
+        <v>579</v>
       </c>
       <c r="C356">
-        <v>5.55</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B357" t="s">
-        <v>580</v>
+        <v>406</v>
       </c>
       <c r="C357">
-        <v>5.23</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6185,10 +6182,10 @@
         <v>581</v>
       </c>
       <c r="B358" t="s">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="C358">
-        <v>4.88</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6196,32 +6193,32 @@
         <v>582</v>
       </c>
       <c r="B359" t="s">
-        <v>36</v>
+        <v>583</v>
       </c>
       <c r="C359">
-        <v>4.79</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B360" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C360">
-        <v>4.08</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B361" t="s">
-        <v>586</v>
+        <v>88</v>
       </c>
       <c r="C361">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -6229,21 +6226,21 @@
         <v>587</v>
       </c>
       <c r="B362" t="s">
-        <v>32</v>
+        <v>588</v>
       </c>
       <c r="C362">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B363" t="s">
-        <v>589</v>
+        <v>38</v>
       </c>
       <c r="C363">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6251,7 +6248,7 @@
         <v>590</v>
       </c>
       <c r="B364" t="s">
-        <v>36</v>
+        <v>591</v>
       </c>
       <c r="C364">
         <v>1.3</v>
@@ -6259,13 +6256,13 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B365" t="s">
-        <v>592</v>
+        <v>47</v>
       </c>
       <c r="C365">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6273,65 +6270,65 @@
         <v>593</v>
       </c>
       <c r="B366" t="s">
-        <v>49</v>
+        <v>594</v>
       </c>
       <c r="C366">
-        <v>1.24</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B367" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C367">
-        <v>1.1599999999999999</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B368" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C368">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B369" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C369">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B370" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C370">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B371" t="s">
-        <v>603</v>
+        <v>289</v>
       </c>
       <c r="C371">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6339,10 +6336,10 @@
         <v>604</v>
       </c>
       <c r="B372" t="s">
-        <v>286</v>
+        <v>410</v>
       </c>
       <c r="C372">
-        <v>0.55000000000000004</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6350,21 +6347,21 @@
         <v>605</v>
       </c>
       <c r="B373" t="s">
-        <v>407</v>
+        <v>606</v>
       </c>
       <c r="C373">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B374" t="s">
-        <v>607</v>
+        <v>184</v>
       </c>
       <c r="C374">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6372,7 +6369,7 @@
         <v>608</v>
       </c>
       <c r="B375" t="s">
-        <v>183</v>
+        <v>609</v>
       </c>
       <c r="C375">
         <v>0.03</v>
@@ -6380,21 +6377,21 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B376" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C376">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B377" t="s">
-        <v>612</v>
+        <v>148</v>
       </c>
       <c r="C377">
         <v>0.01</v>
@@ -6405,7 +6402,7 @@
         <v>613</v>
       </c>
       <c r="B378" t="s">
-        <v>148</v>
+        <v>614</v>
       </c>
       <c r="C378">
         <v>0.01</v>
@@ -6413,10 +6410,10 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B379" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C379">
         <v>0.01</v>
@@ -6424,29 +6421,18 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B380" t="s">
-        <v>617</v>
+        <v>80</v>
       </c>
       <c r="C380">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
-      <c r="A381" t="s">
+        <v>-167.52</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
         <v>618</v>
-      </c>
-      <c r="B381" t="s">
-        <v>82</v>
-      </c>
-      <c r="C381">
-        <v>-167.52</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
-      <c r="A383" t="s">
-        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C30445D-829A-4820-92D5-8574D0B94BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E77D5FB2-E90E-444F-A5B7-2C5DFE18A5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,18 +37,18 @@
     <t>GABRIEL</t>
   </si>
   <si>
+    <t>005142592</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
     <t>004459461</t>
   </si>
   <si>
     <t>INTERLAGOS</t>
   </si>
   <si>
-    <t>005142592</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
     <t>005142661</t>
   </si>
   <si>
@@ -124,819 +124,825 @@
     <t>LARA</t>
   </si>
   <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004467884</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
     <t>004398174</t>
   </si>
   <si>
     <t>DANIELE</t>
   </si>
   <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004467884</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004461526</t>
+  </si>
+  <si>
+    <t>ASSISTIGAS</t>
+  </si>
+  <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
+    <t>004208869</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004452476</t>
+  </si>
+  <si>
+    <t>IVONE</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>004259659</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>002458288</t>
+  </si>
+  <si>
+    <t>BENEDITO</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004207374</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>004212409</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004254210</t>
   </si>
   <si>
     <t>004381359</t>
   </si>
   <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004461526</t>
-  </si>
-  <si>
-    <t>ASSISTIGAS</t>
-  </si>
-  <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004259659</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004207374</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>004212409</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
     <t>004481463</t>
   </si>
   <si>
@@ -1385,12 +1391,6 @@
   </si>
   <si>
     <t>004360431</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
   </si>
   <si>
     <t>005032151</t>
@@ -2245,7 +2245,7 @@
   <dimension ref="A1:C382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2280,7 +2280,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>300006.96999999997</v>
+        <v>255010</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2291,7 +2291,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>255010</v>
+        <v>200006.98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2442,21 +2442,21 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>16698.43</v>
+        <v>15151.24</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
       <c r="C19">
-        <v>15151.24</v>
+        <v>13571.37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2467,7 +2467,7 @@
         <v>38</v>
       </c>
       <c r="C20">
-        <v>13571.37</v>
+        <v>11057.89</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2478,7 +2478,7 @@
         <v>40</v>
       </c>
       <c r="C21">
-        <v>11057.89</v>
+        <v>10412.89</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2486,21 +2486,21 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C22">
-        <v>10412.89</v>
+        <v>9852.26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
       <c r="C23">
-        <v>9852.26</v>
+        <v>6354.84</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2511,7 +2511,7 @@
         <v>45</v>
       </c>
       <c r="C24">
-        <v>6354.84</v>
+        <v>4734.63</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2519,21 +2519,21 @@
         <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25">
-        <v>4734.63</v>
+        <v>4050.48</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
       <c r="C26">
-        <v>4050.48</v>
+        <v>3826.89</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2544,7 +2544,7 @@
         <v>50</v>
       </c>
       <c r="C27">
-        <v>3826.89</v>
+        <v>3814.4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2585,109 +2585,109 @@
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C31">
-        <v>1191.3900000000001</v>
+        <v>989.61</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32">
-        <v>989.61</v>
+        <v>988.32</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33">
-        <v>988.32</v>
+        <v>946.84</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34">
-        <v>946.84</v>
+        <v>943.73</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35">
-        <v>943.73</v>
+        <v>942.42</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36">
-        <v>942.42</v>
+        <v>937.33</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37">
-        <v>937.33</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38">
-        <v>933.95</v>
+        <v>894.66</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39">
-        <v>894.66</v>
+        <v>854.73</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C40">
-        <v>854.73</v>
+        <v>849.15</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2695,76 +2695,76 @@
         <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="C41">
-        <v>849.15</v>
+        <v>848.25</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42">
-        <v>848.25</v>
+        <v>847.72</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43">
-        <v>847.72</v>
+        <v>842.42</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44">
-        <v>842.42</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45">
-        <v>839.9</v>
+        <v>839.03</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46">
-        <v>839.03</v>
+        <v>823.1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C47">
-        <v>823.1</v>
+        <v>807.58</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2772,43 +2772,43 @@
         <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C48">
-        <v>807.58</v>
+        <v>775.45</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C49">
-        <v>775.45</v>
+        <v>754.27</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C50">
-        <v>754.27</v>
+        <v>748.56</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C51">
-        <v>748.56</v>
+        <v>744.09</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2816,54 +2816,54 @@
         <v>96</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C52">
-        <v>744.09</v>
+        <v>737.21</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C53">
-        <v>737.21</v>
+        <v>733.93</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C54">
-        <v>733.93</v>
+        <v>716.35</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C55">
-        <v>716.35</v>
+        <v>715.56</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C56">
-        <v>715.56</v>
+        <v>707.41</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2871,43 +2871,43 @@
         <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C57">
-        <v>707.41</v>
+        <v>704.83</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58">
-        <v>704.83</v>
+        <v>702.87</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C59">
-        <v>702.87</v>
+        <v>700.86</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="C60">
-        <v>700.86</v>
+        <v>698.83</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2915,18 +2915,18 @@
         <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="C61">
-        <v>698.83</v>
+        <v>698.43</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C62">
         <v>698.03</v>
@@ -2934,10 +2934,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C63">
         <v>689.06</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
         <v>4</v>
@@ -2956,10 +2956,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C65">
         <v>675.5</v>
@@ -2967,10 +2967,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C66">
         <v>674.5</v>
@@ -2978,10 +2978,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C67">
         <v>666</v>
@@ -2989,10 +2989,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C68">
         <v>666</v>
@@ -3000,10 +3000,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C69">
         <v>666</v>
@@ -3011,10 +3011,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70">
         <v>666</v>
@@ -3022,10 +3022,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C71">
         <v>666</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C72">
         <v>663.35</v>
@@ -3044,10 +3044,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C73">
         <v>649.30999999999995</v>
@@ -3055,10 +3055,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C74">
         <v>644.94000000000005</v>
@@ -3066,10 +3066,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C75">
         <v>627.35</v>
@@ -3077,10 +3077,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C76">
         <v>625.5</v>
@@ -3088,10 +3088,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C77">
         <v>623.46</v>
@@ -3099,10 +3099,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C78">
         <v>617.72</v>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C79">
         <v>614.55999999999995</v>
@@ -3121,10 +3121,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C80">
         <v>598.08000000000004</v>
@@ -3132,10 +3132,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C81">
         <v>595.05999999999995</v>
@@ -3143,10 +3143,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C82">
         <v>592.84</v>
@@ -3154,10 +3154,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C83">
         <v>591.30999999999995</v>
@@ -3165,10 +3165,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C84">
         <v>585.70000000000005</v>
@@ -3176,10 +3176,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C85">
         <v>581.89</v>
@@ -3187,10 +3187,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C86">
         <v>581.79</v>
@@ -3198,10 +3198,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C87">
         <v>581.08000000000004</v>
@@ -3209,10 +3209,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C88">
         <v>578.48</v>
@@ -3220,10 +3220,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C89">
         <v>578.08000000000004</v>
@@ -3231,10 +3231,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C90">
         <v>574</v>
@@ -3242,10 +3242,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C91">
         <v>573.34</v>
@@ -3253,10 +3253,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C92">
         <v>568.94000000000005</v>
@@ -3264,10 +3264,10 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C93">
         <v>557.41999999999996</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95">
         <v>549.71</v>
@@ -3297,10 +3297,10 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B96" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C96">
         <v>529.34</v>
@@ -3308,10 +3308,10 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C97">
         <v>524.29</v>
@@ -3319,10 +3319,10 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C98">
         <v>517.87</v>
@@ -3330,10 +3330,10 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C99">
         <v>516.78</v>
@@ -3341,10 +3341,10 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C100">
         <v>508.42</v>
@@ -3352,10 +3352,10 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C101">
         <v>507.08</v>
@@ -3363,10 +3363,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C102">
         <v>494.86</v>
@@ -3374,10 +3374,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C103">
         <v>491.62</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B104" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C104">
         <v>467.91</v>
@@ -3396,10 +3396,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C105">
         <v>465.01</v>
@@ -3407,10 +3407,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B106" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C106">
         <v>460.98</v>
@@ -3418,10 +3418,10 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B107" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C107">
         <v>459.2</v>
@@ -3429,10 +3429,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C108">
         <v>458.13</v>
@@ -3440,10 +3440,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C109">
         <v>453.65</v>
@@ -3451,10 +3451,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C110">
         <v>450.33</v>
@@ -3462,10 +3462,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C111">
         <v>449.3</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C112">
         <v>442.44</v>
@@ -3484,10 +3484,10 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B113" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C113">
         <v>436.86</v>
@@ -3495,10 +3495,10 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B114" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C114">
         <v>430.64</v>
@@ -3506,10 +3506,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B115" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C115">
         <v>425.17</v>
@@ -3517,10 +3517,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B116" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C116">
         <v>423.95</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C117">
         <v>413.55</v>
@@ -3539,10 +3539,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B118" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C118">
         <v>407.48</v>
@@ -3550,10 +3550,10 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B119" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C119">
         <v>400.75</v>
@@ -3561,10 +3561,10 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C120">
         <v>393.52</v>
@@ -3572,10 +3572,10 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B121" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C121">
         <v>387.23</v>
@@ -3583,10 +3583,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B122" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C122">
         <v>377.42</v>
@@ -3594,10 +3594,10 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B123" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C123">
         <v>369.59</v>
@@ -3605,10 +3605,10 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B124" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C124">
         <v>365.44</v>
@@ -3616,10 +3616,10 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B125" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C125">
         <v>355.56</v>
@@ -3627,10 +3627,10 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C126">
         <v>355</v>
@@ -3638,10 +3638,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B127" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C127">
         <v>350.34</v>
@@ -3649,10 +3649,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B128" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C128">
         <v>348.3</v>
@@ -3660,10 +3660,10 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B129" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C129">
         <v>346.83</v>
@@ -3671,10 +3671,10 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B130" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C130">
         <v>343.52</v>
@@ -3682,10 +3682,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B131" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C131">
         <v>343.26</v>
@@ -3693,10 +3693,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B132" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C132">
         <v>332.65</v>
@@ -3704,10 +3704,10 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B133" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C133">
         <v>327.89</v>
@@ -3715,10 +3715,10 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B134" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C134">
         <v>324.08999999999997</v>
@@ -3726,10 +3726,10 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B135" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C135">
         <v>321.54000000000002</v>
@@ -3737,10 +3737,10 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C136">
         <v>321.31</v>
@@ -3748,10 +3748,10 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B137" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C137">
         <v>321.24</v>
@@ -3759,10 +3759,10 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C138">
         <v>312.05</v>
@@ -3770,10 +3770,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B139" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C139">
         <v>309.77</v>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B140" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C140">
         <v>309.32</v>
@@ -3792,10 +3792,10 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B141" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C141">
         <v>302.77</v>
@@ -3803,10 +3803,10 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B142" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C142">
         <v>302.51</v>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B143" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C143">
         <v>301.27</v>
@@ -3825,10 +3825,10 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B144" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C144">
         <v>294.54000000000002</v>
@@ -3836,10 +3836,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B145" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C145">
         <v>293.3</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B146" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C146">
         <v>282.54000000000002</v>
@@ -3858,10 +3858,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C147">
         <v>279.35000000000002</v>
@@ -3869,10 +3869,10 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B148" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C148">
         <v>278.49</v>
@@ -3880,10 +3880,10 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B149" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C149">
         <v>277.3</v>
@@ -3891,10 +3891,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B150" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C150">
         <v>276.93</v>
@@ -3902,10 +3902,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B151" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C151">
         <v>260.51</v>
@@ -3913,10 +3913,10 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B152" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C152">
         <v>260.14999999999998</v>
@@ -3924,10 +3924,10 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B153" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C153">
         <v>258.75</v>
@@ -3935,10 +3935,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B154" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C154">
         <v>255.99</v>
@@ -3946,10 +3946,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B155" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C155">
         <v>253.95</v>
@@ -3957,10 +3957,10 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B156" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C156">
         <v>253.25</v>
@@ -3968,10 +3968,10 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B157" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C157">
         <v>246.21</v>
@@ -3979,10 +3979,10 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B158" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C158">
         <v>245.99</v>
@@ -3990,10 +3990,10 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B159" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C159">
         <v>242.72</v>
@@ -4001,10 +4001,10 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B160" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C160">
         <v>242.48</v>
@@ -4012,10 +4012,10 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B161" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C161">
         <v>238.55</v>
@@ -4023,10 +4023,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B162" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C162">
         <v>237.08</v>
@@ -4034,10 +4034,10 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B163" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C163">
         <v>233.93</v>
@@ -4045,10 +4045,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B164" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C164">
         <v>227.02</v>
@@ -4056,10 +4056,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B165" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C165">
         <v>226.37</v>
@@ -4067,10 +4067,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B166" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C166">
         <v>217.03</v>
@@ -4078,10 +4078,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B167" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C167">
         <v>216.08</v>
@@ -4089,10 +4089,10 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B168" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C168">
         <v>212.6</v>
@@ -4100,10 +4100,10 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B169" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C169">
         <v>206.67</v>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B170" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C170">
         <v>204.9</v>
@@ -4122,10 +4122,10 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B171" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C171">
         <v>199.04</v>
@@ -4133,10 +4133,10 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B172" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C172">
         <v>198.65</v>
@@ -4144,10 +4144,10 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B173" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C173">
         <v>196.68</v>
@@ -4155,10 +4155,10 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B174" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C174">
         <v>196.05</v>
@@ -4166,13 +4166,13 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B175" t="s">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="C175">
-        <v>190.71</v>
+        <v>191.39</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4180,21 +4180,21 @@
         <v>307</v>
       </c>
       <c r="B176" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="C176">
-        <v>188.83</v>
+        <v>190.71</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B177" t="s">
-        <v>309</v>
+        <v>268</v>
       </c>
       <c r="C177">
-        <v>188.07</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4205,7 +4205,7 @@
         <v>311</v>
       </c>
       <c r="C178">
-        <v>186.02</v>
+        <v>188.07</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4213,21 +4213,21 @@
         <v>312</v>
       </c>
       <c r="B179" t="s">
-        <v>254</v>
+        <v>313</v>
       </c>
       <c r="C179">
-        <v>181.74</v>
+        <v>186.02</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B180" t="s">
-        <v>314</v>
+        <v>255</v>
       </c>
       <c r="C180">
-        <v>176.4</v>
+        <v>181.74</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -4238,7 +4238,7 @@
         <v>316</v>
       </c>
       <c r="C181">
-        <v>172.32</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4246,32 +4246,32 @@
         <v>317</v>
       </c>
       <c r="B182" t="s">
-        <v>100</v>
+        <v>318</v>
       </c>
       <c r="C182">
-        <v>170.45</v>
+        <v>172.32</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B183" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C183">
-        <v>170.37</v>
+        <v>170.45</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B184" t="s">
-        <v>320</v>
+        <v>149</v>
       </c>
       <c r="C184">
-        <v>170.27</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4282,7 +4282,7 @@
         <v>322</v>
       </c>
       <c r="C185">
-        <v>169.48</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4293,7 +4293,7 @@
         <v>324</v>
       </c>
       <c r="C186">
-        <v>168.35</v>
+        <v>169.48</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -4301,32 +4301,32 @@
         <v>325</v>
       </c>
       <c r="B187" t="s">
-        <v>192</v>
+        <v>326</v>
       </c>
       <c r="C187">
-        <v>168.17</v>
+        <v>168.35</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B188" t="s">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="C188">
-        <v>164.18</v>
+        <v>168.17</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B189" t="s">
-        <v>328</v>
+        <v>4</v>
       </c>
       <c r="C189">
-        <v>163.62</v>
+        <v>164.18</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4334,32 +4334,32 @@
         <v>329</v>
       </c>
       <c r="B190" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="C190">
-        <v>159.85</v>
+        <v>163.62</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B191" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="C191">
-        <v>156.68</v>
+        <v>159.85</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B192" t="s">
-        <v>332</v>
+        <v>87</v>
       </c>
       <c r="C192">
-        <v>153.11000000000001</v>
+        <v>156.68</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -4367,98 +4367,98 @@
         <v>333</v>
       </c>
       <c r="B193" t="s">
-        <v>208</v>
+        <v>334</v>
       </c>
       <c r="C193">
-        <v>151.41</v>
+        <v>153.11000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B194" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="C194">
-        <v>149.66</v>
+        <v>151.41</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B195" t="s">
-        <v>303</v>
+        <v>110</v>
       </c>
       <c r="C195">
-        <v>147.84</v>
+        <v>149.66</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B196" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="C196">
-        <v>142.36000000000001</v>
+        <v>147.84</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B197" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="C197">
-        <v>140.63999999999999</v>
+        <v>142.36000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B198" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="C198">
-        <v>140.47999999999999</v>
+        <v>140.63999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B199" t="s">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="C199">
-        <v>137.93</v>
+        <v>140.47999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B200" t="s">
-        <v>95</v>
+        <v>297</v>
       </c>
       <c r="C200">
-        <v>135.81</v>
+        <v>137.93</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B201" t="s">
-        <v>342</v>
+        <v>94</v>
       </c>
       <c r="C201">
-        <v>135.37</v>
+        <v>135.81</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4466,29 +4466,29 @@
         <v>343</v>
       </c>
       <c r="B202" t="s">
-        <v>93</v>
+        <v>344</v>
       </c>
       <c r="C202">
-        <v>134.97999999999999</v>
+        <v>135.37</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B203" t="s">
-        <v>243</v>
+        <v>92</v>
       </c>
       <c r="C203">
-        <v>134.44</v>
+        <v>134.97999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B204" t="s">
-        <v>71</v>
+        <v>244</v>
       </c>
       <c r="C204">
         <v>134.44</v>
@@ -4496,13 +4496,13 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B205" t="s">
-        <v>347</v>
+        <v>70</v>
       </c>
       <c r="C205">
-        <v>134.08000000000001</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4513,7 +4513,7 @@
         <v>349</v>
       </c>
       <c r="C206">
-        <v>133.49</v>
+        <v>134.08000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4524,7 +4524,7 @@
         <v>351</v>
       </c>
       <c r="C207">
-        <v>132</v>
+        <v>133.49</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4532,54 +4532,54 @@
         <v>352</v>
       </c>
       <c r="B208" t="s">
-        <v>280</v>
+        <v>353</v>
       </c>
       <c r="C208">
-        <v>131.31</v>
+        <v>132</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B209" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="C209">
-        <v>131.16999999999999</v>
+        <v>131.31</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B210" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="C210">
-        <v>128.33000000000001</v>
+        <v>131.16999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B211" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="C211">
-        <v>127.86</v>
+        <v>128.33000000000001</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B212" t="s">
-        <v>357</v>
+        <v>87</v>
       </c>
       <c r="C212">
-        <v>126.88</v>
+        <v>127.86</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -4590,7 +4590,7 @@
         <v>359</v>
       </c>
       <c r="C213">
-        <v>126.72</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -4598,21 +4598,21 @@
         <v>360</v>
       </c>
       <c r="B214" t="s">
-        <v>168</v>
+        <v>361</v>
       </c>
       <c r="C214">
-        <v>126.56</v>
+        <v>126.72</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B215" t="s">
-        <v>362</v>
+        <v>169</v>
       </c>
       <c r="C215">
-        <v>126.22</v>
+        <v>126.56</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -4623,7 +4623,7 @@
         <v>364</v>
       </c>
       <c r="C216">
-        <v>124.92</v>
+        <v>126.22</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4631,65 +4631,65 @@
         <v>365</v>
       </c>
       <c r="B217" t="s">
-        <v>187</v>
+        <v>366</v>
       </c>
       <c r="C217">
-        <v>123.41</v>
+        <v>124.92</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B218" t="s">
-        <v>349</v>
+        <v>188</v>
       </c>
       <c r="C218">
-        <v>121.43</v>
+        <v>123.41</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B219" t="s">
-        <v>192</v>
+        <v>351</v>
       </c>
       <c r="C219">
-        <v>120.88</v>
+        <v>121.43</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B220" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="C220">
-        <v>120.85</v>
+        <v>120.88</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B221" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C221">
-        <v>120.72</v>
+        <v>120.85</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B222" t="s">
-        <v>371</v>
+        <v>16</v>
       </c>
       <c r="C222">
-        <v>119.07</v>
+        <v>120.72</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -4697,21 +4697,21 @@
         <v>372</v>
       </c>
       <c r="B223" t="s">
-        <v>263</v>
+        <v>373</v>
       </c>
       <c r="C223">
-        <v>113.8</v>
+        <v>119.07</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B224" t="s">
-        <v>374</v>
+        <v>264</v>
       </c>
       <c r="C224">
-        <v>112.47</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4719,21 +4719,21 @@
         <v>375</v>
       </c>
       <c r="B225" t="s">
-        <v>168</v>
+        <v>376</v>
       </c>
       <c r="C225">
-        <v>109.4</v>
+        <v>112.47</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B226" t="s">
-        <v>377</v>
+        <v>169</v>
       </c>
       <c r="C226">
-        <v>108.51</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4744,7 +4744,7 @@
         <v>379</v>
       </c>
       <c r="C227">
-        <v>104.9</v>
+        <v>108.51</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -4755,7 +4755,7 @@
         <v>381</v>
       </c>
       <c r="C228">
-        <v>99.3</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4766,7 +4766,7 @@
         <v>383</v>
       </c>
       <c r="C229">
-        <v>99.24</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4774,65 +4774,65 @@
         <v>384</v>
       </c>
       <c r="B230" t="s">
-        <v>174</v>
+        <v>385</v>
       </c>
       <c r="C230">
-        <v>98.55</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B231" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="C231">
-        <v>98.28</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B232" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C232">
-        <v>97.08</v>
+        <v>98.28</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B233" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C233">
-        <v>95.88</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B234" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C234">
-        <v>93.21</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B235" t="s">
-        <v>390</v>
+        <v>70</v>
       </c>
       <c r="C235">
-        <v>92.72</v>
+        <v>93.21</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4840,43 +4840,43 @@
         <v>391</v>
       </c>
       <c r="B236" t="s">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="C236">
-        <v>92.5</v>
+        <v>92.72</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B237" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="C237">
-        <v>92.07</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B238" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C238">
-        <v>90.2</v>
+        <v>92.07</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B239" t="s">
-        <v>395</v>
+        <v>33</v>
       </c>
       <c r="C239">
-        <v>89.85</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -4884,21 +4884,21 @@
         <v>396</v>
       </c>
       <c r="B240" t="s">
-        <v>71</v>
+        <v>397</v>
       </c>
       <c r="C240">
-        <v>86.73</v>
+        <v>89.85</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B241" t="s">
-        <v>398</v>
+        <v>70</v>
       </c>
       <c r="C241">
-        <v>86.45</v>
+        <v>86.73</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -4906,21 +4906,21 @@
         <v>399</v>
       </c>
       <c r="B242" t="s">
-        <v>204</v>
+        <v>400</v>
       </c>
       <c r="C242">
-        <v>86.38</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B243" t="s">
-        <v>401</v>
+        <v>205</v>
       </c>
       <c r="C243">
-        <v>84.72</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -4928,21 +4928,21 @@
         <v>402</v>
       </c>
       <c r="B244" t="s">
-        <v>4</v>
+        <v>403</v>
       </c>
       <c r="C244">
-        <v>83.13</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B245" t="s">
-        <v>404</v>
+        <v>4</v>
       </c>
       <c r="C245">
-        <v>83.06</v>
+        <v>83.13</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4953,7 +4953,7 @@
         <v>406</v>
       </c>
       <c r="C246">
-        <v>82.91</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4961,32 +4961,32 @@
         <v>407</v>
       </c>
       <c r="B247" t="s">
-        <v>210</v>
+        <v>408</v>
       </c>
       <c r="C247">
-        <v>82.79</v>
+        <v>82.91</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B248" t="s">
-        <v>267</v>
+        <v>211</v>
       </c>
       <c r="C248">
-        <v>82.28</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B249" t="s">
-        <v>410</v>
+        <v>268</v>
       </c>
       <c r="C249">
-        <v>81.87</v>
+        <v>82.28</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4997,7 +4997,7 @@
         <v>412</v>
       </c>
       <c r="C250">
-        <v>80.05</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -5005,21 +5005,21 @@
         <v>413</v>
       </c>
       <c r="B251" t="s">
-        <v>156</v>
+        <v>414</v>
       </c>
       <c r="C251">
-        <v>78.97</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B252" t="s">
-        <v>415</v>
+        <v>157</v>
       </c>
       <c r="C252">
-        <v>77.19</v>
+        <v>78.97</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -5030,7 +5030,7 @@
         <v>417</v>
       </c>
       <c r="C253">
-        <v>76.790000000000006</v>
+        <v>77.19</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5041,7 +5041,7 @@
         <v>419</v>
       </c>
       <c r="C254">
-        <v>76.56</v>
+        <v>76.790000000000006</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5052,7 +5052,7 @@
         <v>421</v>
       </c>
       <c r="C255">
-        <v>76.260000000000005</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -5063,7 +5063,7 @@
         <v>423</v>
       </c>
       <c r="C256">
-        <v>75.86</v>
+        <v>76.260000000000005</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5074,7 +5074,7 @@
         <v>425</v>
       </c>
       <c r="C257">
-        <v>74.739999999999995</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5085,7 +5085,7 @@
         <v>427</v>
       </c>
       <c r="C258">
-        <v>74.39</v>
+        <v>74.739999999999995</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5096,7 +5096,7 @@
         <v>429</v>
       </c>
       <c r="C259">
-        <v>74.23</v>
+        <v>74.39</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5107,7 +5107,7 @@
         <v>431</v>
       </c>
       <c r="C260">
-        <v>73.650000000000006</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5118,7 +5118,7 @@
         <v>433</v>
       </c>
       <c r="C261">
-        <v>73.599999999999994</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5129,7 +5129,7 @@
         <v>435</v>
       </c>
       <c r="C262">
-        <v>73.56</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5140,7 +5140,7 @@
         <v>437</v>
       </c>
       <c r="C263">
-        <v>73.430000000000007</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5151,7 +5151,7 @@
         <v>439</v>
       </c>
       <c r="C264">
-        <v>72.42</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5159,54 +5159,54 @@
         <v>440</v>
       </c>
       <c r="B265" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="C265">
-        <v>71.31</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B266" t="s">
-        <v>16</v>
+        <v>361</v>
       </c>
       <c r="C266">
-        <v>70.459999999999994</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B267" t="s">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="C267">
-        <v>69.88</v>
+        <v>70.459999999999994</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B268" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C268">
-        <v>69.45</v>
+        <v>69.88</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B269" t="s">
-        <v>445</v>
+        <v>244</v>
       </c>
       <c r="C269">
-        <v>69.34</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5217,7 +5217,7 @@
         <v>447</v>
       </c>
       <c r="C270">
-        <v>69.069999999999993</v>
+        <v>69.34</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5225,21 +5225,21 @@
         <v>448</v>
       </c>
       <c r="B271" t="s">
-        <v>233</v>
+        <v>449</v>
       </c>
       <c r="C271">
-        <v>68.459999999999994</v>
+        <v>69.069999999999993</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B272" t="s">
-        <v>450</v>
+        <v>234</v>
       </c>
       <c r="C272">
-        <v>68.05</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -5250,7 +5250,7 @@
         <v>452</v>
       </c>
       <c r="C273">
-        <v>66.010000000000005</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -5258,32 +5258,32 @@
         <v>453</v>
       </c>
       <c r="B274" t="s">
-        <v>359</v>
+        <v>454</v>
       </c>
       <c r="C274">
-        <v>65.06</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B275" t="s">
-        <v>93</v>
+        <v>361</v>
       </c>
       <c r="C275">
-        <v>64.709999999999994</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B276" t="s">
-        <v>456</v>
+        <v>92</v>
       </c>
       <c r="C276">
-        <v>64.400000000000006</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -5291,7 +5291,7 @@
         <v>457</v>
       </c>
       <c r="B277" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C277">
         <v>63.94</v>
@@ -5302,7 +5302,7 @@
         <v>458</v>
       </c>
       <c r="B278" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C278">
         <v>61.82</v>
@@ -5324,7 +5324,7 @@
         <v>461</v>
       </c>
       <c r="B280" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C280">
         <v>59.87</v>
@@ -5357,7 +5357,7 @@
         <v>465</v>
       </c>
       <c r="B283" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C283">
         <v>57.82</v>
@@ -5368,7 +5368,7 @@
         <v>466</v>
       </c>
       <c r="B284" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C284">
         <v>56.79</v>
@@ -5390,7 +5390,7 @@
         <v>469</v>
       </c>
       <c r="B286" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C286">
         <v>55.49</v>
@@ -5401,7 +5401,7 @@
         <v>470</v>
       </c>
       <c r="B287" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C287">
         <v>55.24</v>
@@ -5467,7 +5467,7 @@
         <v>481</v>
       </c>
       <c r="B293" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C293">
         <v>49.28</v>
@@ -5500,7 +5500,7 @@
         <v>484</v>
       </c>
       <c r="B296" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C296">
         <v>47.01</v>
@@ -5522,7 +5522,7 @@
         <v>487</v>
       </c>
       <c r="B298" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C298">
         <v>46.23</v>
@@ -5555,7 +5555,7 @@
         <v>492</v>
       </c>
       <c r="B301" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C301">
         <v>44.89</v>
@@ -5577,7 +5577,7 @@
         <v>495</v>
       </c>
       <c r="B303" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C303">
         <v>44.52</v>
@@ -5588,7 +5588,7 @@
         <v>496</v>
       </c>
       <c r="B304" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C304">
         <v>44.44</v>
@@ -5610,7 +5610,7 @@
         <v>498</v>
       </c>
       <c r="B306" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C306">
         <v>42.64</v>
@@ -5621,7 +5621,7 @@
         <v>499</v>
       </c>
       <c r="B307" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C307">
         <v>40</v>
@@ -5643,7 +5643,7 @@
         <v>502</v>
       </c>
       <c r="B309" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C309">
         <v>37.799999999999997</v>
@@ -5676,7 +5676,7 @@
         <v>507</v>
       </c>
       <c r="B312" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C312">
         <v>33.049999999999997</v>
@@ -5720,7 +5720,7 @@
         <v>514</v>
       </c>
       <c r="B316" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C316">
         <v>28.58</v>
@@ -5731,7 +5731,7 @@
         <v>515</v>
       </c>
       <c r="B317" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C317">
         <v>28.26</v>
@@ -5764,7 +5764,7 @@
         <v>520</v>
       </c>
       <c r="B320" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C320">
         <v>27.45</v>
@@ -5775,7 +5775,7 @@
         <v>521</v>
       </c>
       <c r="B321" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C321">
         <v>26.1</v>
@@ -5797,7 +5797,7 @@
         <v>524</v>
       </c>
       <c r="B323" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C323">
         <v>24.33</v>
@@ -5819,7 +5819,7 @@
         <v>527</v>
       </c>
       <c r="B325" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C325">
         <v>23.46</v>
@@ -5830,7 +5830,7 @@
         <v>528</v>
       </c>
       <c r="B326" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C326">
         <v>23.11</v>
@@ -5852,7 +5852,7 @@
         <v>531</v>
       </c>
       <c r="B328" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C328">
         <v>20.49</v>
@@ -5973,7 +5973,7 @@
         <v>552</v>
       </c>
       <c r="B339" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C339">
         <v>9.85</v>
@@ -6006,7 +6006,7 @@
         <v>557</v>
       </c>
       <c r="B342" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C342">
         <v>9.44</v>
@@ -6017,7 +6017,7 @@
         <v>558</v>
       </c>
       <c r="B343" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C343">
         <v>8.66</v>
@@ -6050,7 +6050,7 @@
         <v>563</v>
       </c>
       <c r="B346" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C346">
         <v>7.91</v>
@@ -6072,7 +6072,7 @@
         <v>566</v>
       </c>
       <c r="B348" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C348">
         <v>6.9</v>
@@ -6094,7 +6094,7 @@
         <v>569</v>
       </c>
       <c r="B350" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C350">
         <v>6.6</v>
@@ -6116,7 +6116,7 @@
         <v>572</v>
       </c>
       <c r="B352" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C352">
         <v>6.04</v>
@@ -6149,7 +6149,7 @@
         <v>577</v>
       </c>
       <c r="B355" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C355">
         <v>5.55</v>
@@ -6171,7 +6171,7 @@
         <v>580</v>
       </c>
       <c r="B357" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C357">
         <v>4.88</v>
@@ -6182,7 +6182,7 @@
         <v>581</v>
       </c>
       <c r="B358" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C358">
         <v>4.79</v>
@@ -6215,7 +6215,7 @@
         <v>586</v>
       </c>
       <c r="B361" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C361">
         <v>1.77</v>
@@ -6237,7 +6237,7 @@
         <v>589</v>
       </c>
       <c r="B363" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C363">
         <v>1.3</v>
@@ -6259,7 +6259,7 @@
         <v>592</v>
       </c>
       <c r="B365" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C365">
         <v>1.24</v>
@@ -6325,7 +6325,7 @@
         <v>603</v>
       </c>
       <c r="B371" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C371">
         <v>0.55000000000000004</v>
@@ -6336,7 +6336,7 @@
         <v>604</v>
       </c>
       <c r="B372" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C372">
         <v>0.36</v>
@@ -6358,7 +6358,7 @@
         <v>607</v>
       </c>
       <c r="B374" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C374">
         <v>0.03</v>
@@ -6391,7 +6391,7 @@
         <v>612</v>
       </c>
       <c r="B377" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C377">
         <v>0.01</v>
@@ -6424,7 +6424,7 @@
         <v>617</v>
       </c>
       <c r="B380" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C380">
         <v>-167.52</v>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E77D5FB2-E90E-444F-A5B7-2C5DFE18A5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32D2F6CB-14E9-4E5C-B64B-346458FB0C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="624">
   <si>
     <t>CONTA</t>
   </si>
@@ -43,1569 +43,1605 @@
     <t>ALBERTO</t>
   </si>
   <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>005142661</t>
+  </si>
+  <si>
+    <t>SABRINA</t>
+  </si>
+  <si>
+    <t>005142624</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
+  </si>
+  <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
     <t>004459461</t>
   </si>
   <si>
     <t>INTERLAGOS</t>
   </si>
   <si>
-    <t>005142661</t>
-  </si>
-  <si>
-    <t>SABRINA</t>
-  </si>
-  <si>
-    <t>005142624</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
-  </si>
-  <si>
-    <t>004482439</t>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004946542</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004862672</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>003301389</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004208869</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004630773</t>
+  </si>
+  <si>
+    <t>NABOR</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004767746</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004641487</t>
+  </si>
+  <si>
+    <t>LAILA</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004915243</t>
+  </si>
+  <si>
+    <t>POLO</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004643737</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>005169333</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>003836362</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004467884</t>
+  </si>
+  <si>
+    <t>005000460</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004425965</t>
+  </si>
+  <si>
+    <t>CAROLLINA</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>004504449</t>
+  </si>
+  <si>
+    <t>KELMA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004461526</t>
+  </si>
+  <si>
+    <t>ASSISTIGAS</t>
+  </si>
+  <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004380948</t>
+  </si>
+  <si>
+    <t>LUISA</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>002458288</t>
+  </si>
+  <si>
+    <t>BENEDITO</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004207374</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>004212409</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>004381359</t>
   </si>
   <si>
     <t>PEDRO</t>
   </si>
   <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004996634</t>
-  </si>
-  <si>
-    <t>HIROKO</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>004641487</t>
-  </si>
-  <si>
-    <t>LAILA</t>
-  </si>
-  <si>
-    <t>004643737</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004467884</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004461526</t>
-  </si>
-  <si>
-    <t>ASSISTIGAS</t>
-  </si>
-  <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004452476</t>
-  </si>
-  <si>
-    <t>IVONE</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004259659</t>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>004444605</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004207278</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004334158</t>
+  </si>
+  <si>
+    <t>LEONE</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>001922009</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>004450405</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>004243043</t>
+  </si>
+  <si>
+    <t>SUELI</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004200433</t>
   </si>
   <si>
     <t>BENTO</t>
   </si>
   <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004207374</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>004212409</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>004444605</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004466221</t>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>004369172</t>
+  </si>
+  <si>
+    <t>LUIZA</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>004340984</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>004212476</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>DILSON</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>003497496</t>
+  </si>
+  <si>
+    <t>ELISANDRA</t>
+  </si>
+  <si>
+    <t>004643153</t>
+  </si>
+  <si>
+    <t>CARLA</t>
+  </si>
+  <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004691225</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>004517506</t>
+  </si>
+  <si>
+    <t>004552021</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>004264780</t>
+  </si>
+  <si>
+    <t>004214604</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>004214592</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>004404724</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>004462930</t>
   </si>
   <si>
     <t>WALTER</t>
   </si>
   <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>004425965</t>
-  </si>
-  <si>
-    <t>CAROLLINA</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004207278</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004334158</t>
-  </si>
-  <si>
-    <t>LEONE</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004497825</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>004450405</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004243043</t>
-  </si>
-  <si>
-    <t>SUELI</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>004369172</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>004340984</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>000834301</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>004212476</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004751770</t>
-  </si>
-  <si>
-    <t>DILSON</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004556150</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004436055</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>003497496</t>
-  </si>
-  <si>
-    <t>ELISANDRA</t>
-  </si>
-  <si>
-    <t>004643153</t>
-  </si>
-  <si>
-    <t>CARLA</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004691225</t>
-  </si>
-  <si>
-    <t>ANNA</t>
-  </si>
-  <si>
-    <t>004517506</t>
-  </si>
-  <si>
-    <t>004552021</t>
-  </si>
-  <si>
-    <t>005009947</t>
-  </si>
-  <si>
-    <t>VERANICE</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>004264780</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>004214592</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>004404724</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
     <t>000827730</t>
   </si>
   <si>
@@ -1654,12 +1690,6 @@
     <t>LAIS</t>
   </si>
   <si>
-    <t>004918709</t>
-  </si>
-  <si>
-    <t>VANESSA</t>
-  </si>
-  <si>
     <t>004342617</t>
   </si>
   <si>
@@ -1741,12 +1771,6 @@
     <t>004419141</t>
   </si>
   <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
     <t>004388490</t>
   </si>
   <si>
@@ -1783,12 +1807,6 @@
     <t>004508516</t>
   </si>
   <si>
-    <t>004848927</t>
-  </si>
-  <si>
-    <t>ULDARICO</t>
-  </si>
-  <si>
     <t>004500804</t>
   </si>
   <si>
@@ -1829,9 +1847,6 @@
   </si>
   <si>
     <t>MARGARETH</t>
-  </si>
-  <si>
-    <t>003301389</t>
   </si>
   <si>
     <t>002592340</t>
@@ -2242,10 +2257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C382"/>
+  <dimension ref="A1:C385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2269,7 +2284,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>702000</v>
+        <v>702002.4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2280,7 +2295,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>255010</v>
+        <v>255010.87</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2291,7 +2306,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>200006.98</v>
+        <v>196246.41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2302,7 +2317,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>157501.6</v>
+        <v>157503.12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2313,7 +2328,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>155005.85</v>
+        <v>155008.35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2335,7 +2350,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>100975.27</v>
+        <v>102604.16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2346,7 +2361,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>100000</v>
+        <v>100006.98</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2354,65 +2369,65 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>85000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
       <c r="C11">
-        <v>48014.67</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
       <c r="C12">
-        <v>40064.79</v>
+        <v>81256.27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
       <c r="C13">
-        <v>30667.24</v>
+        <v>78252.17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
       <c r="C14">
-        <v>25138.74</v>
+        <v>77924.100000000006</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
       <c r="C15">
-        <v>25046.28</v>
+        <v>70308.45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2423,7 +2438,7 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>22063.42</v>
+        <v>62425.99</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2434,7 +2449,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>17492.96</v>
+        <v>54466.47</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2442,219 +2457,219 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>15151.24</v>
+        <v>44141.27</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>13571.37</v>
+        <v>42607.99</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20">
-        <v>11057.89</v>
+        <v>41005.26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21">
-        <v>10412.89</v>
+        <v>40064.79</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>9852.26</v>
+        <v>35332.22</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C23">
-        <v>6354.84</v>
+        <v>27167.24</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>4734.63</v>
+        <v>26651.25</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>4050.48</v>
+        <v>25138.74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>3826.89</v>
+        <v>25046.31</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>3814.4</v>
+        <v>23362.34</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C28">
-        <v>3241.75</v>
+        <v>22063.42</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C29">
-        <v>2691.13</v>
+        <v>21041.360000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C30">
-        <v>1200</v>
+        <v>20634.79</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C31">
-        <v>989.61</v>
+        <v>20626.990000000002</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C32">
-        <v>988.32</v>
+        <v>20586.23</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C33">
-        <v>946.84</v>
+        <v>20398.580000000002</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C34">
-        <v>943.73</v>
+        <v>17880.919999999998</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C35">
-        <v>942.42</v>
+        <v>17492.96</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C36">
-        <v>937.33</v>
+        <v>17357.11</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>933.95</v>
+        <v>15151.24</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2665,7 +2680,7 @@
         <v>72</v>
       </c>
       <c r="C38">
-        <v>894.66</v>
+        <v>13571.37</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2676,7 +2691,7 @@
         <v>74</v>
       </c>
       <c r="C39">
-        <v>854.73</v>
+        <v>13259</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2684,10 +2699,10 @@
         <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C40">
-        <v>849.15</v>
+        <v>12796.37</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2698,7 +2713,7 @@
         <v>77</v>
       </c>
       <c r="C41">
-        <v>848.25</v>
+        <v>11057.89</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2709,7 +2724,7 @@
         <v>79</v>
       </c>
       <c r="C42">
-        <v>847.72</v>
+        <v>10412.89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2717,98 +2732,98 @@
         <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C43">
-        <v>842.42</v>
+        <v>9852.26</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
         <v>82</v>
       </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
       <c r="C44">
-        <v>839.9</v>
+        <v>7259.67</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
         <v>84</v>
       </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
       <c r="C45">
-        <v>839.03</v>
+        <v>6354.84</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
         <v>86</v>
       </c>
-      <c r="B46" t="s">
-        <v>87</v>
-      </c>
       <c r="C46">
-        <v>823.1</v>
+        <v>5057.22</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>807.58</v>
+        <v>4050.48</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" t="s">
         <v>89</v>
       </c>
-      <c r="B48" t="s">
-        <v>90</v>
-      </c>
       <c r="C48">
-        <v>775.45</v>
+        <v>3826.89</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
         <v>91</v>
       </c>
-      <c r="B49" t="s">
-        <v>92</v>
-      </c>
       <c r="C49">
-        <v>754.27</v>
+        <v>3241.75</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
         <v>93</v>
       </c>
-      <c r="B50" t="s">
-        <v>94</v>
-      </c>
       <c r="C50">
-        <v>748.56</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
         <v>95</v>
       </c>
-      <c r="B51" t="s">
-        <v>24</v>
-      </c>
       <c r="C51">
-        <v>744.09</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2819,7 +2834,7 @@
         <v>97</v>
       </c>
       <c r="C52">
-        <v>737.21</v>
+        <v>2227.88</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2830,7 +2845,7 @@
         <v>99</v>
       </c>
       <c r="C53">
-        <v>733.93</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2841,7 +2856,7 @@
         <v>101</v>
       </c>
       <c r="C54">
-        <v>716.35</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2852,7 +2867,7 @@
         <v>103</v>
       </c>
       <c r="C55">
-        <v>715.56</v>
+        <v>988.32</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2860,87 +2875,87 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C56">
-        <v>707.41</v>
+        <v>946.84</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C57">
-        <v>704.83</v>
+        <v>943.73</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C58">
-        <v>702.87</v>
+        <v>942.42</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C59">
-        <v>700.86</v>
+        <v>937.33</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C60">
-        <v>698.83</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61">
-        <v>698.43</v>
+        <v>894.66</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C62">
-        <v>698.03</v>
+        <v>854.73</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="C63">
-        <v>689.06</v>
+        <v>849.15</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2948,54 +2963,54 @@
         <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="C64">
-        <v>679.29</v>
+        <v>847.72</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C65">
-        <v>675.5</v>
+        <v>842.42</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C66">
-        <v>674.5</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C67">
-        <v>666</v>
+        <v>839.03</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C68">
-        <v>666</v>
+        <v>823.1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3006,7 +3021,7 @@
         <v>128</v>
       </c>
       <c r="C69">
-        <v>666</v>
+        <v>814.4</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3014,21 +3029,21 @@
         <v>129</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="C70">
-        <v>666</v>
+        <v>775.45</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="C71">
-        <v>666</v>
+        <v>754.27</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3039,7 +3054,7 @@
         <v>133</v>
       </c>
       <c r="C72">
-        <v>663.35</v>
+        <v>748.58</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3047,10 +3062,10 @@
         <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="C73">
-        <v>649.30999999999995</v>
+        <v>744.09</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3061,7 +3076,7 @@
         <v>136</v>
       </c>
       <c r="C74">
-        <v>644.94000000000005</v>
+        <v>737.21</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3072,7 +3087,7 @@
         <v>138</v>
       </c>
       <c r="C75">
-        <v>627.35</v>
+        <v>733.93</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3080,32 +3095,32 @@
         <v>139</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="C76">
-        <v>625.5</v>
+        <v>716.35</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C77">
-        <v>623.46</v>
+        <v>715.56</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B78" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C78">
-        <v>617.72</v>
+        <v>707.41</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3116,7 +3131,7 @@
         <v>145</v>
       </c>
       <c r="C79">
-        <v>614.55999999999995</v>
+        <v>704.83</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3127,7 +3142,7 @@
         <v>147</v>
       </c>
       <c r="C80">
-        <v>598.08000000000004</v>
+        <v>702.87</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3138,7 +3153,7 @@
         <v>149</v>
       </c>
       <c r="C81">
-        <v>595.05999999999995</v>
+        <v>700.86</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -3146,98 +3161,98 @@
         <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="C82">
-        <v>592.84</v>
+        <v>698.83</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" t="s">
         <v>152</v>
       </c>
-      <c r="B83" t="s">
-        <v>153</v>
-      </c>
       <c r="C83">
-        <v>591.30999999999995</v>
+        <v>698.43</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" t="s">
         <v>154</v>
       </c>
-      <c r="B84" t="s">
-        <v>155</v>
-      </c>
       <c r="C84">
-        <v>585.70000000000005</v>
+        <v>698.03</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" t="s">
         <v>156</v>
       </c>
-      <c r="B85" t="s">
-        <v>157</v>
-      </c>
       <c r="C85">
-        <v>581.89</v>
+        <v>689.06</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B86" t="s">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>581.79</v>
+        <v>679.29</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C87">
-        <v>581.08000000000004</v>
+        <v>675.5</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C88">
-        <v>578.48</v>
+        <v>674.5</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="C89">
-        <v>578.08000000000004</v>
+        <v>666</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" t="s">
         <v>165</v>
       </c>
-      <c r="B90" t="s">
-        <v>92</v>
-      </c>
       <c r="C90">
-        <v>574</v>
+        <v>666</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3245,54 +3260,54 @@
         <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="C91">
-        <v>573.34</v>
+        <v>666</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" t="s">
         <v>168</v>
       </c>
-      <c r="B92" t="s">
-        <v>169</v>
-      </c>
       <c r="C92">
-        <v>568.94000000000005</v>
+        <v>666</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" t="s">
         <v>170</v>
       </c>
-      <c r="B93" t="s">
-        <v>171</v>
-      </c>
       <c r="C93">
-        <v>557.41999999999996</v>
+        <v>663.35</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C94">
-        <v>549.72</v>
+        <v>649.30999999999995</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" t="s">
         <v>173</v>
       </c>
-      <c r="B95" t="s">
-        <v>97</v>
-      </c>
       <c r="C95">
-        <v>549.71</v>
+        <v>644.94000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3303,7 +3318,7 @@
         <v>175</v>
       </c>
       <c r="C96">
-        <v>529.34</v>
+        <v>627.35</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3311,10 +3326,10 @@
         <v>176</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C97">
-        <v>524.29</v>
+        <v>625.5</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3325,7 +3340,7 @@
         <v>178</v>
       </c>
       <c r="C98">
-        <v>517.87</v>
+        <v>623.46</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3336,7 +3351,7 @@
         <v>180</v>
       </c>
       <c r="C99">
-        <v>516.78</v>
+        <v>617.72</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3344,175 +3359,175 @@
         <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="C100">
-        <v>508.42</v>
+        <v>614.55999999999995</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B101" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C101">
-        <v>507.08</v>
+        <v>598.08000000000004</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B102" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C102">
-        <v>494.86</v>
+        <v>595.05999999999995</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B103" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="C103">
-        <v>491.62</v>
+        <v>591.30999999999995</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B104" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C104">
-        <v>467.91</v>
+        <v>585.70000000000005</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B105" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C105">
-        <v>465.01</v>
+        <v>581.89</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="C106">
-        <v>460.98</v>
+        <v>581.08000000000004</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B107" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C107">
-        <v>459.2</v>
+        <v>578.48</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B108" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C108">
-        <v>458.13</v>
+        <v>578.08000000000004</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B109" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C109">
-        <v>453.65</v>
+        <v>573.34</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="C110">
-        <v>450.33</v>
+        <v>568.94000000000005</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B111" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C111">
-        <v>449.3</v>
+        <v>557.41999999999996</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C112">
-        <v>442.44</v>
+        <v>549.72</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B113" t="s">
-        <v>203</v>
+        <v>136</v>
       </c>
       <c r="C113">
-        <v>436.86</v>
+        <v>549.71</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C114">
-        <v>430.64</v>
+        <v>529.34</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B115" t="s">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="C115">
-        <v>425.17</v>
+        <v>524.29</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3523,7 +3538,7 @@
         <v>209</v>
       </c>
       <c r="C116">
-        <v>423.95</v>
+        <v>519.45000000000005</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3534,7 +3549,7 @@
         <v>211</v>
       </c>
       <c r="C117">
-        <v>413.55</v>
+        <v>517.87</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3545,7 +3560,7 @@
         <v>213</v>
       </c>
       <c r="C118">
-        <v>407.48</v>
+        <v>516.78</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3553,32 +3568,32 @@
         <v>214</v>
       </c>
       <c r="B119" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="C119">
-        <v>400.75</v>
+        <v>507.08</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B120" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C120">
-        <v>393.52</v>
+        <v>494.86</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B121" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="C121">
-        <v>387.23</v>
+        <v>491.62</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -3586,43 +3601,43 @@
         <v>219</v>
       </c>
       <c r="B122" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="C122">
-        <v>377.42</v>
+        <v>470</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B123" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C123">
-        <v>369.59</v>
+        <v>467.91</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B124" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C124">
-        <v>365.44</v>
+        <v>465.01</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B125" t="s">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="C125">
-        <v>355.56</v>
+        <v>460.98</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3630,21 +3645,21 @@
         <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="C126">
-        <v>355</v>
+        <v>459.2</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B127" t="s">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="C127">
-        <v>350.34</v>
+        <v>458.13</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -3652,197 +3667,197 @@
         <v>229</v>
       </c>
       <c r="B128" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="C128">
-        <v>348.3</v>
+        <v>453.65</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B129" t="s">
-        <v>97</v>
+        <v>232</v>
       </c>
       <c r="C129">
-        <v>346.83</v>
+        <v>449.3</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B130" t="s">
-        <v>232</v>
+        <v>6</v>
       </c>
       <c r="C130">
-        <v>343.52</v>
+        <v>442.44</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B131" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C131">
-        <v>343.26</v>
+        <v>436.86</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B132" t="s">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="C132">
-        <v>332.65</v>
+        <v>430.64</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B133" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="C133">
-        <v>327.89</v>
+        <v>425.17</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B134" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C134">
-        <v>324.08999999999997</v>
+        <v>423.95</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B135" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C135">
-        <v>321.54000000000002</v>
+        <v>413.55</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B136" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C136">
-        <v>321.31</v>
+        <v>407.48</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B137" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="C137">
-        <v>321.24</v>
+        <v>400.75</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B138" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C138">
-        <v>312.05</v>
+        <v>393.52</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B139" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C139">
-        <v>309.77</v>
+        <v>387.23</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B140" t="s">
-        <v>64</v>
+        <v>186</v>
       </c>
       <c r="C140">
-        <v>309.32</v>
+        <v>377.42</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B141" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C141">
-        <v>302.77</v>
+        <v>369.59</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B142" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C142">
-        <v>302.51</v>
+        <v>365.44</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B143" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="C143">
-        <v>301.27</v>
+        <v>355</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B144" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C144">
-        <v>294.54000000000002</v>
+        <v>350.34</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B145" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C145">
-        <v>293.3</v>
+        <v>348.3</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -3850,10 +3865,10 @@
         <v>260</v>
       </c>
       <c r="B146" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="C146">
-        <v>282.54000000000002</v>
+        <v>346.83</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3864,7 +3879,7 @@
         <v>262</v>
       </c>
       <c r="C147">
-        <v>279.35000000000002</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3875,7 +3890,7 @@
         <v>264</v>
       </c>
       <c r="C148">
-        <v>278.49</v>
+        <v>343.26</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3883,54 +3898,54 @@
         <v>265</v>
       </c>
       <c r="B149" t="s">
-        <v>266</v>
+        <v>8</v>
       </c>
       <c r="C149">
-        <v>277.3</v>
+        <v>332.65</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B150" t="s">
-        <v>268</v>
+        <v>37</v>
       </c>
       <c r="C150">
-        <v>276.93</v>
+        <v>327.89</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B151" t="s">
-        <v>126</v>
+        <v>268</v>
       </c>
       <c r="C151">
-        <v>260.51</v>
+        <v>324.08999999999997</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
+        <v>269</v>
+      </c>
+      <c r="B152" t="s">
         <v>270</v>
       </c>
-      <c r="B152" t="s">
-        <v>271</v>
-      </c>
       <c r="C152">
-        <v>260.14999999999998</v>
+        <v>321.54000000000002</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
+        <v>271</v>
+      </c>
+      <c r="B153" t="s">
         <v>272</v>
       </c>
-      <c r="B153" t="s">
-        <v>257</v>
-      </c>
       <c r="C153">
-        <v>258.75</v>
+        <v>321.31</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3938,21 +3953,21 @@
         <v>273</v>
       </c>
       <c r="B154" t="s">
-        <v>274</v>
+        <v>209</v>
       </c>
       <c r="C154">
-        <v>255.99</v>
+        <v>321.24</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
+        <v>274</v>
+      </c>
+      <c r="B155" t="s">
         <v>275</v>
       </c>
-      <c r="B155" t="s">
-        <v>70</v>
-      </c>
       <c r="C155">
-        <v>253.95</v>
+        <v>312.05</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3960,164 +3975,164 @@
         <v>276</v>
       </c>
       <c r="B156" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="C156">
-        <v>253.25</v>
+        <v>309.77</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B157" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="C157">
-        <v>246.21</v>
+        <v>309.32</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B158" t="s">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="C158">
-        <v>245.99</v>
+        <v>302.77</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B159" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="C159">
-        <v>242.72</v>
+        <v>301.27</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B160" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C160">
-        <v>242.48</v>
+        <v>294.54000000000002</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B161" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C161">
-        <v>238.55</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B162" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="C162">
-        <v>237.08</v>
+        <v>282.54000000000002</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B163" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C163">
-        <v>233.93</v>
+        <v>279.35000000000002</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B164" t="s">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="C164">
-        <v>227.02</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B165" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C165">
-        <v>226.37</v>
+        <v>276.93</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B166" t="s">
-        <v>159</v>
+        <v>37</v>
       </c>
       <c r="C166">
-        <v>217.03</v>
+        <v>260.51</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B167" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C167">
-        <v>216.08</v>
+        <v>260.14999999999998</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B168" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C168">
-        <v>212.6</v>
+        <v>258.76</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B169" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C169">
-        <v>206.67</v>
+        <v>255.99</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B170" t="s">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="C170">
-        <v>204.9</v>
+        <v>253.95</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4125,153 +4140,153 @@
         <v>300</v>
       </c>
       <c r="B171" t="s">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="C171">
-        <v>199.04</v>
+        <v>253.25</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B172" t="s">
-        <v>159</v>
+        <v>8</v>
       </c>
       <c r="C172">
-        <v>198.65</v>
+        <v>246.21</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B173" t="s">
-        <v>304</v>
+        <v>72</v>
       </c>
       <c r="C173">
-        <v>196.68</v>
+        <v>245.99</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B174" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="C174">
-        <v>196.05</v>
+        <v>242.72</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B175" t="s">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="C175">
-        <v>191.39</v>
+        <v>242.48</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B176" t="s">
-        <v>308</v>
+        <v>43</v>
       </c>
       <c r="C176">
-        <v>190.71</v>
+        <v>237.08</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B177" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="C177">
-        <v>188.83</v>
+        <v>233.93</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
+        <v>309</v>
+      </c>
+      <c r="B178" t="s">
         <v>310</v>
       </c>
-      <c r="B178" t="s">
-        <v>311</v>
-      </c>
       <c r="C178">
-        <v>188.07</v>
+        <v>227.02</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B179" t="s">
-        <v>313</v>
+        <v>31</v>
       </c>
       <c r="C179">
-        <v>186.02</v>
+        <v>226.37</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B180" t="s">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="C180">
-        <v>181.74</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B181" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C181">
-        <v>176.4</v>
+        <v>216.08</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B182" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C182">
-        <v>172.32</v>
+        <v>212.6</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B183" t="s">
-        <v>99</v>
+        <v>318</v>
       </c>
       <c r="C183">
-        <v>170.45</v>
+        <v>206.67</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
+        <v>319</v>
+      </c>
+      <c r="B184" t="s">
         <v>320</v>
       </c>
-      <c r="B184" t="s">
-        <v>149</v>
-      </c>
       <c r="C184">
-        <v>170.37</v>
+        <v>204.9</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -4282,7 +4297,7 @@
         <v>322</v>
       </c>
       <c r="C185">
-        <v>170.27</v>
+        <v>199.04</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -4290,43 +4305,43 @@
         <v>323</v>
       </c>
       <c r="B186" t="s">
-        <v>324</v>
+        <v>43</v>
       </c>
       <c r="C186">
-        <v>169.48</v>
+        <v>198.65</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
+        <v>324</v>
+      </c>
+      <c r="B187" t="s">
         <v>325</v>
       </c>
-      <c r="B187" t="s">
-        <v>326</v>
-      </c>
       <c r="C187">
-        <v>168.35</v>
+        <v>196.68</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B188" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="C188">
-        <v>168.17</v>
+        <v>196.05</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
+        <v>327</v>
+      </c>
+      <c r="B189" t="s">
         <v>328</v>
       </c>
-      <c r="B189" t="s">
-        <v>4</v>
-      </c>
       <c r="C189">
-        <v>164.18</v>
+        <v>191.39</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -4337,7 +4352,7 @@
         <v>330</v>
       </c>
       <c r="C190">
-        <v>163.62</v>
+        <v>190.71</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -4345,10 +4360,10 @@
         <v>331</v>
       </c>
       <c r="B191" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="C191">
-        <v>159.85</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4356,274 +4371,274 @@
         <v>332</v>
       </c>
       <c r="B192" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="C192">
-        <v>156.68</v>
+        <v>188.07</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B193" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C193">
-        <v>153.11000000000001</v>
+        <v>186.02</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B194" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="C194">
-        <v>151.41</v>
+        <v>181.74</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B195" t="s">
-        <v>110</v>
+        <v>338</v>
       </c>
       <c r="C195">
-        <v>149.66</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B196" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="C196">
-        <v>147.84</v>
+        <v>172.32</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B197" t="s">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="C197">
-        <v>142.36000000000001</v>
+        <v>170.45</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B198" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C198">
-        <v>140.63999999999999</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B199" t="s">
-        <v>223</v>
+        <v>344</v>
       </c>
       <c r="C199">
-        <v>140.47999999999999</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B200" t="s">
-        <v>297</v>
+        <v>346</v>
       </c>
       <c r="C200">
-        <v>137.93</v>
+        <v>168.35</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B201" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="C201">
-        <v>135.81</v>
+        <v>168.17</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B202" t="s">
-        <v>344</v>
+        <v>4</v>
       </c>
       <c r="C202">
-        <v>135.37</v>
+        <v>164.18</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B203" t="s">
-        <v>92</v>
+        <v>305</v>
       </c>
       <c r="C203">
-        <v>134.97999999999999</v>
+        <v>162.94999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B204" t="s">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="C204">
-        <v>134.44</v>
+        <v>156.68</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B205" t="s">
-        <v>70</v>
+        <v>352</v>
       </c>
       <c r="C205">
-        <v>134.44</v>
+        <v>153.11000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B206" t="s">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="C206">
-        <v>134.08000000000001</v>
+        <v>151.41</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B207" t="s">
-        <v>351</v>
+        <v>149</v>
       </c>
       <c r="C207">
-        <v>133.49</v>
+        <v>149.66</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B208" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="C208">
-        <v>132</v>
+        <v>147.84</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B209" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C209">
-        <v>131.31</v>
+        <v>142.36000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B210" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C210">
-        <v>131.16999999999999</v>
+        <v>140.63999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B211" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="C211">
-        <v>128.33000000000001</v>
+        <v>140.47999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B212" t="s">
-        <v>87</v>
+        <v>318</v>
       </c>
       <c r="C212">
-        <v>127.86</v>
+        <v>137.93</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B213" t="s">
-        <v>359</v>
+        <v>133</v>
       </c>
       <c r="C213">
-        <v>126.88</v>
+        <v>135.81</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B214" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C214">
-        <v>126.72</v>
+        <v>135.37</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B215" t="s">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="C215">
-        <v>126.56</v>
+        <v>134.97999999999999</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B216" t="s">
-        <v>364</v>
+        <v>209</v>
       </c>
       <c r="C216">
-        <v>126.22</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4631,21 +4646,21 @@
         <v>365</v>
       </c>
       <c r="B217" t="s">
-        <v>366</v>
+        <v>29</v>
       </c>
       <c r="C217">
-        <v>124.92</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
+        <v>366</v>
+      </c>
+      <c r="B218" t="s">
         <v>367</v>
       </c>
-      <c r="B218" t="s">
-        <v>188</v>
-      </c>
       <c r="C218">
-        <v>123.41</v>
+        <v>134.08000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4653,120 +4668,120 @@
         <v>368</v>
       </c>
       <c r="B219" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="C219">
-        <v>121.43</v>
+        <v>133.49</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B220" t="s">
-        <v>193</v>
+        <v>371</v>
       </c>
       <c r="C220">
-        <v>120.88</v>
+        <v>132</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B221" t="s">
-        <v>52</v>
+        <v>275</v>
       </c>
       <c r="C221">
-        <v>120.85</v>
+        <v>131.16999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="C222">
-        <v>120.72</v>
+        <v>128.33000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B223" t="s">
-        <v>373</v>
+        <v>74</v>
       </c>
       <c r="C223">
-        <v>119.07</v>
+        <v>127.86</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B224" t="s">
-        <v>264</v>
+        <v>376</v>
       </c>
       <c r="C224">
-        <v>113.8</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B225" t="s">
-        <v>376</v>
+        <v>33</v>
       </c>
       <c r="C225">
-        <v>112.47</v>
+        <v>126.56</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B226" t="s">
-        <v>169</v>
+        <v>379</v>
       </c>
       <c r="C226">
-        <v>109.4</v>
+        <v>126.22</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B227" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C227">
-        <v>108.51</v>
+        <v>124.92</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B228" t="s">
-        <v>381</v>
+        <v>222</v>
       </c>
       <c r="C228">
-        <v>104.9</v>
+        <v>123.41</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B229" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C229">
-        <v>99.3</v>
+        <v>121.43</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4774,43 +4789,43 @@
         <v>384</v>
       </c>
       <c r="B230" t="s">
-        <v>385</v>
+        <v>227</v>
       </c>
       <c r="C230">
-        <v>99.24</v>
+        <v>120.88</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B231" t="s">
-        <v>175</v>
+        <v>91</v>
       </c>
       <c r="C231">
-        <v>98.55</v>
+        <v>120.85</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B232" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="C232">
-        <v>98.28</v>
+        <v>120.72</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
+        <v>387</v>
+      </c>
+      <c r="B233" t="s">
         <v>388</v>
       </c>
-      <c r="B233" t="s">
-        <v>77</v>
-      </c>
       <c r="C233">
-        <v>97.08</v>
+        <v>119.07</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4818,10 +4833,10 @@
         <v>389</v>
       </c>
       <c r="B234" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="C234">
-        <v>95.88</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4829,186 +4844,186 @@
         <v>390</v>
       </c>
       <c r="B235" t="s">
-        <v>70</v>
+        <v>391</v>
       </c>
       <c r="C235">
-        <v>93.21</v>
+        <v>112.47</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B236" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C236">
-        <v>92.72</v>
+        <v>108.51</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B237" t="s">
-        <v>43</v>
+        <v>395</v>
       </c>
       <c r="C237">
-        <v>92.5</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B238" t="s">
-        <v>94</v>
+        <v>397</v>
       </c>
       <c r="C238">
-        <v>92.07</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B239" t="s">
-        <v>33</v>
+        <v>399</v>
       </c>
       <c r="C239">
-        <v>90.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B240" t="s">
-        <v>397</v>
+        <v>23</v>
       </c>
       <c r="C240">
-        <v>89.85</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B241" t="s">
-        <v>70</v>
+        <v>402</v>
       </c>
       <c r="C241">
-        <v>86.73</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B242" t="s">
-        <v>400</v>
+        <v>206</v>
       </c>
       <c r="C242">
-        <v>86.45</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B243" t="s">
-        <v>205</v>
+        <v>52</v>
       </c>
       <c r="C243">
-        <v>86.38</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B244" t="s">
-        <v>403</v>
+        <v>56</v>
       </c>
       <c r="C244">
-        <v>84.72</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B245" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C245">
-        <v>83.13</v>
+        <v>93.21</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B246" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C246">
-        <v>83.06</v>
+        <v>92.72</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B247" t="s">
-        <v>408</v>
+        <v>84</v>
       </c>
       <c r="C247">
-        <v>82.91</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B248" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="C248">
-        <v>82.79</v>
+        <v>92.07</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B249" t="s">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="C249">
-        <v>82.28</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B250" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C250">
-        <v>81.87</v>
+        <v>89.85</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B251" t="s">
-        <v>414</v>
+        <v>29</v>
       </c>
       <c r="C251">
-        <v>80.05</v>
+        <v>86.73</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5016,21 +5031,21 @@
         <v>415</v>
       </c>
       <c r="B252" t="s">
-        <v>157</v>
+        <v>416</v>
       </c>
       <c r="C252">
-        <v>78.97</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B253" t="s">
-        <v>417</v>
+        <v>237</v>
       </c>
       <c r="C253">
-        <v>77.19</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -5041,7 +5056,7 @@
         <v>419</v>
       </c>
       <c r="C254">
-        <v>76.790000000000006</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -5049,164 +5064,164 @@
         <v>420</v>
       </c>
       <c r="B255" t="s">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="C255">
-        <v>76.56</v>
+        <v>83.13</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
+        <v>421</v>
+      </c>
+      <c r="B256" t="s">
         <v>422</v>
       </c>
-      <c r="B256" t="s">
-        <v>423</v>
-      </c>
       <c r="C256">
-        <v>76.260000000000005</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
+        <v>423</v>
+      </c>
+      <c r="B257" t="s">
         <v>424</v>
       </c>
-      <c r="B257" t="s">
-        <v>425</v>
-      </c>
       <c r="C257">
-        <v>75.86</v>
+        <v>82.91</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B258" t="s">
-        <v>427</v>
+        <v>243</v>
       </c>
       <c r="C258">
-        <v>74.739999999999995</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B259" t="s">
-        <v>429</v>
+        <v>292</v>
       </c>
       <c r="C259">
-        <v>74.39</v>
+        <v>82.28</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B260" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C260">
-        <v>74.23</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B261" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C261">
-        <v>73.650000000000006</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B262" t="s">
-        <v>435</v>
+        <v>192</v>
       </c>
       <c r="C262">
-        <v>73.599999999999994</v>
+        <v>78.97</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B263" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C263">
-        <v>73.56</v>
+        <v>77.19</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B264" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C264">
-        <v>73.430000000000007</v>
+        <v>76.790000000000006</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B265" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C265">
-        <v>72.42</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B266" t="s">
-        <v>361</v>
+        <v>439</v>
       </c>
       <c r="C266">
-        <v>71.31</v>
+        <v>76.260000000000005</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B267" t="s">
-        <v>16</v>
+        <v>441</v>
       </c>
       <c r="C267">
-        <v>70.459999999999994</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B268" t="s">
-        <v>225</v>
+        <v>443</v>
       </c>
       <c r="C268">
-        <v>69.88</v>
+        <v>74.739999999999995</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
+        <v>444</v>
+      </c>
+      <c r="B269" t="s">
         <v>445</v>
       </c>
-      <c r="B269" t="s">
-        <v>244</v>
-      </c>
       <c r="C269">
-        <v>69.45</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5217,7 +5232,7 @@
         <v>447</v>
       </c>
       <c r="C270">
-        <v>69.34</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -5228,7 +5243,7 @@
         <v>449</v>
       </c>
       <c r="C271">
-        <v>69.069999999999993</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -5236,230 +5251,230 @@
         <v>450</v>
       </c>
       <c r="B272" t="s">
-        <v>234</v>
+        <v>451</v>
       </c>
       <c r="C272">
-        <v>68.459999999999994</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B273" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C273">
-        <v>68.05</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B274" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C274">
-        <v>66.010000000000005</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B275" t="s">
-        <v>361</v>
+        <v>62</v>
       </c>
       <c r="C275">
-        <v>65.06</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B276" t="s">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="C276">
-        <v>64.709999999999994</v>
+        <v>70.459999999999994</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B277" t="s">
-        <v>45</v>
+        <v>459</v>
       </c>
       <c r="C277">
-        <v>63.94</v>
+        <v>69.88</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B278" t="s">
-        <v>169</v>
+        <v>461</v>
       </c>
       <c r="C278">
-        <v>61.82</v>
+        <v>69.34</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B279" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C279">
-        <v>61.74</v>
+        <v>69.069999999999993</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B280" t="s">
-        <v>383</v>
+        <v>264</v>
       </c>
       <c r="C280">
-        <v>59.87</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B281" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C281">
-        <v>59.63</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B282" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="C282">
-        <v>59.2</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B283" t="s">
-        <v>290</v>
+        <v>62</v>
       </c>
       <c r="C283">
-        <v>57.82</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B284" t="s">
-        <v>297</v>
+        <v>56</v>
       </c>
       <c r="C284">
-        <v>56.79</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B285" t="s">
-        <v>468</v>
+        <v>8</v>
       </c>
       <c r="C285">
-        <v>55.66</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B286" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="C286">
-        <v>55.49</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B287" t="s">
-        <v>108</v>
+        <v>474</v>
       </c>
       <c r="C287">
-        <v>55.24</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B288" t="s">
-        <v>472</v>
+        <v>23</v>
       </c>
       <c r="C288">
-        <v>54.71</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B289" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C289">
-        <v>54.2</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B290" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C290">
-        <v>52.59</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B291" t="s">
-        <v>478</v>
+        <v>31</v>
       </c>
       <c r="C291">
-        <v>51.65</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B292" t="s">
-        <v>480</v>
+        <v>318</v>
       </c>
       <c r="C292">
-        <v>50</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5467,252 +5482,252 @@
         <v>481</v>
       </c>
       <c r="B293" t="s">
-        <v>318</v>
+        <v>482</v>
       </c>
       <c r="C293">
-        <v>49.28</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B294" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="C294">
-        <v>48.65</v>
+        <v>55.49</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B295" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="C295">
-        <v>48.16</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B296" t="s">
-        <v>412</v>
+        <v>486</v>
       </c>
       <c r="C296">
-        <v>47.01</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B297" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C297">
-        <v>46.4</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B298" t="s">
-        <v>322</v>
+        <v>490</v>
       </c>
       <c r="C298">
-        <v>46.23</v>
+        <v>52.59</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B299" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C299">
-        <v>46.16</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B300" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C300">
-        <v>46.05</v>
+        <v>50</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B301" t="s">
-        <v>209</v>
+        <v>340</v>
       </c>
       <c r="C301">
-        <v>44.89</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B302" t="s">
-        <v>494</v>
+        <v>68</v>
       </c>
       <c r="C302">
-        <v>44.69</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B303" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="C303">
-        <v>44.52</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B304" t="s">
-        <v>149</v>
+        <v>428</v>
       </c>
       <c r="C304">
-        <v>44.44</v>
+        <v>47.01</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B305" t="s">
-        <v>16</v>
+        <v>500</v>
       </c>
       <c r="C305">
-        <v>42.7</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B306" t="s">
-        <v>209</v>
+        <v>344</v>
       </c>
       <c r="C306">
-        <v>42.64</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B307" t="s">
-        <v>211</v>
+        <v>503</v>
       </c>
       <c r="C307">
-        <v>40</v>
+        <v>46.16</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B308" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C308">
-        <v>39.79</v>
+        <v>46.05</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B309" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="C309">
-        <v>37.799999999999997</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B310" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C310">
-        <v>37.200000000000003</v>
+        <v>44.69</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B311" t="s">
-        <v>506</v>
+        <v>188</v>
       </c>
       <c r="C311">
-        <v>36.94</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B312" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="C312">
-        <v>33.049999999999997</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B313" t="s">
-        <v>509</v>
+        <v>328</v>
       </c>
       <c r="C313">
-        <v>31.78</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B314" t="s">
-        <v>511</v>
+        <v>241</v>
       </c>
       <c r="C314">
-        <v>31.71</v>
+        <v>42.64</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B315" t="s">
-        <v>513</v>
+        <v>243</v>
       </c>
       <c r="C315">
-        <v>30.03</v>
+        <v>40</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5720,164 +5735,164 @@
         <v>514</v>
       </c>
       <c r="B316" t="s">
-        <v>211</v>
+        <v>515</v>
       </c>
       <c r="C316">
-        <v>28.58</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B317" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="C317">
-        <v>28.26</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B318" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C318">
-        <v>27.86</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B319" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C319">
-        <v>27.83</v>
+        <v>36.94</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B320" t="s">
-        <v>193</v>
+        <v>282</v>
       </c>
       <c r="C320">
-        <v>27.45</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B321" t="s">
-        <v>110</v>
+        <v>523</v>
       </c>
       <c r="C321">
-        <v>26.1</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B322" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C322">
-        <v>24.5</v>
+        <v>30.03</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B323" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="C323">
-        <v>24.33</v>
+        <v>28.58</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B324" t="s">
-        <v>526</v>
+        <v>136</v>
       </c>
       <c r="C324">
-        <v>23.89</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B325" t="s">
-        <v>324</v>
+        <v>529</v>
       </c>
       <c r="C325">
-        <v>23.46</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B326" t="s">
-        <v>353</v>
+        <v>227</v>
       </c>
       <c r="C326">
-        <v>23.11</v>
+        <v>27.45</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B327" t="s">
-        <v>530</v>
+        <v>136</v>
       </c>
       <c r="C327">
-        <v>21.27</v>
+        <v>26.17</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B328" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="C328">
-        <v>20.49</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B329" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C329">
-        <v>19.12</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B330" t="s">
-        <v>535</v>
+        <v>371</v>
       </c>
       <c r="C330">
-        <v>18.47</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -5888,7 +5903,7 @@
         <v>537</v>
       </c>
       <c r="C331">
-        <v>15.76</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -5899,7 +5914,7 @@
         <v>539</v>
       </c>
       <c r="C332">
-        <v>14.67</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -5907,109 +5922,109 @@
         <v>540</v>
       </c>
       <c r="B333" t="s">
-        <v>541</v>
+        <v>371</v>
       </c>
       <c r="C333">
-        <v>13.69</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
+        <v>541</v>
+      </c>
+      <c r="B334" t="s">
         <v>542</v>
       </c>
-      <c r="B334" t="s">
-        <v>543</v>
-      </c>
       <c r="C334">
-        <v>12.38</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B335" t="s">
-        <v>545</v>
+        <v>149</v>
       </c>
       <c r="C335">
-        <v>12.27</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B336" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C336">
-        <v>12.18</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B337" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C337">
-        <v>11.39</v>
+        <v>18.47</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B338" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C338">
-        <v>11.04</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B339" t="s">
-        <v>268</v>
+        <v>551</v>
       </c>
       <c r="C339">
-        <v>9.85</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
+        <v>552</v>
+      </c>
+      <c r="B340" t="s">
         <v>553</v>
       </c>
-      <c r="B340" t="s">
-        <v>554</v>
-      </c>
       <c r="C340">
-        <v>9.7200000000000006</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
+        <v>554</v>
+      </c>
+      <c r="B341" t="s">
         <v>555</v>
       </c>
-      <c r="B341" t="s">
-        <v>556</v>
-      </c>
       <c r="C341">
-        <v>9.52</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
+        <v>556</v>
+      </c>
+      <c r="B342" t="s">
         <v>557</v>
       </c>
-      <c r="B342" t="s">
-        <v>200</v>
-      </c>
       <c r="C342">
-        <v>9.44</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6017,32 +6032,32 @@
         <v>558</v>
       </c>
       <c r="B343" t="s">
-        <v>290</v>
+        <v>559</v>
       </c>
       <c r="C343">
-        <v>8.66</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B344" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C344">
-        <v>8.61</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B345" t="s">
-        <v>562</v>
+        <v>292</v>
       </c>
       <c r="C345">
-        <v>8.4499999999999993</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6050,43 +6065,43 @@
         <v>563</v>
       </c>
       <c r="B346" t="s">
-        <v>106</v>
+        <v>564</v>
       </c>
       <c r="C346">
-        <v>7.91</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B347" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C347">
-        <v>7.62</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B348" t="s">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="C348">
-        <v>6.9</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B349" t="s">
-        <v>568</v>
+        <v>31</v>
       </c>
       <c r="C349">
-        <v>6.66</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6094,54 +6109,54 @@
         <v>569</v>
       </c>
       <c r="B350" t="s">
-        <v>318</v>
+        <v>570</v>
       </c>
       <c r="C350">
-        <v>6.6</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B351" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C351">
-        <v>6.53</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B352" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C352">
-        <v>6.04</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B353" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C353">
-        <v>6.02</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B354" t="s">
-        <v>576</v>
+        <v>52</v>
       </c>
       <c r="C354">
-        <v>5.56</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6149,21 +6164,21 @@
         <v>577</v>
       </c>
       <c r="B355" t="s">
-        <v>205</v>
+        <v>578</v>
       </c>
       <c r="C355">
-        <v>5.55</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B356" t="s">
-        <v>579</v>
+        <v>340</v>
       </c>
       <c r="C356">
-        <v>5.23</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6171,43 +6186,43 @@
         <v>580</v>
       </c>
       <c r="B357" t="s">
-        <v>408</v>
+        <v>581</v>
       </c>
       <c r="C357">
-        <v>4.88</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B358" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="C358">
-        <v>4.79</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B359" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C359">
-        <v>4.08</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B360" t="s">
-        <v>585</v>
+        <v>237</v>
       </c>
       <c r="C360">
-        <v>1.81</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6215,21 +6230,21 @@
         <v>586</v>
       </c>
       <c r="B361" t="s">
-        <v>87</v>
+        <v>587</v>
       </c>
       <c r="C361">
-        <v>1.77</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B362" t="s">
-        <v>588</v>
+        <v>424</v>
       </c>
       <c r="C362">
-        <v>1.66</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6237,10 +6252,10 @@
         <v>589</v>
       </c>
       <c r="B363" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C363">
-        <v>1.3</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6251,7 +6266,7 @@
         <v>591</v>
       </c>
       <c r="C364">
-        <v>1.3</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6259,21 +6274,21 @@
         <v>592</v>
       </c>
       <c r="B365" t="s">
-        <v>45</v>
+        <v>593</v>
       </c>
       <c r="C365">
-        <v>1.24</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B366" t="s">
-        <v>594</v>
+        <v>74</v>
       </c>
       <c r="C366">
-        <v>1.1599999999999999</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6281,65 +6296,65 @@
         <v>595</v>
       </c>
       <c r="B367" t="s">
-        <v>596</v>
+        <v>72</v>
       </c>
       <c r="C367">
-        <v>0.87</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
+        <v>596</v>
+      </c>
+      <c r="B368" t="s">
         <v>597</v>
       </c>
-      <c r="B368" t="s">
-        <v>598</v>
-      </c>
       <c r="C368">
-        <v>0.78</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B369" t="s">
-        <v>600</v>
+        <v>8</v>
       </c>
       <c r="C369">
-        <v>0.7</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B370" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C370">
-        <v>0.6</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B371" t="s">
-        <v>290</v>
+        <v>602</v>
       </c>
       <c r="C371">
-        <v>0.55000000000000004</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
+        <v>603</v>
+      </c>
+      <c r="B372" t="s">
         <v>604</v>
       </c>
-      <c r="B372" t="s">
-        <v>412</v>
-      </c>
       <c r="C372">
-        <v>0.36</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6350,7 +6365,7 @@
         <v>606</v>
       </c>
       <c r="C373">
-        <v>0.06</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -6358,21 +6373,21 @@
         <v>607</v>
       </c>
       <c r="B374" t="s">
-        <v>185</v>
+        <v>608</v>
       </c>
       <c r="C374">
-        <v>0.03</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B375" t="s">
-        <v>609</v>
+        <v>428</v>
       </c>
       <c r="C375">
-        <v>0.03</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -6383,7 +6398,7 @@
         <v>611</v>
       </c>
       <c r="C376">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -6391,10 +6406,10 @@
         <v>612</v>
       </c>
       <c r="B377" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C377">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="378" spans="1:3">
@@ -6405,7 +6420,7 @@
         <v>614</v>
       </c>
       <c r="C378">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -6424,15 +6439,48 @@
         <v>617</v>
       </c>
       <c r="B380" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="C380">
-        <v>-167.52</v>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>618</v>
+      </c>
+      <c r="B381" t="s">
+        <v>619</v>
+      </c>
+      <c r="C381">
+        <v>0.01</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>618</v>
+        <v>620</v>
+      </c>
+      <c r="B382" t="s">
+        <v>621</v>
+      </c>
+      <c r="C382">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>622</v>
+      </c>
+      <c r="B383" t="s">
+        <v>119</v>
+      </c>
+      <c r="C383">
+        <v>-167.52</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32D2F6CB-14E9-4E5C-B64B-346458FB0C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EEE8BE5-5905-40DA-8F6B-3E0CDA2F76A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="613">
   <si>
     <t>CONTA</t>
   </si>
@@ -61,31 +61,802 @@
     <t>RODRIGO</t>
   </si>
   <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
     <t>004448303</t>
   </si>
   <si>
     <t>NASSIM</t>
   </si>
   <si>
+    <t>004459461</t>
+  </si>
+  <si>
+    <t>INTERLAGOS</t>
+  </si>
+  <si>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
     <t>004813166</t>
   </si>
   <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>004459461</t>
-  </si>
-  <si>
-    <t>INTERLAGOS</t>
-  </si>
-  <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>MONICA</t>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004450724</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004472404</t>
+  </si>
+  <si>
+    <t>DILSON</t>
+  </si>
+  <si>
+    <t>004641487</t>
+  </si>
+  <si>
+    <t>LAILA</t>
+  </si>
+  <si>
+    <t>004915243</t>
+  </si>
+  <si>
+    <t>POLO</t>
+  </si>
+  <si>
+    <t>004643737</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>005169333</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004643153</t>
+  </si>
+  <si>
+    <t>CARLA</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004482102</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>004862672</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004461526</t>
+  </si>
+  <si>
+    <t>ASSISTIGAS</t>
+  </si>
+  <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004208869</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004380948</t>
+  </si>
+  <si>
+    <t>LUISA</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>003301389</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>002458288</t>
+  </si>
+  <si>
+    <t>BENEDITO</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004207374</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>001719494</t>
   </si>
   <si>
     <t>004946542</t>
@@ -94,34 +865,196 @@
     <t>ALESSANDRA</t>
   </si>
   <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
     <t>004322549</t>
   </si>
   <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004862672</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>003301389</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>004212409</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>004444605</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004207278</t>
+  </si>
+  <si>
+    <t>004565146</t>
   </si>
   <si>
     <t>004459875</t>
@@ -130,1654 +1063,688 @@
     <t>HELVECIO</t>
   </si>
   <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>JULIO</t>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004334158</t>
+  </si>
+  <si>
+    <t>LEONE</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>001922009</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>004450405</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>004243043</t>
+  </si>
+  <si>
+    <t>SUELI</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>004369172</t>
+  </si>
+  <si>
+    <t>LUIZA</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>004340984</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>004212476</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>003497496</t>
+  </si>
+  <si>
+    <t>ELISANDRA</t>
+  </si>
+  <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004691225</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>004517506</t>
+  </si>
+  <si>
+    <t>004552021</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>004264780</t>
+  </si>
+  <si>
+    <t>004214604</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>004214592</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>004404724</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>000827730</t>
+  </si>
+  <si>
+    <t>004281300</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>004355790</t>
+  </si>
+  <si>
+    <t>MINEIA</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004422594</t>
+  </si>
+  <si>
+    <t>WANDIR</t>
+  </si>
+  <si>
+    <t>004588677</t>
+  </si>
+  <si>
+    <t>RACHEL</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>004482090</t>
+  </si>
+  <si>
+    <t>CEZAR</t>
+  </si>
+  <si>
+    <t>004313254</t>
+  </si>
+  <si>
+    <t>004216298</t>
+  </si>
+  <si>
+    <t>FLORDELIZ</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004421636</t>
+  </si>
+  <si>
+    <t>004335031</t>
+  </si>
+  <si>
+    <t>004971448</t>
+  </si>
+  <si>
+    <t>CLOVIS</t>
+  </si>
+  <si>
+    <t>004589311</t>
+  </si>
+  <si>
+    <t>CLARICE</t>
+  </si>
+  <si>
+    <t>004238164</t>
+  </si>
+  <si>
+    <t>004511696</t>
+  </si>
+  <si>
+    <t>KRYSCIA</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>004388490</t>
+  </si>
+  <si>
+    <t>CAMILLA</t>
+  </si>
+  <si>
+    <t>004448501</t>
   </si>
   <si>
     <t>004363250</t>
   </si>
   <si>
     <t>HELIO</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004630773</t>
-  </si>
-  <si>
-    <t>NABOR</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004767746</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004641487</t>
-  </si>
-  <si>
-    <t>LAILA</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>004915243</t>
-  </si>
-  <si>
-    <t>POLO</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>004643737</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>005169333</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>003836362</t>
-  </si>
-  <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004467884</t>
-  </si>
-  <si>
-    <t>005000460</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004425965</t>
-  </si>
-  <si>
-    <t>CAROLLINA</t>
-  </si>
-  <si>
-    <t>005110867</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>004504449</t>
-  </si>
-  <si>
-    <t>KELMA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004461526</t>
-  </si>
-  <si>
-    <t>ASSISTIGAS</t>
-  </si>
-  <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004380948</t>
-  </si>
-  <si>
-    <t>LUISA</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004207374</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>004212409</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>004444605</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004207278</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004334158</t>
-  </si>
-  <si>
-    <t>LEONE</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>001922009</t>
-  </si>
-  <si>
-    <t>SOFIA</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>004450405</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004243043</t>
-  </si>
-  <si>
-    <t>SUELI</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>004369172</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>004340984</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>000834301</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>004212476</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004751770</t>
-  </si>
-  <si>
-    <t>DILSON</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004556150</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004436055</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>003497496</t>
-  </si>
-  <si>
-    <t>ELISANDRA</t>
-  </si>
-  <si>
-    <t>004643153</t>
-  </si>
-  <si>
-    <t>CARLA</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004691225</t>
-  </si>
-  <si>
-    <t>ANNA</t>
-  </si>
-  <si>
-    <t>004517506</t>
-  </si>
-  <si>
-    <t>004552021</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>004264780</t>
-  </si>
-  <si>
-    <t>004214604</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>004214592</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>004404724</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>000827730</t>
-  </si>
-  <si>
-    <t>004281300</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>004355790</t>
-  </si>
-  <si>
-    <t>MINEIA</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004422594</t>
-  </si>
-  <si>
-    <t>WANDIR</t>
-  </si>
-  <si>
-    <t>004588677</t>
-  </si>
-  <si>
-    <t>RACHEL</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>004482090</t>
-  </si>
-  <si>
-    <t>CEZAR</t>
-  </si>
-  <si>
-    <t>004313254</t>
-  </si>
-  <si>
-    <t>004216298</t>
-  </si>
-  <si>
-    <t>FLORDELIZ</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004421636</t>
-  </si>
-  <si>
-    <t>004335031</t>
-  </si>
-  <si>
-    <t>004971448</t>
-  </si>
-  <si>
-    <t>CLOVIS</t>
-  </si>
-  <si>
-    <t>004589311</t>
-  </si>
-  <si>
-    <t>CLARICE</t>
-  </si>
-  <si>
-    <t>004238164</t>
-  </si>
-  <si>
-    <t>004511696</t>
-  </si>
-  <si>
-    <t>KRYSCIA</t>
-  </si>
-  <si>
-    <t>004212933</t>
-  </si>
-  <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>004388490</t>
-  </si>
-  <si>
-    <t>CAMILLA</t>
-  </si>
-  <si>
-    <t>004448501</t>
   </si>
   <si>
     <t>003921139</t>
@@ -2257,11 +2224,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C385"/>
+  <dimension ref="A1:C380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2339,7 +2304,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>147040.70000000001</v>
+        <v>150175.66</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2350,7 +2315,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>102604.16</v>
+        <v>147852.56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2361,7 +2326,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>100006.98</v>
+        <v>147040.70000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2369,43 +2334,43 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>100000</v>
+        <v>100006.98</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>85000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>81256.27</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>78252.17</v>
+        <v>52604.160000000003</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2416,7 +2381,7 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>77924.100000000006</v>
+        <v>43264.79</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2427,7 +2392,7 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>70308.45</v>
+        <v>34343.57</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2438,7 +2403,7 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>62425.99</v>
+        <v>23386.1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2449,7 +2414,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>54466.47</v>
+        <v>22063.42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2460,7 +2425,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>44141.27</v>
+        <v>20626.990000000002</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2471,7 +2436,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>42607.99</v>
+        <v>17492.96</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2479,197 +2444,197 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>41005.26</v>
+        <v>15151.24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>40064.79</v>
+        <v>13571.37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22">
-        <v>35332.22</v>
+        <v>13259</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23">
-        <v>27167.24</v>
+        <v>10412.89</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>26651.25</v>
+        <v>10044.69</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>25138.74</v>
+        <v>10042.44</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26">
-        <v>25046.31</v>
+        <v>6354.84</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>23362.34</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28">
-        <v>22063.42</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29">
-        <v>21041.360000000001</v>
+        <v>2036.94</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30">
-        <v>20634.79</v>
+        <v>1700.71</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31">
-        <v>20626.990000000002</v>
+        <v>1108.53</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32">
-        <v>20586.23</v>
+        <v>988.32</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33">
-        <v>20398.580000000002</v>
+        <v>946.84</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34">
-        <v>17880.919999999998</v>
+        <v>943.73</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35">
-        <v>17492.96</v>
+        <v>942.42</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C36">
-        <v>17357.11</v>
+        <v>937.33</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
       <c r="C37">
-        <v>15151.24</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2680,7 +2645,7 @@
         <v>72</v>
       </c>
       <c r="C38">
-        <v>13571.37</v>
+        <v>924.1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2691,7 +2656,7 @@
         <v>74</v>
       </c>
       <c r="C39">
-        <v>13259</v>
+        <v>894.66</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2699,32 +2664,32 @@
         <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C40">
-        <v>12796.37</v>
+        <v>854.73</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41">
-        <v>11057.89</v>
+        <v>852.1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C42">
-        <v>10412.89</v>
+        <v>849.15</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2732,131 +2697,131 @@
         <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C43">
-        <v>9852.26</v>
+        <v>847.72</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44">
-        <v>7259.67</v>
+        <v>842.42</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45">
-        <v>6354.84</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46">
-        <v>5057.22</v>
+        <v>839.03</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C47">
-        <v>4050.48</v>
+        <v>823.1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C48">
-        <v>3826.89</v>
+        <v>814.4</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C49">
-        <v>3241.75</v>
+        <v>796.37</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C50">
-        <v>2691.13</v>
+        <v>786.23</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C51">
-        <v>2300</v>
+        <v>775.45</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C52">
-        <v>2227.88</v>
+        <v>754.27</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C53">
-        <v>2000</v>
+        <v>748.58</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="C54">
-        <v>1000</v>
+        <v>744.09</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2867,7 +2832,7 @@
         <v>103</v>
       </c>
       <c r="C55">
-        <v>988.32</v>
+        <v>737.21</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2878,7 +2843,7 @@
         <v>105</v>
       </c>
       <c r="C56">
-        <v>946.84</v>
+        <v>733.93</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2889,7 +2854,7 @@
         <v>107</v>
       </c>
       <c r="C57">
-        <v>943.73</v>
+        <v>716.35</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2900,7 +2865,7 @@
         <v>109</v>
       </c>
       <c r="C58">
-        <v>942.42</v>
+        <v>715.56</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2908,21 +2873,21 @@
         <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C59">
-        <v>937.33</v>
+        <v>707.41</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" t="s">
         <v>112</v>
       </c>
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
       <c r="C60">
-        <v>933.95</v>
+        <v>704.83</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2933,7 +2898,7 @@
         <v>114</v>
       </c>
       <c r="C61">
-        <v>894.66</v>
+        <v>700.86</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2944,7 +2909,7 @@
         <v>116</v>
       </c>
       <c r="C62">
-        <v>854.73</v>
+        <v>698.43</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2952,32 +2917,32 @@
         <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="C63">
-        <v>849.15</v>
+        <v>698.03</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64">
-        <v>847.72</v>
+        <v>689.06</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="C65">
-        <v>842.42</v>
+        <v>679.29</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2988,7 +2953,7 @@
         <v>123</v>
       </c>
       <c r="C66">
-        <v>839.9</v>
+        <v>675.5</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2999,7 +2964,7 @@
         <v>125</v>
       </c>
       <c r="C67">
-        <v>839.03</v>
+        <v>674.5</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3007,428 +2972,428 @@
         <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="C68">
-        <v>823.1</v>
+        <v>666</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C69">
-        <v>814.4</v>
+        <v>666</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C70">
-        <v>775.45</v>
+        <v>666</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="C71">
-        <v>754.27</v>
+        <v>666</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C72">
-        <v>748.58</v>
+        <v>663.35</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="C73">
-        <v>744.09</v>
+        <v>651.25</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B74" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C74">
-        <v>737.21</v>
+        <v>649.30999999999995</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C75">
-        <v>733.93</v>
+        <v>644.94000000000005</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B76" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C76">
-        <v>716.35</v>
+        <v>634.79</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C77">
-        <v>715.56</v>
+        <v>627.35</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="C78">
-        <v>707.41</v>
+        <v>625.5</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C79">
-        <v>704.83</v>
+        <v>623.46</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C80">
-        <v>702.87</v>
+        <v>617.72</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C81">
-        <v>700.86</v>
+        <v>614.55999999999995</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="C82">
-        <v>698.83</v>
+        <v>607.99</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C83">
-        <v>698.43</v>
+        <v>598.08000000000004</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C84">
-        <v>698.03</v>
+        <v>595.05999999999995</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>29</v>
       </c>
       <c r="C85">
-        <v>689.06</v>
+        <v>591.30999999999995</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="C86">
-        <v>679.29</v>
+        <v>585.70000000000005</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B87" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C87">
-        <v>675.5</v>
+        <v>581.89</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C88">
-        <v>674.5</v>
+        <v>581.08000000000004</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C89">
-        <v>666</v>
+        <v>578.48</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="C90">
-        <v>666</v>
+        <v>578.08000000000004</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="C91">
-        <v>666</v>
+        <v>573.34</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C92">
-        <v>666</v>
+        <v>568.94000000000005</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B93" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C93">
-        <v>663.35</v>
+        <v>557.41999999999996</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="C94">
-        <v>649.30999999999995</v>
+        <v>549.72</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B95" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="C95">
-        <v>644.94000000000005</v>
+        <v>549.71</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B96" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C96">
-        <v>627.35</v>
+        <v>529.34</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="C97">
-        <v>625.5</v>
+        <v>524.29</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C98">
-        <v>623.46</v>
+        <v>519.45000000000005</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C99">
-        <v>617.72</v>
+        <v>517.87</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C100">
-        <v>614.55999999999995</v>
+        <v>516.78</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B101" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C101">
-        <v>598.08000000000004</v>
+        <v>507.08</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C102">
-        <v>595.05999999999995</v>
+        <v>494.86</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B103" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="C103">
-        <v>591.30999999999995</v>
+        <v>491.62</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C104">
-        <v>585.70000000000005</v>
+        <v>470</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B105" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C105">
-        <v>581.89</v>
+        <v>467.91</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B106" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C106">
-        <v>581.08000000000004</v>
+        <v>466.47</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3439,7 +3404,7 @@
         <v>196</v>
       </c>
       <c r="C107">
-        <v>578.48</v>
+        <v>465.01</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3447,10 +3412,10 @@
         <v>197</v>
       </c>
       <c r="B108" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C108">
-        <v>578.08000000000004</v>
+        <v>460.98</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3461,7 +3426,7 @@
         <v>199</v>
       </c>
       <c r="C109">
-        <v>573.34</v>
+        <v>459.2</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3469,10 +3434,10 @@
         <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="C110">
-        <v>568.94000000000005</v>
+        <v>458.13</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -3483,7 +3448,7 @@
         <v>202</v>
       </c>
       <c r="C111">
-        <v>557.41999999999996</v>
+        <v>453.65</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -3491,230 +3456,230 @@
         <v>203</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="C112">
-        <v>549.72</v>
+        <v>449.3</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B113" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="C113">
-        <v>549.71</v>
+        <v>436.86</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B114" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C114">
-        <v>529.34</v>
+        <v>430.64</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B115" t="s">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="C115">
-        <v>524.29</v>
+        <v>425.99</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B116" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C116">
-        <v>519.45000000000005</v>
+        <v>425.17</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C117">
-        <v>517.87</v>
+        <v>423.95</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C118">
-        <v>516.78</v>
+        <v>413.55</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B119" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C119">
-        <v>507.08</v>
+        <v>407.48</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B120" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="C120">
-        <v>494.86</v>
+        <v>400.75</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="C121">
-        <v>491.62</v>
+        <v>398.58</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B122" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C122">
-        <v>470</v>
+        <v>393.52</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B123" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C123">
-        <v>467.91</v>
+        <v>387.23</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="C124">
-        <v>465.01</v>
+        <v>377.42</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B125" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="C125">
-        <v>460.98</v>
+        <v>369.59</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B126" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C126">
-        <v>459.2</v>
+        <v>365.44</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="C127">
-        <v>458.13</v>
+        <v>362.34</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B128" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="C128">
-        <v>453.65</v>
+        <v>357.11</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B129" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="C129">
-        <v>449.3</v>
+        <v>355</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>235</v>
       </c>
       <c r="C130">
-        <v>442.44</v>
+        <v>350.34</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B131" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C131">
-        <v>436.86</v>
+        <v>348.3</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B132" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="C132">
-        <v>430.64</v>
+        <v>346.83</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3725,7 +3690,7 @@
         <v>239</v>
       </c>
       <c r="C133">
-        <v>425.17</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -3736,7 +3701,7 @@
         <v>241</v>
       </c>
       <c r="C134">
-        <v>423.95</v>
+        <v>343.26</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -3744,65 +3709,65 @@
         <v>242</v>
       </c>
       <c r="B135" t="s">
-        <v>243</v>
+        <v>8</v>
       </c>
       <c r="C135">
-        <v>413.55</v>
+        <v>332.65</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
+        <v>243</v>
+      </c>
+      <c r="B136" t="s">
         <v>244</v>
       </c>
-      <c r="B136" t="s">
-        <v>245</v>
-      </c>
       <c r="C136">
-        <v>407.48</v>
+        <v>332.22</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B137" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C137">
-        <v>400.75</v>
+        <v>327.89</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>246</v>
+      </c>
+      <c r="B138" t="s">
         <v>247</v>
       </c>
-      <c r="B138" t="s">
-        <v>248</v>
-      </c>
       <c r="C138">
-        <v>393.52</v>
+        <v>324.08999999999997</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
+        <v>248</v>
+      </c>
+      <c r="B139" t="s">
         <v>249</v>
       </c>
-      <c r="B139" t="s">
-        <v>250</v>
-      </c>
       <c r="C139">
-        <v>387.23</v>
+        <v>321.54000000000002</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
+        <v>250</v>
+      </c>
+      <c r="B140" t="s">
         <v>251</v>
       </c>
-      <c r="B140" t="s">
-        <v>186</v>
-      </c>
       <c r="C140">
-        <v>377.42</v>
+        <v>321.31</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -3810,32 +3775,32 @@
         <v>252</v>
       </c>
       <c r="B141" t="s">
-        <v>253</v>
+        <v>180</v>
       </c>
       <c r="C141">
-        <v>369.59</v>
+        <v>321.24</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
+        <v>253</v>
+      </c>
+      <c r="B142" t="s">
         <v>254</v>
       </c>
-      <c r="B142" t="s">
-        <v>255</v>
-      </c>
       <c r="C142">
-        <v>365.44</v>
+        <v>312.05</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
+        <v>255</v>
+      </c>
+      <c r="B143" t="s">
         <v>256</v>
       </c>
-      <c r="B143" t="s">
-        <v>217</v>
-      </c>
       <c r="C143">
-        <v>355</v>
+        <v>309.77</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -3843,32 +3808,32 @@
         <v>257</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>64</v>
       </c>
       <c r="C144">
-        <v>350.34</v>
+        <v>309.32</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B145" t="s">
-        <v>248</v>
+        <v>70</v>
       </c>
       <c r="C145">
-        <v>348.3</v>
+        <v>308.45</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
+        <v>259</v>
+      </c>
+      <c r="B146" t="s">
         <v>260</v>
       </c>
-      <c r="B146" t="s">
-        <v>136</v>
-      </c>
       <c r="C146">
-        <v>346.83</v>
+        <v>302.77</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -3879,7 +3844,7 @@
         <v>262</v>
       </c>
       <c r="C147">
-        <v>343.52</v>
+        <v>301.27</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -3890,7 +3855,7 @@
         <v>264</v>
       </c>
       <c r="C148">
-        <v>343.26</v>
+        <v>294.54000000000002</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -3898,54 +3863,54 @@
         <v>265</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="C149">
-        <v>332.65</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B150" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="C150">
-        <v>327.89</v>
+        <v>282.54000000000002</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B151" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C151">
-        <v>324.08999999999997</v>
+        <v>280.92</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B152" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C152">
-        <v>321.54000000000002</v>
+        <v>279.35000000000002</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B153" t="s">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="C153">
-        <v>321.31</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -3953,21 +3918,21 @@
         <v>273</v>
       </c>
       <c r="B154" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="C154">
-        <v>321.24</v>
+        <v>276.93</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B155" t="s">
-        <v>275</v>
+        <v>153</v>
       </c>
       <c r="C155">
-        <v>312.05</v>
+        <v>260.51</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3978,7 +3943,7 @@
         <v>277</v>
       </c>
       <c r="C156">
-        <v>309.77</v>
+        <v>260.14999999999998</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3986,10 +3951,10 @@
         <v>278</v>
       </c>
       <c r="B157" t="s">
-        <v>107</v>
+        <v>264</v>
       </c>
       <c r="C157">
-        <v>309.32</v>
+        <v>258.76</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -4000,7 +3965,7 @@
         <v>280</v>
       </c>
       <c r="C158">
-        <v>302.77</v>
+        <v>256.27</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -4011,7 +3976,7 @@
         <v>282</v>
       </c>
       <c r="C159">
-        <v>301.27</v>
+        <v>255.99</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -4019,186 +3984,186 @@
         <v>283</v>
       </c>
       <c r="B160" t="s">
-        <v>284</v>
+        <v>70</v>
       </c>
       <c r="C160">
-        <v>294.54000000000002</v>
+        <v>253.95</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B161" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
       <c r="C161">
-        <v>293.3</v>
+        <v>253.25</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B162" t="s">
-        <v>206</v>
+        <v>92</v>
       </c>
       <c r="C162">
-        <v>282.54000000000002</v>
+        <v>252.17</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B163" t="s">
-        <v>289</v>
+        <v>8</v>
       </c>
       <c r="C163">
-        <v>279.35000000000002</v>
+        <v>246.21</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B164" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C164">
-        <v>277.3</v>
+        <v>245.99</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B165" t="s">
-        <v>292</v>
+        <v>137</v>
       </c>
       <c r="C165">
-        <v>276.93</v>
+        <v>242.72</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B166" t="s">
-        <v>37</v>
+        <v>290</v>
       </c>
       <c r="C166">
-        <v>260.51</v>
+        <v>242.48</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B167" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C167">
-        <v>260.14999999999998</v>
+        <v>241.75</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B168" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="C168">
-        <v>258.76</v>
+        <v>241.36</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B169" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="C169">
-        <v>255.99</v>
+        <v>237.08</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B170" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="C170">
-        <v>253.95</v>
+        <v>233.93</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="C171">
-        <v>253.25</v>
+        <v>227.02</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C172">
-        <v>246.21</v>
+        <v>226.37</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B173" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
       <c r="C173">
-        <v>245.99</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B174" t="s">
-        <v>47</v>
+        <v>302</v>
       </c>
       <c r="C174">
-        <v>242.72</v>
+        <v>216.08</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
+        <v>303</v>
+      </c>
+      <c r="B175" t="s">
         <v>304</v>
       </c>
-      <c r="B175" t="s">
-        <v>305</v>
-      </c>
       <c r="C175">
-        <v>242.48</v>
+        <v>212.6</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
+        <v>305</v>
+      </c>
+      <c r="B176" t="s">
         <v>306</v>
       </c>
-      <c r="B176" t="s">
-        <v>43</v>
-      </c>
       <c r="C176">
-        <v>237.08</v>
+        <v>206.67</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -4209,7 +4174,7 @@
         <v>308</v>
       </c>
       <c r="C177">
-        <v>233.93</v>
+        <v>204.9</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -4220,7 +4185,7 @@
         <v>310</v>
       </c>
       <c r="C178">
-        <v>227.02</v>
+        <v>199.04</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -4228,10 +4193,10 @@
         <v>311</v>
       </c>
       <c r="B179" t="s">
-        <v>31</v>
+        <v>244</v>
       </c>
       <c r="C179">
-        <v>226.37</v>
+        <v>198.65</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -4239,21 +4204,21 @@
         <v>312</v>
       </c>
       <c r="B180" t="s">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="C180">
-        <v>217.03</v>
+        <v>196.68</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B181" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="C181">
-        <v>216.08</v>
+        <v>196.05</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -4261,560 +4226,560 @@
         <v>315</v>
       </c>
       <c r="B182" t="s">
-        <v>316</v>
+        <v>14</v>
       </c>
       <c r="C182">
-        <v>212.6</v>
+        <v>191.39</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
+        <v>316</v>
+      </c>
+      <c r="B183" t="s">
         <v>317</v>
       </c>
-      <c r="B183" t="s">
-        <v>318</v>
-      </c>
       <c r="C183">
-        <v>206.67</v>
+        <v>190.71</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B184" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="C184">
-        <v>204.9</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B185" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C185">
-        <v>199.04</v>
+        <v>188.07</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B186" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="C186">
-        <v>198.65</v>
+        <v>186.02</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B187" t="s">
-        <v>325</v>
+        <v>262</v>
       </c>
       <c r="C187">
-        <v>196.68</v>
+        <v>181.74</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B188" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="C188">
-        <v>196.05</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
+        <v>326</v>
+      </c>
+      <c r="B189" t="s">
         <v>327</v>
       </c>
-      <c r="B189" t="s">
-        <v>328</v>
-      </c>
       <c r="C189">
-        <v>191.39</v>
+        <v>172.32</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B190" t="s">
-        <v>330</v>
+        <v>105</v>
       </c>
       <c r="C190">
-        <v>190.71</v>
+        <v>170.45</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B191" t="s">
-        <v>292</v>
+        <v>157</v>
       </c>
       <c r="C191">
-        <v>188.83</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B192" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C192">
-        <v>188.07</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B193" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C193">
-        <v>186.02</v>
+        <v>168.35</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B194" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="C194">
-        <v>181.74</v>
+        <v>168.17</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B195" t="s">
-        <v>338</v>
+        <v>4</v>
       </c>
       <c r="C195">
-        <v>176.4</v>
+        <v>164.18</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B196" t="s">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="C196">
-        <v>172.32</v>
+        <v>162.94999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B197" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="C197">
-        <v>170.45</v>
+        <v>156.68</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B198" t="s">
-        <v>186</v>
+        <v>339</v>
       </c>
       <c r="C198">
-        <v>170.37</v>
+        <v>153.11000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B199" t="s">
-        <v>344</v>
+        <v>12</v>
       </c>
       <c r="C199">
-        <v>170.27</v>
+        <v>152.26</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B200" t="s">
-        <v>346</v>
+        <v>214</v>
       </c>
       <c r="C200">
-        <v>168.35</v>
+        <v>151.41</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B201" t="s">
-        <v>227</v>
+        <v>114</v>
       </c>
       <c r="C201">
-        <v>168.17</v>
+        <v>149.66</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B202" t="s">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="C202">
-        <v>164.18</v>
+        <v>147.84</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B203" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="C203">
-        <v>162.94999999999999</v>
+        <v>142.36000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B204" t="s">
-        <v>74</v>
+        <v>346</v>
       </c>
       <c r="C204">
-        <v>156.68</v>
+        <v>141.27000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B205" t="s">
-        <v>352</v>
+        <v>196</v>
       </c>
       <c r="C205">
-        <v>153.11000000000001</v>
+        <v>140.63999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B206" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C206">
-        <v>151.41</v>
+        <v>140.47999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B207" t="s">
-        <v>149</v>
+        <v>306</v>
       </c>
       <c r="C207">
-        <v>149.66</v>
+        <v>137.93</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B208" t="s">
-        <v>325</v>
+        <v>100</v>
       </c>
       <c r="C208">
-        <v>147.84</v>
+        <v>135.81</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B209" t="s">
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="C209">
-        <v>142.36000000000001</v>
+        <v>135.37</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B210" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="C210">
-        <v>140.63999999999999</v>
+        <v>134.97999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B211" t="s">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="C211">
-        <v>140.47999999999999</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B212" t="s">
-        <v>318</v>
+        <v>70</v>
       </c>
       <c r="C212">
-        <v>137.93</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B213" t="s">
-        <v>133</v>
+        <v>357</v>
       </c>
       <c r="C213">
-        <v>135.81</v>
+        <v>134.08000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B214" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C214">
-        <v>135.37</v>
+        <v>133.49</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B215" t="s">
-        <v>56</v>
+        <v>361</v>
       </c>
       <c r="C215">
-        <v>134.97999999999999</v>
+        <v>132</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B216" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="C216">
-        <v>134.44</v>
+        <v>131.16999999999999</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B217" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="C217">
-        <v>134.44</v>
+        <v>128.33000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B218" t="s">
-        <v>367</v>
+        <v>41</v>
       </c>
       <c r="C218">
-        <v>134.08000000000001</v>
+        <v>127.86</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B219" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C219">
-        <v>133.49</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B220" t="s">
-        <v>371</v>
+        <v>171</v>
       </c>
       <c r="C220">
-        <v>132</v>
+        <v>126.56</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B221" t="s">
-        <v>275</v>
+        <v>369</v>
       </c>
       <c r="C221">
-        <v>131.16999999999999</v>
+        <v>126.22</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B222" t="s">
-        <v>237</v>
+        <v>371</v>
       </c>
       <c r="C222">
-        <v>128.33000000000001</v>
+        <v>124.92</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B223" t="s">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="C223">
-        <v>127.86</v>
+        <v>123.41</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B224" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="C224">
-        <v>126.88</v>
+        <v>121.43</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B225" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="C225">
-        <v>126.56</v>
+        <v>120.88</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B226" t="s">
-        <v>379</v>
+        <v>292</v>
       </c>
       <c r="C226">
-        <v>126.22</v>
+        <v>120.85</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B227" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C227">
-        <v>124.92</v>
+        <v>119.07</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B228" t="s">
-        <v>222</v>
+        <v>137</v>
       </c>
       <c r="C228">
-        <v>123.41</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B229" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C229">
-        <v>121.43</v>
+        <v>112.47</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B230" t="s">
-        <v>227</v>
+        <v>382</v>
       </c>
       <c r="C230">
-        <v>120.88</v>
+        <v>108.51</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B231" t="s">
-        <v>91</v>
+        <v>384</v>
       </c>
       <c r="C231">
-        <v>120.85</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
+        <v>385</v>
+      </c>
+      <c r="B232" t="s">
         <v>386</v>
       </c>
-      <c r="B232" t="s">
-        <v>328</v>
-      </c>
       <c r="C232">
-        <v>120.72</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -4825,7 +4790,7 @@
         <v>388</v>
       </c>
       <c r="C233">
-        <v>119.07</v>
+        <v>100</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -4833,10 +4798,10 @@
         <v>389</v>
       </c>
       <c r="B234" t="s">
-        <v>47</v>
+        <v>280</v>
       </c>
       <c r="C234">
-        <v>113.8</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4847,7 +4812,7 @@
         <v>391</v>
       </c>
       <c r="C235">
-        <v>112.47</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -4855,263 +4820,263 @@
         <v>392</v>
       </c>
       <c r="B236" t="s">
-        <v>393</v>
+        <v>177</v>
       </c>
       <c r="C236">
-        <v>108.51</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B237" t="s">
-        <v>395</v>
+        <v>131</v>
       </c>
       <c r="C237">
-        <v>104.9</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B238" t="s">
-        <v>397</v>
+        <v>98</v>
       </c>
       <c r="C238">
-        <v>100.01</v>
+        <v>95.88</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B239" t="s">
-        <v>399</v>
+        <v>70</v>
       </c>
       <c r="C239">
-        <v>100</v>
+        <v>93.21</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B240" t="s">
-        <v>23</v>
+        <v>397</v>
       </c>
       <c r="C240">
-        <v>99.3</v>
+        <v>92.72</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B241" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="C241">
-        <v>99.24</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B242" t="s">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="C242">
-        <v>98.55</v>
+        <v>92.07</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B243" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C243">
-        <v>97.08</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B244" t="s">
-        <v>56</v>
+        <v>402</v>
       </c>
       <c r="C244">
-        <v>95.88</v>
+        <v>89.85</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B245" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C245">
-        <v>93.21</v>
+        <v>86.73</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B246" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C246">
-        <v>92.72</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B247" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="C247">
-        <v>92.5</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B248" t="s">
-        <v>133</v>
+        <v>408</v>
       </c>
       <c r="C248">
-        <v>92.07</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B249" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="C249">
-        <v>90.2</v>
+        <v>83.13</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B250" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C250">
-        <v>89.85</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B251" t="s">
-        <v>29</v>
+        <v>413</v>
       </c>
       <c r="C251">
-        <v>86.73</v>
+        <v>82.91</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B252" t="s">
-        <v>416</v>
+        <v>216</v>
       </c>
       <c r="C252">
-        <v>86.45</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B253" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="C253">
-        <v>86.38</v>
+        <v>82.28</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B254" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C254">
-        <v>84.72</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B255" t="s">
-        <v>4</v>
+        <v>419</v>
       </c>
       <c r="C255">
-        <v>83.13</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B256" t="s">
-        <v>422</v>
+        <v>162</v>
       </c>
       <c r="C256">
-        <v>83.06</v>
+        <v>78.97</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B257" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C257">
-        <v>82.91</v>
+        <v>77.19</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B258" t="s">
-        <v>243</v>
+        <v>424</v>
       </c>
       <c r="C258">
-        <v>82.79</v>
+        <v>76.790000000000006</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
+        <v>425</v>
+      </c>
+      <c r="B259" t="s">
         <v>426</v>
       </c>
-      <c r="B259" t="s">
-        <v>292</v>
-      </c>
       <c r="C259">
-        <v>82.28</v>
+        <v>76.260000000000005</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5122,7 +5087,7 @@
         <v>428</v>
       </c>
       <c r="C260">
-        <v>81.87</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5133,7 +5098,7 @@
         <v>430</v>
       </c>
       <c r="C261">
-        <v>80.05</v>
+        <v>74.739999999999995</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5141,76 +5106,76 @@
         <v>431</v>
       </c>
       <c r="B262" t="s">
-        <v>192</v>
+        <v>432</v>
       </c>
       <c r="C262">
-        <v>78.97</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B263" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C263">
-        <v>77.19</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B264" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C264">
-        <v>76.790000000000006</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B265" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C265">
-        <v>76.56</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B266" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C266">
-        <v>76.260000000000005</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B267" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C267">
-        <v>75.86</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B268" t="s">
-        <v>443</v>
+        <v>94</v>
       </c>
       <c r="C268">
-        <v>74.739999999999995</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -5218,1269 +5183,1214 @@
         <v>444</v>
       </c>
       <c r="B269" t="s">
-        <v>445</v>
+        <v>14</v>
       </c>
       <c r="C269">
-        <v>74.23</v>
+        <v>70.459999999999994</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
+        <v>445</v>
+      </c>
+      <c r="B270" t="s">
         <v>446</v>
       </c>
-      <c r="B270" t="s">
-        <v>447</v>
-      </c>
       <c r="C270">
-        <v>73.650000000000006</v>
+        <v>69.88</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
+        <v>447</v>
+      </c>
+      <c r="B271" t="s">
         <v>448</v>
       </c>
-      <c r="B271" t="s">
-        <v>449</v>
-      </c>
       <c r="C271">
-        <v>73.599999999999994</v>
+        <v>69.34</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
+        <v>449</v>
+      </c>
+      <c r="B272" t="s">
         <v>450</v>
       </c>
-      <c r="B272" t="s">
-        <v>451</v>
-      </c>
       <c r="C272">
-        <v>73.56</v>
+        <v>69.069999999999993</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B273" t="s">
-        <v>453</v>
+        <v>241</v>
       </c>
       <c r="C273">
-        <v>73.430000000000007</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B274" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C274">
-        <v>72.42</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B275" t="s">
-        <v>62</v>
+        <v>455</v>
       </c>
       <c r="C275">
-        <v>71.31</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B276" t="s">
-        <v>328</v>
+        <v>94</v>
       </c>
       <c r="C276">
-        <v>70.459999999999994</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B277" t="s">
-        <v>459</v>
+        <v>98</v>
       </c>
       <c r="C277">
-        <v>69.88</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B278" t="s">
-        <v>461</v>
+        <v>8</v>
       </c>
       <c r="C278">
-        <v>69.34</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B279" t="s">
-        <v>463</v>
+        <v>171</v>
       </c>
       <c r="C279">
-        <v>69.069999999999993</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B280" t="s">
-        <v>264</v>
+        <v>461</v>
       </c>
       <c r="C280">
-        <v>68.459999999999994</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B281" t="s">
-        <v>466</v>
+        <v>280</v>
       </c>
       <c r="C281">
-        <v>68.05</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B282" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C282">
-        <v>66.010000000000005</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B283" t="s">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="C283">
-        <v>65.06</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B284" t="s">
-        <v>56</v>
+        <v>467</v>
       </c>
       <c r="C284">
-        <v>64.709999999999994</v>
+        <v>57.89</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B285" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="C285">
-        <v>63.94</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B286" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C286">
-        <v>61.82</v>
+        <v>57.22</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B287" t="s">
-        <v>474</v>
+        <v>306</v>
       </c>
       <c r="C287">
-        <v>61.74</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B288" t="s">
-        <v>23</v>
+        <v>472</v>
       </c>
       <c r="C288">
-        <v>59.87</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B289" t="s">
-        <v>477</v>
+        <v>103</v>
       </c>
       <c r="C289">
-        <v>59.63</v>
+        <v>55.49</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B290" t="s">
-        <v>474</v>
+        <v>78</v>
       </c>
       <c r="C290">
-        <v>59.2</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B291" t="s">
-        <v>31</v>
+        <v>476</v>
       </c>
       <c r="C291">
-        <v>57.82</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B292" t="s">
-        <v>318</v>
+        <v>478</v>
       </c>
       <c r="C292">
-        <v>56.79</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B293" t="s">
-        <v>482</v>
+        <v>31</v>
       </c>
       <c r="C293">
-        <v>55.66</v>
+        <v>52.59</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B294" t="s">
-        <v>136</v>
+        <v>481</v>
       </c>
       <c r="C294">
-        <v>55.49</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B295" t="s">
-        <v>147</v>
+        <v>483</v>
       </c>
       <c r="C295">
-        <v>55.24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B296" t="s">
-        <v>486</v>
+        <v>327</v>
       </c>
       <c r="C296">
-        <v>54.71</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B297" t="s">
-        <v>488</v>
+        <v>37</v>
       </c>
       <c r="C297">
-        <v>54.2</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B298" t="s">
-        <v>490</v>
+        <v>12</v>
       </c>
       <c r="C298">
-        <v>52.59</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B299" t="s">
-        <v>492</v>
+        <v>417</v>
       </c>
       <c r="C299">
-        <v>51.65</v>
+        <v>47.01</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B300" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C300">
-        <v>50</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B301" t="s">
-        <v>340</v>
+        <v>491</v>
       </c>
       <c r="C301">
-        <v>49.28</v>
+        <v>46.31</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B302" t="s">
-        <v>68</v>
+        <v>331</v>
       </c>
       <c r="C302">
-        <v>48.65</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
+        <v>494</v>
       </c>
       <c r="C303">
-        <v>48.16</v>
+        <v>46.16</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B304" t="s">
-        <v>428</v>
+        <v>496</v>
       </c>
       <c r="C304">
-        <v>47.01</v>
+        <v>46.05</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B305" t="s">
-        <v>500</v>
+        <v>214</v>
       </c>
       <c r="C305">
-        <v>46.4</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B306" t="s">
-        <v>344</v>
+        <v>29</v>
       </c>
       <c r="C306">
-        <v>46.23</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B307" t="s">
-        <v>503</v>
+        <v>157</v>
       </c>
       <c r="C307">
-        <v>46.16</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B308" t="s">
-        <v>505</v>
+        <v>14</v>
       </c>
       <c r="C308">
-        <v>46.05</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B309" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="C309">
-        <v>44.89</v>
+        <v>42.64</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B310" t="s">
-        <v>508</v>
+        <v>216</v>
       </c>
       <c r="C310">
-        <v>44.69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B311" t="s">
-        <v>188</v>
+        <v>504</v>
       </c>
       <c r="C311">
-        <v>44.52</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B312" t="s">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="C312">
-        <v>44.44</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B313" t="s">
-        <v>328</v>
+        <v>507</v>
       </c>
       <c r="C313">
-        <v>42.7</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B314" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C314">
-        <v>42.64</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B315" t="s">
-        <v>243</v>
+        <v>510</v>
       </c>
       <c r="C315">
-        <v>40</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B316" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C316">
-        <v>39.79</v>
+        <v>30.03</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B317" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="C317">
-        <v>37.799999999999997</v>
+        <v>28.58</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B318" t="s">
-        <v>518</v>
+        <v>103</v>
       </c>
       <c r="C318">
-        <v>37.200000000000003</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B319" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C319">
-        <v>36.94</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B320" t="s">
-        <v>282</v>
+        <v>199</v>
       </c>
       <c r="C320">
-        <v>33.049999999999997</v>
+        <v>27.45</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B321" t="s">
-        <v>523</v>
+        <v>103</v>
       </c>
       <c r="C321">
-        <v>31.71</v>
+        <v>26.17</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B322" t="s">
-        <v>525</v>
+        <v>114</v>
       </c>
       <c r="C322">
-        <v>30.03</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B323" t="s">
-        <v>243</v>
+        <v>521</v>
       </c>
       <c r="C323">
-        <v>28.58</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B324" t="s">
-        <v>136</v>
+        <v>361</v>
       </c>
       <c r="C324">
-        <v>28.26</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B325" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C325">
-        <v>27.83</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B326" t="s">
-        <v>227</v>
+        <v>526</v>
       </c>
       <c r="C326">
-        <v>27.45</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B327" t="s">
-        <v>136</v>
+        <v>361</v>
       </c>
       <c r="C327">
-        <v>26.17</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B328" t="s">
-        <v>149</v>
+        <v>529</v>
       </c>
       <c r="C328">
-        <v>26.1</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B329" t="s">
-        <v>534</v>
+        <v>114</v>
       </c>
       <c r="C329">
-        <v>24.5</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B330" t="s">
-        <v>371</v>
+        <v>532</v>
       </c>
       <c r="C330">
-        <v>24.33</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B331" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C331">
-        <v>23.89</v>
+        <v>18.47</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B332" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C332">
-        <v>23.46</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B333" t="s">
-        <v>371</v>
+        <v>538</v>
       </c>
       <c r="C333">
-        <v>23.11</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B334" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C334">
-        <v>21.27</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B335" t="s">
-        <v>149</v>
+        <v>542</v>
       </c>
       <c r="C335">
-        <v>20.49</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
+        <v>543</v>
+      </c>
+      <c r="B336" t="s">
         <v>544</v>
       </c>
-      <c r="B336" t="s">
-        <v>545</v>
-      </c>
       <c r="C336">
-        <v>19.12</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
+        <v>545</v>
+      </c>
+      <c r="B337" t="s">
         <v>546</v>
       </c>
-      <c r="B337" t="s">
-        <v>547</v>
-      </c>
       <c r="C337">
-        <v>18.47</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
+        <v>547</v>
+      </c>
+      <c r="B338" t="s">
         <v>548</v>
       </c>
-      <c r="B338" t="s">
-        <v>549</v>
-      </c>
       <c r="C338">
-        <v>15.76</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B339" t="s">
-        <v>551</v>
+        <v>274</v>
       </c>
       <c r="C339">
-        <v>14.67</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B340" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C340">
-        <v>13.69</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B341" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C341">
-        <v>12.38</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B342" t="s">
-        <v>557</v>
+        <v>204</v>
       </c>
       <c r="C342">
-        <v>12.18</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B343" t="s">
-        <v>559</v>
+        <v>210</v>
       </c>
       <c r="C343">
-        <v>11.39</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B344" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C344">
-        <v>11.04</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B345" t="s">
-        <v>292</v>
+        <v>559</v>
       </c>
       <c r="C345">
-        <v>9.85</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B346" t="s">
-        <v>564</v>
+        <v>112</v>
       </c>
       <c r="C346">
-        <v>9.7200000000000006</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B347" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C347">
-        <v>9.52</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B348" t="s">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="C348">
-        <v>9.44</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B349" t="s">
-        <v>31</v>
+        <v>565</v>
       </c>
       <c r="C349">
-        <v>8.66</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B350" t="s">
-        <v>570</v>
+        <v>327</v>
       </c>
       <c r="C350">
-        <v>8.61</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B351" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C351">
-        <v>8.4499999999999993</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B352" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="C352">
-        <v>7.91</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B353" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C353">
-        <v>7.62</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B354" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="C354">
-        <v>6.9</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B355" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C355">
-        <v>6.66</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B356" t="s">
-        <v>340</v>
+        <v>576</v>
       </c>
       <c r="C356">
-        <v>6.6</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B357" t="s">
-        <v>581</v>
+        <v>413</v>
       </c>
       <c r="C357">
-        <v>6.53</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B358" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="C358">
-        <v>6.04</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B359" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C359">
-        <v>5.56</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B360" t="s">
-        <v>237</v>
+        <v>582</v>
       </c>
       <c r="C360">
-        <v>5.55</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B361" t="s">
-        <v>587</v>
+        <v>41</v>
       </c>
       <c r="C361">
-        <v>5.23</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B362" t="s">
-        <v>424</v>
+        <v>16</v>
       </c>
       <c r="C362">
-        <v>4.88</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B363" t="s">
-        <v>72</v>
+        <v>586</v>
       </c>
       <c r="C363">
-        <v>4.79</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B364" t="s">
-        <v>591</v>
+        <v>8</v>
       </c>
       <c r="C364">
-        <v>4.08</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B365" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C365">
-        <v>1.81</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B366" t="s">
-        <v>74</v>
+        <v>591</v>
       </c>
       <c r="C366">
-        <v>1.77</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B367" t="s">
-        <v>72</v>
+        <v>593</v>
       </c>
       <c r="C367">
-        <v>1.3</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B368" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C368">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B369" t="s">
-        <v>8</v>
+        <v>597</v>
       </c>
       <c r="C369">
-        <v>1.24</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B370" t="s">
-        <v>600</v>
+        <v>417</v>
       </c>
       <c r="C370">
-        <v>1.1599999999999999</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B371" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C371">
-        <v>0.87</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B372" t="s">
-        <v>604</v>
+        <v>188</v>
       </c>
       <c r="C372">
-        <v>0.78</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B373" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C373">
-        <v>0.7</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B374" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C374">
-        <v>0.6</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B375" t="s">
-        <v>428</v>
+        <v>157</v>
       </c>
       <c r="C375">
-        <v>0.36</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B376" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C376">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B377" t="s">
-        <v>217</v>
+        <v>610</v>
       </c>
       <c r="C377">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B378" t="s">
-        <v>614</v>
+        <v>81</v>
       </c>
       <c r="C378">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="A379" t="s">
-        <v>615</v>
-      </c>
-      <c r="B379" t="s">
-        <v>616</v>
-      </c>
-      <c r="C379">
-        <v>0.01</v>
+        <v>-167.52</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>617</v>
-      </c>
-      <c r="B380" t="s">
-        <v>186</v>
-      </c>
-      <c r="C380">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
-      <c r="A381" t="s">
-        <v>618</v>
-      </c>
-      <c r="B381" t="s">
-        <v>619</v>
-      </c>
-      <c r="C381">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
-      <c r="A382" t="s">
-        <v>620</v>
-      </c>
-      <c r="B382" t="s">
-        <v>621</v>
-      </c>
-      <c r="C382">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
-      <c r="A383" t="s">
-        <v>622</v>
-      </c>
-      <c r="B383" t="s">
-        <v>119</v>
-      </c>
-      <c r="C383">
-        <v>-167.52</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EEE8BE5-5905-40DA-8F6B-3E0CDA2F76A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BED80375-6FB8-4FBC-8BB5-AAC3DD5FF08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="615">
   <si>
     <t>CONTA</t>
   </si>
@@ -43,12 +43,36 @@
     <t>ALBERTO</t>
   </si>
   <si>
+    <t>004472404</t>
+  </si>
+  <si>
+    <t>DILSON</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
     <t>000989247</t>
   </si>
   <si>
     <t>ANA</t>
   </si>
   <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
     <t>005142661</t>
   </si>
   <si>
@@ -79,1636 +103,1618 @@
     <t>NASSIM</t>
   </si>
   <si>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>005105970</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>004450724</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004641487</t>
+  </si>
+  <si>
+    <t>LAILA</t>
+  </si>
+  <si>
+    <t>004643737</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>005169333</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004643153</t>
+  </si>
+  <si>
+    <t>CARLA</t>
+  </si>
+  <si>
+    <t>004216434</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>004482102</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004862672</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004461526</t>
+  </si>
+  <si>
+    <t>ASSISTIGAS</t>
+  </si>
+  <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004915243</t>
+  </si>
+  <si>
+    <t>POLO</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004208869</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004380948</t>
+  </si>
+  <si>
+    <t>LUISA</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>003301389</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>002458288</t>
+  </si>
+  <si>
+    <t>BENEDITO</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004207374</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004946542</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>004212409</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>004444605</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004207278</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004334158</t>
+  </si>
+  <si>
+    <t>LEONE</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>001922009</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>004450405</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>004243043</t>
+  </si>
+  <si>
+    <t>SUELI</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>004369172</t>
+  </si>
+  <si>
+    <t>LUIZA</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>004340984</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>004212476</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>003497496</t>
+  </si>
+  <si>
+    <t>ELISANDRA</t>
+  </si>
+  <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004691225</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>004517506</t>
+  </si>
+  <si>
+    <t>004552021</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>004264780</t>
+  </si>
+  <si>
+    <t>004214604</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>004214592</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>004404724</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>000827730</t>
+  </si>
+  <si>
+    <t>004281300</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>004355790</t>
+  </si>
+  <si>
+    <t>MINEIA</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004422594</t>
+  </si>
+  <si>
+    <t>WANDIR</t>
+  </si>
+  <si>
+    <t>004588677</t>
+  </si>
+  <si>
+    <t>RACHEL</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>004482090</t>
+  </si>
+  <si>
+    <t>CEZAR</t>
+  </si>
+  <si>
+    <t>004313254</t>
+  </si>
+  <si>
+    <t>004216298</t>
+  </si>
+  <si>
+    <t>FLORDELIZ</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004421636</t>
+  </si>
+  <si>
+    <t>004335031</t>
+  </si>
+  <si>
+    <t>004971448</t>
+  </si>
+  <si>
+    <t>CLOVIS</t>
+  </si>
+  <si>
+    <t>004589311</t>
+  </si>
+  <si>
+    <t>CLARICE</t>
+  </si>
+  <si>
+    <t>004238164</t>
+  </si>
+  <si>
+    <t>004511696</t>
+  </si>
+  <si>
+    <t>KRYSCIA</t>
+  </si>
+  <si>
     <t>004459461</t>
   </si>
   <si>
     <t>INTERLAGOS</t>
-  </si>
-  <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004450724</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004472404</t>
-  </si>
-  <si>
-    <t>DILSON</t>
-  </si>
-  <si>
-    <t>004641487</t>
-  </si>
-  <si>
-    <t>LAILA</t>
-  </si>
-  <si>
-    <t>004915243</t>
-  </si>
-  <si>
-    <t>POLO</t>
-  </si>
-  <si>
-    <t>004643737</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>005169333</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004643153</t>
-  </si>
-  <si>
-    <t>CARLA</t>
-  </si>
-  <si>
-    <t>004216434</t>
-  </si>
-  <si>
-    <t>JAIME</t>
-  </si>
-  <si>
-    <t>004482102</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>004862672</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004461526</t>
-  </si>
-  <si>
-    <t>ASSISTIGAS</t>
-  </si>
-  <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004380948</t>
-  </si>
-  <si>
-    <t>LUISA</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>003301389</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004207374</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004946542</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>004212409</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>004444605</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004207278</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004334158</t>
-  </si>
-  <si>
-    <t>LEONE</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>001922009</t>
-  </si>
-  <si>
-    <t>SOFIA</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>004450405</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004243043</t>
-  </si>
-  <si>
-    <t>SUELI</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>004369172</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>004340984</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>000834301</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>004212476</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004751770</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004556150</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004436055</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>003497496</t>
-  </si>
-  <si>
-    <t>ELISANDRA</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004691225</t>
-  </si>
-  <si>
-    <t>ANNA</t>
-  </si>
-  <si>
-    <t>004517506</t>
-  </si>
-  <si>
-    <t>004552021</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>004264780</t>
-  </si>
-  <si>
-    <t>004214604</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>004214592</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>004404724</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>000827730</t>
-  </si>
-  <si>
-    <t>004281300</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>004355790</t>
-  </si>
-  <si>
-    <t>MINEIA</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004422594</t>
-  </si>
-  <si>
-    <t>WANDIR</t>
-  </si>
-  <si>
-    <t>004588677</t>
-  </si>
-  <si>
-    <t>RACHEL</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>004482090</t>
-  </si>
-  <si>
-    <t>CEZAR</t>
-  </si>
-  <si>
-    <t>004313254</t>
-  </si>
-  <si>
-    <t>004216298</t>
-  </si>
-  <si>
-    <t>FLORDELIZ</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004421636</t>
-  </si>
-  <si>
-    <t>004335031</t>
-  </si>
-  <si>
-    <t>004971448</t>
-  </si>
-  <si>
-    <t>CLOVIS</t>
-  </si>
-  <si>
-    <t>004589311</t>
-  </si>
-  <si>
-    <t>CLARICE</t>
-  </si>
-  <si>
-    <t>004238164</t>
-  </si>
-  <si>
-    <t>004511696</t>
-  </si>
-  <si>
-    <t>KRYSCIA</t>
   </si>
   <si>
     <t>004212933</t>
@@ -2224,7 +2230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C380"/>
+  <dimension ref="A1:C381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2271,7 +2277,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>196246.41</v>
+        <v>245119.81</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2282,7 +2288,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>157503.12</v>
+        <v>197071.55</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2293,7 +2299,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>155008.35</v>
+        <v>196246.41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2304,7 +2310,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>150175.66</v>
+        <v>172982.73</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2315,7 +2321,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>147852.56</v>
+        <v>159646.76999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2326,7 +2332,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>147040.70000000001</v>
+        <v>157503.12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2337,7 +2343,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>100006.98</v>
+        <v>155008.35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2348,7 +2354,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>95000</v>
+        <v>150175.66</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2359,7 +2365,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>85000</v>
+        <v>147852.56</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2367,285 +2373,285 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>52604.160000000003</v>
+        <v>147040.70000000001</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
-        <v>43264.79</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>34343.57</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>23386.1</v>
+        <v>43264.79</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>22063.42</v>
+        <v>41284.17</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>20626.990000000002</v>
+        <v>34343.57</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19">
-        <v>17492.96</v>
+        <v>22063.42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C20">
-        <v>15151.24</v>
+        <v>17492.96</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>13571.37</v>
+        <v>15151.24</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>13259</v>
+        <v>13571.37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>10412.89</v>
+        <v>13259</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C24">
-        <v>10044.69</v>
+        <v>10412.89</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>10042.44</v>
+        <v>10044.69</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>6354.84</v>
+        <v>10042.44</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>2691.13</v>
+        <v>6354.84</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>2300</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29">
-        <v>2036.94</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C30">
-        <v>1700.71</v>
+        <v>2036.94</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C31">
-        <v>1108.53</v>
+        <v>1700.71</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32">
-        <v>988.32</v>
+        <v>1108.53</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33">
-        <v>946.84</v>
+        <v>988.32</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34">
-        <v>943.73</v>
+        <v>946.84</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35">
-        <v>942.42</v>
+        <v>943.73</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C36">
-        <v>937.33</v>
+        <v>942.42</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C37">
-        <v>933.95</v>
+        <v>937.33</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="C38">
-        <v>924.1</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2656,7 +2662,7 @@
         <v>74</v>
       </c>
       <c r="C39">
-        <v>894.66</v>
+        <v>924.1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2667,7 +2673,7 @@
         <v>76</v>
       </c>
       <c r="C40">
-        <v>854.73</v>
+        <v>894.66</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2678,7 +2684,7 @@
         <v>78</v>
       </c>
       <c r="C41">
-        <v>852.1</v>
+        <v>854.73</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2686,21 +2692,21 @@
         <v>79</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C42">
-        <v>849.15</v>
+        <v>852.1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C43">
-        <v>847.72</v>
+        <v>849.15</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2711,7 +2717,7 @@
         <v>83</v>
       </c>
       <c r="C44">
-        <v>842.42</v>
+        <v>847.72</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2722,7 +2728,7 @@
         <v>85</v>
       </c>
       <c r="C45">
-        <v>839.9</v>
+        <v>842.42</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2733,7 +2739,7 @@
         <v>87</v>
       </c>
       <c r="C46">
-        <v>839.03</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2741,21 +2747,21 @@
         <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="C47">
-        <v>823.1</v>
+        <v>839.03</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="C48">
-        <v>814.4</v>
+        <v>823.1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2766,7 +2772,7 @@
         <v>92</v>
       </c>
       <c r="C49">
-        <v>796.37</v>
+        <v>814.4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2777,7 +2783,7 @@
         <v>94</v>
       </c>
       <c r="C50">
-        <v>786.23</v>
+        <v>796.37</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2788,7 +2794,7 @@
         <v>96</v>
       </c>
       <c r="C51">
-        <v>775.45</v>
+        <v>790.41</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2799,7 +2805,7 @@
         <v>98</v>
       </c>
       <c r="C52">
-        <v>754.27</v>
+        <v>786.23</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2810,7 +2816,7 @@
         <v>100</v>
       </c>
       <c r="C53">
-        <v>748.58</v>
+        <v>775.45</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2818,10 +2824,10 @@
         <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>744.09</v>
+        <v>754.27</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2832,7 +2838,7 @@
         <v>103</v>
       </c>
       <c r="C55">
-        <v>737.21</v>
+        <v>748.58</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2840,161 +2846,161 @@
         <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="C56">
-        <v>733.93</v>
+        <v>744.09</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
         <v>106</v>
       </c>
-      <c r="B57" t="s">
-        <v>107</v>
-      </c>
       <c r="C57">
-        <v>716.35</v>
+        <v>737.21</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C58">
-        <v>715.56</v>
+        <v>733.93</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C59">
-        <v>707.41</v>
+        <v>716.35</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" t="s">
         <v>111</v>
       </c>
-      <c r="B60" t="s">
-        <v>112</v>
-      </c>
       <c r="C60">
-        <v>704.83</v>
+        <v>715.56</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C61">
-        <v>700.86</v>
+        <v>707.41</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C62">
-        <v>698.43</v>
+        <v>704.83</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C63">
-        <v>698.03</v>
+        <v>700.86</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C64">
-        <v>689.06</v>
+        <v>698.43</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="C65">
-        <v>679.29</v>
+        <v>698.03</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
         <v>122</v>
       </c>
-      <c r="B66" t="s">
-        <v>123</v>
-      </c>
       <c r="C66">
-        <v>675.5</v>
+        <v>689.06</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>674.5</v>
+        <v>679.29</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C68">
-        <v>666</v>
+        <v>675.5</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C69">
-        <v>666</v>
+        <v>674.5</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C70">
         <v>666</v>
@@ -3002,10 +3008,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C71">
         <v>666</v>
@@ -3013,288 +3019,288 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C72">
-        <v>663.35</v>
+        <v>666</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C73">
-        <v>651.25</v>
+        <v>666</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="C74">
-        <v>649.30999999999995</v>
+        <v>663.35</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B75" t="s">
         <v>139</v>
       </c>
-      <c r="B75" t="s">
-        <v>140</v>
-      </c>
       <c r="C75">
-        <v>644.94000000000005</v>
+        <v>651.25</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="C76">
-        <v>634.79</v>
+        <v>649.30999999999995</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C77">
-        <v>627.35</v>
+        <v>644.94000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="C78">
-        <v>625.5</v>
+        <v>634.79</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" t="s">
         <v>146</v>
       </c>
-      <c r="B79" t="s">
-        <v>147</v>
-      </c>
       <c r="C79">
-        <v>623.46</v>
+        <v>627.35</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" t="s">
         <v>148</v>
       </c>
-      <c r="B80" t="s">
-        <v>149</v>
-      </c>
       <c r="C80">
-        <v>617.72</v>
+        <v>626.99</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="C81">
-        <v>614.55999999999995</v>
+        <v>625.5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C82">
-        <v>607.99</v>
+        <v>623.46</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C83">
-        <v>598.08000000000004</v>
+        <v>617.72</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C84">
-        <v>595.05999999999995</v>
+        <v>614.55999999999995</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="C85">
-        <v>591.30999999999995</v>
+        <v>607.99</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B86" t="s">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="C86">
-        <v>585.70000000000005</v>
+        <v>604.16</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C87">
-        <v>581.89</v>
+        <v>598.08000000000004</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C88">
-        <v>581.08000000000004</v>
+        <v>595.05999999999995</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B89" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="C89">
-        <v>578.48</v>
+        <v>591.30999999999995</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="C90">
-        <v>578.08000000000004</v>
+        <v>585.70000000000005</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C91">
-        <v>573.34</v>
+        <v>581.89</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C92">
-        <v>568.94000000000005</v>
+        <v>581.08000000000004</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B93" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C93">
-        <v>557.41999999999996</v>
+        <v>578.48</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C94">
-        <v>549.72</v>
+        <v>578.08000000000004</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="C95">
-        <v>549.71</v>
+        <v>573.34</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>175</v>
+      </c>
+      <c r="B96" t="s">
         <v>176</v>
       </c>
-      <c r="B96" t="s">
-        <v>177</v>
-      </c>
       <c r="C96">
-        <v>529.34</v>
+        <v>568.94000000000005</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97" t="s">
         <v>178</v>
       </c>
-      <c r="B97" t="s">
-        <v>16</v>
-      </c>
       <c r="C97">
-        <v>524.29</v>
+        <v>557.41999999999996</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3302,351 +3308,351 @@
         <v>179</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="C98">
-        <v>519.45000000000005</v>
+        <v>549.72</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
       <c r="C99">
-        <v>517.87</v>
+        <v>549.71</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C100">
-        <v>516.78</v>
+        <v>529.34</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B101" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="C101">
-        <v>507.08</v>
+        <v>524.29</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C102">
-        <v>494.86</v>
+        <v>519.45000000000005</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B103" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="C103">
-        <v>491.62</v>
+        <v>517.87</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B104" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C104">
-        <v>470</v>
+        <v>516.78</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B105" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C105">
-        <v>467.91</v>
+        <v>507.08</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B106" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="C106">
-        <v>466.47</v>
+        <v>494.86</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B107" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="C107">
-        <v>465.01</v>
+        <v>491.62</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="C108">
-        <v>460.98</v>
+        <v>470</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>197</v>
+      </c>
+      <c r="B109" t="s">
         <v>198</v>
       </c>
-      <c r="B109" t="s">
-        <v>199</v>
-      </c>
       <c r="C109">
-        <v>459.2</v>
+        <v>467.91</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B110" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="C110">
-        <v>458.13</v>
+        <v>466.47</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>200</v>
+      </c>
+      <c r="B111" t="s">
         <v>201</v>
       </c>
-      <c r="B111" t="s">
-        <v>202</v>
-      </c>
       <c r="C111">
-        <v>453.65</v>
+        <v>465.01</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="C112">
-        <v>449.3</v>
+        <v>460.98</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B113" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C113">
-        <v>436.86</v>
+        <v>459.2</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B114" t="s">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="C114">
-        <v>430.64</v>
+        <v>458.13</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B115" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C115">
-        <v>425.99</v>
+        <v>453.65</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B116" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C116">
-        <v>425.17</v>
+        <v>449.3</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B117" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C117">
-        <v>423.95</v>
+        <v>436.86</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B118" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C118">
-        <v>413.55</v>
+        <v>430.64</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B119" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C119">
-        <v>407.48</v>
+        <v>425.99</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B120" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="C120">
-        <v>400.75</v>
+        <v>425.17</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B121" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C121">
-        <v>398.58</v>
+        <v>423.95</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B122" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C122">
-        <v>393.52</v>
+        <v>413.55</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B123" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C123">
-        <v>387.23</v>
+        <v>407.48</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B124" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="C124">
-        <v>377.42</v>
+        <v>400.75</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B125" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C125">
-        <v>369.59</v>
+        <v>398.58</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B126" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C126">
-        <v>365.44</v>
+        <v>393.52</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="C127">
-        <v>362.34</v>
+        <v>387.23</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="C128">
-        <v>357.11</v>
+        <v>377.42</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>232</v>
+      </c>
+      <c r="B129" t="s">
         <v>233</v>
       </c>
-      <c r="B129" t="s">
-        <v>188</v>
-      </c>
       <c r="C129">
-        <v>355</v>
+        <v>369.59</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -3657,7 +3663,7 @@
         <v>235</v>
       </c>
       <c r="C130">
-        <v>350.34</v>
+        <v>365.44</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -3665,10 +3671,10 @@
         <v>236</v>
       </c>
       <c r="B131" t="s">
-        <v>223</v>
+        <v>133</v>
       </c>
       <c r="C131">
-        <v>348.3</v>
+        <v>362.34</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -3676,10 +3682,10 @@
         <v>237</v>
       </c>
       <c r="B132" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C132">
-        <v>346.83</v>
+        <v>357.11</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -3687,252 +3693,252 @@
         <v>238</v>
       </c>
       <c r="B133" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="C133">
-        <v>343.52</v>
+        <v>355</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
+        <v>239</v>
+      </c>
+      <c r="B134" t="s">
         <v>240</v>
       </c>
-      <c r="B134" t="s">
-        <v>241</v>
-      </c>
       <c r="C134">
-        <v>343.26</v>
+        <v>350.34</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="C135">
-        <v>332.65</v>
+        <v>348.3</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B136" t="s">
-        <v>244</v>
+        <v>106</v>
       </c>
       <c r="C136">
-        <v>332.22</v>
+        <v>346.83</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B137" t="s">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c r="C137">
-        <v>327.89</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>245</v>
+      </c>
+      <c r="B138" t="s">
         <v>246</v>
       </c>
-      <c r="B138" t="s">
-        <v>247</v>
-      </c>
       <c r="C138">
-        <v>324.08999999999997</v>
+        <v>343.26</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B139" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="C139">
-        <v>321.54000000000002</v>
+        <v>332.65</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B140" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C140">
-        <v>321.31</v>
+        <v>332.22</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B141" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C141">
-        <v>321.24</v>
+        <v>327.89</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B142" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C142">
-        <v>312.05</v>
+        <v>324.08999999999997</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B143" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C143">
-        <v>309.77</v>
+        <v>321.54000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B144" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="C144">
-        <v>309.32</v>
+        <v>321.31</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B145" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="C145">
-        <v>308.45</v>
+        <v>321.24</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
+        <v>258</v>
+      </c>
+      <c r="B146" t="s">
         <v>259</v>
       </c>
-      <c r="B146" t="s">
-        <v>260</v>
-      </c>
       <c r="C146">
-        <v>302.77</v>
+        <v>312.05</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
+        <v>260</v>
+      </c>
+      <c r="B147" t="s">
         <v>261</v>
       </c>
-      <c r="B147" t="s">
-        <v>262</v>
-      </c>
       <c r="C147">
-        <v>301.27</v>
+        <v>309.77</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B148" t="s">
-        <v>264</v>
+        <v>67</v>
       </c>
       <c r="C148">
-        <v>294.54000000000002</v>
+        <v>309.32</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B149" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C149">
-        <v>293.3</v>
+        <v>302.77</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B150" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="C150">
-        <v>282.54000000000002</v>
+        <v>301.27</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
+        <v>267</v>
+      </c>
+      <c r="B151" t="s">
         <v>268</v>
       </c>
-      <c r="B151" t="s">
-        <v>269</v>
-      </c>
       <c r="C151">
-        <v>280.92</v>
+        <v>294.54000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
+        <v>269</v>
+      </c>
+      <c r="B152" t="s">
         <v>270</v>
       </c>
-      <c r="B152" t="s">
-        <v>271</v>
-      </c>
       <c r="C152">
-        <v>279.35000000000002</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B153" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="C153">
-        <v>277.3</v>
+        <v>282.54000000000002</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
+        <v>272</v>
+      </c>
+      <c r="B154" t="s">
         <v>273</v>
       </c>
-      <c r="B154" t="s">
-        <v>274</v>
-      </c>
       <c r="C154">
-        <v>276.93</v>
+        <v>280.92</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
+        <v>274</v>
+      </c>
+      <c r="B155" t="s">
         <v>275</v>
       </c>
-      <c r="B155" t="s">
-        <v>153</v>
-      </c>
       <c r="C155">
-        <v>260.51</v>
+        <v>279.35000000000002</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3940,21 +3946,21 @@
         <v>276</v>
       </c>
       <c r="B156" t="s">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="C156">
-        <v>260.14999999999998</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
+        <v>277</v>
+      </c>
+      <c r="B157" t="s">
         <v>278</v>
       </c>
-      <c r="B157" t="s">
-        <v>264</v>
-      </c>
       <c r="C157">
-        <v>258.76</v>
+        <v>276.93</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3962,43 +3968,43 @@
         <v>279</v>
       </c>
       <c r="B158" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="C158">
-        <v>256.27</v>
+        <v>260.51</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
+        <v>280</v>
+      </c>
+      <c r="B159" t="s">
         <v>281</v>
       </c>
-      <c r="B159" t="s">
-        <v>282</v>
-      </c>
       <c r="C159">
-        <v>255.99</v>
+        <v>260.14999999999998</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B160" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="C160">
-        <v>253.95</v>
+        <v>258.76</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
+        <v>283</v>
+      </c>
+      <c r="B161" t="s">
         <v>284</v>
       </c>
-      <c r="B161" t="s">
-        <v>208</v>
-      </c>
       <c r="C161">
-        <v>253.25</v>
+        <v>256.27</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -4006,54 +4012,54 @@
         <v>285</v>
       </c>
       <c r="B162" t="s">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="C162">
-        <v>252.17</v>
+        <v>255.99</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C163">
-        <v>246.21</v>
+        <v>253.95</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="C164">
-        <v>245.99</v>
+        <v>253.25</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B165" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="C165">
-        <v>242.72</v>
+        <v>252.17</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B166" t="s">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="C166">
-        <v>242.48</v>
+        <v>246.21</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -4061,32 +4067,32 @@
         <v>291</v>
       </c>
       <c r="B167" t="s">
-        <v>292</v>
+        <v>24</v>
       </c>
       <c r="C167">
-        <v>241.75</v>
+        <v>245.99</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B168" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C168">
-        <v>241.36</v>
+        <v>242.72</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
+        <v>293</v>
+      </c>
+      <c r="B169" t="s">
         <v>294</v>
       </c>
-      <c r="B169" t="s">
-        <v>244</v>
-      </c>
       <c r="C169">
-        <v>237.08</v>
+        <v>242.48</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -4097,7 +4103,7 @@
         <v>296</v>
       </c>
       <c r="C170">
-        <v>233.93</v>
+        <v>241.75</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -4105,32 +4111,32 @@
         <v>297</v>
       </c>
       <c r="B171" t="s">
-        <v>298</v>
+        <v>14</v>
       </c>
       <c r="C171">
-        <v>227.02</v>
+        <v>241.36</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B172" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="C172">
-        <v>226.37</v>
+        <v>237.08</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
+        <v>299</v>
+      </c>
+      <c r="B173" t="s">
         <v>300</v>
       </c>
-      <c r="B173" t="s">
-        <v>244</v>
-      </c>
       <c r="C173">
-        <v>217.03</v>
+        <v>233.93</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -4141,7 +4147,7 @@
         <v>302</v>
       </c>
       <c r="C174">
-        <v>216.08</v>
+        <v>227.02</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -4149,87 +4155,87 @@
         <v>303</v>
       </c>
       <c r="B175" t="s">
-        <v>304</v>
+        <v>215</v>
       </c>
       <c r="C175">
-        <v>212.6</v>
+        <v>226.37</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B176" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="C176">
-        <v>206.67</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B177" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C177">
-        <v>204.9</v>
+        <v>216.08</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B178" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C178">
-        <v>199.04</v>
+        <v>212.6</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B179" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="C179">
-        <v>198.65</v>
+        <v>206.67</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
+        <v>311</v>
+      </c>
+      <c r="B180" t="s">
         <v>312</v>
       </c>
-      <c r="B180" t="s">
-        <v>313</v>
-      </c>
       <c r="C180">
-        <v>196.68</v>
+        <v>204.9</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B181" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="C181">
-        <v>196.05</v>
+        <v>198.65</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
+        <v>314</v>
+      </c>
+      <c r="B182" t="s">
         <v>315</v>
       </c>
-      <c r="B182" t="s">
-        <v>14</v>
-      </c>
       <c r="C182">
-        <v>191.39</v>
+        <v>196.68</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -4237,98 +4243,98 @@
         <v>316</v>
       </c>
       <c r="B183" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="C183">
-        <v>190.71</v>
+        <v>196.05</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B184" t="s">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="C184">
-        <v>188.83</v>
+        <v>191.39</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
+        <v>318</v>
+      </c>
+      <c r="B185" t="s">
         <v>319</v>
       </c>
-      <c r="B185" t="s">
-        <v>320</v>
-      </c>
       <c r="C185">
-        <v>188.07</v>
+        <v>190.71</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B186" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="C186">
-        <v>186.02</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B187" t="s">
-        <v>262</v>
+        <v>322</v>
       </c>
       <c r="C187">
-        <v>181.74</v>
+        <v>188.07</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
+        <v>323</v>
+      </c>
+      <c r="B188" t="s">
         <v>324</v>
       </c>
-      <c r="B188" t="s">
-        <v>325</v>
-      </c>
       <c r="C188">
-        <v>176.4</v>
+        <v>186.02</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B189" t="s">
-        <v>327</v>
+        <v>266</v>
       </c>
       <c r="C189">
-        <v>172.32</v>
+        <v>181.74</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B190" t="s">
-        <v>105</v>
+        <v>327</v>
       </c>
       <c r="C190">
-        <v>170.45</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
+        <v>328</v>
+      </c>
+      <c r="B191" t="s">
         <v>329</v>
       </c>
-      <c r="B191" t="s">
-        <v>157</v>
-      </c>
       <c r="C191">
-        <v>170.37</v>
+        <v>172.32</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -4336,32 +4342,32 @@
         <v>330</v>
       </c>
       <c r="B192" t="s">
-        <v>331</v>
+        <v>162</v>
       </c>
       <c r="C192">
-        <v>170.27</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
+        <v>331</v>
+      </c>
+      <c r="B193" t="s">
         <v>332</v>
       </c>
-      <c r="B193" t="s">
-        <v>333</v>
-      </c>
       <c r="C193">
-        <v>168.35</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
+        <v>333</v>
+      </c>
+      <c r="B194" t="s">
         <v>334</v>
       </c>
-      <c r="B194" t="s">
-        <v>199</v>
-      </c>
       <c r="C194">
-        <v>168.17</v>
+        <v>168.35</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4369,10 +4375,10 @@
         <v>335</v>
       </c>
       <c r="B195" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="C195">
-        <v>164.18</v>
+        <v>168.17</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -4380,10 +4386,10 @@
         <v>336</v>
       </c>
       <c r="B196" t="s">
-        <v>290</v>
+        <v>4</v>
       </c>
       <c r="C196">
-        <v>162.94999999999999</v>
+        <v>164.18</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -4391,10 +4397,10 @@
         <v>337</v>
       </c>
       <c r="B197" t="s">
-        <v>41</v>
+        <v>294</v>
       </c>
       <c r="C197">
-        <v>156.68</v>
+        <v>162.94999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -4402,21 +4408,21 @@
         <v>338</v>
       </c>
       <c r="B198" t="s">
-        <v>339</v>
+        <v>44</v>
       </c>
       <c r="C198">
-        <v>153.11000000000001</v>
+        <v>156.68</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
+        <v>339</v>
+      </c>
+      <c r="B199" t="s">
         <v>340</v>
       </c>
-      <c r="B199" t="s">
-        <v>12</v>
-      </c>
       <c r="C199">
-        <v>152.26</v>
+        <v>153.11000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -4424,10 +4430,10 @@
         <v>341</v>
       </c>
       <c r="B200" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="C200">
-        <v>151.41</v>
+        <v>152.26</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -4435,10 +4441,10 @@
         <v>342</v>
       </c>
       <c r="B201" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="C201">
-        <v>149.66</v>
+        <v>151.41</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -4446,10 +4452,10 @@
         <v>343</v>
       </c>
       <c r="B202" t="s">
-        <v>313</v>
+        <v>116</v>
       </c>
       <c r="C202">
-        <v>147.84</v>
+        <v>149.66</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -4457,10 +4463,10 @@
         <v>344</v>
       </c>
       <c r="B203" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="C203">
-        <v>142.36000000000001</v>
+        <v>147.84</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -4468,21 +4474,21 @@
         <v>345</v>
       </c>
       <c r="B204" t="s">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="C204">
-        <v>141.27000000000001</v>
+        <v>142.36000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
+        <v>346</v>
+      </c>
+      <c r="B205" t="s">
         <v>347</v>
       </c>
-      <c r="B205" t="s">
-        <v>196</v>
-      </c>
       <c r="C205">
-        <v>140.63999999999999</v>
+        <v>141.27000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -4490,10 +4496,10 @@
         <v>348</v>
       </c>
       <c r="B206" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="C206">
-        <v>140.47999999999999</v>
+        <v>140.63999999999999</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -4501,10 +4507,10 @@
         <v>349</v>
       </c>
       <c r="B207" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="C207">
-        <v>137.93</v>
+        <v>140.47999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -4512,10 +4518,10 @@
         <v>350</v>
       </c>
       <c r="B208" t="s">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="C208">
-        <v>135.81</v>
+        <v>137.93</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -4523,21 +4529,21 @@
         <v>351</v>
       </c>
       <c r="B209" t="s">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="C209">
-        <v>135.37</v>
+        <v>135.81</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
+        <v>352</v>
+      </c>
+      <c r="B210" t="s">
         <v>353</v>
       </c>
-      <c r="B210" t="s">
-        <v>98</v>
-      </c>
       <c r="C210">
-        <v>134.97999999999999</v>
+        <v>135.37</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -4545,10 +4551,10 @@
         <v>354</v>
       </c>
       <c r="B211" t="s">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="C211">
-        <v>134.44</v>
+        <v>134.97999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4556,7 +4562,7 @@
         <v>355</v>
       </c>
       <c r="B212" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="C212">
         <v>134.44</v>
@@ -4567,43 +4573,43 @@
         <v>356</v>
       </c>
       <c r="B213" t="s">
-        <v>357</v>
+        <v>16</v>
       </c>
       <c r="C213">
-        <v>134.08000000000001</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
+        <v>357</v>
+      </c>
+      <c r="B214" t="s">
         <v>358</v>
       </c>
-      <c r="B214" t="s">
-        <v>359</v>
-      </c>
       <c r="C214">
-        <v>133.49</v>
+        <v>134.08000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
+        <v>359</v>
+      </c>
+      <c r="B215" t="s">
         <v>360</v>
       </c>
-      <c r="B215" t="s">
-        <v>361</v>
-      </c>
       <c r="C215">
-        <v>132</v>
+        <v>133.49</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
+        <v>361</v>
+      </c>
+      <c r="B216" t="s">
         <v>362</v>
       </c>
-      <c r="B216" t="s">
-        <v>254</v>
-      </c>
       <c r="C216">
-        <v>131.16999999999999</v>
+        <v>132</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -4611,10 +4617,10 @@
         <v>363</v>
       </c>
       <c r="B217" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="C217">
-        <v>128.33000000000001</v>
+        <v>131.16999999999999</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -4622,10 +4628,10 @@
         <v>364</v>
       </c>
       <c r="B218" t="s">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="C218">
-        <v>127.86</v>
+        <v>128.33000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -4633,21 +4639,21 @@
         <v>365</v>
       </c>
       <c r="B219" t="s">
-        <v>366</v>
+        <v>44</v>
       </c>
       <c r="C219">
-        <v>126.88</v>
+        <v>127.86</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
+        <v>366</v>
+      </c>
+      <c r="B220" t="s">
         <v>367</v>
       </c>
-      <c r="B220" t="s">
-        <v>171</v>
-      </c>
       <c r="C220">
-        <v>126.56</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -4655,32 +4661,32 @@
         <v>368</v>
       </c>
       <c r="B221" t="s">
-        <v>369</v>
+        <v>176</v>
       </c>
       <c r="C221">
-        <v>126.22</v>
+        <v>126.56</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
+        <v>369</v>
+      </c>
+      <c r="B222" t="s">
         <v>370</v>
       </c>
-      <c r="B222" t="s">
-        <v>371</v>
-      </c>
       <c r="C222">
-        <v>124.92</v>
+        <v>126.22</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
+        <v>371</v>
+      </c>
+      <c r="B223" t="s">
         <v>372</v>
       </c>
-      <c r="B223" t="s">
-        <v>193</v>
-      </c>
       <c r="C223">
-        <v>123.41</v>
+        <v>124.92</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -4688,10 +4694,10 @@
         <v>373</v>
       </c>
       <c r="B224" t="s">
-        <v>359</v>
+        <v>198</v>
       </c>
       <c r="C224">
-        <v>121.43</v>
+        <v>123.41</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -4699,10 +4705,10 @@
         <v>374</v>
       </c>
       <c r="B225" t="s">
-        <v>199</v>
+        <v>360</v>
       </c>
       <c r="C225">
-        <v>120.88</v>
+        <v>121.43</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -4710,10 +4716,10 @@
         <v>375</v>
       </c>
       <c r="B226" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="C226">
-        <v>120.85</v>
+        <v>120.88</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -4721,21 +4727,21 @@
         <v>376</v>
       </c>
       <c r="B227" t="s">
-        <v>377</v>
+        <v>296</v>
       </c>
       <c r="C227">
-        <v>119.07</v>
+        <v>120.85</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
+        <v>377</v>
+      </c>
+      <c r="B228" t="s">
         <v>378</v>
       </c>
-      <c r="B228" t="s">
-        <v>137</v>
-      </c>
       <c r="C228">
-        <v>113.8</v>
+        <v>119.07</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4743,65 +4749,65 @@
         <v>379</v>
       </c>
       <c r="B229" t="s">
-        <v>380</v>
+        <v>139</v>
       </c>
       <c r="C229">
-        <v>112.47</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
+        <v>380</v>
+      </c>
+      <c r="B230" t="s">
         <v>381</v>
       </c>
-      <c r="B230" t="s">
-        <v>382</v>
-      </c>
       <c r="C230">
-        <v>108.51</v>
+        <v>112.47</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
+        <v>382</v>
+      </c>
+      <c r="B231" t="s">
         <v>383</v>
       </c>
-      <c r="B231" t="s">
-        <v>384</v>
-      </c>
       <c r="C231">
-        <v>104.9</v>
+        <v>108.51</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
+        <v>384</v>
+      </c>
+      <c r="B232" t="s">
         <v>385</v>
       </c>
-      <c r="B232" t="s">
-        <v>386</v>
-      </c>
       <c r="C232">
-        <v>100.01</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
+        <v>386</v>
+      </c>
+      <c r="B233" t="s">
         <v>387</v>
       </c>
-      <c r="B233" t="s">
-        <v>388</v>
-      </c>
       <c r="C233">
-        <v>100</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
+        <v>388</v>
+      </c>
+      <c r="B234" t="s">
         <v>389</v>
       </c>
-      <c r="B234" t="s">
-        <v>280</v>
-      </c>
       <c r="C234">
-        <v>99.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -4809,21 +4815,21 @@
         <v>390</v>
       </c>
       <c r="B235" t="s">
-        <v>391</v>
+        <v>284</v>
       </c>
       <c r="C235">
-        <v>99.24</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
+        <v>391</v>
+      </c>
+      <c r="B236" t="s">
         <v>392</v>
       </c>
-      <c r="B236" t="s">
-        <v>177</v>
-      </c>
       <c r="C236">
-        <v>98.55</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -4831,10 +4837,10 @@
         <v>393</v>
       </c>
       <c r="B237" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="C237">
-        <v>97.08</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -4842,10 +4848,10 @@
         <v>394</v>
       </c>
       <c r="B238" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C238">
-        <v>95.88</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -4853,7 +4859,7 @@
         <v>395</v>
       </c>
       <c r="B239" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C239">
         <v>93.21</v>
@@ -4875,7 +4881,7 @@
         <v>398</v>
       </c>
       <c r="B241" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C241">
         <v>92.5</v>
@@ -4886,7 +4892,7 @@
         <v>399</v>
       </c>
       <c r="B242" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C242">
         <v>92.07</v>
@@ -4897,7 +4903,7 @@
         <v>400</v>
       </c>
       <c r="B243" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C243">
         <v>90.2</v>
@@ -4919,7 +4925,7 @@
         <v>403</v>
       </c>
       <c r="B245" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C245">
         <v>86.73</v>
@@ -4941,7 +4947,7 @@
         <v>406</v>
       </c>
       <c r="B247" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C247">
         <v>86.38</v>
@@ -4996,7 +5002,7 @@
         <v>414</v>
       </c>
       <c r="B252" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C252">
         <v>82.79</v>
@@ -5007,7 +5013,7 @@
         <v>415</v>
       </c>
       <c r="B253" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C253">
         <v>82.28</v>
@@ -5040,7 +5046,7 @@
         <v>420</v>
       </c>
       <c r="B256" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C256">
         <v>78.97</v>
@@ -5172,7 +5178,7 @@
         <v>443</v>
       </c>
       <c r="B268" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C268">
         <v>71.31</v>
@@ -5183,7 +5189,7 @@
         <v>444</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C269">
         <v>70.459999999999994</v>
@@ -5227,7 +5233,7 @@
         <v>451</v>
       </c>
       <c r="B273" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C273">
         <v>68.459999999999994</v>
@@ -5260,7 +5266,7 @@
         <v>456</v>
       </c>
       <c r="B276" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C276">
         <v>65.06</v>
@@ -5271,7 +5277,7 @@
         <v>457</v>
       </c>
       <c r="B277" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="C277">
         <v>64.709999999999994</v>
@@ -5282,7 +5288,7 @@
         <v>458</v>
       </c>
       <c r="B278" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C278">
         <v>63.94</v>
@@ -5293,7 +5299,7 @@
         <v>459</v>
       </c>
       <c r="B279" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C279">
         <v>61.82</v>
@@ -5315,7 +5321,7 @@
         <v>462</v>
       </c>
       <c r="B281" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C281">
         <v>59.87</v>
@@ -5359,7 +5365,7 @@
         <v>468</v>
       </c>
       <c r="B285" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C285">
         <v>57.82</v>
@@ -5370,7 +5376,7 @@
         <v>469</v>
       </c>
       <c r="B286" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C286">
         <v>57.22</v>
@@ -5381,7 +5387,7 @@
         <v>470</v>
       </c>
       <c r="B287" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C287">
         <v>56.79</v>
@@ -5403,7 +5409,7 @@
         <v>473</v>
       </c>
       <c r="B289" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C289">
         <v>55.49</v>
@@ -5414,7 +5420,7 @@
         <v>474</v>
       </c>
       <c r="B290" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C290">
         <v>55.24</v>
@@ -5447,7 +5453,7 @@
         <v>479</v>
       </c>
       <c r="B293" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C293">
         <v>52.59</v>
@@ -5480,7 +5486,7 @@
         <v>484</v>
       </c>
       <c r="B296" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C296">
         <v>49.28</v>
@@ -5491,7 +5497,7 @@
         <v>485</v>
       </c>
       <c r="B297" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C297">
         <v>48.65</v>
@@ -5502,7 +5508,7 @@
         <v>486</v>
       </c>
       <c r="B298" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C298">
         <v>48.16</v>
@@ -5546,7 +5552,7 @@
         <v>492</v>
       </c>
       <c r="B302" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C302">
         <v>46.23</v>
@@ -5579,7 +5585,7 @@
         <v>497</v>
       </c>
       <c r="B305" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C305">
         <v>44.89</v>
@@ -5590,7 +5596,7 @@
         <v>498</v>
       </c>
       <c r="B306" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C306">
         <v>44.52</v>
@@ -5601,7 +5607,7 @@
         <v>499</v>
       </c>
       <c r="B307" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C307">
         <v>44.44</v>
@@ -5612,7 +5618,7 @@
         <v>500</v>
       </c>
       <c r="B308" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C308">
         <v>42.7</v>
@@ -5623,7 +5629,7 @@
         <v>501</v>
       </c>
       <c r="B309" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C309">
         <v>42.64</v>
@@ -5634,7 +5640,7 @@
         <v>502</v>
       </c>
       <c r="B310" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C310">
         <v>40</v>
@@ -5656,7 +5662,7 @@
         <v>505</v>
       </c>
       <c r="B312" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C312">
         <v>37.799999999999997</v>
@@ -5678,7 +5684,7 @@
         <v>508</v>
       </c>
       <c r="B314" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C314">
         <v>33.049999999999997</v>
@@ -5711,7 +5717,7 @@
         <v>513</v>
       </c>
       <c r="B317" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C317">
         <v>28.58</v>
@@ -5722,7 +5728,7 @@
         <v>514</v>
       </c>
       <c r="B318" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C318">
         <v>28.26</v>
@@ -5744,7 +5750,7 @@
         <v>517</v>
       </c>
       <c r="B320" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C320">
         <v>27.45</v>
@@ -5755,7 +5761,7 @@
         <v>518</v>
       </c>
       <c r="B321" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C321">
         <v>26.17</v>
@@ -5766,7 +5772,7 @@
         <v>519</v>
       </c>
       <c r="B322" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C322">
         <v>26.1</v>
@@ -5788,7 +5794,7 @@
         <v>522</v>
       </c>
       <c r="B324" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C324">
         <v>24.33</v>
@@ -5821,7 +5827,7 @@
         <v>527</v>
       </c>
       <c r="B327" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C327">
         <v>23.11</v>
@@ -5843,7 +5849,7 @@
         <v>530</v>
       </c>
       <c r="B329" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C329">
         <v>20.49</v>
@@ -5953,7 +5959,7 @@
         <v>549</v>
       </c>
       <c r="B339" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C339">
         <v>9.85</v>
@@ -5986,7 +5992,7 @@
         <v>554</v>
       </c>
       <c r="B342" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C342">
         <v>9.44</v>
@@ -5997,7 +6003,7 @@
         <v>555</v>
       </c>
       <c r="B343" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C343">
         <v>8.66</v>
@@ -6030,7 +6036,7 @@
         <v>560</v>
       </c>
       <c r="B346" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C346">
         <v>7.91</v>
@@ -6052,21 +6058,21 @@
         <v>563</v>
       </c>
       <c r="B348" t="s">
-        <v>131</v>
+        <v>564</v>
       </c>
       <c r="C348">
-        <v>6.9</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B349" t="s">
-        <v>565</v>
+        <v>133</v>
       </c>
       <c r="C349">
-        <v>6.66</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6074,21 +6080,21 @@
         <v>566</v>
       </c>
       <c r="B350" t="s">
-        <v>327</v>
+        <v>567</v>
       </c>
       <c r="C350">
-        <v>6.6</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B351" t="s">
-        <v>568</v>
+        <v>329</v>
       </c>
       <c r="C351">
-        <v>6.53</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6096,21 +6102,21 @@
         <v>569</v>
       </c>
       <c r="B352" t="s">
-        <v>114</v>
+        <v>570</v>
       </c>
       <c r="C352">
-        <v>6.04</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B353" t="s">
-        <v>571</v>
+        <v>116</v>
       </c>
       <c r="C353">
-        <v>5.56</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6118,21 +6124,21 @@
         <v>572</v>
       </c>
       <c r="B354" t="s">
-        <v>208</v>
+        <v>573</v>
       </c>
       <c r="C354">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B355" t="s">
-        <v>574</v>
+        <v>213</v>
       </c>
       <c r="C355">
-        <v>5.26</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -6143,7 +6149,7 @@
         <v>576</v>
       </c>
       <c r="C356">
-        <v>5.23</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6151,32 +6157,32 @@
         <v>577</v>
       </c>
       <c r="B357" t="s">
-        <v>413</v>
+        <v>578</v>
       </c>
       <c r="C357">
-        <v>4.88</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B358" t="s">
-        <v>16</v>
+        <v>413</v>
       </c>
       <c r="C358">
-        <v>4.79</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B359" t="s">
-        <v>580</v>
+        <v>24</v>
       </c>
       <c r="C359">
-        <v>4.08</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -6187,7 +6193,7 @@
         <v>582</v>
       </c>
       <c r="C360">
-        <v>1.81</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6195,29 +6201,29 @@
         <v>583</v>
       </c>
       <c r="B361" t="s">
-        <v>41</v>
+        <v>584</v>
       </c>
       <c r="C361">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B362" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C362">
-        <v>1.3</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B363" t="s">
-        <v>586</v>
+        <v>24</v>
       </c>
       <c r="C363">
         <v>1.3</v>
@@ -6228,21 +6234,21 @@
         <v>587</v>
       </c>
       <c r="B364" t="s">
-        <v>8</v>
+        <v>588</v>
       </c>
       <c r="C364">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B365" t="s">
-        <v>589</v>
+        <v>12</v>
       </c>
       <c r="C365">
-        <v>1.1599999999999999</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -6253,7 +6259,7 @@
         <v>591</v>
       </c>
       <c r="C366">
-        <v>0.87</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6264,7 +6270,7 @@
         <v>593</v>
       </c>
       <c r="C367">
-        <v>0.78</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6275,7 +6281,7 @@
         <v>595</v>
       </c>
       <c r="C368">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6286,7 +6292,7 @@
         <v>597</v>
       </c>
       <c r="C369">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6294,21 +6300,21 @@
         <v>598</v>
       </c>
       <c r="B370" t="s">
-        <v>417</v>
+        <v>599</v>
       </c>
       <c r="C370">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B371" t="s">
-        <v>600</v>
+        <v>417</v>
       </c>
       <c r="C371">
-        <v>0.06</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6316,18 +6322,18 @@
         <v>601</v>
       </c>
       <c r="B372" t="s">
-        <v>188</v>
+        <v>602</v>
       </c>
       <c r="C372">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B373" t="s">
-        <v>603</v>
+        <v>193</v>
       </c>
       <c r="C373">
         <v>0.03</v>
@@ -6341,7 +6347,7 @@
         <v>605</v>
       </c>
       <c r="C374">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6349,7 +6355,7 @@
         <v>606</v>
       </c>
       <c r="B375" t="s">
-        <v>157</v>
+        <v>607</v>
       </c>
       <c r="C375">
         <v>0.01</v>
@@ -6357,10 +6363,10 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B376" t="s">
-        <v>608</v>
+        <v>162</v>
       </c>
       <c r="C376">
         <v>0.01</v>
@@ -6382,15 +6388,26 @@
         <v>611</v>
       </c>
       <c r="B378" t="s">
-        <v>81</v>
+        <v>612</v>
       </c>
       <c r="C378">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>613</v>
+      </c>
+      <c r="B379" t="s">
+        <v>83</v>
+      </c>
+      <c r="C379">
         <v>-167.52</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
-      <c r="A380" t="s">
-        <v>612</v>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BED80375-6FB8-4FBC-8BB5-AAC3DD5FF08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D3A1042-8CA1-4A5F-9867-BE82B8E9B738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="614">
   <si>
     <t>CONTA</t>
   </si>
@@ -43,151 +43,1492 @@
     <t>ALBERTO</t>
   </si>
   <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>005142661</t>
+  </si>
+  <si>
+    <t>SABRINA</t>
+  </si>
+  <si>
+    <t>005142624</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
+  </si>
+  <si>
+    <t>005173958</t>
+  </si>
+  <si>
+    <t>VENIA</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004641487</t>
+  </si>
+  <si>
+    <t>LAILA</t>
+  </si>
+  <si>
+    <t>004643737</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>005169333</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004376853</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004359408</t>
+  </si>
+  <si>
+    <t>HEPTA</t>
+  </si>
+  <si>
+    <t>004893911</t>
+  </si>
+  <si>
+    <t>FAUSTO</t>
+  </si>
+  <si>
+    <t>004399832</t>
+  </si>
+  <si>
+    <t>EULER</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004853901</t>
+  </si>
+  <si>
+    <t>CRISTINA</t>
+  </si>
+  <si>
+    <t>004515341</t>
+  </si>
+  <si>
+    <t>004862672</t>
+  </si>
+  <si>
+    <t>RENATO</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>004508526</t>
+  </si>
+  <si>
+    <t>CASSIO</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>002277249</t>
+  </si>
+  <si>
+    <t>DANILO</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004749680</t>
+  </si>
+  <si>
+    <t>OTAVIANO</t>
+  </si>
+  <si>
+    <t>004224284</t>
+  </si>
+  <si>
+    <t>PRISCILLA</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004212438</t>
+  </si>
+  <si>
+    <t>KENIA</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004813088</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>004472538</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004474776</t>
+  </si>
+  <si>
+    <t>GILSON</t>
+  </si>
+  <si>
+    <t>004211922</t>
+  </si>
+  <si>
+    <t>004238436</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>004479463</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>004803348</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004360430</t>
+  </si>
+  <si>
+    <t>VIOMAR</t>
+  </si>
+  <si>
+    <t>004212581</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004398174</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>004346716</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004950193</t>
+  </si>
+  <si>
+    <t>004404342</t>
+  </si>
+  <si>
+    <t>ADSON</t>
+  </si>
+  <si>
+    <t>004461526</t>
+  </si>
+  <si>
+    <t>ASSISTIGAS</t>
+  </si>
+  <si>
+    <t>004119016</t>
+  </si>
+  <si>
+    <t>HEMAT</t>
+  </si>
+  <si>
+    <t>004331477</t>
+  </si>
+  <si>
+    <t>SUZY</t>
+  </si>
+  <si>
+    <t>004639776</t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t>004855073</t>
+  </si>
+  <si>
+    <t>ELSI</t>
+  </si>
+  <si>
+    <t>004866753</t>
+  </si>
+  <si>
+    <t>GENESI</t>
+  </si>
+  <si>
+    <t>004237325</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>004491730</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>004221638</t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t>004915243</t>
+  </si>
+  <si>
+    <t>POLO</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>004216504</t>
+  </si>
+  <si>
+    <t>WANDER</t>
+  </si>
+  <si>
+    <t>004500087</t>
+  </si>
+  <si>
+    <t>JANNE</t>
+  </si>
+  <si>
+    <t>004556974</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>004208869</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004813166</t>
+  </si>
+  <si>
+    <t>001000882</t>
+  </si>
+  <si>
+    <t>AYRTON</t>
+  </si>
+  <si>
+    <t>004948033</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004206790</t>
+  </si>
+  <si>
+    <t>EMMANUELLE</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>004490955</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004956636</t>
+  </si>
+  <si>
+    <t>004451978</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>004693697</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>004315417</t>
+  </si>
+  <si>
+    <t>SISSI</t>
+  </si>
+  <si>
+    <t>004387250</t>
+  </si>
+  <si>
+    <t>004811224</t>
+  </si>
+  <si>
+    <t>004512434</t>
+  </si>
+  <si>
+    <t>CAIO</t>
+  </si>
+  <si>
+    <t>004457389</t>
+  </si>
+  <si>
+    <t>004752461</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>002064834</t>
+  </si>
+  <si>
+    <t>RAFAELA</t>
+  </si>
+  <si>
+    <t>005002390</t>
+  </si>
+  <si>
+    <t>LUCIANO</t>
+  </si>
+  <si>
+    <t>004724018</t>
+  </si>
+  <si>
+    <t>ASPA</t>
+  </si>
+  <si>
+    <t>004273239</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>004480134</t>
+  </si>
+  <si>
+    <t>004380948</t>
+  </si>
+  <si>
+    <t>LUISA</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>002697806</t>
+  </si>
+  <si>
+    <t>004693349</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>004453132</t>
+  </si>
+  <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
+    <t>004268684</t>
+  </si>
+  <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>004415557</t>
+  </si>
+  <si>
+    <t>FILIPE</t>
+  </si>
+  <si>
+    <t>004381328</t>
+  </si>
+  <si>
+    <t>JOAO</t>
+  </si>
+  <si>
+    <t>003301389</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>004468717</t>
+  </si>
+  <si>
+    <t>HELOISA</t>
+  </si>
+  <si>
+    <t>004454491</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004554411</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004908680</t>
+  </si>
+  <si>
+    <t>ELENE</t>
+  </si>
+  <si>
+    <t>004368994</t>
+  </si>
+  <si>
+    <t>004211368</t>
+  </si>
+  <si>
+    <t>ILTON</t>
+  </si>
+  <si>
+    <t>004381180</t>
+  </si>
+  <si>
+    <t>HFR</t>
+  </si>
+  <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>004213943</t>
+  </si>
+  <si>
+    <t>ELISA</t>
+  </si>
+  <si>
+    <t>004473829</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>002687737</t>
+  </si>
+  <si>
+    <t>004453157</t>
+  </si>
+  <si>
+    <t>004493324</t>
+  </si>
+  <si>
+    <t>004364200</t>
+  </si>
+  <si>
+    <t>BLOCO</t>
+  </si>
+  <si>
+    <t>004361159</t>
+  </si>
+  <si>
+    <t>004214460</t>
+  </si>
+  <si>
+    <t>004450724</t>
+  </si>
+  <si>
+    <t>004967702</t>
+  </si>
+  <si>
+    <t>VINICIUS</t>
+  </si>
+  <si>
+    <t>002828327</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>005009922</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>004940560</t>
+  </si>
+  <si>
+    <t>CRISTIANO</t>
+  </si>
+  <si>
+    <t>002458288</t>
+  </si>
+  <si>
+    <t>BENEDITO</t>
+  </si>
+  <si>
+    <t>004487016</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>004975924</t>
+  </si>
+  <si>
+    <t>004527606</t>
+  </si>
+  <si>
+    <t>MARCIA</t>
+  </si>
+  <si>
+    <t>004332544</t>
+  </si>
+  <si>
+    <t>CELIA</t>
+  </si>
+  <si>
+    <t>004398253</t>
+  </si>
+  <si>
+    <t>004376145</t>
+  </si>
+  <si>
+    <t>LUCYENE</t>
+  </si>
+  <si>
+    <t>005024046</t>
+  </si>
+  <si>
+    <t>ALEXANDRE</t>
+  </si>
+  <si>
+    <t>004754920</t>
+  </si>
+  <si>
+    <t>LUIS</t>
+  </si>
+  <si>
+    <t>004207374</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>004972351</t>
+  </si>
+  <si>
+    <t>003115072</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>004451652</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>004850070</t>
+  </si>
+  <si>
+    <t>004565108</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>002401479</t>
+  </si>
+  <si>
+    <t>005007114</t>
+  </si>
+  <si>
+    <t>STELLA</t>
+  </si>
+  <si>
+    <t>001719494</t>
+  </si>
+  <si>
+    <t>004946542</t>
+  </si>
+  <si>
+    <t>ALESSANDRA</t>
+  </si>
+  <si>
+    <t>004455489</t>
+  </si>
+  <si>
+    <t>SOLANGE</t>
+  </si>
+  <si>
+    <t>004584982</t>
+  </si>
+  <si>
+    <t>004381415</t>
+  </si>
+  <si>
+    <t>004322549</t>
+  </si>
+  <si>
+    <t>004479287</t>
+  </si>
+  <si>
+    <t>004212409</t>
+  </si>
+  <si>
+    <t>004539779</t>
+  </si>
+  <si>
+    <t>004805273</t>
+  </si>
+  <si>
+    <t>CLISIA</t>
+  </si>
+  <si>
+    <t>005064129</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004386464</t>
+  </si>
+  <si>
+    <t>004846293</t>
+  </si>
+  <si>
+    <t>004208733</t>
+  </si>
+  <si>
+    <t>REINALDO</t>
+  </si>
+  <si>
+    <t>005079311</t>
+  </si>
+  <si>
+    <t>JOVINO</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>005002457</t>
+  </si>
+  <si>
+    <t>ROSANGELA</t>
+  </si>
+  <si>
+    <t>004587525</t>
+  </si>
+  <si>
+    <t>JADER</t>
+  </si>
+  <si>
+    <t>004575621</t>
+  </si>
+  <si>
+    <t>MARCUS</t>
+  </si>
+  <si>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004290978</t>
+  </si>
+  <si>
+    <t>004862746</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>004254210</t>
+  </si>
+  <si>
+    <t>005105970</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>004381359</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>004481463</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>004444605</t>
+  </si>
+  <si>
+    <t>004994036</t>
+  </si>
+  <si>
+    <t>BALTASAR</t>
+  </si>
+  <si>
+    <t>001804114</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>004520100</t>
+  </si>
+  <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
+    <t>004480336</t>
+  </si>
+  <si>
+    <t>004374943</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
+  </si>
+  <si>
+    <t>004224815</t>
+  </si>
+  <si>
+    <t>003249855</t>
+  </si>
+  <si>
+    <t>MARINA</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
+  </si>
+  <si>
+    <t>004455356</t>
+  </si>
+  <si>
+    <t>004472386</t>
+  </si>
+  <si>
+    <t>004805269</t>
+  </si>
+  <si>
+    <t>004999434</t>
+  </si>
+  <si>
+    <t>005121919</t>
+  </si>
+  <si>
+    <t>JORGE</t>
+  </si>
+  <si>
+    <t>004374891</t>
+  </si>
+  <si>
+    <t>004240292</t>
+  </si>
+  <si>
+    <t>002786022</t>
+  </si>
+  <si>
+    <t>004207278</t>
+  </si>
+  <si>
+    <t>004565146</t>
+  </si>
+  <si>
+    <t>004459875</t>
+  </si>
+  <si>
+    <t>HELVECIO</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>004914070</t>
+  </si>
+  <si>
+    <t>004752519</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
+    <t>004334158</t>
+  </si>
+  <si>
+    <t>LEONE</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004752494</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
+    <t>004749928</t>
+  </si>
+  <si>
+    <t>NADY</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004854514</t>
+  </si>
+  <si>
+    <t>004216657</t>
+  </si>
+  <si>
+    <t>004946997</t>
+  </si>
+  <si>
+    <t>004385806</t>
+  </si>
+  <si>
+    <t>ANILSON</t>
+  </si>
+  <si>
+    <t>005044389</t>
+  </si>
+  <si>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
+  </si>
+  <si>
+    <t>004332783</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>004419782</t>
+  </si>
+  <si>
+    <t>004748761</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
     <t>004472404</t>
   </si>
   <si>
     <t>DILSON</t>
   </si>
   <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>005142661</t>
-  </si>
-  <si>
-    <t>SABRINA</t>
-  </si>
-  <si>
-    <t>005142624</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004480336</t>
-  </si>
-  <si>
-    <t>PEDRO</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
-  </si>
-  <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>005105970</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>004450724</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
-  </si>
-  <si>
-    <t>004641487</t>
-  </si>
-  <si>
-    <t>LAILA</t>
-  </si>
-  <si>
-    <t>004643737</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>005169333</t>
-  </si>
-  <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>001759765</t>
+  </si>
+  <si>
+    <t>NATAL</t>
+  </si>
+  <si>
+    <t>004239624</t>
+  </si>
+  <si>
+    <t>NINA</t>
+  </si>
+  <si>
+    <t>001922009</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>005147664</t>
+  </si>
+  <si>
+    <t>SAVIO</t>
+  </si>
+  <si>
+    <t>004872395</t>
+  </si>
+  <si>
+    <t>004267976</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>004584517</t>
+  </si>
+  <si>
+    <t>004432935</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
+  </si>
+  <si>
+    <t>005046790</t>
+  </si>
+  <si>
+    <t>004477812</t>
+  </si>
+  <si>
+    <t>004450405</t>
+  </si>
+  <si>
+    <t>004472760</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004207955</t>
+  </si>
+  <si>
+    <t>SILVANIA</t>
+  </si>
+  <si>
+    <t>004212132</t>
+  </si>
+  <si>
+    <t>004252768</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t>004329229</t>
+  </si>
+  <si>
+    <t>004998717</t>
+  </si>
+  <si>
+    <t>GIOVANE</t>
+  </si>
+  <si>
+    <t>004907688</t>
+  </si>
+  <si>
+    <t>HEITOR</t>
+  </si>
+  <si>
+    <t>004298042</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>005135532</t>
+  </si>
+  <si>
+    <t>FELIPE</t>
+  </si>
+  <si>
+    <t>004451996</t>
+  </si>
+  <si>
+    <t>ADRIANO</t>
+  </si>
+  <si>
+    <t>004514241</t>
+  </si>
+  <si>
+    <t>004243043</t>
+  </si>
+  <si>
+    <t>SUELI</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
+  </si>
+  <si>
+    <t>004332207</t>
+  </si>
+  <si>
+    <t>IRACY</t>
+  </si>
+  <si>
+    <t>005103059</t>
+  </si>
+  <si>
+    <t>WALQUIRIA</t>
+  </si>
+  <si>
+    <t>004383190</t>
+  </si>
+  <si>
+    <t>MAFALDA</t>
+  </si>
+  <si>
+    <t>004581652</t>
+  </si>
+  <si>
+    <t>CINCO</t>
+  </si>
+  <si>
+    <t>004229526</t>
+  </si>
+  <si>
+    <t>EDUARDA</t>
+  </si>
+  <si>
+    <t>004224011</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>004255049</t>
+  </si>
+  <si>
+    <t>MATHEUS</t>
+  </si>
+  <si>
+    <t>004752615</t>
+  </si>
+  <si>
+    <t>LUZIMAR</t>
+  </si>
+  <si>
+    <t>004389994</t>
+  </si>
+  <si>
+    <t>POLYANNA</t>
+  </si>
+  <si>
+    <t>004470679</t>
+  </si>
+  <si>
+    <t>004809902</t>
+  </si>
+  <si>
+    <t>004200433</t>
+  </si>
+  <si>
+    <t>BENTO</t>
+  </si>
+  <si>
+    <t>004550415</t>
+  </si>
+  <si>
+    <t>DIOGO</t>
+  </si>
+  <si>
+    <t>004369172</t>
+  </si>
+  <si>
+    <t>LUIZA</t>
+  </si>
+  <si>
+    <t>004318604</t>
+  </si>
+  <si>
+    <t>004115403</t>
+  </si>
+  <si>
+    <t>HEBERT</t>
+  </si>
+  <si>
+    <t>003894173</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>004360431</t>
+  </si>
+  <si>
+    <t>005032151</t>
+  </si>
+  <si>
+    <t>004413537</t>
+  </si>
+  <si>
+    <t>005018038</t>
+  </si>
+  <si>
+    <t>ELAINE</t>
+  </si>
+  <si>
+    <t>004713953</t>
+  </si>
+  <si>
+    <t>004340984</t>
+  </si>
+  <si>
+    <t>RENATA</t>
+  </si>
+  <si>
+    <t>004921978</t>
+  </si>
+  <si>
+    <t>004927044</t>
+  </si>
+  <si>
+    <t>CINTIA</t>
+  </si>
+  <si>
+    <t>004335251</t>
+  </si>
+  <si>
+    <t>005063749</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>000834301</t>
+  </si>
+  <si>
+    <t>004215217</t>
+  </si>
+  <si>
+    <t>CAROLINA</t>
+  </si>
+  <si>
+    <t>004212476</t>
+  </si>
+  <si>
+    <t>005055226</t>
+  </si>
+  <si>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004751770</t>
+  </si>
+  <si>
+    <t>004920447</t>
+  </si>
+  <si>
+    <t>MARILIA</t>
+  </si>
+  <si>
+    <t>004208447</t>
+  </si>
+  <si>
+    <t>LEILA</t>
+  </si>
+  <si>
+    <t>004936634</t>
+  </si>
+  <si>
+    <t>004277637</t>
+  </si>
+  <si>
+    <t>004392159</t>
+  </si>
+  <si>
+    <t>004508159</t>
+  </si>
+  <si>
+    <t>004452946</t>
+  </si>
+  <si>
+    <t>OTAVIO</t>
+  </si>
+  <si>
+    <t>004240014</t>
+  </si>
+  <si>
+    <t>ISABELE</t>
+  </si>
+  <si>
+    <t>004556150</t>
+  </si>
+  <si>
+    <t>004473942</t>
+  </si>
+  <si>
+    <t>DAIANNE</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004436055</t>
+  </si>
+  <si>
+    <t>004958578</t>
+  </si>
+  <si>
+    <t>001731007</t>
+  </si>
+  <si>
+    <t>004460487</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>004487140</t>
+  </si>
+  <si>
+    <t>VALMIR</t>
+  </si>
+  <si>
+    <t>004972070</t>
+  </si>
+  <si>
+    <t>003497496</t>
+  </si>
+  <si>
+    <t>ELISANDRA</t>
   </si>
   <si>
     <t>004643153</t>
@@ -196,1618 +1537,274 @@
     <t>CARLA</t>
   </si>
   <si>
+    <t>005028018</t>
+  </si>
+  <si>
+    <t>004202332</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>004691225</t>
+  </si>
+  <si>
+    <t>ANNA</t>
+  </si>
+  <si>
+    <t>004517506</t>
+  </si>
+  <si>
+    <t>004552021</t>
+  </si>
+  <si>
+    <t>004536602</t>
+  </si>
+  <si>
+    <t>TATIANY</t>
+  </si>
+  <si>
+    <t>004264780</t>
+  </si>
+  <si>
+    <t>004214604</t>
+  </si>
+  <si>
+    <t>005133039</t>
+  </si>
+  <si>
+    <t>004214592</t>
+  </si>
+  <si>
+    <t>MERG</t>
+  </si>
+  <si>
+    <t>004432455</t>
+  </si>
+  <si>
+    <t>004404724</t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>000827730</t>
+  </si>
+  <si>
+    <t>004281300</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>004404248</t>
+  </si>
+  <si>
+    <t>004355790</t>
+  </si>
+  <si>
+    <t>MINEIA</t>
+  </si>
+  <si>
+    <t>002694089</t>
+  </si>
+  <si>
+    <t>VITOR</t>
+  </si>
+  <si>
+    <t>004350197</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>004422594</t>
+  </si>
+  <si>
+    <t>WANDIR</t>
+  </si>
+  <si>
+    <t>004588677</t>
+  </si>
+  <si>
+    <t>RACHEL</t>
+  </si>
+  <si>
+    <t>004230529</t>
+  </si>
+  <si>
+    <t>LAIS</t>
+  </si>
+  <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
+    <t>004425261</t>
+  </si>
+  <si>
+    <t>THAYSA</t>
+  </si>
+  <si>
+    <t>004482090</t>
+  </si>
+  <si>
+    <t>CEZAR</t>
+  </si>
+  <si>
+    <t>004313254</t>
+  </si>
+  <si>
+    <t>004216298</t>
+  </si>
+  <si>
+    <t>FLORDELIZ</t>
+  </si>
+  <si>
+    <t>004755204</t>
+  </si>
+  <si>
+    <t>FABIANA</t>
+  </si>
+  <si>
+    <t>004421636</t>
+  </si>
+  <si>
+    <t>004335031</t>
+  </si>
+  <si>
+    <t>004971448</t>
+  </si>
+  <si>
+    <t>CLOVIS</t>
+  </si>
+  <si>
+    <t>004589311</t>
+  </si>
+  <si>
+    <t>CLARICE</t>
+  </si>
+  <si>
+    <t>004238164</t>
+  </si>
+  <si>
+    <t>004511696</t>
+  </si>
+  <si>
+    <t>KRYSCIA</t>
+  </si>
+  <si>
+    <t>004459461</t>
+  </si>
+  <si>
+    <t>INTERLAGOS</t>
+  </si>
+  <si>
+    <t>004212933</t>
+  </si>
+  <si>
+    <t>001294033</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>004278212</t>
+  </si>
+  <si>
+    <t>004420763</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>004419141</t>
+  </si>
+  <si>
+    <t>004388490</t>
+  </si>
+  <si>
+    <t>CAMILLA</t>
+  </si>
+  <si>
+    <t>004448501</t>
+  </si>
+  <si>
+    <t>004363250</t>
+  </si>
+  <si>
+    <t>HELIO</t>
+  </si>
+  <si>
+    <t>003921139</t>
+  </si>
+  <si>
+    <t>GEISA</t>
+  </si>
+  <si>
+    <t>003435941</t>
+  </si>
+  <si>
+    <t>005135281</t>
+  </si>
+  <si>
+    <t>004204500</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>004575632</t>
+  </si>
+  <si>
+    <t>ADELE</t>
+  </si>
+  <si>
+    <t>004508516</t>
+  </si>
+  <si>
+    <t>004500804</t>
+  </si>
+  <si>
+    <t>004508504</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>004267119</t>
+  </si>
+  <si>
+    <t>004971783</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>004693308</t>
+  </si>
+  <si>
+    <t>LAURA</t>
+  </si>
+  <si>
+    <t>000938440</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
     <t>004216434</t>
   </si>
   <si>
     <t>JAIME</t>
-  </si>
-  <si>
-    <t>004482102</t>
-  </si>
-  <si>
-    <t>NATALIA</t>
-  </si>
-  <si>
-    <t>004359408</t>
-  </si>
-  <si>
-    <t>HEPTA</t>
-  </si>
-  <si>
-    <t>004893911</t>
-  </si>
-  <si>
-    <t>FAUSTO</t>
-  </si>
-  <si>
-    <t>004399832</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>004515341</t>
-  </si>
-  <si>
-    <t>004862672</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>004453045</t>
-  </si>
-  <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
-    <t>004508526</t>
-  </si>
-  <si>
-    <t>CASSIO</t>
-  </si>
-  <si>
-    <t>002277249</t>
-  </si>
-  <si>
-    <t>DANILO</t>
-  </si>
-  <si>
-    <t>004813134</t>
-  </si>
-  <si>
-    <t>004945203</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004224284</t>
-  </si>
-  <si>
-    <t>PRISCILLA</t>
-  </si>
-  <si>
-    <t>004382374</t>
-  </si>
-  <si>
-    <t>THEOMAR</t>
-  </si>
-  <si>
-    <t>004804125</t>
-  </si>
-  <si>
-    <t>004212438</t>
-  </si>
-  <si>
-    <t>KENIA</t>
-  </si>
-  <si>
-    <t>002823185</t>
-  </si>
-  <si>
-    <t>SIMONE</t>
-  </si>
-  <si>
-    <t>004813088</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
-    <t>004474776</t>
-  </si>
-  <si>
-    <t>GILSON</t>
-  </si>
-  <si>
-    <t>004211922</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>004395314</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004360430</t>
-  </si>
-  <si>
-    <t>VIOMAR</t>
-  </si>
-  <si>
-    <t>004212581</t>
-  </si>
-  <si>
-    <t>004001621</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
-    <t>004572740</t>
-  </si>
-  <si>
-    <t>PAULO</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004950193</t>
-  </si>
-  <si>
-    <t>004404342</t>
-  </si>
-  <si>
-    <t>ADSON</t>
-  </si>
-  <si>
-    <t>004461526</t>
-  </si>
-  <si>
-    <t>ASSISTIGAS</t>
-  </si>
-  <si>
-    <t>004119016</t>
-  </si>
-  <si>
-    <t>HEMAT</t>
-  </si>
-  <si>
-    <t>004331477</t>
-  </si>
-  <si>
-    <t>SUZY</t>
-  </si>
-  <si>
-    <t>004639776</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>004855073</t>
-  </si>
-  <si>
-    <t>ELSI</t>
-  </si>
-  <si>
-    <t>004866753</t>
-  </si>
-  <si>
-    <t>GENESI</t>
-  </si>
-  <si>
-    <t>004237325</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004643746</t>
-  </si>
-  <si>
-    <t>MARIO</t>
-  </si>
-  <si>
-    <t>004491730</t>
-  </si>
-  <si>
-    <t>DENISE</t>
-  </si>
-  <si>
-    <t>004221638</t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t>004915243</t>
-  </si>
-  <si>
-    <t>POLO</t>
-  </si>
-  <si>
-    <t>004958539</t>
-  </si>
-  <si>
-    <t>004216504</t>
-  </si>
-  <si>
-    <t>WANDER</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004556974</t>
-  </si>
-  <si>
-    <t>KELLY</t>
-  </si>
-  <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004813166</t>
-  </si>
-  <si>
-    <t>001000882</t>
-  </si>
-  <si>
-    <t>AYRTON</t>
-  </si>
-  <si>
-    <t>004948033</t>
-  </si>
-  <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
-    <t>004890544</t>
-  </si>
-  <si>
-    <t>004206790</t>
-  </si>
-  <si>
-    <t>EMMANUELLE</t>
-  </si>
-  <si>
-    <t>004384131</t>
-  </si>
-  <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004956636</t>
-  </si>
-  <si>
-    <t>004451978</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>004693697</t>
-  </si>
-  <si>
-    <t>CLAUDIA</t>
-  </si>
-  <si>
-    <t>004315417</t>
-  </si>
-  <si>
-    <t>SISSI</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>004811224</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>CAIO</t>
-  </si>
-  <si>
-    <t>004457389</t>
-  </si>
-  <si>
-    <t>004752461</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>002064834</t>
-  </si>
-  <si>
-    <t>RAFAELA</t>
-  </si>
-  <si>
-    <t>005002390</t>
-  </si>
-  <si>
-    <t>LUCIANO</t>
-  </si>
-  <si>
-    <t>004724018</t>
-  </si>
-  <si>
-    <t>ASPA</t>
-  </si>
-  <si>
-    <t>004273239</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>004480134</t>
-  </si>
-  <si>
-    <t>004380948</t>
-  </si>
-  <si>
-    <t>LUISA</t>
-  </si>
-  <si>
-    <t>004912314</t>
-  </si>
-  <si>
-    <t>FABRICIO</t>
-  </si>
-  <si>
-    <t>002697806</t>
-  </si>
-  <si>
-    <t>004693349</t>
-  </si>
-  <si>
-    <t>CATARINE</t>
-  </si>
-  <si>
-    <t>004484207</t>
-  </si>
-  <si>
-    <t>004444380</t>
-  </si>
-  <si>
-    <t>MARCELO</t>
-  </si>
-  <si>
-    <t>004453132</t>
-  </si>
-  <si>
-    <t>004586209</t>
-  </si>
-  <si>
-    <t>ROBERIO</t>
-  </si>
-  <si>
-    <t>004268684</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>004415557</t>
-  </si>
-  <si>
-    <t>FILIPE</t>
-  </si>
-  <si>
-    <t>004381328</t>
-  </si>
-  <si>
-    <t>JOAO</t>
-  </si>
-  <si>
-    <t>003301389</t>
-  </si>
-  <si>
-    <t>EDMUNDO</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004454491</t>
-  </si>
-  <si>
-    <t>MARCO</t>
-  </si>
-  <si>
-    <t>004554411</t>
-  </si>
-  <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004908680</t>
-  </si>
-  <si>
-    <t>ELENE</t>
-  </si>
-  <si>
-    <t>004368994</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004381180</t>
-  </si>
-  <si>
-    <t>HFR</t>
-  </si>
-  <si>
-    <t>004482163</t>
-  </si>
-  <si>
-    <t>CIRIA</t>
-  </si>
-  <si>
-    <t>004574428</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004473829</t>
-  </si>
-  <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>002687737</t>
-  </si>
-  <si>
-    <t>004453157</t>
-  </si>
-  <si>
-    <t>004493324</t>
-  </si>
-  <si>
-    <t>004364200</t>
-  </si>
-  <si>
-    <t>BLOCO</t>
-  </si>
-  <si>
-    <t>004361159</t>
-  </si>
-  <si>
-    <t>004214460</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>002828327</t>
-  </si>
-  <si>
-    <t>RENAN</t>
-  </si>
-  <si>
-    <t>005009922</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004405234</t>
-  </si>
-  <si>
-    <t>004940560</t>
-  </si>
-  <si>
-    <t>CRISTIANO</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>004487016</t>
-  </si>
-  <si>
-    <t>ROGERIO</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004332544</t>
-  </si>
-  <si>
-    <t>CELIA</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>005024046</t>
-  </si>
-  <si>
-    <t>ALEXANDRE</t>
-  </si>
-  <si>
-    <t>004754920</t>
-  </si>
-  <si>
-    <t>LUIS</t>
-  </si>
-  <si>
-    <t>004207374</t>
-  </si>
-  <si>
-    <t>ANGELICA</t>
-  </si>
-  <si>
-    <t>004972351</t>
-  </si>
-  <si>
-    <t>003115072</t>
-  </si>
-  <si>
-    <t>VICTOR</t>
-  </si>
-  <si>
-    <t>004451652</t>
-  </si>
-  <si>
-    <t>MATEUS</t>
-  </si>
-  <si>
-    <t>004850070</t>
-  </si>
-  <si>
-    <t>004565108</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>005007114</t>
-  </si>
-  <si>
-    <t>STELLA</t>
-  </si>
-  <si>
-    <t>001719494</t>
-  </si>
-  <si>
-    <t>004946542</t>
-  </si>
-  <si>
-    <t>ALESSANDRA</t>
-  </si>
-  <si>
-    <t>004455489</t>
-  </si>
-  <si>
-    <t>SOLANGE</t>
-  </si>
-  <si>
-    <t>004584982</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>004322549</t>
-  </si>
-  <si>
-    <t>004479287</t>
-  </si>
-  <si>
-    <t>004212409</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>004805273</t>
-  </si>
-  <si>
-    <t>CLISIA</t>
-  </si>
-  <si>
-    <t>005064129</t>
-  </si>
-  <si>
-    <t>THIAGO</t>
-  </si>
-  <si>
-    <t>004386464</t>
-  </si>
-  <si>
-    <t>004846293</t>
-  </si>
-  <si>
-    <t>004208733</t>
-  </si>
-  <si>
-    <t>REINALDO</t>
-  </si>
-  <si>
-    <t>005079311</t>
-  </si>
-  <si>
-    <t>JOVINO</t>
-  </si>
-  <si>
-    <t>004335144</t>
-  </si>
-  <si>
-    <t>004580355</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004587525</t>
-  </si>
-  <si>
-    <t>JADER</t>
-  </si>
-  <si>
-    <t>004575621</t>
-  </si>
-  <si>
-    <t>MARCUS</t>
-  </si>
-  <si>
-    <t>004472076</t>
-  </si>
-  <si>
-    <t>RUBENS</t>
-  </si>
-  <si>
-    <t>004290978</t>
-  </si>
-  <si>
-    <t>004862746</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>004254210</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>004481463</t>
-  </si>
-  <si>
-    <t>MARA</t>
-  </si>
-  <si>
-    <t>004444605</t>
-  </si>
-  <si>
-    <t>004994036</t>
-  </si>
-  <si>
-    <t>BALTASAR</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004520100</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>004374943</t>
-  </si>
-  <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
-    <t>004224815</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>MARINA</t>
-  </si>
-  <si>
-    <t>004690692</t>
-  </si>
-  <si>
-    <t>PHYLIA</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>004472386</t>
-  </si>
-  <si>
-    <t>004805269</t>
-  </si>
-  <si>
-    <t>004999434</t>
-  </si>
-  <si>
-    <t>005121919</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>004374891</t>
-  </si>
-  <si>
-    <t>004240292</t>
-  </si>
-  <si>
-    <t>002786022</t>
-  </si>
-  <si>
-    <t>004207278</t>
-  </si>
-  <si>
-    <t>004565146</t>
-  </si>
-  <si>
-    <t>004459875</t>
-  </si>
-  <si>
-    <t>HELVECIO</t>
-  </si>
-  <si>
-    <t>004751154</t>
-  </si>
-  <si>
-    <t>004914070</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004334158</t>
-  </si>
-  <si>
-    <t>LEONE</t>
-  </si>
-  <si>
-    <t>004752534</t>
-  </si>
-  <si>
-    <t>004752494</t>
-  </si>
-  <si>
-    <t>004754056</t>
-  </si>
-  <si>
-    <t>004403674</t>
-  </si>
-  <si>
-    <t>LILIAN</t>
-  </si>
-  <si>
-    <t>004749928</t>
-  </si>
-  <si>
-    <t>NADY</t>
-  </si>
-  <si>
-    <t>004804036</t>
-  </si>
-  <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
-    <t>004854514</t>
-  </si>
-  <si>
-    <t>004216657</t>
-  </si>
-  <si>
-    <t>004946997</t>
-  </si>
-  <si>
-    <t>004385806</t>
-  </si>
-  <si>
-    <t>ANILSON</t>
-  </si>
-  <si>
-    <t>005044389</t>
-  </si>
-  <si>
-    <t>004935287</t>
-  </si>
-  <si>
-    <t>ODILON</t>
-  </si>
-  <si>
-    <t>004332783</t>
-  </si>
-  <si>
-    <t>IRON</t>
-  </si>
-  <si>
-    <t>004570632</t>
-  </si>
-  <si>
-    <t>004419782</t>
-  </si>
-  <si>
-    <t>004748761</t>
-  </si>
-  <si>
-    <t>004381095</t>
-  </si>
-  <si>
-    <t>004550750</t>
-  </si>
-  <si>
-    <t>THEO</t>
-  </si>
-  <si>
-    <t>004505474</t>
-  </si>
-  <si>
-    <t>004450760</t>
-  </si>
-  <si>
-    <t>SILVIO</t>
-  </si>
-  <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004239624</t>
-  </si>
-  <si>
-    <t>NINA</t>
-  </si>
-  <si>
-    <t>001922009</t>
-  </si>
-  <si>
-    <t>SOFIA</t>
-  </si>
-  <si>
-    <t>005147664</t>
-  </si>
-  <si>
-    <t>SAVIO</t>
-  </si>
-  <si>
-    <t>004872395</t>
-  </si>
-  <si>
-    <t>004267976</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>004584517</t>
-  </si>
-  <si>
-    <t>004432935</t>
-  </si>
-  <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
-  </si>
-  <si>
-    <t>005046790</t>
-  </si>
-  <si>
-    <t>004477812</t>
-  </si>
-  <si>
-    <t>004450405</t>
-  </si>
-  <si>
-    <t>004472760</t>
-  </si>
-  <si>
-    <t>SANDRA</t>
-  </si>
-  <si>
-    <t>005092207</t>
-  </si>
-  <si>
-    <t>004207955</t>
-  </si>
-  <si>
-    <t>SILVANIA</t>
-  </si>
-  <si>
-    <t>004212132</t>
-  </si>
-  <si>
-    <t>004252768</t>
-  </si>
-  <si>
-    <t>ALESSANDRO</t>
-  </si>
-  <si>
-    <t>004329229</t>
-  </si>
-  <si>
-    <t>004998717</t>
-  </si>
-  <si>
-    <t>GIOVANE</t>
-  </si>
-  <si>
-    <t>004907688</t>
-  </si>
-  <si>
-    <t>HEITOR</t>
-  </si>
-  <si>
-    <t>004298042</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>005135532</t>
-  </si>
-  <si>
-    <t>FELIPE</t>
-  </si>
-  <si>
-    <t>004451996</t>
-  </si>
-  <si>
-    <t>ADRIANO</t>
-  </si>
-  <si>
-    <t>004514241</t>
-  </si>
-  <si>
-    <t>004243043</t>
-  </si>
-  <si>
-    <t>SUELI</t>
-  </si>
-  <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
-    <t>004332207</t>
-  </si>
-  <si>
-    <t>IRACY</t>
-  </si>
-  <si>
-    <t>005103059</t>
-  </si>
-  <si>
-    <t>WALQUIRIA</t>
-  </si>
-  <si>
-    <t>004383190</t>
-  </si>
-  <si>
-    <t>MAFALDA</t>
-  </si>
-  <si>
-    <t>004581652</t>
-  </si>
-  <si>
-    <t>CINCO</t>
-  </si>
-  <si>
-    <t>004229526</t>
-  </si>
-  <si>
-    <t>EDUARDA</t>
-  </si>
-  <si>
-    <t>004224011</t>
-  </si>
-  <si>
-    <t>THOMAS</t>
-  </si>
-  <si>
-    <t>004255049</t>
-  </si>
-  <si>
-    <t>MATHEUS</t>
-  </si>
-  <si>
-    <t>004752615</t>
-  </si>
-  <si>
-    <t>LUZIMAR</t>
-  </si>
-  <si>
-    <t>004389994</t>
-  </si>
-  <si>
-    <t>POLYANNA</t>
-  </si>
-  <si>
-    <t>004470679</t>
-  </si>
-  <si>
-    <t>004809902</t>
-  </si>
-  <si>
-    <t>004200433</t>
-  </si>
-  <si>
-    <t>BENTO</t>
-  </si>
-  <si>
-    <t>004550415</t>
-  </si>
-  <si>
-    <t>DIOGO</t>
-  </si>
-  <si>
-    <t>004369172</t>
-  </si>
-  <si>
-    <t>LUIZA</t>
-  </si>
-  <si>
-    <t>004318604</t>
-  </si>
-  <si>
-    <t>004115403</t>
-  </si>
-  <si>
-    <t>HEBERT</t>
-  </si>
-  <si>
-    <t>003894173</t>
-  </si>
-  <si>
-    <t>ANDREA</t>
-  </si>
-  <si>
-    <t>004462543</t>
-  </si>
-  <si>
-    <t>004360431</t>
-  </si>
-  <si>
-    <t>005032151</t>
-  </si>
-  <si>
-    <t>004413537</t>
-  </si>
-  <si>
-    <t>005018038</t>
-  </si>
-  <si>
-    <t>ELAINE</t>
-  </si>
-  <si>
-    <t>004713953</t>
-  </si>
-  <si>
-    <t>004340984</t>
-  </si>
-  <si>
-    <t>RENATA</t>
-  </si>
-  <si>
-    <t>004921978</t>
-  </si>
-  <si>
-    <t>004927044</t>
-  </si>
-  <si>
-    <t>CINTIA</t>
-  </si>
-  <si>
-    <t>004335251</t>
-  </si>
-  <si>
-    <t>005063749</t>
-  </si>
-  <si>
-    <t>000834301</t>
-  </si>
-  <si>
-    <t>004215217</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>004212476</t>
-  </si>
-  <si>
-    <t>005055226</t>
-  </si>
-  <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
-  </si>
-  <si>
-    <t>004751770</t>
-  </si>
-  <si>
-    <t>004920447</t>
-  </si>
-  <si>
-    <t>MARILIA</t>
-  </si>
-  <si>
-    <t>004208447</t>
-  </si>
-  <si>
-    <t>LEILA</t>
-  </si>
-  <si>
-    <t>004936634</t>
-  </si>
-  <si>
-    <t>004277637</t>
-  </si>
-  <si>
-    <t>004392159</t>
-  </si>
-  <si>
-    <t>004508159</t>
-  </si>
-  <si>
-    <t>004452946</t>
-  </si>
-  <si>
-    <t>OTAVIO</t>
-  </si>
-  <si>
-    <t>004240014</t>
-  </si>
-  <si>
-    <t>ISABELE</t>
-  </si>
-  <si>
-    <t>004556150</t>
-  </si>
-  <si>
-    <t>004473942</t>
-  </si>
-  <si>
-    <t>DAIANNE</t>
-  </si>
-  <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
-  </si>
-  <si>
-    <t>004436055</t>
-  </si>
-  <si>
-    <t>004958578</t>
-  </si>
-  <si>
-    <t>001731007</t>
-  </si>
-  <si>
-    <t>004460487</t>
-  </si>
-  <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004458563</t>
-  </si>
-  <si>
-    <t>004487140</t>
-  </si>
-  <si>
-    <t>VALMIR</t>
-  </si>
-  <si>
-    <t>004972070</t>
-  </si>
-  <si>
-    <t>003497496</t>
-  </si>
-  <si>
-    <t>ELISANDRA</t>
-  </si>
-  <si>
-    <t>005028018</t>
-  </si>
-  <si>
-    <t>004202332</t>
-  </si>
-  <si>
-    <t>TATIANA</t>
-  </si>
-  <si>
-    <t>004691225</t>
-  </si>
-  <si>
-    <t>ANNA</t>
-  </si>
-  <si>
-    <t>004517506</t>
-  </si>
-  <si>
-    <t>004552021</t>
-  </si>
-  <si>
-    <t>004536602</t>
-  </si>
-  <si>
-    <t>TATIANY</t>
-  </si>
-  <si>
-    <t>004264780</t>
-  </si>
-  <si>
-    <t>004214604</t>
-  </si>
-  <si>
-    <t>005133039</t>
-  </si>
-  <si>
-    <t>004214592</t>
-  </si>
-  <si>
-    <t>MERG</t>
-  </si>
-  <si>
-    <t>004432455</t>
-  </si>
-  <si>
-    <t>004404724</t>
-  </si>
-  <si>
-    <t>LEANDRO</t>
-  </si>
-  <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
-    <t>000827730</t>
-  </si>
-  <si>
-    <t>004281300</t>
-  </si>
-  <si>
-    <t>FRANKLIN</t>
-  </si>
-  <si>
-    <t>004404248</t>
-  </si>
-  <si>
-    <t>004355790</t>
-  </si>
-  <si>
-    <t>MINEIA</t>
-  </si>
-  <si>
-    <t>002694089</t>
-  </si>
-  <si>
-    <t>VITOR</t>
-  </si>
-  <si>
-    <t>004350197</t>
-  </si>
-  <si>
-    <t>GISELA</t>
-  </si>
-  <si>
-    <t>004422594</t>
-  </si>
-  <si>
-    <t>WANDIR</t>
-  </si>
-  <si>
-    <t>004588677</t>
-  </si>
-  <si>
-    <t>RACHEL</t>
-  </si>
-  <si>
-    <t>004230529</t>
-  </si>
-  <si>
-    <t>LAIS</t>
-  </si>
-  <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
-    <t>004425261</t>
-  </si>
-  <si>
-    <t>THAYSA</t>
-  </si>
-  <si>
-    <t>004482090</t>
-  </si>
-  <si>
-    <t>CEZAR</t>
-  </si>
-  <si>
-    <t>004313254</t>
-  </si>
-  <si>
-    <t>004216298</t>
-  </si>
-  <si>
-    <t>FLORDELIZ</t>
-  </si>
-  <si>
-    <t>004755204</t>
-  </si>
-  <si>
-    <t>FABIANA</t>
-  </si>
-  <si>
-    <t>004421636</t>
-  </si>
-  <si>
-    <t>004335031</t>
-  </si>
-  <si>
-    <t>004971448</t>
-  </si>
-  <si>
-    <t>CLOVIS</t>
-  </si>
-  <si>
-    <t>004589311</t>
-  </si>
-  <si>
-    <t>CLARICE</t>
-  </si>
-  <si>
-    <t>004238164</t>
-  </si>
-  <si>
-    <t>004511696</t>
-  </si>
-  <si>
-    <t>KRYSCIA</t>
-  </si>
-  <si>
-    <t>004459461</t>
-  </si>
-  <si>
-    <t>INTERLAGOS</t>
-  </si>
-  <si>
-    <t>004212933</t>
-  </si>
-  <si>
-    <t>001294033</t>
-  </si>
-  <si>
-    <t>VIVIANE</t>
-  </si>
-  <si>
-    <t>004278212</t>
-  </si>
-  <si>
-    <t>004420763</t>
-  </si>
-  <si>
-    <t>CHRISTIAN</t>
-  </si>
-  <si>
-    <t>004419141</t>
-  </si>
-  <si>
-    <t>004388490</t>
-  </si>
-  <si>
-    <t>CAMILLA</t>
-  </si>
-  <si>
-    <t>004448501</t>
-  </si>
-  <si>
-    <t>004363250</t>
-  </si>
-  <si>
-    <t>HELIO</t>
-  </si>
-  <si>
-    <t>003921139</t>
-  </si>
-  <si>
-    <t>GEISA</t>
-  </si>
-  <si>
-    <t>003435941</t>
-  </si>
-  <si>
-    <t>005135281</t>
-  </si>
-  <si>
-    <t>004204500</t>
-  </si>
-  <si>
-    <t>EDWARD</t>
-  </si>
-  <si>
-    <t>004575632</t>
-  </si>
-  <si>
-    <t>ADELE</t>
-  </si>
-  <si>
-    <t>004508516</t>
-  </si>
-  <si>
-    <t>004500804</t>
-  </si>
-  <si>
-    <t>004508504</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>004267119</t>
-  </si>
-  <si>
-    <t>004971783</t>
-  </si>
-  <si>
-    <t>ERIKA</t>
-  </si>
-  <si>
-    <t>004693308</t>
-  </si>
-  <si>
-    <t>LAURA</t>
-  </si>
-  <si>
-    <t>000938440</t>
-  </si>
-  <si>
-    <t>BASE</t>
   </si>
   <si>
     <t>004853111</t>
@@ -2230,9 +2227,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C381"/>
+  <dimension ref="A1:C380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -2277,7 +2276,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>245119.81</v>
+        <v>197071.55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2288,7 +2287,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>197071.55</v>
+        <v>196246.41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2299,7 +2298,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>196246.41</v>
+        <v>172982.73</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2310,7 +2309,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>172982.73</v>
+        <v>159646.76999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2321,7 +2320,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>159646.76999999999</v>
+        <v>157503.12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2332,7 +2331,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>157503.12</v>
+        <v>155008.35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2343,7 +2342,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>155008.35</v>
+        <v>147040.70000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2354,7 +2353,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>150175.66</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2365,7 +2364,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>147852.56</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2376,7 +2375,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>147040.70000000001</v>
+        <v>43264.79</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2387,7 +2386,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>95000</v>
+        <v>22063.42</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2398,7 +2397,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>85000</v>
+        <v>17492.96</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2406,76 +2405,76 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>43264.79</v>
+        <v>15151.24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
       <c r="C17">
-        <v>41284.17</v>
+        <v>13571.37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
       <c r="C18">
-        <v>34343.57</v>
+        <v>13259</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
       <c r="C19">
-        <v>22063.42</v>
+        <v>10412.89</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
       <c r="C20">
-        <v>17492.96</v>
+        <v>10044.69</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>15151.24</v>
+        <v>10042.44</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
       <c r="C22">
-        <v>13571.37</v>
+        <v>6354.84</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2486,7 +2485,7 @@
         <v>44</v>
       </c>
       <c r="C23">
-        <v>13259</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2497,7 +2496,7 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>10412.89</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2508,7 +2507,7 @@
         <v>48</v>
       </c>
       <c r="C25">
-        <v>10044.69</v>
+        <v>988.32</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2516,54 +2515,54 @@
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>10042.44</v>
+        <v>946.84</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27">
-        <v>6354.84</v>
+        <v>943.73</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C28">
-        <v>2691.13</v>
+        <v>942.42</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29">
-        <v>2300</v>
+        <v>937.33</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>2036.94</v>
+        <v>933.95</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2574,7 +2573,7 @@
         <v>59</v>
       </c>
       <c r="C31">
-        <v>1700.71</v>
+        <v>924.1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2585,7 +2584,7 @@
         <v>61</v>
       </c>
       <c r="C32">
-        <v>1108.53</v>
+        <v>894.66</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2596,7 +2595,7 @@
         <v>63</v>
       </c>
       <c r="C33">
-        <v>988.32</v>
+        <v>854.73</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2604,373 +2603,373 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>946.84</v>
+        <v>852.57</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
         <v>66</v>
       </c>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
       <c r="C35">
-        <v>943.73</v>
+        <v>852.1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="C36">
-        <v>942.42</v>
+        <v>849.15</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37">
-        <v>937.33</v>
+        <v>847.72</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C38">
-        <v>933.95</v>
+        <v>842.42</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s">
         <v>73</v>
       </c>
-      <c r="B39" t="s">
-        <v>74</v>
-      </c>
       <c r="C39">
-        <v>924.1</v>
+        <v>839.9</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
         <v>75</v>
       </c>
-      <c r="B40" t="s">
-        <v>76</v>
-      </c>
       <c r="C40">
-        <v>894.66</v>
+        <v>839.03</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="C41">
-        <v>854.73</v>
+        <v>823.1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42">
-        <v>852.1</v>
+        <v>814.4</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="C43">
-        <v>849.15</v>
+        <v>796.37</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
         <v>82</v>
       </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
       <c r="C44">
-        <v>847.72</v>
+        <v>790.41</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
         <v>84</v>
       </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
       <c r="C45">
-        <v>842.42</v>
+        <v>786.23</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
         <v>86</v>
       </c>
-      <c r="B46" t="s">
-        <v>87</v>
-      </c>
       <c r="C46">
-        <v>839.9</v>
+        <v>775.45</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>839.03</v>
+        <v>754.27</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C48">
-        <v>823.1</v>
+        <v>748.58</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="C49">
-        <v>814.4</v>
+        <v>744.09</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C50">
-        <v>796.37</v>
+        <v>737.21</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C51">
-        <v>790.41</v>
+        <v>733.93</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C52">
-        <v>786.23</v>
+        <v>716.35</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C53">
-        <v>775.45</v>
+        <v>715.56</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C54">
-        <v>754.27</v>
+        <v>707.41</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C55">
-        <v>748.58</v>
+        <v>704.83</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="C56">
-        <v>744.09</v>
+        <v>700.86</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C57">
-        <v>737.21</v>
+        <v>698.43</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C58">
-        <v>733.93</v>
+        <v>698.03</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
         <v>108</v>
       </c>
-      <c r="B59" t="s">
-        <v>109</v>
-      </c>
       <c r="C59">
-        <v>716.35</v>
+        <v>689.06</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>715.56</v>
+        <v>679.29</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C61">
-        <v>707.41</v>
+        <v>675.5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" t="s">
         <v>113</v>
       </c>
-      <c r="B62" t="s">
-        <v>114</v>
-      </c>
       <c r="C62">
-        <v>704.83</v>
+        <v>674.5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" t="s">
         <v>115</v>
       </c>
-      <c r="B63" t="s">
-        <v>116</v>
-      </c>
       <c r="C63">
-        <v>700.86</v>
+        <v>666</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" t="s">
         <v>117</v>
       </c>
-      <c r="B64" t="s">
-        <v>118</v>
-      </c>
       <c r="C64">
-        <v>698.43</v>
+        <v>666</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" t="s">
         <v>119</v>
       </c>
-      <c r="B65" t="s">
-        <v>120</v>
-      </c>
       <c r="C65">
-        <v>698.03</v>
+        <v>666</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" t="s">
         <v>121</v>
       </c>
-      <c r="B66" t="s">
-        <v>122</v>
-      </c>
       <c r="C66">
-        <v>689.06</v>
+        <v>666</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" t="s">
         <v>123</v>
       </c>
-      <c r="B67" t="s">
-        <v>4</v>
-      </c>
       <c r="C67">
-        <v>679.29</v>
+        <v>663.35</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2981,7 +2980,7 @@
         <v>125</v>
       </c>
       <c r="C68">
-        <v>675.5</v>
+        <v>651.25</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2989,197 +2988,197 @@
         <v>126</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C69">
-        <v>674.5</v>
+        <v>649.30999999999995</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" t="s">
         <v>128</v>
       </c>
-      <c r="B70" t="s">
-        <v>129</v>
-      </c>
       <c r="C70">
-        <v>666</v>
+        <v>644.94000000000005</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" t="s">
         <v>130</v>
       </c>
-      <c r="B71" t="s">
-        <v>131</v>
-      </c>
       <c r="C71">
-        <v>666</v>
+        <v>634.79</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" t="s">
         <v>132</v>
       </c>
-      <c r="B72" t="s">
-        <v>133</v>
-      </c>
       <c r="C72">
-        <v>666</v>
+        <v>627.35</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" t="s">
         <v>134</v>
       </c>
-      <c r="B73" t="s">
-        <v>135</v>
-      </c>
       <c r="C73">
-        <v>666</v>
+        <v>626.99</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="C74">
-        <v>663.35</v>
+        <v>625.5</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B75" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C75">
-        <v>651.25</v>
+        <v>623.46</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C76">
-        <v>649.30999999999995</v>
+        <v>617.72</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" t="s">
         <v>141</v>
       </c>
-      <c r="B77" t="s">
-        <v>142</v>
-      </c>
       <c r="C77">
-        <v>644.94000000000005</v>
+        <v>614.55999999999995</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" t="s">
         <v>143</v>
       </c>
-      <c r="B78" t="s">
-        <v>144</v>
-      </c>
       <c r="C78">
-        <v>634.79</v>
+        <v>607.99</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="C79">
-        <v>627.35</v>
+        <v>604.16</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C80">
-        <v>626.99</v>
+        <v>598.08000000000004</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="C81">
-        <v>625.5</v>
+        <v>595.05999999999995</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" t="s">
         <v>150</v>
       </c>
-      <c r="B82" t="s">
-        <v>151</v>
-      </c>
       <c r="C82">
-        <v>623.46</v>
+        <v>591.30999999999995</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" t="s">
         <v>152</v>
       </c>
-      <c r="B83" t="s">
-        <v>153</v>
-      </c>
       <c r="C83">
-        <v>617.72</v>
+        <v>585.70000000000005</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" t="s">
         <v>154</v>
       </c>
-      <c r="B84" t="s">
-        <v>155</v>
-      </c>
       <c r="C84">
-        <v>614.55999999999995</v>
+        <v>581.89</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" t="s">
         <v>156</v>
       </c>
-      <c r="B85" t="s">
-        <v>157</v>
-      </c>
       <c r="C85">
-        <v>607.99</v>
+        <v>581.08000000000004</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" t="s">
         <v>158</v>
       </c>
-      <c r="B86" t="s">
-        <v>28</v>
-      </c>
       <c r="C86">
-        <v>604.16</v>
+        <v>578.48</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3187,32 +3186,32 @@
         <v>159</v>
       </c>
       <c r="B87" t="s">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="C87">
-        <v>598.08000000000004</v>
+        <v>578.08000000000004</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" t="s">
         <v>161</v>
       </c>
-      <c r="B88" t="s">
-        <v>162</v>
-      </c>
       <c r="C88">
-        <v>595.05999999999995</v>
+        <v>573.34</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" t="s">
         <v>163</v>
       </c>
-      <c r="B89" t="s">
-        <v>36</v>
-      </c>
       <c r="C89">
-        <v>591.30999999999995</v>
+        <v>568.94000000000005</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3223,7 +3222,7 @@
         <v>165</v>
       </c>
       <c r="C90">
-        <v>585.70000000000005</v>
+        <v>557.41999999999996</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3231,98 +3230,98 @@
         <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="C91">
-        <v>581.89</v>
+        <v>549.72</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="C92">
-        <v>581.08000000000004</v>
+        <v>549.71</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C93">
-        <v>578.48</v>
+        <v>529.34</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C94">
-        <v>578.08000000000004</v>
+        <v>524.29</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C95">
-        <v>573.34</v>
+        <v>519.45000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C96">
-        <v>568.94000000000005</v>
+        <v>517.87</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C97">
-        <v>557.41999999999996</v>
+        <v>516.78</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="C98">
-        <v>549.72</v>
+        <v>507.08</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" t="s">
         <v>180</v>
       </c>
-      <c r="B99" t="s">
-        <v>106</v>
-      </c>
       <c r="C99">
-        <v>549.71</v>
+        <v>494.86</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3330,21 +3329,21 @@
         <v>181</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="C100">
-        <v>529.34</v>
+        <v>491.62</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>182</v>
+      </c>
+      <c r="B101" t="s">
         <v>183</v>
       </c>
-      <c r="B101" t="s">
-        <v>24</v>
-      </c>
       <c r="C101">
-        <v>524.29</v>
+        <v>470</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3355,7 +3354,7 @@
         <v>185</v>
       </c>
       <c r="C102">
-        <v>519.45000000000005</v>
+        <v>467.91</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3363,109 +3362,109 @@
         <v>186</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C103">
-        <v>517.87</v>
+        <v>466.47</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104" t="s">
         <v>188</v>
       </c>
-      <c r="B104" t="s">
-        <v>189</v>
-      </c>
       <c r="C104">
-        <v>516.78</v>
+        <v>465.01</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>95</v>
       </c>
       <c r="C105">
-        <v>507.08</v>
+        <v>460.98</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B106" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C106">
-        <v>494.86</v>
+        <v>459.2</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B107" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="C107">
-        <v>491.62</v>
+        <v>458.13</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B108" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C108">
-        <v>470</v>
+        <v>453.65</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B109" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C109">
-        <v>467.91</v>
+        <v>449.3</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B110" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C110">
-        <v>466.47</v>
+        <v>436.86</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" t="s">
         <v>200</v>
       </c>
-      <c r="B111" t="s">
-        <v>201</v>
-      </c>
       <c r="C111">
-        <v>465.01</v>
+        <v>430.64</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>201</v>
+      </c>
+      <c r="B112" t="s">
         <v>202</v>
       </c>
-      <c r="B112" t="s">
-        <v>109</v>
-      </c>
       <c r="C112">
-        <v>460.98</v>
+        <v>425.99</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3476,7 +3475,7 @@
         <v>204</v>
       </c>
       <c r="C113">
-        <v>459.2</v>
+        <v>425.17</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -3484,43 +3483,43 @@
         <v>205</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="C114">
-        <v>458.13</v>
+        <v>423.95</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B115" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C115">
-        <v>453.65</v>
+        <v>413.55</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B116" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C116">
-        <v>449.3</v>
+        <v>407.48</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>56</v>
       </c>
       <c r="C117">
-        <v>436.86</v>
+        <v>400.75</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -3531,7 +3530,7 @@
         <v>213</v>
       </c>
       <c r="C118">
-        <v>430.64</v>
+        <v>398.58</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3542,7 +3541,7 @@
         <v>215</v>
       </c>
       <c r="C119">
-        <v>425.99</v>
+        <v>393.52</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -3553,7 +3552,7 @@
         <v>217</v>
       </c>
       <c r="C120">
-        <v>425.17</v>
+        <v>387.23</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -3561,1198 +3560,1198 @@
         <v>218</v>
       </c>
       <c r="B121" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="C121">
-        <v>423.95</v>
+        <v>377.42</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
+        <v>219</v>
+      </c>
+      <c r="B122" t="s">
         <v>220</v>
       </c>
-      <c r="B122" t="s">
-        <v>221</v>
-      </c>
       <c r="C122">
-        <v>413.55</v>
+        <v>369.59</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
+        <v>221</v>
+      </c>
+      <c r="B123" t="s">
         <v>222</v>
       </c>
-      <c r="B123" t="s">
-        <v>223</v>
-      </c>
       <c r="C123">
-        <v>407.48</v>
+        <v>365.44</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B124" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C124">
-        <v>400.75</v>
+        <v>362.34</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B125" t="s">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="C125">
-        <v>398.58</v>
+        <v>357.11</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B126" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="C126">
-        <v>393.52</v>
+        <v>355</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C127">
-        <v>387.23</v>
+        <v>350.34</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B128" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="C128">
-        <v>377.42</v>
+        <v>348.3</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B129" t="s">
-        <v>233</v>
+        <v>92</v>
       </c>
       <c r="C129">
-        <v>369.59</v>
+        <v>346.83</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B130" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="C130">
-        <v>365.44</v>
+        <v>343.57</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="C131">
-        <v>362.34</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>234</v>
       </c>
       <c r="C132">
-        <v>357.11</v>
+        <v>343.26</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B133" t="s">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="C133">
-        <v>355</v>
+        <v>332.65</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B134" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C134">
-        <v>350.34</v>
+        <v>332.22</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B135" t="s">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="C135">
-        <v>348.3</v>
+        <v>327.89</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B136" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="C136">
-        <v>346.83</v>
+        <v>324.08999999999997</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B137" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C137">
-        <v>343.52</v>
+        <v>321.54000000000002</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B138" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C138">
-        <v>343.26</v>
+        <v>321.31</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="C139">
-        <v>332.65</v>
+        <v>321.24</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B140" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C140">
-        <v>332.22</v>
+        <v>312.05</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="C141">
-        <v>327.89</v>
+        <v>309.77</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B142" t="s">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="C142">
-        <v>324.08999999999997</v>
+        <v>309.32</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B143" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C143">
-        <v>321.54000000000002</v>
+        <v>302.77</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B144" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C144">
-        <v>321.31</v>
+        <v>301.27</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B145" t="s">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c r="C145">
-        <v>321.24</v>
+        <v>294.54000000000002</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
+        <v>257</v>
+      </c>
+      <c r="B146" t="s">
         <v>258</v>
       </c>
-      <c r="B146" t="s">
-        <v>259</v>
-      </c>
       <c r="C146">
-        <v>312.05</v>
+        <v>293.3</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B147" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="C147">
-        <v>309.77</v>
+        <v>282.54000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B148" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="C148">
-        <v>309.32</v>
+        <v>280.92</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" t="s">
         <v>263</v>
       </c>
-      <c r="B149" t="s">
-        <v>264</v>
-      </c>
       <c r="C149">
-        <v>302.77</v>
+        <v>279.35000000000002</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B150" t="s">
-        <v>266</v>
+        <v>59</v>
       </c>
       <c r="C150">
-        <v>301.27</v>
+        <v>277.3</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B151" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C151">
-        <v>294.54000000000002</v>
+        <v>276.93</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B152" t="s">
-        <v>270</v>
+        <v>143</v>
       </c>
       <c r="C152">
-        <v>293.3</v>
+        <v>260.51</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B153" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="C153">
-        <v>282.54000000000002</v>
+        <v>260.14999999999998</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B154" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C154">
-        <v>280.92</v>
+        <v>258.76</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B155" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C155">
-        <v>279.35000000000002</v>
+        <v>256.27</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B156" t="s">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="C156">
-        <v>277.3</v>
+        <v>255.99</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B157" t="s">
-        <v>278</v>
+        <v>14</v>
       </c>
       <c r="C157">
-        <v>276.93</v>
+        <v>253.95</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="C158">
-        <v>260.51</v>
+        <v>253.25</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B159" t="s">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="C159">
-        <v>260.14999999999998</v>
+        <v>252.17</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B160" t="s">
-        <v>268</v>
+        <v>10</v>
       </c>
       <c r="C160">
-        <v>258.76</v>
+        <v>246.21</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B161" t="s">
-        <v>284</v>
+        <v>33</v>
       </c>
       <c r="C161">
-        <v>256.27</v>
+        <v>245.99</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B162" t="s">
-        <v>286</v>
+        <v>125</v>
       </c>
       <c r="C162">
-        <v>255.99</v>
+        <v>242.72</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B163" t="s">
-        <v>16</v>
+        <v>282</v>
       </c>
       <c r="C163">
-        <v>253.95</v>
+        <v>242.48</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B164" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
       <c r="C164">
-        <v>253.25</v>
+        <v>241.75</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B165" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="C165">
-        <v>252.17</v>
+        <v>241.36</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="C166">
-        <v>246.21</v>
+        <v>237.08</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B167" t="s">
-        <v>24</v>
+        <v>288</v>
       </c>
       <c r="C167">
-        <v>245.99</v>
+        <v>233.93</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B168" t="s">
-        <v>139</v>
+        <v>290</v>
       </c>
       <c r="C168">
-        <v>242.72</v>
+        <v>227.02</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B169" t="s">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c r="C169">
-        <v>242.48</v>
+        <v>226.37</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B170" t="s">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c r="C170">
-        <v>241.75</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>294</v>
       </c>
       <c r="C171">
-        <v>241.36</v>
+        <v>216.08</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B172" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="C172">
-        <v>237.08</v>
+        <v>212.6</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B173" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C173">
-        <v>233.93</v>
+        <v>206.67</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B174" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C174">
-        <v>227.02</v>
+        <v>204.9</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B175" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="C175">
-        <v>226.37</v>
+        <v>198.65</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B176" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C176">
-        <v>217.03</v>
+        <v>196.68</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B177" t="s">
-        <v>306</v>
+        <v>206</v>
       </c>
       <c r="C177">
-        <v>216.08</v>
+        <v>196.05</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B178" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C178">
-        <v>212.6</v>
+        <v>195.17</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B179" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C179">
-        <v>206.67</v>
+        <v>191.39</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B180" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C180">
-        <v>204.9</v>
+        <v>190.71</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B181" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="C181">
-        <v>198.65</v>
+        <v>188.83</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B182" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C182">
-        <v>196.68</v>
+        <v>188.07</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B183" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="C183">
-        <v>196.05</v>
+        <v>186.02</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B184" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="C184">
-        <v>191.39</v>
+        <v>181.74</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
+        <v>317</v>
+      </c>
+      <c r="B185" t="s">
         <v>318</v>
       </c>
-      <c r="B185" t="s">
-        <v>319</v>
-      </c>
       <c r="C185">
-        <v>190.71</v>
+        <v>176.4</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B186" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="C186">
-        <v>188.83</v>
+        <v>175.65</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
+        <v>320</v>
+      </c>
+      <c r="B187" t="s">
         <v>321</v>
       </c>
-      <c r="B187" t="s">
-        <v>322</v>
-      </c>
       <c r="C187">
-        <v>188.07</v>
+        <v>172.32</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B188" t="s">
-        <v>324</v>
+        <v>148</v>
       </c>
       <c r="C188">
-        <v>186.02</v>
+        <v>170.37</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B189" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="C189">
-        <v>181.74</v>
+        <v>170.27</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
+        <v>325</v>
+      </c>
+      <c r="B190" t="s">
         <v>326</v>
       </c>
-      <c r="B190" t="s">
-        <v>327</v>
-      </c>
       <c r="C190">
-        <v>176.4</v>
+        <v>168.35</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B191" t="s">
-        <v>329</v>
+        <v>191</v>
       </c>
       <c r="C191">
-        <v>172.32</v>
+        <v>168.17</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B192" t="s">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="C192">
-        <v>170.37</v>
+        <v>164.18</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B193" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="C193">
-        <v>170.27</v>
+        <v>162.94999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B194" t="s">
-        <v>334</v>
+        <v>35</v>
       </c>
       <c r="C194">
-        <v>168.35</v>
+        <v>156.68</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B195" t="s">
-        <v>204</v>
+        <v>332</v>
       </c>
       <c r="C195">
-        <v>168.17</v>
+        <v>153.11000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B196" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C196">
-        <v>164.18</v>
+        <v>152.26</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B197" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="C197">
-        <v>162.94999999999999</v>
+        <v>151.41</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B198" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C198">
-        <v>156.68</v>
+        <v>149.66</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B199" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="C199">
-        <v>153.11000000000001</v>
+        <v>147.84</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B200" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="C200">
-        <v>152.26</v>
+        <v>142.36000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B201" t="s">
-        <v>219</v>
+        <v>339</v>
       </c>
       <c r="C201">
-        <v>151.41</v>
+        <v>141.27000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B202" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="C202">
-        <v>149.66</v>
+        <v>140.63999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B203" t="s">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="C203">
-        <v>147.84</v>
+        <v>140.47999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B204" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="C204">
-        <v>142.36000000000001</v>
+        <v>137.93</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B205" t="s">
-        <v>347</v>
+        <v>89</v>
       </c>
       <c r="C205">
-        <v>141.27000000000001</v>
+        <v>135.81</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B206" t="s">
-        <v>201</v>
+        <v>345</v>
       </c>
       <c r="C206">
-        <v>140.63999999999999</v>
+        <v>135.37</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B207" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="C207">
-        <v>140.47999999999999</v>
+        <v>134.97999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B208" t="s">
-        <v>310</v>
+        <v>172</v>
       </c>
       <c r="C208">
-        <v>137.93</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B209" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="C209">
-        <v>135.81</v>
+        <v>134.44</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B210" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C210">
-        <v>135.37</v>
+        <v>134.08000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
+        <v>352</v>
       </c>
       <c r="C211">
-        <v>134.97999999999999</v>
+        <v>133.49</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B212" t="s">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="C212">
-        <v>134.44</v>
+        <v>132</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B213" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="C213">
-        <v>134.44</v>
+        <v>131.16999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B214" t="s">
-        <v>358</v>
+        <v>200</v>
       </c>
       <c r="C214">
-        <v>134.08000000000001</v>
+        <v>128.33000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B215" t="s">
-        <v>360</v>
+        <v>35</v>
       </c>
       <c r="C215">
-        <v>133.49</v>
+        <v>127.86</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B216" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C216">
-        <v>132</v>
+        <v>126.88</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B217" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="C217">
-        <v>131.16999999999999</v>
+        <v>126.56</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B218" t="s">
-        <v>213</v>
+        <v>362</v>
       </c>
       <c r="C218">
-        <v>128.33000000000001</v>
+        <v>126.22</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B219" t="s">
-        <v>44</v>
+        <v>364</v>
       </c>
       <c r="C219">
-        <v>127.86</v>
+        <v>124.92</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B220" t="s">
-        <v>367</v>
+        <v>185</v>
       </c>
       <c r="C220">
-        <v>126.88</v>
+        <v>123.41</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B221" t="s">
-        <v>176</v>
+        <v>352</v>
       </c>
       <c r="C221">
-        <v>126.56</v>
+        <v>121.43</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B222" t="s">
-        <v>370</v>
+        <v>191</v>
       </c>
       <c r="C222">
-        <v>126.22</v>
+        <v>120.88</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B223" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="C223">
-        <v>124.92</v>
+        <v>120.85</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B224" t="s">
-        <v>198</v>
+        <v>370</v>
       </c>
       <c r="C224">
-        <v>123.41</v>
+        <v>119.81</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B225" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="C225">
-        <v>121.43</v>
+        <v>119.07</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B226" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="C226">
-        <v>120.88</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B227" t="s">
-        <v>296</v>
+        <v>375</v>
       </c>
       <c r="C227">
-        <v>120.85</v>
+        <v>112.47</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
+        <v>376</v>
+      </c>
+      <c r="B228" t="s">
         <v>377</v>
       </c>
-      <c r="B228" t="s">
-        <v>378</v>
-      </c>
       <c r="C228">
-        <v>119.07</v>
+        <v>108.51</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
+        <v>378</v>
+      </c>
+      <c r="B229" t="s">
         <v>379</v>
       </c>
-      <c r="B229" t="s">
-        <v>139</v>
-      </c>
       <c r="C229">
-        <v>113.8</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -4763,7 +4762,7 @@
         <v>381</v>
       </c>
       <c r="C230">
-        <v>112.47</v>
+        <v>100.01</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -4774,7 +4773,7 @@
         <v>383</v>
       </c>
       <c r="C231">
-        <v>108.51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -4782,274 +4781,274 @@
         <v>384</v>
       </c>
       <c r="B232" t="s">
-        <v>385</v>
+        <v>272</v>
       </c>
       <c r="C232">
-        <v>104.9</v>
+        <v>99.3</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
+        <v>385</v>
+      </c>
+      <c r="B233" t="s">
         <v>386</v>
       </c>
-      <c r="B233" t="s">
-        <v>387</v>
-      </c>
       <c r="C233">
-        <v>100.01</v>
+        <v>99.24</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B234" t="s">
-        <v>389</v>
+        <v>169</v>
       </c>
       <c r="C234">
-        <v>100</v>
+        <v>98.55</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B235" t="s">
-        <v>284</v>
+        <v>119</v>
       </c>
       <c r="C235">
-        <v>99.3</v>
+        <v>97.08</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B236" t="s">
-        <v>392</v>
+        <v>14</v>
       </c>
       <c r="C236">
-        <v>99.24</v>
+        <v>93.21</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B237" t="s">
-        <v>182</v>
+        <v>391</v>
       </c>
       <c r="C237">
-        <v>98.55</v>
+        <v>92.72</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B238" t="s">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="C238">
-        <v>97.08</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B239" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C239">
-        <v>93.21</v>
+        <v>92.07</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B240" t="s">
-        <v>397</v>
+        <v>30</v>
       </c>
       <c r="C240">
-        <v>92.72</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B241" t="s">
-        <v>51</v>
+        <v>396</v>
       </c>
       <c r="C241">
-        <v>92.5</v>
+        <v>89.85</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B242" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="C242">
-        <v>92.07</v>
+        <v>86.73</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B243" t="s">
-        <v>40</v>
+        <v>399</v>
       </c>
       <c r="C243">
-        <v>90.2</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B244" t="s">
-        <v>402</v>
+        <v>200</v>
       </c>
       <c r="C244">
-        <v>89.85</v>
+        <v>86.38</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B245" t="s">
-        <v>16</v>
+        <v>402</v>
       </c>
       <c r="C245">
-        <v>86.73</v>
+        <v>84.72</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B246" t="s">
-        <v>405</v>
+        <v>4</v>
       </c>
       <c r="C246">
-        <v>86.45</v>
+        <v>83.13</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B247" t="s">
-        <v>213</v>
+        <v>405</v>
       </c>
       <c r="C247">
-        <v>86.38</v>
+        <v>83.06</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
+        <v>406</v>
+      </c>
+      <c r="B248" t="s">
         <v>407</v>
       </c>
-      <c r="B248" t="s">
-        <v>408</v>
-      </c>
       <c r="C248">
-        <v>84.72</v>
+        <v>82.91</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B249" t="s">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="C249">
-        <v>83.13</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B250" t="s">
-        <v>411</v>
+        <v>266</v>
       </c>
       <c r="C250">
-        <v>83.06</v>
+        <v>82.28</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B251" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C251">
-        <v>82.91</v>
+        <v>81.87</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B252" t="s">
-        <v>221</v>
+        <v>413</v>
       </c>
       <c r="C252">
-        <v>82.79</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B253" t="s">
-        <v>278</v>
+        <v>154</v>
       </c>
       <c r="C253">
-        <v>82.28</v>
+        <v>78.97</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
+        <v>415</v>
+      </c>
+      <c r="B254" t="s">
         <v>416</v>
       </c>
-      <c r="B254" t="s">
-        <v>417</v>
-      </c>
       <c r="C254">
-        <v>81.87</v>
+        <v>77.19</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
+        <v>417</v>
+      </c>
+      <c r="B255" t="s">
         <v>418</v>
       </c>
-      <c r="B255" t="s">
-        <v>419</v>
-      </c>
       <c r="C255">
-        <v>80.05</v>
+        <v>76.790000000000006</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
+        <v>419</v>
+      </c>
+      <c r="B256" t="s">
         <v>420</v>
       </c>
-      <c r="B256" t="s">
-        <v>167</v>
-      </c>
       <c r="C256">
-        <v>78.97</v>
+        <v>76.260000000000005</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -5060,7 +5059,7 @@
         <v>422</v>
       </c>
       <c r="C257">
-        <v>77.19</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -5071,7 +5070,7 @@
         <v>424</v>
       </c>
       <c r="C258">
-        <v>76.790000000000006</v>
+        <v>74.739999999999995</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -5082,7 +5081,7 @@
         <v>426</v>
       </c>
       <c r="C259">
-        <v>76.260000000000005</v>
+        <v>74.23</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -5093,7 +5092,7 @@
         <v>428</v>
       </c>
       <c r="C260">
-        <v>75.86</v>
+        <v>73.650000000000006</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -5104,7 +5103,7 @@
         <v>430</v>
       </c>
       <c r="C261">
-        <v>74.739999999999995</v>
+        <v>73.599999999999994</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -5115,7 +5114,7 @@
         <v>432</v>
       </c>
       <c r="C262">
-        <v>74.23</v>
+        <v>73.56</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -5126,7 +5125,7 @@
         <v>434</v>
       </c>
       <c r="C263">
-        <v>73.650000000000006</v>
+        <v>73.430000000000007</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -5137,7 +5136,7 @@
         <v>436</v>
       </c>
       <c r="C264">
-        <v>73.599999999999994</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -5145,54 +5144,54 @@
         <v>437</v>
       </c>
       <c r="B265" t="s">
-        <v>438</v>
+        <v>84</v>
       </c>
       <c r="C265">
-        <v>73.56</v>
+        <v>71.31</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B266" t="s">
-        <v>440</v>
+        <v>308</v>
       </c>
       <c r="C266">
-        <v>73.430000000000007</v>
+        <v>70.459999999999994</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B267" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C267">
-        <v>72.42</v>
+        <v>69.88</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B268" t="s">
-        <v>98</v>
+        <v>442</v>
       </c>
       <c r="C268">
-        <v>71.31</v>
+        <v>69.34</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
+        <v>443</v>
+      </c>
+      <c r="B269" t="s">
         <v>444</v>
       </c>
-      <c r="B269" t="s">
-        <v>22</v>
-      </c>
       <c r="C269">
-        <v>70.459999999999994</v>
+        <v>69.069999999999993</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -5200,219 +5199,219 @@
         <v>445</v>
       </c>
       <c r="B270" t="s">
-        <v>446</v>
+        <v>234</v>
       </c>
       <c r="C270">
-        <v>69.88</v>
+        <v>68.459999999999994</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
+        <v>446</v>
+      </c>
+      <c r="B271" t="s">
         <v>447</v>
       </c>
-      <c r="B271" t="s">
-        <v>448</v>
-      </c>
       <c r="C271">
-        <v>69.34</v>
+        <v>68.05</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
+        <v>448</v>
+      </c>
+      <c r="B272" t="s">
         <v>449</v>
       </c>
-      <c r="B272" t="s">
-        <v>450</v>
-      </c>
       <c r="C272">
-        <v>69.069999999999993</v>
+        <v>66.010000000000005</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B273" t="s">
-        <v>246</v>
+        <v>84</v>
       </c>
       <c r="C273">
-        <v>68.459999999999994</v>
+        <v>65.06</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B274" t="s">
-        <v>453</v>
+        <v>12</v>
       </c>
       <c r="C274">
-        <v>68.05</v>
+        <v>64.709999999999994</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B275" t="s">
-        <v>455</v>
+        <v>10</v>
       </c>
       <c r="C275">
-        <v>66.010000000000005</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B276" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="C276">
-        <v>65.06</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B277" t="s">
-        <v>14</v>
+        <v>455</v>
       </c>
       <c r="C277">
-        <v>64.709999999999994</v>
+        <v>61.74</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B278" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="C278">
-        <v>63.94</v>
+        <v>59.87</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B279" t="s">
-        <v>176</v>
+        <v>458</v>
       </c>
       <c r="C279">
-        <v>61.82</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B280" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C280">
-        <v>61.74</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B281" t="s">
-        <v>284</v>
+        <v>461</v>
       </c>
       <c r="C281">
-        <v>59.87</v>
+        <v>57.89</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B282" t="s">
-        <v>464</v>
+        <v>202</v>
       </c>
       <c r="C282">
-        <v>59.63</v>
+        <v>57.82</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B283" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C283">
-        <v>59.2</v>
+        <v>57.22</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B284" t="s">
-        <v>467</v>
+        <v>298</v>
       </c>
       <c r="C284">
-        <v>57.89</v>
+        <v>56.79</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B285" t="s">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="C285">
-        <v>57.82</v>
+        <v>55.66</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B286" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C286">
-        <v>57.22</v>
+        <v>55.49</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B287" t="s">
-        <v>310</v>
+        <v>66</v>
       </c>
       <c r="C287">
-        <v>56.79</v>
+        <v>55.24</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
+        <v>470</v>
+      </c>
+      <c r="B288" t="s">
         <v>471</v>
       </c>
-      <c r="B288" t="s">
-        <v>472</v>
-      </c>
       <c r="C288">
-        <v>55.66</v>
+        <v>54.71</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
+        <v>472</v>
+      </c>
+      <c r="B289" t="s">
         <v>473</v>
       </c>
-      <c r="B289" t="s">
-        <v>106</v>
-      </c>
       <c r="C289">
-        <v>55.49</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -5420,10 +5419,10 @@
         <v>474</v>
       </c>
       <c r="B290" t="s">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="C290">
-        <v>55.24</v>
+        <v>52.59</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -5434,7 +5433,7 @@
         <v>476</v>
       </c>
       <c r="C291">
-        <v>54.71</v>
+        <v>51.65</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -5445,7 +5444,7 @@
         <v>478</v>
       </c>
       <c r="C292">
-        <v>54.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -5453,10 +5452,10 @@
         <v>479</v>
       </c>
       <c r="B293" t="s">
-        <v>8</v>
+        <v>321</v>
       </c>
       <c r="C293">
-        <v>52.59</v>
+        <v>49.28</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -5464,54 +5463,54 @@
         <v>480</v>
       </c>
       <c r="B294" t="s">
-        <v>481</v>
+        <v>30</v>
       </c>
       <c r="C294">
-        <v>51.65</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B295" t="s">
-        <v>483</v>
+        <v>18</v>
       </c>
       <c r="C295">
-        <v>50</v>
+        <v>48.16</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B296" t="s">
-        <v>329</v>
+        <v>411</v>
       </c>
       <c r="C296">
-        <v>49.28</v>
+        <v>47.01</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B297" t="s">
-        <v>40</v>
+        <v>484</v>
       </c>
       <c r="C297">
-        <v>48.65</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
+        <v>485</v>
+      </c>
+      <c r="B298" t="s">
         <v>486</v>
       </c>
-      <c r="B298" t="s">
-        <v>20</v>
-      </c>
       <c r="C298">
-        <v>48.16</v>
+        <v>46.31</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -5519,10 +5518,10 @@
         <v>487</v>
       </c>
       <c r="B299" t="s">
-        <v>417</v>
+        <v>324</v>
       </c>
       <c r="C299">
-        <v>47.01</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -5533,7 +5532,7 @@
         <v>489</v>
       </c>
       <c r="C300">
-        <v>46.4</v>
+        <v>46.16</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -5544,7 +5543,7 @@
         <v>491</v>
       </c>
       <c r="C301">
-        <v>46.31</v>
+        <v>46.05</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -5552,10 +5551,10 @@
         <v>492</v>
       </c>
       <c r="B302" t="s">
-        <v>332</v>
+        <v>206</v>
       </c>
       <c r="C302">
-        <v>46.23</v>
+        <v>44.89</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -5563,87 +5562,87 @@
         <v>493</v>
       </c>
       <c r="B303" t="s">
-        <v>494</v>
+        <v>150</v>
       </c>
       <c r="C303">
-        <v>46.16</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B304" t="s">
-        <v>496</v>
+        <v>148</v>
       </c>
       <c r="C304">
-        <v>46.05</v>
+        <v>44.44</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B305" t="s">
-        <v>219</v>
+        <v>308</v>
       </c>
       <c r="C305">
-        <v>44.89</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B306" t="s">
-        <v>36</v>
+        <v>206</v>
       </c>
       <c r="C306">
-        <v>44.52</v>
+        <v>42.64</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B307" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="C307">
-        <v>44.44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B308" t="s">
-        <v>22</v>
+        <v>499</v>
       </c>
       <c r="C308">
-        <v>42.7</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B309" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c r="C309">
-        <v>42.64</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
+        <v>501</v>
+      </c>
+      <c r="B310" t="s">
         <v>502</v>
       </c>
-      <c r="B310" t="s">
-        <v>221</v>
-      </c>
       <c r="C310">
-        <v>40</v>
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -5654,7 +5653,7 @@
         <v>504</v>
       </c>
       <c r="C311">
-        <v>39.79</v>
+        <v>36.94</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -5662,10 +5661,10 @@
         <v>505</v>
       </c>
       <c r="B312" t="s">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="C312">
-        <v>37.799999999999997</v>
+        <v>33.049999999999997</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -5676,7 +5675,7 @@
         <v>507</v>
       </c>
       <c r="C313">
-        <v>37.200000000000003</v>
+        <v>31.71</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -5684,21 +5683,21 @@
         <v>508</v>
       </c>
       <c r="B314" t="s">
-        <v>266</v>
+        <v>509</v>
       </c>
       <c r="C314">
-        <v>33.049999999999997</v>
+        <v>30.03</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B315" t="s">
-        <v>510</v>
+        <v>208</v>
       </c>
       <c r="C315">
-        <v>31.71</v>
+        <v>28.58</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -5706,21 +5705,21 @@
         <v>511</v>
       </c>
       <c r="B316" t="s">
-        <v>512</v>
+        <v>92</v>
       </c>
       <c r="C316">
-        <v>30.03</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
+        <v>512</v>
+      </c>
+      <c r="B317" t="s">
         <v>513</v>
       </c>
-      <c r="B317" t="s">
-        <v>221</v>
-      </c>
       <c r="C317">
-        <v>28.58</v>
+        <v>27.83</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -5728,10 +5727,10 @@
         <v>514</v>
       </c>
       <c r="B318" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="C318">
-        <v>28.26</v>
+        <v>27.45</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -5739,32 +5738,32 @@
         <v>515</v>
       </c>
       <c r="B319" t="s">
-        <v>516</v>
+        <v>92</v>
       </c>
       <c r="C319">
-        <v>27.83</v>
+        <v>26.17</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B320" t="s">
-        <v>204</v>
+        <v>102</v>
       </c>
       <c r="C320">
-        <v>27.45</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
+        <v>517</v>
+      </c>
+      <c r="B321" t="s">
         <v>518</v>
       </c>
-      <c r="B321" t="s">
-        <v>106</v>
-      </c>
       <c r="C321">
-        <v>26.17</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -5772,10 +5771,10 @@
         <v>519</v>
       </c>
       <c r="B322" t="s">
-        <v>116</v>
+        <v>354</v>
       </c>
       <c r="C322">
-        <v>26.1</v>
+        <v>24.33</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -5786,7 +5785,7 @@
         <v>521</v>
       </c>
       <c r="C323">
-        <v>24.5</v>
+        <v>23.89</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -5794,21 +5793,21 @@
         <v>522</v>
       </c>
       <c r="B324" t="s">
-        <v>362</v>
+        <v>523</v>
       </c>
       <c r="C324">
-        <v>24.33</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B325" t="s">
-        <v>524</v>
+        <v>354</v>
       </c>
       <c r="C325">
-        <v>23.89</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -5819,7 +5818,7 @@
         <v>526</v>
       </c>
       <c r="C326">
-        <v>23.46</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -5827,10 +5826,10 @@
         <v>527</v>
       </c>
       <c r="B327" t="s">
-        <v>362</v>
+        <v>102</v>
       </c>
       <c r="C327">
-        <v>23.11</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -5841,7 +5840,7 @@
         <v>529</v>
       </c>
       <c r="C328">
-        <v>21.27</v>
+        <v>19.12</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -5849,98 +5848,98 @@
         <v>530</v>
       </c>
       <c r="B329" t="s">
-        <v>116</v>
+        <v>531</v>
       </c>
       <c r="C329">
-        <v>20.49</v>
+        <v>18.47</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B330" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C330">
-        <v>19.12</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B331" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C331">
-        <v>18.47</v>
+        <v>14.67</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B332" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C332">
-        <v>15.76</v>
+        <v>13.69</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B333" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C333">
-        <v>14.67</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B334" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C334">
-        <v>13.69</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B335" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C335">
-        <v>12.38</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B336" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C336">
-        <v>12.18</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B337" t="s">
-        <v>546</v>
+        <v>266</v>
       </c>
       <c r="C337">
-        <v>11.39</v>
+        <v>9.85</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -5951,7 +5950,7 @@
         <v>548</v>
       </c>
       <c r="C338">
-        <v>11.04</v>
+        <v>9.7200000000000006</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -5959,21 +5958,21 @@
         <v>549</v>
       </c>
       <c r="B339" t="s">
-        <v>278</v>
+        <v>550</v>
       </c>
       <c r="C339">
-        <v>9.85</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B340" t="s">
-        <v>551</v>
+        <v>196</v>
       </c>
       <c r="C340">
-        <v>9.7200000000000006</v>
+        <v>9.44</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -5981,21 +5980,21 @@
         <v>552</v>
       </c>
       <c r="B341" t="s">
-        <v>553</v>
+        <v>202</v>
       </c>
       <c r="C341">
-        <v>9.52</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
+        <v>553</v>
+      </c>
+      <c r="B342" t="s">
         <v>554</v>
       </c>
-      <c r="B342" t="s">
-        <v>209</v>
-      </c>
       <c r="C342">
-        <v>9.44</v>
+        <v>8.61</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -6003,21 +6002,21 @@
         <v>555</v>
       </c>
       <c r="B343" t="s">
-        <v>215</v>
+        <v>556</v>
       </c>
       <c r="C343">
-        <v>8.66</v>
+        <v>8.4499999999999993</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B344" t="s">
-        <v>557</v>
+        <v>100</v>
       </c>
       <c r="C344">
-        <v>8.61</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -6028,7 +6027,7 @@
         <v>559</v>
       </c>
       <c r="C345">
-        <v>8.4499999999999993</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -6036,21 +6035,21 @@
         <v>560</v>
       </c>
       <c r="B346" t="s">
-        <v>114</v>
+        <v>561</v>
       </c>
       <c r="C346">
-        <v>7.91</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B347" t="s">
-        <v>562</v>
+        <v>119</v>
       </c>
       <c r="C347">
-        <v>7.62</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -6061,7 +6060,7 @@
         <v>564</v>
       </c>
       <c r="C348">
-        <v>6.98</v>
+        <v>6.66</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6069,10 +6068,10 @@
         <v>565</v>
       </c>
       <c r="B349" t="s">
-        <v>133</v>
+        <v>321</v>
       </c>
       <c r="C349">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6083,7 +6082,7 @@
         <v>567</v>
       </c>
       <c r="C350">
-        <v>6.66</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -6091,10 +6090,10 @@
         <v>568</v>
       </c>
       <c r="B351" t="s">
-        <v>329</v>
+        <v>102</v>
       </c>
       <c r="C351">
-        <v>6.6</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -6105,7 +6104,7 @@
         <v>570</v>
       </c>
       <c r="C352">
-        <v>6.53</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -6113,10 +6112,10 @@
         <v>571</v>
       </c>
       <c r="B353" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="C353">
-        <v>6.04</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6127,7 +6126,7 @@
         <v>573</v>
       </c>
       <c r="C354">
-        <v>5.56</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -6135,21 +6134,21 @@
         <v>574</v>
       </c>
       <c r="B355" t="s">
-        <v>213</v>
+        <v>575</v>
       </c>
       <c r="C355">
-        <v>5.55</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B356" t="s">
-        <v>576</v>
+        <v>407</v>
       </c>
       <c r="C356">
-        <v>5.26</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -6157,21 +6156,21 @@
         <v>577</v>
       </c>
       <c r="B357" t="s">
-        <v>578</v>
+        <v>33</v>
       </c>
       <c r="C357">
-        <v>5.23</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
+        <v>578</v>
+      </c>
+      <c r="B358" t="s">
         <v>579</v>
       </c>
-      <c r="B358" t="s">
-        <v>413</v>
-      </c>
       <c r="C358">
-        <v>4.88</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6179,21 +6178,21 @@
         <v>580</v>
       </c>
       <c r="B359" t="s">
-        <v>24</v>
+        <v>581</v>
       </c>
       <c r="C359">
-        <v>4.79</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B360" t="s">
-        <v>582</v>
+        <v>35</v>
       </c>
       <c r="C360">
-        <v>4.08</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -6201,21 +6200,21 @@
         <v>583</v>
       </c>
       <c r="B361" t="s">
-        <v>584</v>
+        <v>33</v>
       </c>
       <c r="C361">
-        <v>1.81</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
+        <v>584</v>
+      </c>
+      <c r="B362" t="s">
         <v>585</v>
       </c>
-      <c r="B362" t="s">
-        <v>44</v>
-      </c>
       <c r="C362">
-        <v>1.77</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -6223,10 +6222,10 @@
         <v>586</v>
       </c>
       <c r="B363" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C363">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -6237,7 +6236,7 @@
         <v>588</v>
       </c>
       <c r="C364">
-        <v>1.3</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -6245,65 +6244,65 @@
         <v>589</v>
       </c>
       <c r="B365" t="s">
-        <v>12</v>
+        <v>590</v>
       </c>
       <c r="C365">
-        <v>1.24</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B366" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C366">
-        <v>1.1599999999999999</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B367" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C367">
-        <v>0.87</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B368" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C368">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B369" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C369">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B370" t="s">
-        <v>599</v>
+        <v>411</v>
       </c>
       <c r="C370">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -6311,21 +6310,21 @@
         <v>600</v>
       </c>
       <c r="B371" t="s">
-        <v>417</v>
+        <v>601</v>
       </c>
       <c r="C371">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B372" t="s">
-        <v>602</v>
+        <v>180</v>
       </c>
       <c r="C372">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -6333,7 +6332,7 @@
         <v>603</v>
       </c>
       <c r="B373" t="s">
-        <v>193</v>
+        <v>604</v>
       </c>
       <c r="C373">
         <v>0.03</v>
@@ -6341,21 +6340,21 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B374" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C374">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B375" t="s">
-        <v>607</v>
+        <v>148</v>
       </c>
       <c r="C375">
         <v>0.01</v>
@@ -6366,7 +6365,7 @@
         <v>608</v>
       </c>
       <c r="B376" t="s">
-        <v>162</v>
+        <v>609</v>
       </c>
       <c r="C376">
         <v>0.01</v>
@@ -6374,10 +6373,10 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B377" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C377">
         <v>0.01</v>
@@ -6385,29 +6384,18 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B378" t="s">
-        <v>612</v>
+        <v>69</v>
       </c>
       <c r="C378">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="A379" t="s">
+        <v>-167.52</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
         <v>613</v>
-      </c>
-      <c r="B379" t="s">
-        <v>83</v>
-      </c>
-      <c r="C379">
-        <v>-167.52</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
-      <c r="A381" t="s">
-        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/Saldo.xlsx
+++ b/Saldo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo.Jardim\Pictures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98EE7896-E6EA-4961-8FC2-CD12ABD5F686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB0636C2-3AAA-4AA4-8F98-419BB45A3087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="395">
   <si>
     <t>CONTA</t>
   </si>
@@ -37,133 +37,316 @@
     <t>GABRIEL</t>
   </si>
   <si>
-    <t>005142592</t>
+    <t>004450724</t>
+  </si>
+  <si>
+    <t>ASSAKO</t>
+  </si>
+  <si>
+    <t>004582648</t>
+  </si>
+  <si>
+    <t>ANUAR</t>
+  </si>
+  <si>
+    <t>000989247</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>004488571</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>004452912</t>
+  </si>
+  <si>
+    <t>BRUNO</t>
+  </si>
+  <si>
+    <t>005142661</t>
+  </si>
+  <si>
+    <t>SABRINA</t>
+  </si>
+  <si>
+    <t>005142624</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>004448303</t>
+  </si>
+  <si>
+    <t>NASSIM</t>
+  </si>
+  <si>
+    <t>004001621</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>005170415</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>004458563</t>
+  </si>
+  <si>
+    <t>LUIZ</t>
+  </si>
+  <si>
+    <t>004526450</t>
+  </si>
+  <si>
+    <t>MSD</t>
+  </si>
+  <si>
+    <t>004497875</t>
+  </si>
+  <si>
+    <t>HENRIQUE</t>
+  </si>
+  <si>
+    <t>004467016</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>004329030</t>
+  </si>
+  <si>
+    <t>004641487</t>
+  </si>
+  <si>
+    <t>LAILA</t>
+  </si>
+  <si>
+    <t>004643737</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>004454365</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>004556853</t>
+  </si>
+  <si>
+    <t>MARCEL</t>
+  </si>
+  <si>
+    <t>004308815</t>
+  </si>
+  <si>
+    <t>ZELI</t>
+  </si>
+  <si>
+    <t>004853111</t>
+  </si>
+  <si>
+    <t>MARCONDES</t>
+  </si>
+  <si>
+    <t>004444380</t>
+  </si>
+  <si>
+    <t>MARCELO</t>
+  </si>
+  <si>
+    <t>005020439</t>
+  </si>
+  <si>
+    <t>BEATRIZ</t>
+  </si>
+  <si>
+    <t>004363260</t>
+  </si>
+  <si>
+    <t>LARISSA</t>
+  </si>
+  <si>
+    <t>004395314</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>005092207</t>
+  </si>
+  <si>
+    <t>004279859</t>
+  </si>
+  <si>
+    <t>ASSOCIACAO</t>
+  </si>
+  <si>
+    <t>005121756</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>004453045</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>005152037</t>
+  </si>
+  <si>
+    <t>004912314</t>
+  </si>
+  <si>
+    <t>FABRICIO</t>
+  </si>
+  <si>
+    <t>004352384</t>
+  </si>
+  <si>
+    <t>BRASFORT</t>
+  </si>
+  <si>
+    <t>004504449</t>
+  </si>
+  <si>
+    <t>KELMA</t>
+  </si>
+  <si>
+    <t>004482439</t>
+  </si>
+  <si>
+    <t>PEDRO</t>
+  </si>
+  <si>
+    <t>004222784</t>
+  </si>
+  <si>
+    <t>004890544</t>
+  </si>
+  <si>
+    <t>004335144</t>
+  </si>
+  <si>
+    <t>EDMUNDO</t>
+  </si>
+  <si>
+    <t>002823185</t>
+  </si>
+  <si>
+    <t>SIMONE</t>
+  </si>
+  <si>
+    <t>004572740</t>
+  </si>
+  <si>
+    <t>PAULO</t>
+  </si>
+  <si>
+    <t>004945203</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>004381095</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t>004435987</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>004958539</t>
+  </si>
+  <si>
+    <t>005110867</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>004321016</t>
+  </si>
+  <si>
+    <t>JOAQUIM</t>
+  </si>
+  <si>
+    <t>004461070</t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t>004450760</t>
+  </si>
+  <si>
+    <t>SILVIO</t>
+  </si>
+  <si>
+    <t>004643746</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>005009992</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>004499920</t>
+  </si>
+  <si>
+    <t>FABIANO</t>
+  </si>
+  <si>
+    <t>004462930</t>
+  </si>
+  <si>
+    <t>WALTER</t>
+  </si>
+  <si>
+    <t>004382374</t>
+  </si>
+  <si>
+    <t>THEOMAR</t>
+  </si>
+  <si>
+    <t>004384131</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>005061124</t>
+  </si>
+  <si>
+    <t>004376853</t>
   </si>
   <si>
     <t>ALBERTO</t>
   </si>
   <si>
-    <t>004582648</t>
-  </si>
-  <si>
-    <t>ANUAR</t>
-  </si>
-  <si>
-    <t>000989247</t>
-  </si>
-  <si>
-    <t>ANA</t>
-  </si>
-  <si>
-    <t>004488571</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>004452912</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>005142661</t>
-  </si>
-  <si>
-    <t>SABRINA</t>
-  </si>
-  <si>
-    <t>005142624</t>
-  </si>
-  <si>
-    <t>RODRIGO</t>
-  </si>
-  <si>
-    <t>004448303</t>
-  </si>
-  <si>
-    <t>NASSIM</t>
-  </si>
-  <si>
-    <t>005173958</t>
-  </si>
-  <si>
-    <t>VENIA</t>
-  </si>
-  <si>
-    <t>005170415</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
-    <t>004497875</t>
-  </si>
-  <si>
-    <t>HENRIQUE</t>
-  </si>
-  <si>
-    <t>004641487</t>
-  </si>
-  <si>
-    <t>LAILA</t>
-  </si>
-  <si>
-    <t>004643737</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>005152037</t>
-  </si>
-  <si>
-    <t>004454365</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>004308815</t>
-  </si>
-  <si>
-    <t>ZELI</t>
-  </si>
-  <si>
-    <t>004556853</t>
-  </si>
-  <si>
-    <t>MARCEL</t>
-  </si>
-  <si>
-    <t>004376853</t>
-  </si>
-  <si>
-    <t>005020439</t>
-  </si>
-  <si>
-    <t>BEATRIZ</t>
-  </si>
-  <si>
-    <t>004279859</t>
-  </si>
-  <si>
-    <t>ASSOCIACAO</t>
-  </si>
-  <si>
-    <t>005121756</t>
-  </si>
-  <si>
-    <t>LUNA</t>
-  </si>
-  <si>
-    <t>004222784</t>
-  </si>
-  <si>
-    <t>004450724</t>
-  </si>
-  <si>
-    <t>ASSAKO</t>
+    <t>004457389</t>
   </si>
   <si>
     <t>005105970</t>
@@ -172,10 +355,22 @@
     <t>VERA</t>
   </si>
   <si>
+    <t>004254210</t>
+  </si>
+  <si>
     <t>004480336</t>
   </si>
   <si>
-    <t>PEDRO</t>
+    <t>004804125</t>
+  </si>
+  <si>
+    <t>004580355</t>
+  </si>
+  <si>
+    <t>004357848</t>
+  </si>
+  <si>
+    <t>AURELIO</t>
   </si>
   <si>
     <t>004472404</t>
@@ -190,6 +385,33 @@
     <t>ALESSANDRA</t>
   </si>
   <si>
+    <t>004165515</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>004405234</t>
+  </si>
+  <si>
+    <t>JULIO</t>
+  </si>
+  <si>
+    <t>004452790</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>004515548</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>004484207</t>
+  </si>
+  <si>
     <t>004267976</t>
   </si>
   <si>
@@ -208,13 +430,22 @@
     <t>JOSE</t>
   </si>
   <si>
-    <t>005061124</t>
-  </si>
-  <si>
-    <t>004357848</t>
-  </si>
-  <si>
-    <t>AURELIO</t>
+    <t>004339183</t>
+  </si>
+  <si>
+    <t>JALISON</t>
+  </si>
+  <si>
+    <t>004804036</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
+    <t>004413523</t>
+  </si>
+  <si>
+    <t>ROSANE</t>
   </si>
   <si>
     <t>005046790</t>
@@ -232,9 +463,6 @@
     <t>SANDRA</t>
   </si>
   <si>
-    <t>005092207</t>
-  </si>
-  <si>
     <t>004207955</t>
   </si>
   <si>
@@ -271,15 +499,6 @@
     <t>004298042</t>
   </si>
   <si>
-    <t>LUIZ</t>
-  </si>
-  <si>
-    <t>004452790</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
     <t>005135532</t>
   </si>
   <si>
@@ -292,10 +511,22 @@
     <t>ADRIANO</t>
   </si>
   <si>
+    <t>004508159</t>
+  </si>
+  <si>
     <t>004514241</t>
   </si>
   <si>
-    <t>ANDRE</t>
+    <t>004462543</t>
+  </si>
+  <si>
+    <t>RODOLFO</t>
+  </si>
+  <si>
+    <t>004690692</t>
+  </si>
+  <si>
+    <t>PHYLIA</t>
   </si>
   <si>
     <t>004243043</t>
@@ -304,12 +535,6 @@
     <t>SUELI</t>
   </si>
   <si>
-    <t>004413523</t>
-  </si>
-  <si>
-    <t>ROSANE</t>
-  </si>
-  <si>
     <t>004332207</t>
   </si>
   <si>
@@ -358,18 +583,27 @@
     <t>LUZIMAR</t>
   </si>
   <si>
+    <t>004574428</t>
+  </si>
+  <si>
+    <t>GUILHERME</t>
+  </si>
+  <si>
     <t>004389994</t>
   </si>
   <si>
     <t>POLYANNA</t>
   </si>
   <si>
+    <t>004586209</t>
+  </si>
+  <si>
+    <t>ROBERIO</t>
+  </si>
+  <si>
     <t>004470679</t>
   </si>
   <si>
-    <t>RODOLFO</t>
-  </si>
-  <si>
     <t>004809902</t>
   </si>
   <si>
@@ -409,15 +643,18 @@
     <t>ANDREA</t>
   </si>
   <si>
-    <t>004462543</t>
-  </si>
-  <si>
     <t>004360431</t>
   </si>
   <si>
     <t>005032151</t>
   </si>
   <si>
+    <t>004342617</t>
+  </si>
+  <si>
+    <t>JURACI</t>
+  </si>
+  <si>
     <t>004413537</t>
   </si>
   <si>
@@ -451,7 +688,7 @@
     <t>004335251</t>
   </si>
   <si>
-    <t>EDMUNDO</t>
+    <t>004455356</t>
   </si>
   <si>
     <t>005063749</t>
@@ -466,6 +703,9 @@
     <t>MARCUS</t>
   </si>
   <si>
+    <t>004212409</t>
+  </si>
+  <si>
     <t>004215217</t>
   </si>
   <si>
@@ -475,25 +715,22 @@
     <t>004212476</t>
   </si>
   <si>
-    <t>MARIA</t>
-  </si>
-  <si>
     <t>005055226</t>
   </si>
   <si>
     <t>DANILO</t>
   </si>
   <si>
-    <t>004339183</t>
-  </si>
-  <si>
-    <t>JALISON</t>
-  </si>
-  <si>
-    <t>004165515</t>
-  </si>
-  <si>
-    <t>MAURO</t>
+    <t>004472076</t>
+  </si>
+  <si>
+    <t>RUBENS</t>
+  </si>
+  <si>
+    <t>004751154</t>
+  </si>
+  <si>
+    <t>CATARINE</t>
   </si>
   <si>
     <t>004751770</t>
@@ -505,12 +742,30 @@
     <t>MARILIA</t>
   </si>
   <si>
+    <t>004482163</t>
+  </si>
+  <si>
+    <t>CIRIA</t>
+  </si>
+  <si>
+    <t>004752534</t>
+  </si>
+  <si>
+    <t>004754056</t>
+  </si>
+  <si>
     <t>004208447</t>
   </si>
   <si>
     <t>LEILA</t>
   </si>
   <si>
+    <t>004570632</t>
+  </si>
+  <si>
+    <t>004813134</t>
+  </si>
+  <si>
     <t>004936634</t>
   </si>
   <si>
@@ -523,9 +778,6 @@
     <t>004392159</t>
   </si>
   <si>
-    <t>004508159</t>
-  </si>
-  <si>
     <t>004452946</t>
   </si>
   <si>
@@ -550,34 +802,22 @@
     <t>DAIANNE</t>
   </si>
   <si>
-    <t>004321016</t>
-  </si>
-  <si>
-    <t>JOAQUIM</t>
+    <t>004472538</t>
   </si>
   <si>
     <t>004436055</t>
   </si>
   <si>
-    <t>MARCO</t>
-  </si>
-  <si>
     <t>004958578</t>
   </si>
   <si>
     <t>001731007</t>
   </si>
   <si>
-    <t>GUILHERME</t>
-  </si>
-  <si>
     <t>004460487</t>
   </si>
   <si>
-    <t>004435987</t>
-  </si>
-  <si>
-    <t>004458563</t>
+    <t>004212933</t>
   </si>
   <si>
     <t>004487140</t>
@@ -586,6 +826,9 @@
     <t>VALMIR</t>
   </si>
   <si>
+    <t>004575621</t>
+  </si>
+  <si>
     <t>004972070</t>
   </si>
   <si>
@@ -613,6 +856,12 @@
     <t>TATIANA</t>
   </si>
   <si>
+    <t>004505474</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
     <t>004691225</t>
   </si>
   <si>
@@ -625,6 +874,12 @@
     <t>004552021</t>
   </si>
   <si>
+    <t>004403674</t>
+  </si>
+  <si>
+    <t>LILIAN</t>
+  </si>
+  <si>
     <t>004536602</t>
   </si>
   <si>
@@ -634,7 +889,7 @@
     <t>004264780</t>
   </si>
   <si>
-    <t>MARCELO</t>
+    <t>004748761</t>
   </si>
   <si>
     <t>004214604</t>
@@ -643,7 +898,10 @@
     <t>005133039</t>
   </si>
   <si>
-    <t>PAULO</t>
+    <t>004935287</t>
+  </si>
+  <si>
+    <t>ODILON</t>
   </si>
   <si>
     <t>004214592</t>
@@ -652,24 +910,24 @@
     <t>MERG</t>
   </si>
   <si>
+    <t>004550750</t>
+  </si>
+  <si>
+    <t>THEO</t>
+  </si>
+  <si>
+    <t>004551472</t>
+  </si>
+  <si>
     <t>004432455</t>
   </si>
   <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
     <t>004404724</t>
   </si>
   <si>
     <t>LEANDRO</t>
   </si>
   <si>
-    <t>004462930</t>
-  </si>
-  <si>
-    <t>WALTER</t>
-  </si>
-  <si>
     <t>000827730</t>
   </si>
   <si>
@@ -688,12 +946,21 @@
     <t>MINEIA</t>
   </si>
   <si>
+    <t>001368670</t>
+  </si>
+  <si>
     <t>002694089</t>
   </si>
   <si>
     <t>VITOR</t>
   </si>
   <si>
+    <t>004204255</t>
+  </si>
+  <si>
+    <t>AMADO</t>
+  </si>
+  <si>
     <t>004350197</t>
   </si>
   <si>
@@ -706,6 +973,12 @@
     <t>WANDIR</t>
   </si>
   <si>
+    <t>004431689</t>
+  </si>
+  <si>
+    <t>LUCA</t>
+  </si>
+  <si>
     <t>004588677</t>
   </si>
   <si>
@@ -718,12 +991,6 @@
     <t>LAIS</t>
   </si>
   <si>
-    <t>004342617</t>
-  </si>
-  <si>
-    <t>JURACI</t>
-  </si>
-  <si>
     <t>004425261</t>
   </si>
   <si>
@@ -775,9 +1042,6 @@
     <t>004238164</t>
   </si>
   <si>
-    <t>DANIELA</t>
-  </si>
-  <si>
     <t>004450405</t>
   </si>
   <si>
@@ -793,9 +1057,6 @@
     <t>INTERLAGOS</t>
   </si>
   <si>
-    <t>004212933</t>
-  </si>
-  <si>
     <t>001294033</t>
   </si>
   <si>
@@ -856,9 +1117,6 @@
     <t>004508516</t>
   </si>
   <si>
-    <t>EDUARDO</t>
-  </si>
-  <si>
     <t>004500804</t>
   </si>
   <si>
@@ -895,12 +1153,6 @@
     <t>JAIME</t>
   </si>
   <si>
-    <t>004853111</t>
-  </si>
-  <si>
-    <t>MARCONDES</t>
-  </si>
-  <si>
     <t>002738211</t>
   </si>
   <si>
@@ -949,229 +1201,7 @@
     <t>VILMA</t>
   </si>
   <si>
-    <t>001759765</t>
-  </si>
-  <si>
-    <t>NATAL</t>
-  </si>
-  <si>
-    <t>004334158</t>
-  </si>
-  <si>
-    <t>LEONE</t>
-  </si>
-  <si>
-    <t>004551472</t>
-  </si>
-  <si>
-    <t>004752519</t>
-  </si>
-  <si>
     <t>004999410</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>004455356</t>
-  </si>
-  <si>
-    <t>003249855</t>
-  </si>
-  <si>
-    <t>004431689</t>
-  </si>
-  <si>
-    <t>LUCA</t>
-  </si>
-  <si>
-    <t>001804114</t>
-  </si>
-  <si>
-    <t>WAGNER</t>
-  </si>
-  <si>
-    <t>004381359</t>
-  </si>
-  <si>
-    <t>005002457</t>
-  </si>
-  <si>
-    <t>ROSANGELA</t>
-  </si>
-  <si>
-    <t>004539779</t>
-  </si>
-  <si>
-    <t>RICARDO</t>
-  </si>
-  <si>
-    <t>004381415</t>
-  </si>
-  <si>
-    <t>002401479</t>
-  </si>
-  <si>
-    <t>JULIO</t>
-  </si>
-  <si>
-    <t>004376145</t>
-  </si>
-  <si>
-    <t>LUCYENE</t>
-  </si>
-  <si>
-    <t>004398253</t>
-  </si>
-  <si>
-    <t>EULER</t>
-  </si>
-  <si>
-    <t>004527606</t>
-  </si>
-  <si>
-    <t>MARCIA</t>
-  </si>
-  <si>
-    <t>004975924</t>
-  </si>
-  <si>
-    <t>SERGIO</t>
-  </si>
-  <si>
-    <t>002458288</t>
-  </si>
-  <si>
-    <t>BENEDITO</t>
-  </si>
-  <si>
-    <t>004363260</t>
-  </si>
-  <si>
-    <t>LARISSA</t>
-  </si>
-  <si>
-    <t>004967702</t>
-  </si>
-  <si>
-    <t>VINICIUS</t>
-  </si>
-  <si>
-    <t>004213943</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>004211368</t>
-  </si>
-  <si>
-    <t>ILTON</t>
-  </si>
-  <si>
-    <t>004468717</t>
-  </si>
-  <si>
-    <t>HELOISA</t>
-  </si>
-  <si>
-    <t>004380948</t>
-  </si>
-  <si>
-    <t>LUISA</t>
-  </si>
-  <si>
-    <t>004512434</t>
-  </si>
-  <si>
-    <t>004387250</t>
-  </si>
-  <si>
-    <t>004499920</t>
-  </si>
-  <si>
-    <t>FABIANO</t>
-  </si>
-  <si>
-    <t>004490955</t>
-  </si>
-  <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
-    <t>004208869</t>
-  </si>
-  <si>
-    <t>004500087</t>
-  </si>
-  <si>
-    <t>JANNE</t>
-  </si>
-  <si>
-    <t>004329030</t>
-  </si>
-  <si>
-    <t>004352384</t>
-  </si>
-  <si>
-    <t>BRASFORT</t>
-  </si>
-  <si>
-    <t>004346716</t>
-  </si>
-  <si>
-    <t>TIAGO</t>
-  </si>
-  <si>
-    <t>004398174</t>
-  </si>
-  <si>
-    <t>DANIELE</t>
-  </si>
-  <si>
-    <t>004515548</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>004803348</t>
-  </si>
-  <si>
-    <t>JULIANA</t>
-  </si>
-  <si>
-    <t>004479463</t>
-  </si>
-  <si>
-    <t>004238436</t>
-  </si>
-  <si>
-    <t>004472538</t>
-  </si>
-  <si>
-    <t>004749680</t>
-  </si>
-  <si>
-    <t>OTAVIANO</t>
-  </si>
-  <si>
-    <t>004862672</t>
-  </si>
-  <si>
-    <t>RENATO</t>
-  </si>
-  <si>
-    <t>004853901</t>
-  </si>
-  <si>
-    <t>CRISTINA</t>
-  </si>
-  <si>
-    <t>005009992</t>
-  </si>
-  <si>
-    <t>ALINE</t>
   </si>
   <si>
     <t>Filtros aplicados: 
@@ -1540,11 +1570,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C220"/>
+  <dimension ref="A1:C233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1567,7 +1595,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>702002.4</v>
+        <v>702004.24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1578,7 +1606,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>255010.87</v>
+        <v>290622.09000000003</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1589,7 +1617,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>197071.55</v>
+        <v>197071.54</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1600,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>196246.41</v>
+        <v>196375.22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1633,7 +1661,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>157503.12</v>
+        <v>157503.99</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1644,7 +1672,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>155008.35</v>
+        <v>155009.79</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1666,7 +1694,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>95000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1688,7 +1716,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>43264.79</v>
+        <v>48261.279999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1699,7 +1727,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>22063.42</v>
+        <v>40902.160000000003</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1710,7 +1738,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>17492.96</v>
+        <v>28766.52</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1718,21 +1746,21 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>15151.24</v>
+        <v>26000.06</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>13571.37</v>
+        <v>22273.41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1743,7 +1771,7 @@
         <v>35</v>
       </c>
       <c r="C18">
-        <v>10412.89</v>
+        <v>22063.42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1754,7 +1782,7 @@
         <v>37</v>
       </c>
       <c r="C19">
-        <v>10044.69</v>
+        <v>17492.96</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1762,142 +1790,142 @@
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C20">
-        <v>10042.44</v>
+        <v>13618.38</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21">
-        <v>6354.84</v>
+        <v>10608.85</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22">
-        <v>2691.13</v>
+        <v>10412.89</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23">
-        <v>2300</v>
+        <v>9000.7000000000007</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>852.57</v>
+        <v>8192.94</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>343.57</v>
+        <v>6354.84</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C26">
-        <v>195.17</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27">
-        <v>175.65</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>119.81</v>
+        <v>2774.59</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29">
-        <v>99.3</v>
+        <v>2691.13</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30">
-        <v>99.24</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31">
-        <v>98.55</v>
+        <v>1477.17</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>97.08</v>
+        <v>1238.51</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1905,263 +1933,263 @@
         <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C33">
-        <v>93.21</v>
+        <v>1070.97</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34">
-        <v>92.72</v>
+        <v>1070.03</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C35">
-        <v>92.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C36">
-        <v>92.07</v>
+        <v>926.17</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="C37">
-        <v>89.85</v>
+        <v>852.57</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C38">
-        <v>86.73</v>
+        <v>791.71</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C39">
-        <v>86.45</v>
+        <v>620.58000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>